--- a/DSA Day-wise.xlsx
+++ b/DSA Day-wise.xlsx
@@ -2057,11 +2057,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="d\ mmmm\ yyyy"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="d\ mmmm\ yyyy"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="d\ mmm\ yyyy"/>
     <numFmt numFmtId="180" formatCode="d\ mmm"/>
     <numFmt numFmtId="181" formatCode="d\ mmmm"/>
@@ -2384,15 +2384,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="0"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2405,6 +2397,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -2414,14 +2421,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2429,6 +2429,21 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2451,21 +2466,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <charset val="0"/>
@@ -2481,26 +2481,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="Arial"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2520,8 +2504,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2529,6 +2522,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2621,19 +2621,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2645,73 +2687,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2735,13 +2711,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2753,7 +2723,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2765,49 +2789,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2849,17 +2849,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2903,17 +2897,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -2938,163 +2921,180 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="51" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="51" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="47" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="46" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="47" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="46" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="47" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="46" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="47" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="46" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="47" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="46" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="52" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="22" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="55" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="61" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="51" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="60" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="63" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="64" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="51" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="51" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="51" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="51" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="51" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="51" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="51" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="51" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -3124,39 +3124,40 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="12" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="12" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="24" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="6" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="24" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="6" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="27" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="179" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="179" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -3167,36 +3168,36 @@
     <xf numFmtId="179" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="181" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="26" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="26" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="32" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="180" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="34" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="35" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="36" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="37" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="38" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="40" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="41" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="40" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="41" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="42" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3466,8 +3467,8 @@
   </sheetPr>
   <dimension ref="A1:Z618"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A535" workbookViewId="0">
-      <selection activeCell="A549" sqref="A549"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4259259259259" defaultRowHeight="15.75" customHeight="1"/>
@@ -4015,7 +4016,7 @@
       <c r="A18" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="21"/>
+      <c r="B18" s="23"/>
       <c r="C18" s="21"/>
       <c r="D18" s="21"/>
       <c r="E18" s="21"/>
@@ -4042,10 +4043,10 @@
       <c r="Z18" s="21"/>
     </row>
     <row r="19" customHeight="1" spans="1:26">
-      <c r="A19" s="23" t="s">
+      <c r="A19" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="24" t="s">
+      <c r="B19" s="25" t="s">
         <v>30</v>
       </c>
       <c r="C19" s="21"/>
@@ -4074,7 +4075,7 @@
       <c r="Z19" s="21"/>
     </row>
     <row r="20" customHeight="1" spans="1:26">
-      <c r="A20" s="25" t="s">
+      <c r="A20" s="26" t="s">
         <v>31</v>
       </c>
       <c r="B20" s="21"/>
@@ -4104,7 +4105,7 @@
       <c r="Z20" s="21"/>
     </row>
     <row r="21" customHeight="1" spans="1:26">
-      <c r="A21" s="25" t="s">
+      <c r="A21" s="26" t="s">
         <v>32</v>
       </c>
       <c r="B21" s="21"/>
@@ -4134,10 +4135,10 @@
       <c r="Z21" s="21"/>
     </row>
     <row r="22" customHeight="1" spans="1:26">
-      <c r="A22" s="23" t="s">
+      <c r="A22" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="B22" s="24" t="s">
+      <c r="B22" s="25" t="s">
         <v>34</v>
       </c>
       <c r="C22" s="21"/>
@@ -4166,7 +4167,7 @@
       <c r="Z22" s="21"/>
     </row>
     <row r="23" customHeight="1" spans="1:26">
-      <c r="A23" s="25" t="str">
+      <c r="A23" s="26" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/majority-element/","majority element")</f>
         <v>majority element</v>
       </c>
@@ -4199,7 +4200,7 @@
       <c r="Z23" s="21"/>
     </row>
     <row r="24" customHeight="1" spans="1:26">
-      <c r="A24" s="25" t="str">
+      <c r="A24" s="26" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/majority-element-ii/","majority element 2")</f>
         <v>majority element 2</v>
       </c>
@@ -4232,7 +4233,7 @@
       <c r="Z24" s="21"/>
     </row>
     <row r="25" customHeight="1" spans="1:26">
-      <c r="A25" s="25" t="str">
+      <c r="A25" s="26" t="str">
         <f>HYPERLINK("geeksforgeeks.org/given-an-array-of-of-size-n-finds-all-the-elements-that-appear-more-than-nk-times/","majority element general")</f>
         <v>majority element general</v>
       </c>
@@ -4328,10 +4329,10 @@
       <c r="Z27" s="21"/>
     </row>
     <row r="28" customHeight="1" spans="1:26">
-      <c r="A28" s="26" t="s">
+      <c r="A28" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="B28" s="24" t="s">
+      <c r="B28" s="25" t="s">
         <v>41</v>
       </c>
       <c r="C28" s="21"/>
@@ -4360,11 +4361,11 @@
       <c r="Z28" s="21"/>
     </row>
     <row r="29" customHeight="1" spans="1:26">
-      <c r="A29" s="26" t="str">
+      <c r="A29" s="27" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/maximum-product-of-three-numbers/","max product of 3 numbers")</f>
         <v>max product of 3 numbers</v>
       </c>
-      <c r="B29" s="24" t="s">
+      <c r="B29" s="25" t="s">
         <v>42</v>
       </c>
       <c r="C29" s="21"/>
@@ -4393,7 +4394,7 @@
       <c r="Z29" s="21"/>
     </row>
     <row r="30" customHeight="1" spans="1:26">
-      <c r="A30" s="23" t="str">
+      <c r="A30" s="24" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/largest-number-at-least-twice-of-others/","largest number atleast twice of others")</f>
         <v>largest number atleast twice of others</v>
       </c>
@@ -4426,10 +4427,10 @@
       <c r="Z30" s="21"/>
     </row>
     <row r="31" customHeight="1" spans="1:26">
-      <c r="A31" s="23" t="s">
+      <c r="A31" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="B31" s="24" t="s">
+      <c r="B31" s="25" t="s">
         <v>45</v>
       </c>
       <c r="C31" s="21"/>
@@ -4458,11 +4459,11 @@
       <c r="Z31" s="21"/>
     </row>
     <row r="32" customHeight="1" spans="1:26">
-      <c r="A32" s="26" t="str">
+      <c r="A32" s="27" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/number-of-subarrays-with-bounded-maximum/","number of subarrays with bounded maximum")</f>
         <v>number of subarrays with bounded maximum</v>
       </c>
-      <c r="B32" s="24" t="s">
+      <c r="B32" s="25" t="s">
         <v>46</v>
       </c>
       <c r="C32" s="21"/>
@@ -4491,11 +4492,11 @@
       <c r="Z32" s="21"/>
     </row>
     <row r="33" customHeight="1" spans="1:26">
-      <c r="A33" s="26" t="str">
+      <c r="A33" s="27" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/maximum-subarray/","maximum subarray")</f>
         <v>maximum subarray</v>
       </c>
-      <c r="B33" s="24" t="s">
+      <c r="B33" s="25" t="s">
         <v>47</v>
       </c>
       <c r="C33" s="21"/>
@@ -4527,7 +4528,7 @@
       <c r="A34" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="B34" s="24"/>
+      <c r="B34" s="25"/>
       <c r="C34" s="21"/>
       <c r="D34" s="21"/>
       <c r="E34" s="21"/>
@@ -4554,11 +4555,11 @@
       <c r="Z34" s="21"/>
     </row>
     <row r="35" customHeight="1" spans="1:26">
-      <c r="A35" s="23" t="str">
+      <c r="A35" s="24" t="str">
         <f>HYPERLINK("https://www.codechef.com/JAN18/problems/KCON","K-CON")</f>
         <v>K-CON</v>
       </c>
-      <c r="B35" s="24" t="s">
+      <c r="B35" s="25" t="s">
         <v>49</v>
       </c>
       <c r="C35" s="21"/>
@@ -4587,7 +4588,7 @@
       <c r="Z35" s="21"/>
     </row>
     <row r="36" customHeight="1" spans="1:26">
-      <c r="A36" s="25" t="str">
+      <c r="A36" s="26" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/best-meeting-point/","best meeting points")</f>
         <v>best meeting points</v>
       </c>
@@ -4620,11 +4621,11 @@
       <c r="Z36" s="21"/>
     </row>
     <row r="37" customHeight="1" spans="1:26">
-      <c r="A37" s="23" t="str">
+      <c r="A37" s="24" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/segregate-0s-and-1s-in-an-array-by-traversing-array-once/","Segregate 0 and 1")</f>
         <v>Segregate 0 and 1</v>
       </c>
-      <c r="B37" s="24" t="s">
+      <c r="B37" s="25" t="s">
         <v>51</v>
       </c>
       <c r="C37" s="21"/>
@@ -4653,134 +4654,134 @@
       <c r="Z37" s="21"/>
     </row>
     <row r="38" customHeight="1" spans="1:26">
-      <c r="A38" s="27" t="s">
+      <c r="A38" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="B38" s="28" t="s">
+      <c r="B38" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="C38" s="29"/>
-      <c r="D38" s="29"/>
-      <c r="E38" s="29"/>
-      <c r="F38" s="29"/>
-      <c r="G38" s="29"/>
-      <c r="H38" s="29"/>
-      <c r="I38" s="29"/>
-      <c r="J38" s="29"/>
-      <c r="K38" s="29"/>
-      <c r="L38" s="29"/>
-      <c r="M38" s="29"/>
-      <c r="N38" s="29"/>
-      <c r="O38" s="29"/>
-      <c r="P38" s="29"/>
-      <c r="Q38" s="29"/>
-      <c r="R38" s="29"/>
-      <c r="S38" s="29"/>
-      <c r="T38" s="29"/>
-      <c r="U38" s="29"/>
-      <c r="V38" s="29"/>
-      <c r="W38" s="29"/>
-      <c r="X38" s="29"/>
-      <c r="Y38" s="29"/>
-      <c r="Z38" s="29"/>
+      <c r="C38" s="30"/>
+      <c r="D38" s="30"/>
+      <c r="E38" s="30"/>
+      <c r="F38" s="30"/>
+      <c r="G38" s="30"/>
+      <c r="H38" s="30"/>
+      <c r="I38" s="30"/>
+      <c r="J38" s="30"/>
+      <c r="K38" s="30"/>
+      <c r="L38" s="30"/>
+      <c r="M38" s="30"/>
+      <c r="N38" s="30"/>
+      <c r="O38" s="30"/>
+      <c r="P38" s="30"/>
+      <c r="Q38" s="30"/>
+      <c r="R38" s="30"/>
+      <c r="S38" s="30"/>
+      <c r="T38" s="30"/>
+      <c r="U38" s="30"/>
+      <c r="V38" s="30"/>
+      <c r="W38" s="30"/>
+      <c r="X38" s="30"/>
+      <c r="Y38" s="30"/>
+      <c r="Z38" s="30"/>
     </row>
     <row r="39" customHeight="1" spans="1:26">
-      <c r="A39" s="30" t="s">
+      <c r="A39" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="B39" s="28" t="s">
+      <c r="B39" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="C39" s="29"/>
-      <c r="D39" s="29"/>
-      <c r="E39" s="29"/>
-      <c r="F39" s="29"/>
-      <c r="G39" s="29"/>
-      <c r="H39" s="29"/>
-      <c r="I39" s="29"/>
-      <c r="J39" s="29"/>
-      <c r="K39" s="29"/>
-      <c r="L39" s="29"/>
-      <c r="M39" s="29"/>
-      <c r="N39" s="29"/>
-      <c r="O39" s="29"/>
-      <c r="P39" s="29"/>
-      <c r="Q39" s="29"/>
-      <c r="R39" s="29"/>
-      <c r="S39" s="29"/>
-      <c r="T39" s="29"/>
-      <c r="U39" s="29"/>
-      <c r="V39" s="29"/>
-      <c r="W39" s="29"/>
-      <c r="X39" s="29"/>
-      <c r="Y39" s="29"/>
-      <c r="Z39" s="29"/>
+      <c r="C39" s="30"/>
+      <c r="D39" s="30"/>
+      <c r="E39" s="30"/>
+      <c r="F39" s="30"/>
+      <c r="G39" s="30"/>
+      <c r="H39" s="30"/>
+      <c r="I39" s="30"/>
+      <c r="J39" s="30"/>
+      <c r="K39" s="30"/>
+      <c r="L39" s="30"/>
+      <c r="M39" s="30"/>
+      <c r="N39" s="30"/>
+      <c r="O39" s="30"/>
+      <c r="P39" s="30"/>
+      <c r="Q39" s="30"/>
+      <c r="R39" s="30"/>
+      <c r="S39" s="30"/>
+      <c r="T39" s="30"/>
+      <c r="U39" s="30"/>
+      <c r="V39" s="30"/>
+      <c r="W39" s="30"/>
+      <c r="X39" s="30"/>
+      <c r="Y39" s="30"/>
+      <c r="Z39" s="30"/>
     </row>
     <row r="40" customHeight="1" spans="1:26">
-      <c r="A40" s="30" t="str">
+      <c r="A40" s="31" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/partition-labels/","partition labels")</f>
         <v>partition labels</v>
       </c>
-      <c r="B40" s="29" t="s">
+      <c r="B40" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="C40" s="29"/>
-      <c r="D40" s="29"/>
-      <c r="E40" s="29"/>
-      <c r="F40" s="29"/>
-      <c r="G40" s="29"/>
-      <c r="H40" s="29"/>
-      <c r="I40" s="29"/>
-      <c r="J40" s="29"/>
-      <c r="K40" s="29"/>
-      <c r="L40" s="29"/>
-      <c r="M40" s="29"/>
-      <c r="N40" s="29"/>
-      <c r="O40" s="29"/>
-      <c r="P40" s="29"/>
-      <c r="Q40" s="29"/>
-      <c r="R40" s="29"/>
-      <c r="S40" s="29"/>
-      <c r="T40" s="29"/>
-      <c r="U40" s="29"/>
-      <c r="V40" s="29"/>
-      <c r="W40" s="29"/>
-      <c r="X40" s="29"/>
-      <c r="Y40" s="29"/>
-      <c r="Z40" s="29"/>
+      <c r="C40" s="30"/>
+      <c r="D40" s="30"/>
+      <c r="E40" s="30"/>
+      <c r="F40" s="30"/>
+      <c r="G40" s="30"/>
+      <c r="H40" s="30"/>
+      <c r="I40" s="30"/>
+      <c r="J40" s="30"/>
+      <c r="K40" s="30"/>
+      <c r="L40" s="30"/>
+      <c r="M40" s="30"/>
+      <c r="N40" s="30"/>
+      <c r="O40" s="30"/>
+      <c r="P40" s="30"/>
+      <c r="Q40" s="30"/>
+      <c r="R40" s="30"/>
+      <c r="S40" s="30"/>
+      <c r="T40" s="30"/>
+      <c r="U40" s="30"/>
+      <c r="V40" s="30"/>
+      <c r="W40" s="30"/>
+      <c r="X40" s="30"/>
+      <c r="Y40" s="30"/>
+      <c r="Z40" s="30"/>
     </row>
     <row r="41" customHeight="1" spans="1:26">
-      <c r="A41" s="31" t="s">
+      <c r="A41" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="B41" s="29"/>
-      <c r="C41" s="29"/>
-      <c r="D41" s="29"/>
-      <c r="E41" s="29"/>
-      <c r="F41" s="29"/>
-      <c r="G41" s="29"/>
-      <c r="H41" s="29"/>
-      <c r="I41" s="29"/>
-      <c r="J41" s="29"/>
-      <c r="K41" s="29"/>
-      <c r="L41" s="29"/>
-      <c r="M41" s="29"/>
-      <c r="N41" s="29"/>
-      <c r="O41" s="29"/>
-      <c r="P41" s="29"/>
-      <c r="Q41" s="29"/>
-      <c r="R41" s="29"/>
-      <c r="S41" s="29"/>
-      <c r="T41" s="29"/>
-      <c r="U41" s="29"/>
-      <c r="V41" s="29"/>
-      <c r="W41" s="29"/>
-      <c r="X41" s="29"/>
-      <c r="Y41" s="29"/>
-      <c r="Z41" s="29"/>
+      <c r="B41" s="30"/>
+      <c r="C41" s="30"/>
+      <c r="D41" s="30"/>
+      <c r="E41" s="30"/>
+      <c r="F41" s="30"/>
+      <c r="G41" s="30"/>
+      <c r="H41" s="30"/>
+      <c r="I41" s="30"/>
+      <c r="J41" s="30"/>
+      <c r="K41" s="30"/>
+      <c r="L41" s="30"/>
+      <c r="M41" s="30"/>
+      <c r="N41" s="30"/>
+      <c r="O41" s="30"/>
+      <c r="P41" s="30"/>
+      <c r="Q41" s="30"/>
+      <c r="R41" s="30"/>
+      <c r="S41" s="30"/>
+      <c r="T41" s="30"/>
+      <c r="U41" s="30"/>
+      <c r="V41" s="30"/>
+      <c r="W41" s="30"/>
+      <c r="X41" s="30"/>
+      <c r="Y41" s="30"/>
+      <c r="Z41" s="30"/>
     </row>
     <row r="42" customHeight="1" spans="1:26">
-      <c r="A42" s="32" t="s">
+      <c r="A42" s="33" t="s">
         <v>58</v>
       </c>
       <c r="B42" s="21"/>
@@ -4810,7 +4811,7 @@
       <c r="Z42" s="21"/>
     </row>
     <row r="43" customHeight="1" spans="1:26">
-      <c r="A43" s="25" t="s">
+      <c r="A43" s="26" t="s">
         <v>59</v>
       </c>
       <c r="B43" s="21" t="s">
@@ -4842,10 +4843,10 @@
       <c r="Z43" s="21"/>
     </row>
     <row r="44" customHeight="1" spans="1:26">
-      <c r="A44" s="25" t="s">
+      <c r="A44" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="B44" s="33" t="s">
+      <c r="B44" s="34" t="s">
         <v>60</v>
       </c>
       <c r="C44" s="21"/>
@@ -4874,7 +4875,7 @@
       <c r="Z44" s="21"/>
     </row>
     <row r="45" customHeight="1" spans="1:26">
-      <c r="A45" s="25" t="s">
+      <c r="A45" s="26" t="s">
         <v>62</v>
       </c>
       <c r="B45" s="21" t="s">
@@ -4906,14 +4907,14 @@
       <c r="Z45" s="21"/>
     </row>
     <row r="46" customHeight="1" spans="1:26">
-      <c r="A46" s="25" t="str">
+      <c r="A46" s="26" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/consecutive-numbers-sum/","consecutive number sum")</f>
         <v>consecutive number sum</v>
       </c>
-      <c r="B46" s="34" t="s">
+      <c r="B46" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="C46" s="34"/>
+      <c r="C46" s="35"/>
       <c r="D46" s="21"/>
       <c r="E46" s="21"/>
       <c r="F46" s="21"/>
@@ -4939,11 +4940,11 @@
       <c r="Z46" s="21"/>
     </row>
     <row r="47" customHeight="1" spans="1:26">
-      <c r="A47" s="35" t="s">
+      <c r="A47" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="B47" s="24"/>
-      <c r="C47" s="29"/>
+      <c r="B47" s="25"/>
+      <c r="C47" s="30"/>
       <c r="D47" s="21"/>
       <c r="E47" s="21"/>
       <c r="F47" s="21"/>
@@ -4969,10 +4970,10 @@
       <c r="Z47" s="21"/>
     </row>
     <row r="48" customHeight="1" spans="1:26">
-      <c r="A48" s="23" t="s">
+      <c r="A48" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="B48" s="24" t="s">
+      <c r="B48" s="25" t="s">
         <v>66</v>
       </c>
       <c r="C48" s="21"/>
@@ -5001,11 +5002,11 @@
       <c r="Z48" s="21"/>
     </row>
     <row r="49" customHeight="1" spans="1:26">
-      <c r="A49" s="23" t="str">
+      <c r="A49" s="24" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/sieve-of-eratosthenes/","Sieve of Eratosthenes")</f>
         <v>Sieve of Eratosthenes</v>
       </c>
-      <c r="B49" s="24" t="s">
+      <c r="B49" s="25" t="s">
         <v>67</v>
       </c>
       <c r="C49" s="21"/>
@@ -5034,11 +5035,11 @@
       <c r="Z49" s="21"/>
     </row>
     <row r="50" customHeight="1" spans="1:26">
-      <c r="A50" s="23" t="str">
+      <c r="A50" s="24" t="str">
         <f>HYPERLINK("https://www.spoj.com/problems/PRIME1/cstart=10","Segmented sieve")</f>
         <v>Segmented sieve</v>
       </c>
-      <c r="B50" s="24" t="s">
+      <c r="B50" s="25" t="s">
         <v>68</v>
       </c>
       <c r="C50" s="21"/>
@@ -5067,10 +5068,10 @@
       <c r="Z50" s="21"/>
     </row>
     <row r="51" customHeight="1" spans="1:26">
-      <c r="A51" s="25" t="s">
+      <c r="A51" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="B51" s="24" t="s">
+      <c r="B51" s="25" t="s">
         <v>69</v>
       </c>
       <c r="C51" s="21"/>
@@ -5099,11 +5100,11 @@
       <c r="Z51" s="21"/>
     </row>
     <row r="52" customHeight="1" spans="1:26">
-      <c r="A52" s="23" t="str">
+      <c r="A52" s="24" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/find-the-number-of-jumps-to-reach-x-in-the-number-line-from-zero/","MIn Jump required with +i or -i allowed")</f>
         <v>MIn Jump required with +i or -i allowed</v>
       </c>
-      <c r="B52" s="24" t="s">
+      <c r="B52" s="25" t="s">
         <v>70</v>
       </c>
       <c r="C52" s="21"/>
@@ -5132,10 +5133,10 @@
       <c r="Z52" s="21"/>
     </row>
     <row r="53" customHeight="1" spans="1:26">
-      <c r="A53" s="23" t="s">
+      <c r="A53" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="B53" s="24" t="s">
+      <c r="B53" s="25" t="s">
         <v>72</v>
       </c>
       <c r="C53" s="21"/>
@@ -5164,8 +5165,8 @@
       <c r="Z53" s="21"/>
     </row>
     <row r="54" customHeight="1" spans="1:26">
-      <c r="A54" s="23"/>
-      <c r="B54" s="24"/>
+      <c r="A54" s="24"/>
+      <c r="B54" s="25"/>
       <c r="C54" s="21"/>
       <c r="D54" s="21"/>
       <c r="E54" s="21"/>
@@ -5195,7 +5196,7 @@
       <c r="A55" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="B55" s="24"/>
+      <c r="B55" s="25"/>
       <c r="C55" s="21"/>
       <c r="D55" s="21"/>
       <c r="E55" s="21"/>
@@ -5222,7 +5223,7 @@
       <c r="Z55" s="21"/>
     </row>
     <row r="56" customHeight="1" spans="1:26">
-      <c r="A56" s="23" t="str">
+      <c r="A56" s="24" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/minimum-domino-rotations-for-equal-row/","minimum domino rotation for equal row")</f>
         <v>minimum domino rotation for equal row</v>
       </c>
@@ -5255,7 +5256,7 @@
       <c r="Z56" s="21"/>
     </row>
     <row r="57" customHeight="1" spans="1:26">
-      <c r="A57" s="23" t="str">
+      <c r="A57" s="24" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/multiply-strings/","multiply strings")</f>
         <v>multiply strings</v>
       </c>
@@ -5288,11 +5289,11 @@
       <c r="Z57" s="21"/>
     </row>
     <row r="58" customHeight="1" spans="1:26">
-      <c r="A58" s="23" t="str">
+      <c r="A58" s="24" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/given-an-array-a-and-a-number-x-check-for-pair-in-a-with-sum-as-x/","Two Sum")</f>
         <v>Two Sum</v>
       </c>
-      <c r="B58" s="24" t="s">
+      <c r="B58" s="25" t="s">
         <v>76</v>
       </c>
       <c r="C58" s="21"/>
@@ -5321,11 +5322,11 @@
       <c r="Z58" s="21"/>
     </row>
     <row r="59" customHeight="1" spans="1:26">
-      <c r="A59" s="23" t="str">
+      <c r="A59" s="24" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/find-a-pair-with-the-given-difference/","Two Difference")</f>
         <v>Two Difference</v>
       </c>
-      <c r="B59" s="24" t="s">
+      <c r="B59" s="25" t="s">
         <v>77</v>
       </c>
       <c r="C59" s="21"/>
@@ -5354,10 +5355,10 @@
       <c r="Z59" s="21"/>
     </row>
     <row r="60" customHeight="1" spans="1:26">
-      <c r="A60" s="23" t="s">
+      <c r="A60" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="B60" s="24" t="s">
+      <c r="B60" s="25" t="s">
         <v>79</v>
       </c>
       <c r="C60" s="21"/>
@@ -5386,7 +5387,7 @@
       <c r="Z60" s="21"/>
     </row>
     <row r="61" customHeight="1" spans="1:26">
-      <c r="A61" s="25" t="str">
+      <c r="A61" s="26" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/smallest-range-covering-elements-from-k-lists/","smallest range from k lists")</f>
         <v>smallest range from k lists</v>
       </c>
@@ -5419,7 +5420,7 @@
       <c r="Z61" s="21"/>
     </row>
     <row r="62" customHeight="1" spans="1:26">
-      <c r="A62" s="23" t="str">
+      <c r="A62" s="24" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/maximum-product-subarray/","maximum product subarray")</f>
         <v>maximum product subarray</v>
       </c>
@@ -5452,11 +5453,11 @@
       <c r="Z62" s="21"/>
     </row>
     <row r="63" customHeight="1" spans="1:26">
-      <c r="A63" s="23" t="str">
+      <c r="A63" s="24" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/minimum-number-platforms-required-railwaybus-station/","Min No. of Platform")</f>
         <v>Min No. of Platform</v>
       </c>
-      <c r="B63" s="24" t="s">
+      <c r="B63" s="25" t="s">
         <v>82</v>
       </c>
       <c r="C63" s="21"/>
@@ -5485,11 +5486,11 @@
       <c r="Z63" s="21"/>
     </row>
     <row r="64" customHeight="1" spans="1:26">
-      <c r="A64" s="25" t="str">
+      <c r="A64" s="26" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/reverse-vowels-of-a-string/","Reverse vowels of a string")</f>
         <v>Reverse vowels of a string</v>
       </c>
-      <c r="B64" s="36" t="s">
+      <c r="B64" s="37" t="s">
         <v>83</v>
       </c>
       <c r="C64" s="21"/>
@@ -5518,7 +5519,7 @@
       <c r="Z64" s="21"/>
     </row>
     <row r="65" customHeight="1" spans="1:26">
-      <c r="A65" s="25"/>
+      <c r="A65" s="26"/>
       <c r="B65" s="21"/>
       <c r="C65" s="21"/>
       <c r="D65" s="21"/>
@@ -5576,7 +5577,7 @@
       <c r="Z66" s="21"/>
     </row>
     <row r="67" customHeight="1" spans="1:26">
-      <c r="A67" s="37" t="str">
+      <c r="A67" s="38" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/first-missing-positive/","First missing positive")</f>
         <v>First missing positive</v>
       </c>
@@ -5609,7 +5610,7 @@
       <c r="Z67" s="21"/>
     </row>
     <row r="68" customHeight="1" spans="1:26">
-      <c r="A68" s="37" t="str">
+      <c r="A68" s="38" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/rotate-image/","rotate image")</f>
         <v>rotate image</v>
       </c>
@@ -5642,10 +5643,10 @@
       <c r="Z68" s="21"/>
     </row>
     <row r="69" customHeight="1" spans="1:26">
-      <c r="A69" s="38" t="s">
+      <c r="A69" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="B69" s="36" t="s">
+      <c r="B69" s="37" t="s">
         <v>88</v>
       </c>
       <c r="C69" s="21"/>
@@ -5674,7 +5675,7 @@
       <c r="Z69" s="21"/>
     </row>
     <row r="70" customHeight="1" spans="1:26">
-      <c r="A70" s="37" t="str">
+      <c r="A70" s="38" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/push-dominoes/","push dominoes")</f>
         <v>push dominoes</v>
       </c>
@@ -5707,11 +5708,11 @@
       <c r="Z70" s="21"/>
     </row>
     <row r="71" customHeight="1" spans="1:26">
-      <c r="A71" s="26" t="str">
+      <c r="A71" s="27" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/valid-palindrome-ii/","valid pallindrome 2")</f>
         <v>valid pallindrome 2</v>
       </c>
-      <c r="B71" s="24" t="s">
+      <c r="B71" s="25" t="s">
         <v>90</v>
       </c>
       <c r="C71" s="21"/>
@@ -5740,7 +5741,7 @@
       <c r="Z71" s="21"/>
     </row>
     <row r="72" customHeight="1" spans="1:26">
-      <c r="A72" s="37" t="s">
+      <c r="A72" s="38" t="s">
         <v>91</v>
       </c>
       <c r="B72" s="21" t="s">
@@ -5772,10 +5773,10 @@
       <c r="Z72" s="21"/>
     </row>
     <row r="73" customHeight="1" spans="1:26">
-      <c r="A73" s="39" t="s">
+      <c r="A73" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="B73" s="36" t="s">
+      <c r="B73" s="37" t="s">
         <v>94</v>
       </c>
       <c r="C73" s="21"/>
@@ -5834,7 +5835,7 @@
       <c r="Z74" s="21"/>
     </row>
     <row r="75" customHeight="1" spans="1:26">
-      <c r="A75" s="25" t="s">
+      <c r="A75" s="26" t="s">
         <v>96</v>
       </c>
       <c r="B75" s="21" t="s">
@@ -5870,7 +5871,7 @@
         <f>HYPERLINK("https://www.codechef.com/SNCKPE19/problems/BUDDYNIM","Buddy nim")</f>
         <v>Buddy nim</v>
       </c>
-      <c r="B76" s="34" t="s">
+      <c r="B76" s="35" t="s">
         <v>98</v>
       </c>
       <c r="C76" s="21"/>
@@ -5899,7 +5900,7 @@
       <c r="Z76" s="21"/>
     </row>
     <row r="77" customHeight="1" spans="1:26">
-      <c r="A77" s="25" t="s">
+      <c r="A77" s="26" t="s">
         <v>99</v>
       </c>
       <c r="B77" s="21" t="s">
@@ -5931,10 +5932,10 @@
       <c r="Z77" s="21"/>
     </row>
     <row r="78" customHeight="1" spans="1:26">
-      <c r="A78" s="25" t="s">
+      <c r="A78" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="B78" s="36" t="s">
+      <c r="B78" s="37" t="s">
         <v>102</v>
       </c>
       <c r="C78" s="21"/>
@@ -5963,10 +5964,10 @@
       <c r="Z78" s="21"/>
     </row>
     <row r="79" customHeight="1" spans="1:26">
-      <c r="A79" s="25" t="s">
+      <c r="A79" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="B79" s="36" t="s">
+      <c r="B79" s="37" t="s">
         <v>104</v>
       </c>
       <c r="C79" s="21"/>
@@ -5995,7 +5996,7 @@
       <c r="Z79" s="21"/>
     </row>
     <row r="80" customHeight="1" spans="1:26">
-      <c r="A80" s="26" t="str">
+      <c r="A80" s="27" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/maximum-sum-of-two-non-overlapping-subarrays/","max sum of two non overlapping subarrays")</f>
         <v>max sum of two non overlapping subarrays</v>
       </c>
@@ -6028,10 +6029,10 @@
       <c r="Z80" s="21"/>
     </row>
     <row r="81" customHeight="1" spans="1:26">
-      <c r="A81" s="40" t="s">
+      <c r="A81" s="41" t="s">
         <v>106</v>
       </c>
-      <c r="B81" s="36" t="s">
+      <c r="B81" s="37" t="s">
         <v>107</v>
       </c>
       <c r="C81" s="21"/>
@@ -6060,7 +6061,7 @@
       <c r="Z81" s="21"/>
     </row>
     <row r="82" customHeight="1" spans="1:26">
-      <c r="A82" s="41" t="s">
+      <c r="A82" s="42" t="s">
         <v>108</v>
       </c>
       <c r="B82" s="21"/>
@@ -6120,10 +6121,10 @@
       <c r="Z83" s="21"/>
     </row>
     <row r="84" customHeight="1" spans="1:26">
-      <c r="A84" s="23" t="s">
+      <c r="A84" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="B84" s="24" t="s">
+      <c r="B84" s="25" t="s">
         <v>111</v>
       </c>
       <c r="C84" s="21"/>
@@ -6152,10 +6153,10 @@
       <c r="Z84" s="21"/>
     </row>
     <row r="85" customHeight="1" spans="1:26">
-      <c r="A85" s="25" t="s">
+      <c r="A85" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="B85" s="24" t="s">
+      <c r="B85" s="25" t="s">
         <v>113</v>
       </c>
       <c r="C85" s="21"/>
@@ -6184,11 +6185,11 @@
       <c r="Z85" s="21"/>
     </row>
     <row r="86" customHeight="1" spans="1:26">
-      <c r="A86" s="23" t="str">
+      <c r="A86" s="24" t="str">
         <f>HYPERLINK("https://www.codechef.com/COOK103B/problems/MAXREMOV","Max range query")</f>
         <v>Max range query</v>
       </c>
-      <c r="B86" s="24"/>
+      <c r="B86" s="25"/>
       <c r="C86" s="21"/>
       <c r="D86" s="21"/>
       <c r="E86" s="21"/>
@@ -6215,10 +6216,10 @@
       <c r="Z86" s="21"/>
     </row>
     <row r="87" customHeight="1" spans="1:26">
-      <c r="A87" s="23" t="s">
+      <c r="A87" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="B87" s="24" t="s">
+      <c r="B87" s="25" t="s">
         <v>115</v>
       </c>
       <c r="C87" s="21"/>
@@ -6247,10 +6248,10 @@
       <c r="Z87" s="21"/>
     </row>
     <row r="88" customHeight="1" spans="1:26">
-      <c r="A88" s="23" t="s">
+      <c r="A88" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="B88" s="24" t="s">
+      <c r="B88" s="25" t="s">
         <v>117</v>
       </c>
       <c r="C88" s="21"/>
@@ -6340,331 +6341,331 @@
       <c r="A91" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="B91" s="29"/>
-      <c r="C91" s="29"/>
-      <c r="D91" s="29"/>
-      <c r="E91" s="29"/>
-      <c r="F91" s="29"/>
-      <c r="G91" s="29"/>
-      <c r="H91" s="29"/>
-      <c r="I91" s="29"/>
-      <c r="J91" s="29"/>
-      <c r="K91" s="29"/>
-      <c r="L91" s="29"/>
-      <c r="M91" s="29"/>
-      <c r="N91" s="29"/>
-      <c r="O91" s="29"/>
-      <c r="P91" s="29"/>
-      <c r="Q91" s="29"/>
-      <c r="R91" s="29"/>
-      <c r="S91" s="29"/>
-      <c r="T91" s="29"/>
-      <c r="U91" s="29"/>
-      <c r="V91" s="29"/>
-      <c r="W91" s="29"/>
-      <c r="X91" s="29"/>
-      <c r="Y91" s="29"/>
-      <c r="Z91" s="29"/>
+      <c r="B91" s="30"/>
+      <c r="C91" s="30"/>
+      <c r="D91" s="30"/>
+      <c r="E91" s="30"/>
+      <c r="F91" s="30"/>
+      <c r="G91" s="30"/>
+      <c r="H91" s="30"/>
+      <c r="I91" s="30"/>
+      <c r="J91" s="30"/>
+      <c r="K91" s="30"/>
+      <c r="L91" s="30"/>
+      <c r="M91" s="30"/>
+      <c r="N91" s="30"/>
+      <c r="O91" s="30"/>
+      <c r="P91" s="30"/>
+      <c r="Q91" s="30"/>
+      <c r="R91" s="30"/>
+      <c r="S91" s="30"/>
+      <c r="T91" s="30"/>
+      <c r="U91" s="30"/>
+      <c r="V91" s="30"/>
+      <c r="W91" s="30"/>
+      <c r="X91" s="30"/>
+      <c r="Y91" s="30"/>
+      <c r="Z91" s="30"/>
     </row>
     <row r="92" customHeight="1" spans="1:26">
-      <c r="A92" s="42" t="s">
+      <c r="A92" s="43" t="s">
         <v>119</v>
       </c>
-      <c r="B92" s="29"/>
-      <c r="C92" s="29"/>
-      <c r="D92" s="29"/>
-      <c r="E92" s="29"/>
-      <c r="F92" s="29"/>
-      <c r="G92" s="29"/>
-      <c r="H92" s="29"/>
-      <c r="I92" s="29"/>
-      <c r="J92" s="29"/>
-      <c r="K92" s="29"/>
-      <c r="L92" s="29"/>
-      <c r="M92" s="29"/>
-      <c r="N92" s="29"/>
-      <c r="O92" s="29"/>
-      <c r="P92" s="29"/>
-      <c r="Q92" s="29"/>
-      <c r="R92" s="29"/>
-      <c r="S92" s="29"/>
-      <c r="T92" s="29"/>
-      <c r="U92" s="29"/>
-      <c r="V92" s="29"/>
-      <c r="W92" s="29"/>
-      <c r="X92" s="29"/>
-      <c r="Y92" s="29"/>
-      <c r="Z92" s="29"/>
+      <c r="B92" s="30"/>
+      <c r="C92" s="30"/>
+      <c r="D92" s="30"/>
+      <c r="E92" s="30"/>
+      <c r="F92" s="30"/>
+      <c r="G92" s="30"/>
+      <c r="H92" s="30"/>
+      <c r="I92" s="30"/>
+      <c r="J92" s="30"/>
+      <c r="K92" s="30"/>
+      <c r="L92" s="30"/>
+      <c r="M92" s="30"/>
+      <c r="N92" s="30"/>
+      <c r="O92" s="30"/>
+      <c r="P92" s="30"/>
+      <c r="Q92" s="30"/>
+      <c r="R92" s="30"/>
+      <c r="S92" s="30"/>
+      <c r="T92" s="30"/>
+      <c r="U92" s="30"/>
+      <c r="V92" s="30"/>
+      <c r="W92" s="30"/>
+      <c r="X92" s="30"/>
+      <c r="Y92" s="30"/>
+      <c r="Z92" s="30"/>
     </row>
     <row r="93" customHeight="1" spans="1:26">
-      <c r="A93" s="43" t="s">
+      <c r="A93" s="44" t="s">
         <v>120</v>
       </c>
-      <c r="B93" s="29"/>
-      <c r="C93" s="29"/>
-      <c r="D93" s="29"/>
-      <c r="E93" s="29"/>
-      <c r="F93" s="29"/>
-      <c r="G93" s="29"/>
-      <c r="H93" s="29"/>
-      <c r="I93" s="29"/>
-      <c r="J93" s="29"/>
-      <c r="K93" s="29"/>
-      <c r="L93" s="29"/>
-      <c r="M93" s="29"/>
-      <c r="N93" s="29"/>
-      <c r="O93" s="29"/>
-      <c r="P93" s="29"/>
-      <c r="Q93" s="29"/>
-      <c r="R93" s="29"/>
-      <c r="S93" s="29"/>
-      <c r="T93" s="29"/>
-      <c r="U93" s="29"/>
-      <c r="V93" s="29"/>
-      <c r="W93" s="29"/>
-      <c r="X93" s="29"/>
-      <c r="Y93" s="29"/>
-      <c r="Z93" s="29"/>
+      <c r="B93" s="30"/>
+      <c r="C93" s="30"/>
+      <c r="D93" s="30"/>
+      <c r="E93" s="30"/>
+      <c r="F93" s="30"/>
+      <c r="G93" s="30"/>
+      <c r="H93" s="30"/>
+      <c r="I93" s="30"/>
+      <c r="J93" s="30"/>
+      <c r="K93" s="30"/>
+      <c r="L93" s="30"/>
+      <c r="M93" s="30"/>
+      <c r="N93" s="30"/>
+      <c r="O93" s="30"/>
+      <c r="P93" s="30"/>
+      <c r="Q93" s="30"/>
+      <c r="R93" s="30"/>
+      <c r="S93" s="30"/>
+      <c r="T93" s="30"/>
+      <c r="U93" s="30"/>
+      <c r="V93" s="30"/>
+      <c r="W93" s="30"/>
+      <c r="X93" s="30"/>
+      <c r="Y93" s="30"/>
+      <c r="Z93" s="30"/>
     </row>
     <row r="94" customHeight="1" spans="1:26">
-      <c r="A94" s="44" t="s">
+      <c r="A94" s="45" t="s">
         <v>121</v>
       </c>
-      <c r="B94" s="29"/>
-      <c r="C94" s="29"/>
-      <c r="D94" s="29"/>
-      <c r="E94" s="29"/>
-      <c r="F94" s="29"/>
-      <c r="G94" s="29"/>
-      <c r="H94" s="29"/>
-      <c r="I94" s="29"/>
-      <c r="J94" s="29"/>
-      <c r="K94" s="29"/>
-      <c r="L94" s="29"/>
-      <c r="M94" s="29"/>
-      <c r="N94" s="29"/>
-      <c r="O94" s="29"/>
-      <c r="P94" s="29"/>
-      <c r="Q94" s="29"/>
-      <c r="R94" s="29"/>
-      <c r="S94" s="29"/>
-      <c r="T94" s="29"/>
-      <c r="U94" s="29"/>
-      <c r="V94" s="29"/>
-      <c r="W94" s="29"/>
-      <c r="X94" s="29"/>
-      <c r="Y94" s="29"/>
-      <c r="Z94" s="29"/>
+      <c r="B94" s="30"/>
+      <c r="C94" s="30"/>
+      <c r="D94" s="30"/>
+      <c r="E94" s="30"/>
+      <c r="F94" s="30"/>
+      <c r="G94" s="30"/>
+      <c r="H94" s="30"/>
+      <c r="I94" s="30"/>
+      <c r="J94" s="30"/>
+      <c r="K94" s="30"/>
+      <c r="L94" s="30"/>
+      <c r="M94" s="30"/>
+      <c r="N94" s="30"/>
+      <c r="O94" s="30"/>
+      <c r="P94" s="30"/>
+      <c r="Q94" s="30"/>
+      <c r="R94" s="30"/>
+      <c r="S94" s="30"/>
+      <c r="T94" s="30"/>
+      <c r="U94" s="30"/>
+      <c r="V94" s="30"/>
+      <c r="W94" s="30"/>
+      <c r="X94" s="30"/>
+      <c r="Y94" s="30"/>
+      <c r="Z94" s="30"/>
     </row>
     <row r="95" customHeight="1" spans="1:26">
-      <c r="A95" s="45" t="s">
+      <c r="A95" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="B95" s="29"/>
-      <c r="C95" s="29"/>
-      <c r="D95" s="29"/>
-      <c r="E95" s="29"/>
-      <c r="F95" s="29"/>
-      <c r="G95" s="29"/>
-      <c r="H95" s="29"/>
-      <c r="I95" s="29"/>
-      <c r="J95" s="29"/>
-      <c r="K95" s="29"/>
-      <c r="L95" s="29"/>
-      <c r="M95" s="29"/>
-      <c r="N95" s="29"/>
-      <c r="O95" s="29"/>
-      <c r="P95" s="29"/>
-      <c r="Q95" s="29"/>
-      <c r="R95" s="29"/>
-      <c r="S95" s="29"/>
-      <c r="T95" s="29"/>
-      <c r="U95" s="29"/>
-      <c r="V95" s="29"/>
-      <c r="W95" s="29"/>
-      <c r="X95" s="29"/>
-      <c r="Y95" s="29"/>
-      <c r="Z95" s="29"/>
+      <c r="B95" s="30"/>
+      <c r="C95" s="30"/>
+      <c r="D95" s="30"/>
+      <c r="E95" s="30"/>
+      <c r="F95" s="30"/>
+      <c r="G95" s="30"/>
+      <c r="H95" s="30"/>
+      <c r="I95" s="30"/>
+      <c r="J95" s="30"/>
+      <c r="K95" s="30"/>
+      <c r="L95" s="30"/>
+      <c r="M95" s="30"/>
+      <c r="N95" s="30"/>
+      <c r="O95" s="30"/>
+      <c r="P95" s="30"/>
+      <c r="Q95" s="30"/>
+      <c r="R95" s="30"/>
+      <c r="S95" s="30"/>
+      <c r="T95" s="30"/>
+      <c r="U95" s="30"/>
+      <c r="V95" s="30"/>
+      <c r="W95" s="30"/>
+      <c r="X95" s="30"/>
+      <c r="Y95" s="30"/>
+      <c r="Z95" s="30"/>
     </row>
     <row r="96" customHeight="1" spans="1:26">
-      <c r="A96" s="45" t="s">
+      <c r="A96" s="46" t="s">
         <v>123</v>
       </c>
-      <c r="B96" s="29"/>
-      <c r="C96" s="29"/>
-      <c r="D96" s="29"/>
-      <c r="E96" s="29"/>
-      <c r="F96" s="29"/>
-      <c r="G96" s="29"/>
-      <c r="H96" s="29"/>
-      <c r="I96" s="29"/>
-      <c r="J96" s="29"/>
-      <c r="K96" s="29"/>
-      <c r="L96" s="29"/>
-      <c r="M96" s="29"/>
-      <c r="N96" s="29"/>
-      <c r="O96" s="29"/>
-      <c r="P96" s="29"/>
-      <c r="Q96" s="29"/>
-      <c r="R96" s="29"/>
-      <c r="S96" s="29"/>
-      <c r="T96" s="29"/>
-      <c r="U96" s="29"/>
-      <c r="V96" s="29"/>
-      <c r="W96" s="29"/>
-      <c r="X96" s="29"/>
-      <c r="Y96" s="29"/>
-      <c r="Z96" s="29"/>
+      <c r="B96" s="30"/>
+      <c r="C96" s="30"/>
+      <c r="D96" s="30"/>
+      <c r="E96" s="30"/>
+      <c r="F96" s="30"/>
+      <c r="G96" s="30"/>
+      <c r="H96" s="30"/>
+      <c r="I96" s="30"/>
+      <c r="J96" s="30"/>
+      <c r="K96" s="30"/>
+      <c r="L96" s="30"/>
+      <c r="M96" s="30"/>
+      <c r="N96" s="30"/>
+      <c r="O96" s="30"/>
+      <c r="P96" s="30"/>
+      <c r="Q96" s="30"/>
+      <c r="R96" s="30"/>
+      <c r="S96" s="30"/>
+      <c r="T96" s="30"/>
+      <c r="U96" s="30"/>
+      <c r="V96" s="30"/>
+      <c r="W96" s="30"/>
+      <c r="X96" s="30"/>
+      <c r="Y96" s="30"/>
+      <c r="Z96" s="30"/>
     </row>
     <row r="97" customHeight="1" spans="1:26">
-      <c r="A97" s="32" t="s">
+      <c r="A97" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="B97" s="29"/>
-      <c r="C97" s="29"/>
-      <c r="D97" s="29"/>
-      <c r="E97" s="29"/>
-      <c r="F97" s="29"/>
-      <c r="G97" s="29"/>
-      <c r="H97" s="29"/>
-      <c r="I97" s="29"/>
-      <c r="J97" s="29"/>
-      <c r="K97" s="29"/>
-      <c r="L97" s="29"/>
-      <c r="M97" s="29"/>
-      <c r="N97" s="29"/>
-      <c r="O97" s="29"/>
-      <c r="P97" s="29"/>
-      <c r="Q97" s="29"/>
-      <c r="R97" s="29"/>
-      <c r="S97" s="29"/>
-      <c r="T97" s="29"/>
-      <c r="U97" s="29"/>
-      <c r="V97" s="29"/>
-      <c r="W97" s="29"/>
-      <c r="X97" s="29"/>
-      <c r="Y97" s="29"/>
-      <c r="Z97" s="29"/>
+      <c r="B97" s="30"/>
+      <c r="C97" s="30"/>
+      <c r="D97" s="30"/>
+      <c r="E97" s="30"/>
+      <c r="F97" s="30"/>
+      <c r="G97" s="30"/>
+      <c r="H97" s="30"/>
+      <c r="I97" s="30"/>
+      <c r="J97" s="30"/>
+      <c r="K97" s="30"/>
+      <c r="L97" s="30"/>
+      <c r="M97" s="30"/>
+      <c r="N97" s="30"/>
+      <c r="O97" s="30"/>
+      <c r="P97" s="30"/>
+      <c r="Q97" s="30"/>
+      <c r="R97" s="30"/>
+      <c r="S97" s="30"/>
+      <c r="T97" s="30"/>
+      <c r="U97" s="30"/>
+      <c r="V97" s="30"/>
+      <c r="W97" s="30"/>
+      <c r="X97" s="30"/>
+      <c r="Y97" s="30"/>
+      <c r="Z97" s="30"/>
     </row>
     <row r="98" customHeight="1" spans="1:26">
-      <c r="A98" s="43" t="s">
+      <c r="A98" s="44" t="s">
         <v>125</v>
       </c>
-      <c r="B98" s="29"/>
-      <c r="C98" s="29"/>
-      <c r="D98" s="29"/>
-      <c r="E98" s="29"/>
-      <c r="F98" s="29"/>
-      <c r="G98" s="29"/>
-      <c r="H98" s="29"/>
-      <c r="I98" s="29"/>
-      <c r="J98" s="29"/>
-      <c r="K98" s="29"/>
-      <c r="L98" s="29"/>
-      <c r="M98" s="29"/>
-      <c r="N98" s="29"/>
-      <c r="O98" s="29"/>
-      <c r="P98" s="29"/>
-      <c r="Q98" s="29"/>
-      <c r="R98" s="29"/>
-      <c r="S98" s="29"/>
-      <c r="T98" s="29"/>
-      <c r="U98" s="29"/>
-      <c r="V98" s="29"/>
-      <c r="W98" s="29"/>
-      <c r="X98" s="29"/>
-      <c r="Y98" s="29"/>
-      <c r="Z98" s="29"/>
+      <c r="B98" s="30"/>
+      <c r="C98" s="30"/>
+      <c r="D98" s="30"/>
+      <c r="E98" s="30"/>
+      <c r="F98" s="30"/>
+      <c r="G98" s="30"/>
+      <c r="H98" s="30"/>
+      <c r="I98" s="30"/>
+      <c r="J98" s="30"/>
+      <c r="K98" s="30"/>
+      <c r="L98" s="30"/>
+      <c r="M98" s="30"/>
+      <c r="N98" s="30"/>
+      <c r="O98" s="30"/>
+      <c r="P98" s="30"/>
+      <c r="Q98" s="30"/>
+      <c r="R98" s="30"/>
+      <c r="S98" s="30"/>
+      <c r="T98" s="30"/>
+      <c r="U98" s="30"/>
+      <c r="V98" s="30"/>
+      <c r="W98" s="30"/>
+      <c r="X98" s="30"/>
+      <c r="Y98" s="30"/>
+      <c r="Z98" s="30"/>
     </row>
     <row r="99" customHeight="1" spans="1:26">
-      <c r="A99" s="44" t="s">
+      <c r="A99" s="45" t="s">
         <v>126</v>
       </c>
-      <c r="B99" s="29"/>
-      <c r="C99" s="29"/>
-      <c r="D99" s="29"/>
-      <c r="E99" s="29"/>
-      <c r="F99" s="29"/>
-      <c r="G99" s="29"/>
-      <c r="H99" s="29"/>
-      <c r="I99" s="29"/>
-      <c r="J99" s="29"/>
-      <c r="K99" s="29"/>
-      <c r="L99" s="29"/>
-      <c r="M99" s="29"/>
-      <c r="N99" s="29"/>
-      <c r="O99" s="29"/>
-      <c r="P99" s="29"/>
-      <c r="Q99" s="29"/>
-      <c r="R99" s="29"/>
-      <c r="S99" s="29"/>
-      <c r="T99" s="29"/>
-      <c r="U99" s="29"/>
-      <c r="V99" s="29"/>
-      <c r="W99" s="29"/>
-      <c r="X99" s="29"/>
-      <c r="Y99" s="29"/>
-      <c r="Z99" s="29"/>
+      <c r="B99" s="30"/>
+      <c r="C99" s="30"/>
+      <c r="D99" s="30"/>
+      <c r="E99" s="30"/>
+      <c r="F99" s="30"/>
+      <c r="G99" s="30"/>
+      <c r="H99" s="30"/>
+      <c r="I99" s="30"/>
+      <c r="J99" s="30"/>
+      <c r="K99" s="30"/>
+      <c r="L99" s="30"/>
+      <c r="M99" s="30"/>
+      <c r="N99" s="30"/>
+      <c r="O99" s="30"/>
+      <c r="P99" s="30"/>
+      <c r="Q99" s="30"/>
+      <c r="R99" s="30"/>
+      <c r="S99" s="30"/>
+      <c r="T99" s="30"/>
+      <c r="U99" s="30"/>
+      <c r="V99" s="30"/>
+      <c r="W99" s="30"/>
+      <c r="X99" s="30"/>
+      <c r="Y99" s="30"/>
+      <c r="Z99" s="30"/>
     </row>
     <row r="100" customHeight="1" spans="1:26">
-      <c r="A100" s="45" t="s">
+      <c r="A100" s="46" t="s">
         <v>127</v>
       </c>
-      <c r="B100" s="29"/>
-      <c r="C100" s="29"/>
-      <c r="D100" s="29"/>
-      <c r="E100" s="29"/>
-      <c r="F100" s="29"/>
-      <c r="G100" s="29"/>
-      <c r="H100" s="29"/>
-      <c r="I100" s="29"/>
-      <c r="J100" s="29"/>
-      <c r="K100" s="29"/>
-      <c r="L100" s="29"/>
-      <c r="M100" s="29"/>
-      <c r="N100" s="29"/>
-      <c r="O100" s="29"/>
-      <c r="P100" s="29"/>
-      <c r="Q100" s="29"/>
-      <c r="R100" s="29"/>
-      <c r="S100" s="29"/>
-      <c r="T100" s="29"/>
-      <c r="U100" s="29"/>
-      <c r="V100" s="29"/>
-      <c r="W100" s="29"/>
-      <c r="X100" s="29"/>
-      <c r="Y100" s="29"/>
-      <c r="Z100" s="29"/>
+      <c r="B100" s="30"/>
+      <c r="C100" s="30"/>
+      <c r="D100" s="30"/>
+      <c r="E100" s="30"/>
+      <c r="F100" s="30"/>
+      <c r="G100" s="30"/>
+      <c r="H100" s="30"/>
+      <c r="I100" s="30"/>
+      <c r="J100" s="30"/>
+      <c r="K100" s="30"/>
+      <c r="L100" s="30"/>
+      <c r="M100" s="30"/>
+      <c r="N100" s="30"/>
+      <c r="O100" s="30"/>
+      <c r="P100" s="30"/>
+      <c r="Q100" s="30"/>
+      <c r="R100" s="30"/>
+      <c r="S100" s="30"/>
+      <c r="T100" s="30"/>
+      <c r="U100" s="30"/>
+      <c r="V100" s="30"/>
+      <c r="W100" s="30"/>
+      <c r="X100" s="30"/>
+      <c r="Y100" s="30"/>
+      <c r="Z100" s="30"/>
     </row>
     <row r="101" customHeight="1" spans="1:26">
-      <c r="A101" s="45" t="s">
+      <c r="A101" s="46" t="s">
         <v>128</v>
       </c>
-      <c r="B101" s="29"/>
-      <c r="C101" s="29"/>
-      <c r="D101" s="29"/>
-      <c r="E101" s="29"/>
-      <c r="F101" s="29"/>
-      <c r="G101" s="29"/>
-      <c r="H101" s="29"/>
-      <c r="I101" s="29"/>
-      <c r="J101" s="29"/>
-      <c r="K101" s="29"/>
-      <c r="L101" s="29"/>
-      <c r="M101" s="29"/>
-      <c r="N101" s="29"/>
-      <c r="O101" s="29"/>
-      <c r="P101" s="29"/>
-      <c r="Q101" s="29"/>
-      <c r="R101" s="29"/>
-      <c r="S101" s="29"/>
-      <c r="T101" s="29"/>
-      <c r="U101" s="29"/>
-      <c r="V101" s="29"/>
-      <c r="W101" s="29"/>
-      <c r="X101" s="29"/>
-      <c r="Y101" s="29"/>
-      <c r="Z101" s="29"/>
+      <c r="B101" s="30"/>
+      <c r="C101" s="30"/>
+      <c r="D101" s="30"/>
+      <c r="E101" s="30"/>
+      <c r="F101" s="30"/>
+      <c r="G101" s="30"/>
+      <c r="H101" s="30"/>
+      <c r="I101" s="30"/>
+      <c r="J101" s="30"/>
+      <c r="K101" s="30"/>
+      <c r="L101" s="30"/>
+      <c r="M101" s="30"/>
+      <c r="N101" s="30"/>
+      <c r="O101" s="30"/>
+      <c r="P101" s="30"/>
+      <c r="Q101" s="30"/>
+      <c r="R101" s="30"/>
+      <c r="S101" s="30"/>
+      <c r="T101" s="30"/>
+      <c r="U101" s="30"/>
+      <c r="V101" s="30"/>
+      <c r="W101" s="30"/>
+      <c r="X101" s="30"/>
+      <c r="Y101" s="30"/>
+      <c r="Z101" s="30"/>
     </row>
     <row r="102" customHeight="1" spans="1:26">
       <c r="A102" s="21"/>
@@ -6785,7 +6786,7 @@
       <c r="Z105" s="21"/>
     </row>
     <row r="106" customHeight="1" spans="1:26">
-      <c r="A106" s="25" t="str">
+      <c r="A106" s="26" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/median-of-two-sorted-arrays/","median of two sorted array")</f>
         <v>median of two sorted array</v>
       </c>
@@ -6818,7 +6819,7 @@
       <c r="Z106" s="21"/>
     </row>
     <row r="107" customHeight="1" spans="1:26">
-      <c r="A107" s="37" t="str">
+      <c r="A107" s="38" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/capacity-to-ship-packages-within-d-days/","capacity to ship within D days")</f>
         <v>capacity to ship within D days</v>
       </c>
@@ -6851,7 +6852,7 @@
       <c r="Z107" s="21"/>
     </row>
     <row r="108" customHeight="1" spans="1:26">
-      <c r="A108" s="26" t="str">
+      <c r="A108" s="27" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/koko-eating-bananas/","koko eating bananas")</f>
         <v>koko eating bananas</v>
       </c>
@@ -6884,7 +6885,7 @@
       <c r="Z108" s="21"/>
     </row>
     <row r="109" customHeight="1" spans="1:26">
-      <c r="A109" s="23" t="str">
+      <c r="A109" s="24" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/find-the-smallest-divisor-given-a-threshold/","smallest divisor given a threshold")</f>
         <v>smallest divisor given a threshold</v>
       </c>
@@ -6917,7 +6918,7 @@
       <c r="Z109" s="21"/>
     </row>
     <row r="110" customHeight="1" spans="1:26">
-      <c r="A110" s="25" t="s">
+      <c r="A110" s="26" t="s">
         <v>136</v>
       </c>
       <c r="B110" s="21" t="s">
@@ -6949,7 +6950,7 @@
       <c r="Z110" s="21"/>
     </row>
     <row r="111" customHeight="1" spans="1:26">
-      <c r="A111" s="23" t="str">
+      <c r="A111" s="24" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/split-array-largest-sum/","split array largest sum")</f>
         <v>split array largest sum</v>
       </c>
@@ -7012,7 +7013,7 @@
       <c r="Z112" s="21"/>
     </row>
     <row r="113" customHeight="1" spans="1:26">
-      <c r="A113" s="25" t="s">
+      <c r="A113" s="26" t="s">
         <v>140</v>
       </c>
       <c r="B113" s="21" t="s">
@@ -7044,7 +7045,7 @@
       <c r="Z113" s="21"/>
     </row>
     <row r="114" customHeight="1" spans="1:26">
-      <c r="A114" s="25" t="str">
+      <c r="A114" s="26" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/k-th-smallest-prime-fraction/","Kth smallest prime fraction")</f>
         <v>Kth smallest prime fraction</v>
       </c>
@@ -7077,7 +7078,7 @@
       <c r="Z114" s="21"/>
     </row>
     <row r="115" customHeight="1" spans="1:26">
-      <c r="A115" s="25" t="str">
+      <c r="A115" s="26" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/search-in-rotated-sorted-array/","search in rotated sorted array")</f>
         <v>search in rotated sorted array</v>
       </c>
@@ -7110,10 +7111,10 @@
       <c r="Z115" s="21"/>
     </row>
     <row r="116" customHeight="1" spans="1:26">
-      <c r="A116" s="25" t="s">
+      <c r="A116" s="26" t="s">
         <v>143</v>
       </c>
-      <c r="B116" s="36" t="s">
+      <c r="B116" s="37" t="s">
         <v>144</v>
       </c>
       <c r="C116" s="21"/>
@@ -7142,10 +7143,10 @@
       <c r="Z116" s="21"/>
     </row>
     <row r="117" customHeight="1" spans="1:26">
-      <c r="A117" s="25" t="s">
+      <c r="A117" s="26" t="s">
         <v>145</v>
       </c>
-      <c r="B117" s="36" t="s">
+      <c r="B117" s="37" t="s">
         <v>146</v>
       </c>
       <c r="C117" s="21"/>
@@ -7174,10 +7175,10 @@
       <c r="Z117" s="21"/>
     </row>
     <row r="118" customHeight="1" spans="1:26">
-      <c r="A118" s="25" t="s">
+      <c r="A118" s="26" t="s">
         <v>147</v>
       </c>
-      <c r="B118" s="36" t="s">
+      <c r="B118" s="37" t="s">
         <v>148</v>
       </c>
       <c r="C118" s="21"/>
@@ -7206,14 +7207,14 @@
       <c r="Z118" s="21"/>
     </row>
     <row r="119" customHeight="1" spans="1:26">
-      <c r="A119" s="46" t="str">
+      <c r="A119" s="47" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/counting-sort/","counting sort")</f>
         <v>counting sort</v>
       </c>
-      <c r="B119" s="34" t="s">
+      <c r="B119" s="35" t="s">
         <v>149</v>
       </c>
-      <c r="C119" s="34"/>
+      <c r="C119" s="35"/>
       <c r="D119" s="21"/>
       <c r="E119" s="21"/>
       <c r="F119" s="21"/>
@@ -7239,14 +7240,14 @@
       <c r="Z119" s="21"/>
     </row>
     <row r="120" customHeight="1" spans="1:26">
-      <c r="A120" s="46" t="str">
+      <c r="A120" s="47" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/merge-sort/","merge sort")</f>
         <v>merge sort</v>
       </c>
-      <c r="B120" s="34" t="s">
+      <c r="B120" s="35" t="s">
         <v>150</v>
       </c>
-      <c r="C120" s="34"/>
+      <c r="C120" s="35"/>
       <c r="D120" s="21"/>
       <c r="E120" s="21"/>
       <c r="F120" s="21"/>
@@ -7272,7 +7273,7 @@
       <c r="Z120" s="21"/>
     </row>
     <row r="121" customHeight="1" spans="1:26">
-      <c r="A121" s="47" t="str">
+      <c r="A121" s="48" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/counting-inversions/","count inversions")</f>
         <v>count inversions</v>
       </c>
@@ -7305,7 +7306,7 @@
       <c r="Z121" s="21"/>
     </row>
     <row r="122" customHeight="1" spans="1:26">
-      <c r="A122" s="48" t="s">
+      <c r="A122" s="49" t="s">
         <v>152</v>
       </c>
       <c r="B122" s="1"/>
@@ -7365,7 +7366,7 @@
       <c r="Z123" s="21"/>
     </row>
     <row r="124" customHeight="1" spans="1:26">
-      <c r="A124" s="25" t="str">
+      <c r="A124" s="26" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/reverse-linked-list/","reverse LinkedList")</f>
         <v>reverse LinkedList</v>
       </c>
@@ -7398,7 +7399,7 @@
       <c r="Z124" s="21"/>
     </row>
     <row r="125" customHeight="1" spans="1:26">
-      <c r="A125" s="49" t="s">
+      <c r="A125" s="50" t="s">
         <v>155</v>
       </c>
       <c r="B125" s="21"/>
@@ -7428,7 +7429,7 @@
       <c r="Z125" s="21"/>
     </row>
     <row r="126" customHeight="1" spans="1:26">
-      <c r="A126" s="25" t="str">
+      <c r="A126" s="26" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/write-a-c-function-to-print-the-middle-of-the-linked-list/","Find the middle element")</f>
         <v>Find the middle element</v>
       </c>
@@ -7461,7 +7462,7 @@
       <c r="Z126" s="21"/>
     </row>
     <row r="127" customHeight="1" spans="1:26">
-      <c r="A127" s="25" t="str">
+      <c r="A127" s="26" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/detect-loop-in-a-linked-list/","Floyd cycle")</f>
         <v>Floyd cycle</v>
       </c>
@@ -7494,7 +7495,7 @@
       <c r="Z127" s="21"/>
     </row>
     <row r="128" customHeight="1" spans="1:26">
-      <c r="A128" s="25" t="str">
+      <c r="A128" s="26" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/a-linked-list-with-next-and-arbit-pointer/","Clone a linkedlist")</f>
         <v>Clone a linkedlist</v>
       </c>
@@ -7527,10 +7528,10 @@
       <c r="Z128" s="21"/>
     </row>
     <row r="129" customHeight="1" spans="1:26">
-      <c r="A129" s="25" t="s">
+      <c r="A129" s="26" t="s">
         <v>159</v>
       </c>
-      <c r="B129" s="36" t="s">
+      <c r="B129" s="37" t="s">
         <v>160</v>
       </c>
       <c r="C129" s="21"/>
@@ -7559,7 +7560,7 @@
       <c r="Z129" s="21"/>
     </row>
     <row r="130" customHeight="1" spans="1:26">
-      <c r="A130" s="32" t="s">
+      <c r="A130" s="33" t="s">
         <v>161</v>
       </c>
       <c r="B130" s="21"/>
@@ -7592,10 +7593,10 @@
       <c r="A131" s="22" t="s">
         <v>162</v>
       </c>
-      <c r="B131" s="34" t="s">
+      <c r="B131" s="35" t="s">
         <v>163</v>
       </c>
-      <c r="C131" s="34"/>
+      <c r="C131" s="35"/>
       <c r="D131" s="21"/>
       <c r="E131" s="21"/>
       <c r="F131" s="21"/>
@@ -7621,7 +7622,7 @@
       <c r="Z131" s="21"/>
     </row>
     <row r="132" customHeight="1" spans="1:26">
-      <c r="A132" s="25" t="str">
+      <c r="A132" s="26" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/lru-cache/","LRU Cache")</f>
         <v>LRU Cache</v>
       </c>
@@ -7654,286 +7655,286 @@
       <c r="Z132" s="21"/>
     </row>
     <row r="133" customHeight="1" spans="1:26">
-      <c r="A133" s="50" t="s">
+      <c r="A133" s="51" t="s">
         <v>165</v>
       </c>
-      <c r="B133" s="50"/>
-      <c r="C133" s="29"/>
-      <c r="D133" s="29"/>
-      <c r="E133" s="29"/>
-      <c r="F133" s="29"/>
-      <c r="G133" s="29"/>
-      <c r="H133" s="29"/>
-      <c r="I133" s="29"/>
-      <c r="J133" s="29"/>
-      <c r="K133" s="29"/>
-      <c r="L133" s="29"/>
-      <c r="M133" s="29"/>
-      <c r="N133" s="29"/>
-      <c r="O133" s="29"/>
-      <c r="P133" s="29"/>
-      <c r="Q133" s="29"/>
-      <c r="R133" s="29"/>
-      <c r="S133" s="29"/>
-      <c r="T133" s="29"/>
-      <c r="U133" s="29"/>
-      <c r="V133" s="29"/>
-      <c r="W133" s="29"/>
-      <c r="X133" s="29"/>
-      <c r="Y133" s="29"/>
-      <c r="Z133" s="29"/>
+      <c r="B133" s="51"/>
+      <c r="C133" s="30"/>
+      <c r="D133" s="30"/>
+      <c r="E133" s="30"/>
+      <c r="F133" s="30"/>
+      <c r="G133" s="30"/>
+      <c r="H133" s="30"/>
+      <c r="I133" s="30"/>
+      <c r="J133" s="30"/>
+      <c r="K133" s="30"/>
+      <c r="L133" s="30"/>
+      <c r="M133" s="30"/>
+      <c r="N133" s="30"/>
+      <c r="O133" s="30"/>
+      <c r="P133" s="30"/>
+      <c r="Q133" s="30"/>
+      <c r="R133" s="30"/>
+      <c r="S133" s="30"/>
+      <c r="T133" s="30"/>
+      <c r="U133" s="30"/>
+      <c r="V133" s="30"/>
+      <c r="W133" s="30"/>
+      <c r="X133" s="30"/>
+      <c r="Y133" s="30"/>
+      <c r="Z133" s="30"/>
     </row>
     <row r="134" customHeight="1" spans="1:26">
-      <c r="A134" s="50" t="s">
+      <c r="A134" s="51" t="s">
         <v>166</v>
       </c>
-      <c r="B134" s="50"/>
-      <c r="C134" s="29"/>
-      <c r="D134" s="29"/>
-      <c r="E134" s="29"/>
-      <c r="F134" s="29"/>
-      <c r="G134" s="29"/>
-      <c r="H134" s="29"/>
-      <c r="I134" s="29"/>
-      <c r="J134" s="29"/>
-      <c r="K134" s="29"/>
-      <c r="L134" s="29"/>
-      <c r="M134" s="29"/>
-      <c r="N134" s="29"/>
-      <c r="O134" s="29"/>
-      <c r="P134" s="29"/>
-      <c r="Q134" s="29"/>
-      <c r="R134" s="29"/>
-      <c r="S134" s="29"/>
-      <c r="T134" s="29"/>
-      <c r="U134" s="29"/>
-      <c r="V134" s="29"/>
-      <c r="W134" s="29"/>
-      <c r="X134" s="29"/>
-      <c r="Y134" s="29"/>
-      <c r="Z134" s="29"/>
+      <c r="B134" s="51"/>
+      <c r="C134" s="30"/>
+      <c r="D134" s="30"/>
+      <c r="E134" s="30"/>
+      <c r="F134" s="30"/>
+      <c r="G134" s="30"/>
+      <c r="H134" s="30"/>
+      <c r="I134" s="30"/>
+      <c r="J134" s="30"/>
+      <c r="K134" s="30"/>
+      <c r="L134" s="30"/>
+      <c r="M134" s="30"/>
+      <c r="N134" s="30"/>
+      <c r="O134" s="30"/>
+      <c r="P134" s="30"/>
+      <c r="Q134" s="30"/>
+      <c r="R134" s="30"/>
+      <c r="S134" s="30"/>
+      <c r="T134" s="30"/>
+      <c r="U134" s="30"/>
+      <c r="V134" s="30"/>
+      <c r="W134" s="30"/>
+      <c r="X134" s="30"/>
+      <c r="Y134" s="30"/>
+      <c r="Z134" s="30"/>
     </row>
     <row r="135" customHeight="1" spans="1:26">
-      <c r="A135" s="50" t="s">
+      <c r="A135" s="51" t="s">
         <v>167</v>
       </c>
-      <c r="B135" s="50"/>
-      <c r="C135" s="29"/>
-      <c r="D135" s="29"/>
-      <c r="E135" s="29"/>
-      <c r="F135" s="29"/>
-      <c r="G135" s="29"/>
-      <c r="H135" s="29"/>
-      <c r="I135" s="29"/>
-      <c r="J135" s="29"/>
-      <c r="K135" s="29"/>
-      <c r="L135" s="29"/>
-      <c r="M135" s="29"/>
-      <c r="N135" s="29"/>
-      <c r="O135" s="29"/>
-      <c r="P135" s="29"/>
-      <c r="Q135" s="29"/>
-      <c r="R135" s="29"/>
-      <c r="S135" s="29"/>
-      <c r="T135" s="29"/>
-      <c r="U135" s="29"/>
-      <c r="V135" s="29"/>
-      <c r="W135" s="29"/>
-      <c r="X135" s="29"/>
-      <c r="Y135" s="29"/>
-      <c r="Z135" s="29"/>
+      <c r="B135" s="51"/>
+      <c r="C135" s="30"/>
+      <c r="D135" s="30"/>
+      <c r="E135" s="30"/>
+      <c r="F135" s="30"/>
+      <c r="G135" s="30"/>
+      <c r="H135" s="30"/>
+      <c r="I135" s="30"/>
+      <c r="J135" s="30"/>
+      <c r="K135" s="30"/>
+      <c r="L135" s="30"/>
+      <c r="M135" s="30"/>
+      <c r="N135" s="30"/>
+      <c r="O135" s="30"/>
+      <c r="P135" s="30"/>
+      <c r="Q135" s="30"/>
+      <c r="R135" s="30"/>
+      <c r="S135" s="30"/>
+      <c r="T135" s="30"/>
+      <c r="U135" s="30"/>
+      <c r="V135" s="30"/>
+      <c r="W135" s="30"/>
+      <c r="X135" s="30"/>
+      <c r="Y135" s="30"/>
+      <c r="Z135" s="30"/>
     </row>
     <row r="136" customHeight="1" spans="1:26">
-      <c r="A136" s="50" t="s">
+      <c r="A136" s="51" t="s">
         <v>168</v>
       </c>
-      <c r="B136" s="50"/>
-      <c r="C136" s="29"/>
-      <c r="D136" s="29"/>
-      <c r="E136" s="29"/>
-      <c r="F136" s="29"/>
-      <c r="G136" s="29"/>
-      <c r="H136" s="29"/>
-      <c r="I136" s="29"/>
-      <c r="J136" s="29"/>
-      <c r="K136" s="29"/>
-      <c r="L136" s="29"/>
-      <c r="M136" s="29"/>
-      <c r="N136" s="29"/>
-      <c r="O136" s="29"/>
-      <c r="P136" s="29"/>
-      <c r="Q136" s="29"/>
-      <c r="R136" s="29"/>
-      <c r="S136" s="29"/>
-      <c r="T136" s="29"/>
-      <c r="U136" s="29"/>
-      <c r="V136" s="29"/>
-      <c r="W136" s="29"/>
-      <c r="X136" s="29"/>
-      <c r="Y136" s="29"/>
-      <c r="Z136" s="29"/>
+      <c r="B136" s="51"/>
+      <c r="C136" s="30"/>
+      <c r="D136" s="30"/>
+      <c r="E136" s="30"/>
+      <c r="F136" s="30"/>
+      <c r="G136" s="30"/>
+      <c r="H136" s="30"/>
+      <c r="I136" s="30"/>
+      <c r="J136" s="30"/>
+      <c r="K136" s="30"/>
+      <c r="L136" s="30"/>
+      <c r="M136" s="30"/>
+      <c r="N136" s="30"/>
+      <c r="O136" s="30"/>
+      <c r="P136" s="30"/>
+      <c r="Q136" s="30"/>
+      <c r="R136" s="30"/>
+      <c r="S136" s="30"/>
+      <c r="T136" s="30"/>
+      <c r="U136" s="30"/>
+      <c r="V136" s="30"/>
+      <c r="W136" s="30"/>
+      <c r="X136" s="30"/>
+      <c r="Y136" s="30"/>
+      <c r="Z136" s="30"/>
     </row>
     <row r="137" customHeight="1" spans="1:26">
-      <c r="A137" s="32" t="s">
+      <c r="A137" s="33" t="s">
         <v>169</v>
       </c>
-      <c r="B137" s="50"/>
-      <c r="C137" s="29"/>
-      <c r="D137" s="29"/>
-      <c r="E137" s="29"/>
-      <c r="F137" s="29"/>
-      <c r="G137" s="29"/>
-      <c r="H137" s="29"/>
-      <c r="I137" s="29"/>
-      <c r="J137" s="29"/>
-      <c r="K137" s="29"/>
-      <c r="L137" s="29"/>
-      <c r="M137" s="29"/>
-      <c r="N137" s="29"/>
-      <c r="O137" s="29"/>
-      <c r="P137" s="29"/>
-      <c r="Q137" s="29"/>
-      <c r="R137" s="29"/>
-      <c r="S137" s="29"/>
-      <c r="T137" s="29"/>
-      <c r="U137" s="29"/>
-      <c r="V137" s="29"/>
-      <c r="W137" s="29"/>
-      <c r="X137" s="29"/>
-      <c r="Y137" s="29"/>
-      <c r="Z137" s="29"/>
+      <c r="B137" s="51"/>
+      <c r="C137" s="30"/>
+      <c r="D137" s="30"/>
+      <c r="E137" s="30"/>
+      <c r="F137" s="30"/>
+      <c r="G137" s="30"/>
+      <c r="H137" s="30"/>
+      <c r="I137" s="30"/>
+      <c r="J137" s="30"/>
+      <c r="K137" s="30"/>
+      <c r="L137" s="30"/>
+      <c r="M137" s="30"/>
+      <c r="N137" s="30"/>
+      <c r="O137" s="30"/>
+      <c r="P137" s="30"/>
+      <c r="Q137" s="30"/>
+      <c r="R137" s="30"/>
+      <c r="S137" s="30"/>
+      <c r="T137" s="30"/>
+      <c r="U137" s="30"/>
+      <c r="V137" s="30"/>
+      <c r="W137" s="30"/>
+      <c r="X137" s="30"/>
+      <c r="Y137" s="30"/>
+      <c r="Z137" s="30"/>
     </row>
     <row r="138" customHeight="1" spans="1:26">
-      <c r="A138" s="50" t="s">
+      <c r="A138" s="51" t="s">
         <v>170</v>
       </c>
-      <c r="B138" s="50"/>
-      <c r="C138" s="29"/>
-      <c r="D138" s="29"/>
-      <c r="E138" s="29"/>
-      <c r="F138" s="29"/>
-      <c r="G138" s="29"/>
-      <c r="H138" s="29"/>
-      <c r="I138" s="29"/>
-      <c r="J138" s="29"/>
-      <c r="K138" s="29"/>
-      <c r="L138" s="29"/>
-      <c r="M138" s="29"/>
-      <c r="N138" s="29"/>
-      <c r="O138" s="29"/>
-      <c r="P138" s="29"/>
-      <c r="Q138" s="29"/>
-      <c r="R138" s="29"/>
-      <c r="S138" s="29"/>
-      <c r="T138" s="29"/>
-      <c r="U138" s="29"/>
-      <c r="V138" s="29"/>
-      <c r="W138" s="29"/>
-      <c r="X138" s="29"/>
-      <c r="Y138" s="29"/>
-      <c r="Z138" s="29"/>
+      <c r="B138" s="51"/>
+      <c r="C138" s="30"/>
+      <c r="D138" s="30"/>
+      <c r="E138" s="30"/>
+      <c r="F138" s="30"/>
+      <c r="G138" s="30"/>
+      <c r="H138" s="30"/>
+      <c r="I138" s="30"/>
+      <c r="J138" s="30"/>
+      <c r="K138" s="30"/>
+      <c r="L138" s="30"/>
+      <c r="M138" s="30"/>
+      <c r="N138" s="30"/>
+      <c r="O138" s="30"/>
+      <c r="P138" s="30"/>
+      <c r="Q138" s="30"/>
+      <c r="R138" s="30"/>
+      <c r="S138" s="30"/>
+      <c r="T138" s="30"/>
+      <c r="U138" s="30"/>
+      <c r="V138" s="30"/>
+      <c r="W138" s="30"/>
+      <c r="X138" s="30"/>
+      <c r="Y138" s="30"/>
+      <c r="Z138" s="30"/>
     </row>
     <row r="139" customHeight="1" spans="1:26">
-      <c r="A139" s="50" t="s">
+      <c r="A139" s="51" t="s">
         <v>171</v>
       </c>
-      <c r="B139" s="50"/>
-      <c r="C139" s="29"/>
-      <c r="D139" s="29"/>
-      <c r="E139" s="29"/>
-      <c r="F139" s="29"/>
-      <c r="G139" s="29"/>
-      <c r="H139" s="29"/>
-      <c r="I139" s="29"/>
-      <c r="J139" s="29"/>
-      <c r="K139" s="29"/>
-      <c r="L139" s="29"/>
-      <c r="M139" s="29"/>
-      <c r="N139" s="29"/>
-      <c r="O139" s="29"/>
-      <c r="P139" s="29"/>
-      <c r="Q139" s="29"/>
-      <c r="R139" s="29"/>
-      <c r="S139" s="29"/>
-      <c r="T139" s="29"/>
-      <c r="U139" s="29"/>
-      <c r="V139" s="29"/>
-      <c r="W139" s="29"/>
-      <c r="X139" s="29"/>
-      <c r="Y139" s="29"/>
-      <c r="Z139" s="29"/>
+      <c r="B139" s="51"/>
+      <c r="C139" s="30"/>
+      <c r="D139" s="30"/>
+      <c r="E139" s="30"/>
+      <c r="F139" s="30"/>
+      <c r="G139" s="30"/>
+      <c r="H139" s="30"/>
+      <c r="I139" s="30"/>
+      <c r="J139" s="30"/>
+      <c r="K139" s="30"/>
+      <c r="L139" s="30"/>
+      <c r="M139" s="30"/>
+      <c r="N139" s="30"/>
+      <c r="O139" s="30"/>
+      <c r="P139" s="30"/>
+      <c r="Q139" s="30"/>
+      <c r="R139" s="30"/>
+      <c r="S139" s="30"/>
+      <c r="T139" s="30"/>
+      <c r="U139" s="30"/>
+      <c r="V139" s="30"/>
+      <c r="W139" s="30"/>
+      <c r="X139" s="30"/>
+      <c r="Y139" s="30"/>
+      <c r="Z139" s="30"/>
     </row>
     <row r="140" customHeight="1" spans="1:26">
-      <c r="A140" s="50" t="s">
+      <c r="A140" s="51" t="s">
         <v>172</v>
       </c>
-      <c r="B140" s="50"/>
-      <c r="C140" s="29"/>
-      <c r="D140" s="29"/>
-      <c r="E140" s="29"/>
-      <c r="F140" s="29"/>
-      <c r="G140" s="29"/>
-      <c r="H140" s="29"/>
-      <c r="I140" s="29"/>
-      <c r="J140" s="29"/>
-      <c r="K140" s="29"/>
-      <c r="L140" s="29"/>
-      <c r="M140" s="29"/>
-      <c r="N140" s="29"/>
-      <c r="O140" s="29"/>
-      <c r="P140" s="29"/>
-      <c r="Q140" s="29"/>
-      <c r="R140" s="29"/>
-      <c r="S140" s="29"/>
-      <c r="T140" s="29"/>
-      <c r="U140" s="29"/>
-      <c r="V140" s="29"/>
-      <c r="W140" s="29"/>
-      <c r="X140" s="29"/>
-      <c r="Y140" s="29"/>
-      <c r="Z140" s="29"/>
+      <c r="B140" s="51"/>
+      <c r="C140" s="30"/>
+      <c r="D140" s="30"/>
+      <c r="E140" s="30"/>
+      <c r="F140" s="30"/>
+      <c r="G140" s="30"/>
+      <c r="H140" s="30"/>
+      <c r="I140" s="30"/>
+      <c r="J140" s="30"/>
+      <c r="K140" s="30"/>
+      <c r="L140" s="30"/>
+      <c r="M140" s="30"/>
+      <c r="N140" s="30"/>
+      <c r="O140" s="30"/>
+      <c r="P140" s="30"/>
+      <c r="Q140" s="30"/>
+      <c r="R140" s="30"/>
+      <c r="S140" s="30"/>
+      <c r="T140" s="30"/>
+      <c r="U140" s="30"/>
+      <c r="V140" s="30"/>
+      <c r="W140" s="30"/>
+      <c r="X140" s="30"/>
+      <c r="Y140" s="30"/>
+      <c r="Z140" s="30"/>
     </row>
     <row r="141" customHeight="1" spans="1:26">
-      <c r="A141" s="50" t="s">
+      <c r="A141" s="51" t="s">
         <v>173</v>
       </c>
-      <c r="B141" s="50"/>
-      <c r="C141" s="29"/>
-      <c r="D141" s="29"/>
-      <c r="E141" s="29"/>
-      <c r="F141" s="29"/>
-      <c r="G141" s="29"/>
-      <c r="H141" s="29"/>
-      <c r="I141" s="29"/>
-      <c r="J141" s="29"/>
-      <c r="K141" s="29"/>
-      <c r="L141" s="29"/>
-      <c r="M141" s="29"/>
-      <c r="N141" s="29"/>
-      <c r="O141" s="29"/>
-      <c r="P141" s="29"/>
-      <c r="Q141" s="29"/>
-      <c r="R141" s="29"/>
-      <c r="S141" s="29"/>
-      <c r="T141" s="29"/>
-      <c r="U141" s="29"/>
-      <c r="V141" s="29"/>
-      <c r="W141" s="29"/>
-      <c r="X141" s="29"/>
-      <c r="Y141" s="29"/>
-      <c r="Z141" s="29"/>
+      <c r="B141" s="51"/>
+      <c r="C141" s="30"/>
+      <c r="D141" s="30"/>
+      <c r="E141" s="30"/>
+      <c r="F141" s="30"/>
+      <c r="G141" s="30"/>
+      <c r="H141" s="30"/>
+      <c r="I141" s="30"/>
+      <c r="J141" s="30"/>
+      <c r="K141" s="30"/>
+      <c r="L141" s="30"/>
+      <c r="M141" s="30"/>
+      <c r="N141" s="30"/>
+      <c r="O141" s="30"/>
+      <c r="P141" s="30"/>
+      <c r="Q141" s="30"/>
+      <c r="R141" s="30"/>
+      <c r="S141" s="30"/>
+      <c r="T141" s="30"/>
+      <c r="U141" s="30"/>
+      <c r="V141" s="30"/>
+      <c r="W141" s="30"/>
+      <c r="X141" s="30"/>
+      <c r="Y141" s="30"/>
+      <c r="Z141" s="30"/>
     </row>
     <row r="142" customHeight="1" spans="1:26">
-      <c r="A142" s="50" t="s">
+      <c r="A142" s="51" t="s">
         <v>174</v>
       </c>
-      <c r="B142" s="51"/>
-      <c r="C142" s="29"/>
-      <c r="D142" s="29"/>
-      <c r="E142" s="29"/>
-      <c r="F142" s="29"/>
-      <c r="G142" s="29"/>
-      <c r="H142" s="29"/>
+      <c r="B142" s="52"/>
+      <c r="C142" s="30"/>
+      <c r="D142" s="30"/>
+      <c r="E142" s="30"/>
+      <c r="F142" s="30"/>
+      <c r="G142" s="30"/>
+      <c r="H142" s="30"/>
       <c r="I142" s="21"/>
       <c r="J142" s="21"/>
       <c r="K142" s="21"/>
@@ -7954,34 +7955,34 @@
       <c r="Z142" s="21"/>
     </row>
     <row r="143" customHeight="1" spans="1:26">
-      <c r="A143" s="50" t="s">
+      <c r="A143" s="51" t="s">
         <v>175</v>
       </c>
-      <c r="B143" s="29"/>
-      <c r="C143" s="29"/>
-      <c r="D143" s="29"/>
-      <c r="E143" s="29"/>
-      <c r="F143" s="29"/>
-      <c r="G143" s="29"/>
-      <c r="H143" s="29"/>
-      <c r="I143" s="29"/>
-      <c r="J143" s="29"/>
-      <c r="K143" s="29"/>
-      <c r="L143" s="29"/>
-      <c r="M143" s="29"/>
-      <c r="N143" s="29"/>
-      <c r="O143" s="29"/>
-      <c r="P143" s="29"/>
-      <c r="Q143" s="29"/>
-      <c r="R143" s="29"/>
-      <c r="S143" s="29"/>
-      <c r="T143" s="29"/>
-      <c r="U143" s="29"/>
-      <c r="V143" s="29"/>
-      <c r="W143" s="29"/>
-      <c r="X143" s="29"/>
-      <c r="Y143" s="29"/>
-      <c r="Z143" s="29"/>
+      <c r="B143" s="30"/>
+      <c r="C143" s="30"/>
+      <c r="D143" s="30"/>
+      <c r="E143" s="30"/>
+      <c r="F143" s="30"/>
+      <c r="G143" s="30"/>
+      <c r="H143" s="30"/>
+      <c r="I143" s="30"/>
+      <c r="J143" s="30"/>
+      <c r="K143" s="30"/>
+      <c r="L143" s="30"/>
+      <c r="M143" s="30"/>
+      <c r="N143" s="30"/>
+      <c r="O143" s="30"/>
+      <c r="P143" s="30"/>
+      <c r="Q143" s="30"/>
+      <c r="R143" s="30"/>
+      <c r="S143" s="30"/>
+      <c r="T143" s="30"/>
+      <c r="U143" s="30"/>
+      <c r="V143" s="30"/>
+      <c r="W143" s="30"/>
+      <c r="X143" s="30"/>
+      <c r="Y143" s="30"/>
+      <c r="Z143" s="30"/>
     </row>
     <row r="144" customHeight="1" spans="1:26">
       <c r="A144" s="19" t="s">
@@ -8048,10 +8049,10 @@
         <f>HYPERLINK("https://www.geeksforgeeks.org/next-greater-element/","Next Greater Element on right")</f>
         <v>Next Greater Element on right</v>
       </c>
-      <c r="B146" s="34" t="s">
+      <c r="B146" s="35" t="s">
         <v>178</v>
       </c>
-      <c r="C146" s="34"/>
+      <c r="C146" s="35"/>
       <c r="D146" s="21"/>
       <c r="E146" s="21"/>
       <c r="F146" s="21"/>
@@ -8081,10 +8082,10 @@
         <f>HYPERLINK("https://leetcode.com/problems/next-greater-element-ii/","Next Greater Element 2")</f>
         <v>Next Greater Element 2</v>
       </c>
-      <c r="B147" s="34" t="s">
+      <c r="B147" s="35" t="s">
         <v>179</v>
       </c>
-      <c r="C147" s="34"/>
+      <c r="C147" s="35"/>
       <c r="D147" s="21"/>
       <c r="E147" s="21"/>
       <c r="F147" s="21"/>
@@ -8114,10 +8115,10 @@
         <f>HYPERLINK("https://leetcode.com/problems/daily-temperatures/","Daily Temperatures")</f>
         <v>Daily Temperatures</v>
       </c>
-      <c r="B148" s="34" t="s">
+      <c r="B148" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="C148" s="34"/>
+      <c r="C148" s="35"/>
       <c r="D148" s="21"/>
       <c r="E148" s="21"/>
       <c r="F148" s="21"/>
@@ -8147,10 +8148,10 @@
         <f>HYPERLINK("https://www.geeksforgeeks.org/the-stock-span-problem/","Stock Span Problem")</f>
         <v>Stock Span Problem</v>
       </c>
-      <c r="B149" s="34" t="s">
+      <c r="B149" s="35" t="s">
         <v>181</v>
       </c>
-      <c r="C149" s="34"/>
+      <c r="C149" s="35"/>
       <c r="D149" s="21"/>
       <c r="E149" s="21"/>
       <c r="F149" s="21"/>
@@ -8180,10 +8181,10 @@
         <f>HYPERLINK("https://www.geeksforgeeks.org/find-maximum-difference-between-nearest-left-and-right-smaller-elements/","maximum difference between left and right smaller")</f>
         <v>maximum difference between left and right smaller</v>
       </c>
-      <c r="B150" s="34" t="s">
+      <c r="B150" s="35" t="s">
         <v>182</v>
       </c>
-      <c r="C150" s="34"/>
+      <c r="C150" s="35"/>
       <c r="D150" s="21"/>
       <c r="E150" s="21"/>
       <c r="F150" s="21"/>
@@ -8213,10 +8214,10 @@
         <f>HYPERLINK("https://leetcode.com/problems/largest-rectangle-in-histogram/","Largest Rectangular Area Histogram")</f>
         <v>Largest Rectangular Area Histogram</v>
       </c>
-      <c r="B151" s="34" t="s">
+      <c r="B151" s="35" t="s">
         <v>183</v>
       </c>
-      <c r="C151" s="34"/>
+      <c r="C151" s="35"/>
       <c r="D151" s="21"/>
       <c r="E151" s="21"/>
       <c r="F151" s="21"/>
@@ -8246,10 +8247,10 @@
         <f>HYPERLINK("https://leetcode.com/problems/maximal-rectangle/","maximu size binary matrix containing 1")</f>
         <v>maximu size binary matrix containing 1</v>
       </c>
-      <c r="B152" s="34" t="s">
+      <c r="B152" s="35" t="s">
         <v>184</v>
       </c>
-      <c r="C152" s="34"/>
+      <c r="C152" s="35"/>
       <c r="D152" s="21"/>
       <c r="E152" s="21"/>
       <c r="F152" s="21"/>
@@ -8279,10 +8280,10 @@
         <f>HYPERLINK("https://leetcode.com/problems/asteroid-collision/","Asteroid Collision")</f>
         <v>Asteroid Collision</v>
       </c>
-      <c r="B153" s="34" t="s">
+      <c r="B153" s="35" t="s">
         <v>185</v>
       </c>
-      <c r="C153" s="34"/>
+      <c r="C153" s="35"/>
       <c r="D153" s="21"/>
       <c r="E153" s="21"/>
       <c r="F153" s="21"/>
@@ -8342,10 +8343,10 @@
         <f>HYPERLINK("https://leetcode.com/problems/valid-parentheses/","Valid Parentheses")</f>
         <v>Valid Parentheses</v>
       </c>
-      <c r="B155" s="34" t="s">
+      <c r="B155" s="35" t="s">
         <v>187</v>
       </c>
-      <c r="C155" s="34"/>
+      <c r="C155" s="35"/>
       <c r="D155" s="21"/>
       <c r="E155" s="21"/>
       <c r="F155" s="21"/>
@@ -8375,10 +8376,10 @@
         <f>HYPERLINK("https://www.geeksforgeeks.org/length-of-the-longest-valid-substring/","Length of longest valid substring")</f>
         <v>Length of longest valid substring</v>
       </c>
-      <c r="B156" s="34" t="s">
+      <c r="B156" s="35" t="s">
         <v>188</v>
       </c>
-      <c r="C156" s="34"/>
+      <c r="C156" s="35"/>
       <c r="D156" s="21"/>
       <c r="E156" s="21"/>
       <c r="F156" s="21"/>
@@ -8408,7 +8409,7 @@
         <f>HYPERLINK("https://www.geeksforgeeks.org/find-expression-duplicate-parenthesis-not/","Count of duplicate Parentheses")</f>
         <v>Count of duplicate Parentheses</v>
       </c>
-      <c r="B157" s="34" t="s">
+      <c r="B157" s="35" t="s">
         <v>189</v>
       </c>
       <c r="C157" s="21"/>
@@ -8441,10 +8442,10 @@
         <f>HYPERLINK("https://www.geeksforgeeks.org/minimum-number-of-bracket-reversals-needed-to-make-an-expression-balanced/","Minimum Number of bracket reversal")</f>
         <v>Minimum Number of bracket reversal</v>
       </c>
-      <c r="B158" s="34" t="s">
+      <c r="B158" s="35" t="s">
         <v>190</v>
       </c>
-      <c r="C158" s="34"/>
+      <c r="C158" s="35"/>
       <c r="D158" s="21"/>
       <c r="E158" s="21"/>
       <c r="F158" s="21"/>
@@ -8474,7 +8475,7 @@
         <f>HYPERLINK("https://leetcode.com/problems/minimum-add-to-make-parentheses-valid/","Minimum Add To make Parentheses Valid")</f>
         <v>Minimum Add To make Parentheses Valid</v>
       </c>
-      <c r="B159" s="34" t="s">
+      <c r="B159" s="35" t="s">
         <v>191</v>
       </c>
       <c r="C159" s="21"/>
@@ -8507,10 +8508,10 @@
         <f>HYPERLINK("https://leetcode.com/problems/remove-k-digits/","Remove K digits From number")</f>
         <v>Remove K digits From number</v>
       </c>
-      <c r="B160" s="34" t="s">
+      <c r="B160" s="35" t="s">
         <v>192</v>
       </c>
-      <c r="C160" s="34"/>
+      <c r="C160" s="35"/>
       <c r="D160" s="21"/>
       <c r="E160" s="21"/>
       <c r="F160" s="21"/>
@@ -8536,11 +8537,11 @@
       <c r="Z160" s="21"/>
     </row>
     <row r="161" customHeight="1" spans="1:26">
-      <c r="A161" s="34" t="s">
+      <c r="A161" s="35" t="s">
         <v>193</v>
       </c>
-      <c r="B161" s="34"/>
-      <c r="C161" s="34"/>
+      <c r="B161" s="35"/>
+      <c r="C161" s="35"/>
       <c r="D161" s="21"/>
       <c r="E161" s="21"/>
       <c r="F161" s="21"/>
@@ -8570,10 +8571,10 @@
         <f>HYPERLINK("https://www.geeksforgeeks.org/first-negative-integer-every-window-size-k/","First negative Integer in k sized window")</f>
         <v>First negative Integer in k sized window</v>
       </c>
-      <c r="B162" s="34" t="s">
+      <c r="B162" s="35" t="s">
         <v>194</v>
       </c>
-      <c r="C162" s="34"/>
+      <c r="C162" s="35"/>
       <c r="D162" s="21"/>
       <c r="E162" s="21"/>
       <c r="F162" s="21"/>
@@ -8599,7 +8600,7 @@
       <c r="Z162" s="21"/>
     </row>
     <row r="163" customHeight="1" spans="1:26">
-      <c r="A163" s="25" t="str">
+      <c r="A163" s="26" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/maximum-sum-of-smallest-and-second-smallest-in-an-array/","Maximum sum of smallest and second smallest")</f>
         <v>Maximum sum of smallest and second smallest</v>
       </c>
@@ -8632,11 +8633,11 @@
       <c r="Z163" s="21"/>
     </row>
     <row r="164" customHeight="1" spans="1:26">
-      <c r="A164" s="25" t="str">
+      <c r="A164" s="26" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/reversing-first-k-elements-queue/","K reverse in a queue")</f>
         <v>K reverse in a queue</v>
       </c>
-      <c r="B164" s="36" t="s">
+      <c r="B164" s="37" t="s">
         <v>196</v>
       </c>
       <c r="C164" s="21"/>
@@ -8665,7 +8666,7 @@
       <c r="Z164" s="21"/>
     </row>
     <row r="165" customHeight="1" spans="1:26">
-      <c r="A165" s="25" t="str">
+      <c r="A165" s="26" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/efficiently-implement-k-stacks-single-array/","K stacks in a single array")</f>
         <v>K stacks in a single array</v>
       </c>
@@ -8698,7 +8699,7 @@
       <c r="Z165" s="21"/>
     </row>
     <row r="166" customHeight="1" spans="1:26">
-      <c r="A166" s="25"/>
+      <c r="A166" s="26"/>
       <c r="B166" s="21"/>
       <c r="C166" s="21"/>
       <c r="D166" s="21"/>
@@ -8756,7 +8757,7 @@
       <c r="Z167" s="21"/>
     </row>
     <row r="168" customHeight="1" spans="1:26">
-      <c r="A168" s="25" t="s">
+      <c r="A168" s="26" t="s">
         <v>199</v>
       </c>
       <c r="B168" s="21" t="s">
@@ -8788,7 +8789,7 @@
       <c r="Z168" s="21"/>
     </row>
     <row r="169" customHeight="1" spans="1:26">
-      <c r="A169" s="25" t="str">
+      <c r="A169" s="26" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/gas-station/","Gas Station")</f>
         <v>Gas Station</v>
       </c>
@@ -8825,10 +8826,10 @@
         <f>HYPERLINK("https://www.geeksforgeeks.org/interesting-method-generate-binary-numbers-1-n/","Print Binary Number")</f>
         <v>Print Binary Number</v>
       </c>
-      <c r="B170" s="34" t="s">
+      <c r="B170" s="35" t="s">
         <v>202</v>
       </c>
-      <c r="C170" s="34"/>
+      <c r="C170" s="35"/>
       <c r="D170" s="21"/>
       <c r="E170" s="21"/>
       <c r="F170" s="21"/>
@@ -8854,13 +8855,13 @@
       <c r="Z170" s="21"/>
     </row>
     <row r="171" customHeight="1" spans="1:26">
-      <c r="A171" s="25" t="s">
+      <c r="A171" s="26" t="s">
         <v>203</v>
       </c>
       <c r="B171" s="21" t="s">
         <v>204</v>
       </c>
-      <c r="C171" s="34"/>
+      <c r="C171" s="35"/>
       <c r="D171" s="21"/>
       <c r="E171" s="21"/>
       <c r="F171" s="21"/>
@@ -8890,10 +8891,10 @@
         <f>HYPERLINK("https://leetcode.com/problems/backspace-string-compare/","Backspace String Compare")</f>
         <v>Backspace String Compare</v>
       </c>
-      <c r="B172" s="34" t="s">
+      <c r="B172" s="35" t="s">
         <v>205</v>
       </c>
-      <c r="C172" s="34"/>
+      <c r="C172" s="35"/>
       <c r="D172" s="21"/>
       <c r="E172" s="21"/>
       <c r="F172" s="21"/>
@@ -8923,10 +8924,10 @@
         <f>HYPERLINK("https://leetcode.com/problems/car-fleet/","Car fleet")</f>
         <v>Car fleet</v>
       </c>
-      <c r="B173" s="34" t="s">
+      <c r="B173" s="35" t="s">
         <v>206</v>
       </c>
-      <c r="C173" s="34"/>
+      <c r="C173" s="35"/>
       <c r="D173" s="21"/>
       <c r="E173" s="21"/>
       <c r="F173" s="21"/>
@@ -8952,7 +8953,7 @@
       <c r="Z173" s="21"/>
     </row>
     <row r="174" customHeight="1" spans="1:26">
-      <c r="A174" s="25" t="str">
+      <c r="A174" s="26" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/validate-stack-sequences/","Validate Stack")</f>
         <v>Validate Stack</v>
       </c>
@@ -9015,7 +9016,7 @@
       <c r="Z175" s="21"/>
     </row>
     <row r="176" customHeight="1" spans="1:26">
-      <c r="A176" s="37" t="str">
+      <c r="A176" s="38" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/maximum-frequency-stack/","max frequency stack")</f>
         <v>max frequency stack</v>
       </c>
@@ -9048,7 +9049,7 @@
       <c r="Z176" s="21"/>
     </row>
     <row r="177" customHeight="1" spans="1:26">
-      <c r="A177" s="37" t="str">
+      <c r="A177" s="38" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/min-stack/","Min Stack")</f>
         <v>Min Stack</v>
       </c>
@@ -9111,7 +9112,7 @@
       <c r="Z178" s="21"/>
     </row>
     <row r="179" customHeight="1" spans="1:26">
-      <c r="A179" s="25" t="s">
+      <c r="A179" s="26" t="s">
         <v>212</v>
       </c>
       <c r="B179" s="21"/>
@@ -9141,7 +9142,7 @@
       <c r="Z179" s="21"/>
     </row>
     <row r="180" customHeight="1" spans="1:26">
-      <c r="A180" s="52" t="s">
+      <c r="A180" s="53" t="s">
         <v>10</v>
       </c>
       <c r="B180" s="1"/>
@@ -9201,7 +9202,7 @@
       <c r="Z181" s="21"/>
     </row>
     <row r="182" customHeight="1" spans="1:26">
-      <c r="A182" s="25" t="str">
+      <c r="A182" s="26" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/binary-tree-inorder-traversal/","Inorder Traversal")</f>
         <v>Inorder Traversal</v>
       </c>
@@ -9234,7 +9235,7 @@
       <c r="Z182" s="21"/>
     </row>
     <row r="183" customHeight="1" spans="1:26">
-      <c r="A183" s="25" t="str">
+      <c r="A183" s="26" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/binary-tree-preorder-traversal/","Preorder Traversal")</f>
         <v>Preorder Traversal</v>
       </c>
@@ -9267,7 +9268,7 @@
       <c r="Z183" s="21"/>
     </row>
     <row r="184" customHeight="1" spans="1:26">
-      <c r="A184" s="25" t="str">
+      <c r="A184" s="26" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/binary-tree-postorder-traversal/","Postorder Traversal")</f>
         <v>Postorder Traversal</v>
       </c>
@@ -9300,7 +9301,7 @@
       <c r="Z184" s="21"/>
     </row>
     <row r="185" customHeight="1" spans="1:26">
-      <c r="A185" s="25" t="str">
+      <c r="A185" s="26" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/binary-tree-level-order-traversal/","Binary Tree Level Order")</f>
         <v>Binary Tree Level Order</v>
       </c>
@@ -9333,7 +9334,7 @@
       <c r="Z185" s="21"/>
     </row>
     <row r="186" customHeight="1" spans="1:26">
-      <c r="A186" s="53" t="str">
+      <c r="A186" s="54" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/binary-search-tree-to-greater-sum-tree/","Binary search tree to greater sum")</f>
         <v>Binary search tree to greater sum</v>
       </c>
@@ -9366,7 +9367,7 @@
       <c r="Z186" s="21"/>
     </row>
     <row r="187" customHeight="1" spans="1:26">
-      <c r="A187" s="53" t="s">
+      <c r="A187" s="54" t="s">
         <v>219</v>
       </c>
       <c r="B187" s="21" t="s">
@@ -9398,7 +9399,7 @@
       <c r="Z187" s="21"/>
     </row>
     <row r="188" customHeight="1" spans="1:26">
-      <c r="A188" s="53" t="s">
+      <c r="A188" s="54" t="s">
         <v>220</v>
       </c>
       <c r="B188" s="21" t="s">
@@ -9430,7 +9431,7 @@
       <c r="Z188" s="21"/>
     </row>
     <row r="189" customHeight="1" spans="1:26">
-      <c r="A189" s="32" t="s">
+      <c r="A189" s="33" t="s">
         <v>222</v>
       </c>
       <c r="B189" s="21"/>
@@ -9460,7 +9461,7 @@
       <c r="Z189" s="21"/>
     </row>
     <row r="190" customHeight="1" spans="1:26">
-      <c r="A190" s="25" t="str">
+      <c r="A190" s="26" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/binary-tree-right-side-view/","right side view")</f>
         <v>right side view</v>
       </c>
@@ -9493,7 +9494,7 @@
       <c r="Z190" s="21"/>
     </row>
     <row r="191" customHeight="1" spans="1:26">
-      <c r="A191" s="25" t="str">
+      <c r="A191" s="26" t="str">
         <f>HYPERLINK("https://practice.geeksforgeeks.org/problems/left-view-of-binary-tree/1","Left View")</f>
         <v>Left View</v>
       </c>
@@ -9526,7 +9527,7 @@
       <c r="Z191" s="21"/>
     </row>
     <row r="192" customHeight="1" spans="1:26">
-      <c r="A192" s="25" t="str">
+      <c r="A192" s="26" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/print-nodes-in-the-top-view-of-binary-tree-set-3/","Top View")</f>
         <v>Top View</v>
       </c>
@@ -9559,7 +9560,7 @@
       <c r="Z192" s="21"/>
     </row>
     <row r="193" customHeight="1" spans="1:26">
-      <c r="A193" s="25" t="str">
+      <c r="A193" s="26" t="str">
         <f>HYPERLINK("https://practice.geeksforgeeks.org/problems/bottom-view-of-binary-tree/1","Bottom View")</f>
         <v>Bottom View</v>
       </c>
@@ -9592,7 +9593,7 @@
       <c r="Z193" s="21"/>
     </row>
     <row r="194" customHeight="1" spans="1:26">
-      <c r="A194" s="25" t="s">
+      <c r="A194" s="26" t="s">
         <v>227</v>
       </c>
       <c r="B194" s="21" t="s">
@@ -9624,7 +9625,7 @@
       <c r="Z194" s="21"/>
     </row>
     <row r="195" customHeight="1" spans="1:26">
-      <c r="A195" s="25" t="str">
+      <c r="A195" s="26" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/vertical-order-traversal-of-a-binary-tree/","Vertical order")</f>
         <v>Vertical order</v>
       </c>
@@ -9657,7 +9658,7 @@
       <c r="Z195" s="21"/>
     </row>
     <row r="196" customHeight="1" spans="1:26">
-      <c r="A196" s="25" t="str">
+      <c r="A196" s="26" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/diagonal-traversal-of-binary-tree/","Diagonal Traversal")</f>
         <v>Diagonal Traversal</v>
       </c>
@@ -9690,7 +9691,7 @@
       <c r="Z196" s="21"/>
     </row>
     <row r="197" customHeight="1" spans="1:26">
-      <c r="A197" s="25" t="s">
+      <c r="A197" s="26" t="s">
         <v>230</v>
       </c>
       <c r="B197" s="21" t="s">
@@ -9722,7 +9723,7 @@
       <c r="Z197" s="21"/>
     </row>
     <row r="198" customHeight="1" spans="1:26">
-      <c r="A198" s="25" t="s">
+      <c r="A198" s="26" t="s">
         <v>232</v>
       </c>
       <c r="B198" s="21" t="s">
@@ -9754,7 +9755,7 @@
       <c r="Z198" s="21"/>
     </row>
     <row r="199" customHeight="1" spans="1:26">
-      <c r="A199" s="32" t="s">
+      <c r="A199" s="33" t="s">
         <v>234</v>
       </c>
       <c r="B199" s="21"/>
@@ -9784,14 +9785,14 @@
       <c r="Z199" s="21"/>
     </row>
     <row r="200" customHeight="1" spans="1:26">
-      <c r="A200" s="25" t="str">
+      <c r="A200" s="26" t="str">
         <f>HYPERLINK("https://practice.geeksforgeeks.org/problems/image-multiplication/0","image multiplication")</f>
         <v>image multiplication</v>
       </c>
-      <c r="B200" s="34" t="s">
+      <c r="B200" s="35" t="s">
         <v>235</v>
       </c>
-      <c r="C200" s="34"/>
+      <c r="C200" s="35"/>
       <c r="D200" s="21"/>
       <c r="E200" s="21"/>
       <c r="F200" s="21"/>
@@ -9817,7 +9818,7 @@
       <c r="Z200" s="21"/>
     </row>
     <row r="201" customHeight="1" spans="1:26">
-      <c r="A201" s="25" t="s">
+      <c r="A201" s="26" t="s">
         <v>236</v>
       </c>
       <c r="B201" s="21" t="s">
@@ -9849,7 +9850,7 @@
       <c r="Z201" s="21"/>
     </row>
     <row r="202" customHeight="1" spans="1:26">
-      <c r="A202" s="25" t="s">
+      <c r="A202" s="26" t="s">
         <v>238</v>
       </c>
       <c r="B202" s="21" t="s">
@@ -9881,7 +9882,7 @@
       <c r="Z202" s="21"/>
     </row>
     <row r="203" customHeight="1" spans="1:26">
-      <c r="A203" s="25" t="str">
+      <c r="A203" s="26" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/lowest-common-ancestor-of-a-binary-search-tree/","Lowest common ancestor in BST")</f>
         <v>Lowest common ancestor in BST</v>
       </c>
@@ -9914,7 +9915,7 @@
       <c r="Z203" s="21"/>
     </row>
     <row r="204" customHeight="1" spans="1:26">
-      <c r="A204" s="25" t="str">
+      <c r="A204" s="26" t="str">
         <f>HYPERLINK("https://practice.geeksforgeeks.org/problems/lowest-common-ancestor-in-a-binary-tree/1","Lowest common ancestor")</f>
         <v>Lowest common ancestor</v>
       </c>
@@ -9977,14 +9978,14 @@
       <c r="Z205" s="21"/>
     </row>
     <row r="206" customHeight="1" spans="1:26">
-      <c r="A206" s="53" t="str">
+      <c r="A206" s="54" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/distribute-coins-in-binary-tree/","Distribute coins in a binary tree")</f>
         <v>Distribute coins in a binary tree</v>
       </c>
-      <c r="B206" s="34" t="s">
+      <c r="B206" s="35" t="s">
         <v>242</v>
       </c>
-      <c r="C206" s="34"/>
+      <c r="C206" s="35"/>
       <c r="D206" s="21"/>
       <c r="E206" s="21"/>
       <c r="F206" s="21"/>
@@ -10010,7 +10011,7 @@
       <c r="Z206" s="21"/>
     </row>
     <row r="207" customHeight="1" spans="1:26">
-      <c r="A207" s="53" t="str">
+      <c r="A207" s="54" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/binary-tree-cameras/","Binary Tree Cameras")</f>
         <v>Binary Tree Cameras</v>
       </c>
@@ -10043,7 +10044,7 @@
       <c r="Z207" s="21"/>
     </row>
     <row r="208" customHeight="1" spans="1:26">
-      <c r="A208" s="25" t="s">
+      <c r="A208" s="26" t="s">
         <v>244</v>
       </c>
       <c r="B208" s="21"/>
@@ -10073,7 +10074,7 @@
       <c r="Z208" s="21"/>
     </row>
     <row r="209" customHeight="1" spans="1:26">
-      <c r="A209" s="25" t="s">
+      <c r="A209" s="26" t="s">
         <v>245</v>
       </c>
       <c r="B209" s="21" t="s">
@@ -10105,7 +10106,7 @@
       <c r="Z209" s="21"/>
     </row>
     <row r="210" customHeight="1" spans="1:26">
-      <c r="A210" s="25" t="str">
+      <c r="A210" s="26" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/flatten-binary-tree-to-linked-list/","Flatten binary tree to linked list")</f>
         <v>Flatten binary tree to linked list</v>
       </c>
@@ -10138,7 +10139,7 @@
       <c r="Z210" s="21"/>
     </row>
     <row r="211" customHeight="1" spans="1:26">
-      <c r="A211" s="53" t="str">
+      <c r="A211" s="54" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/convert-a-binary-tree-to-a-circular-doubly-link-list/","Convert a binary tree to circular doubly linked list")</f>
         <v>Convert a binary tree to circular doubly linked list</v>
       </c>
@@ -10171,7 +10172,7 @@
       <c r="Z211" s="21"/>
     </row>
     <row r="212" customHeight="1" spans="1:26">
-      <c r="A212" s="54" t="s">
+      <c r="A212" s="55" t="s">
         <v>249</v>
       </c>
       <c r="B212" s="21"/>
@@ -10201,7 +10202,7 @@
       <c r="Z212" s="21"/>
     </row>
     <row r="213" customHeight="1" spans="1:26">
-      <c r="A213" s="25" t="str">
+      <c r="A213" s="26" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/in-place-conversion-of-sorted-dll-to-balanced-bst/","Conversion of sorted DLL to BST")</f>
         <v>Conversion of sorted DLL to BST</v>
       </c>
@@ -10234,7 +10235,7 @@
       <c r="Z213" s="21"/>
     </row>
     <row r="214" customHeight="1" spans="1:26">
-      <c r="A214" s="25" t="str">
+      <c r="A214" s="26" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/merge-two-balanced-binary-search-trees/","Merge Two BST")</f>
         <v>Merge Two BST</v>
       </c>
@@ -10267,14 +10268,14 @@
       <c r="Z214" s="21"/>
     </row>
     <row r="215" customHeight="1" spans="1:26">
-      <c r="A215" s="25" t="str">
+      <c r="A215" s="26" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/clone-binary-tree-random-pointers/","clone a binary tree with random pointer")</f>
         <v>clone a binary tree with random pointer</v>
       </c>
-      <c r="B215" s="34" t="s">
+      <c r="B215" s="35" t="s">
         <v>252</v>
       </c>
-      <c r="C215" s="34"/>
+      <c r="C215" s="35"/>
       <c r="D215" s="21"/>
       <c r="E215" s="21"/>
       <c r="F215" s="21"/>
@@ -10300,11 +10301,11 @@
       <c r="Z215" s="21"/>
     </row>
     <row r="216" customHeight="1" spans="1:26">
-      <c r="A216" s="25" t="s">
+      <c r="A216" s="26" t="s">
         <v>253</v>
       </c>
-      <c r="B216" s="34"/>
-      <c r="C216" s="34"/>
+      <c r="B216" s="35"/>
+      <c r="C216" s="35"/>
       <c r="D216" s="21"/>
       <c r="E216" s="21"/>
       <c r="F216" s="21"/>
@@ -10330,11 +10331,11 @@
       <c r="Z216" s="21"/>
     </row>
     <row r="217" customHeight="1" spans="1:26">
-      <c r="A217" s="25" t="str">
+      <c r="A217" s="26" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/construct-binary-tree-from-preorder-and-inorder-traversal/","Construct from inorder and preorder")</f>
         <v>Construct from inorder and preorder</v>
       </c>
-      <c r="B217" s="34" t="s">
+      <c r="B217" s="35" t="s">
         <v>254</v>
       </c>
       <c r="C217" s="21"/>
@@ -10363,14 +10364,14 @@
       <c r="Z217" s="21"/>
     </row>
     <row r="218" customHeight="1" spans="1:26">
-      <c r="A218" s="25" t="str">
+      <c r="A218" s="26" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/construct-binary-tree-from-inorder-and-postorder-traversal/","Construct from inorder and postorder")</f>
         <v>Construct from inorder and postorder</v>
       </c>
-      <c r="B218" s="34" t="s">
+      <c r="B218" s="35" t="s">
         <v>255</v>
       </c>
-      <c r="C218" s="34"/>
+      <c r="C218" s="35"/>
       <c r="D218" s="21"/>
       <c r="E218" s="21"/>
       <c r="F218" s="21"/>
@@ -10399,8 +10400,8 @@
       <c r="A219" s="20" t="s">
         <v>256</v>
       </c>
-      <c r="B219" s="34"/>
-      <c r="C219" s="34"/>
+      <c r="B219" s="35"/>
+      <c r="C219" s="35"/>
       <c r="D219" s="21"/>
       <c r="E219" s="21"/>
       <c r="F219" s="21"/>
@@ -10426,14 +10427,14 @@
       <c r="Z219" s="21"/>
     </row>
     <row r="220" customHeight="1" spans="1:26">
-      <c r="A220" s="25" t="str">
+      <c r="A220" s="26" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/construct-tree-inorder-level-order-traversals/","Inorder and level order")</f>
         <v>Inorder and level order</v>
       </c>
-      <c r="B220" s="34" t="s">
+      <c r="B220" s="35" t="s">
         <v>257</v>
       </c>
-      <c r="C220" s="34"/>
+      <c r="C220" s="35"/>
       <c r="D220" s="21"/>
       <c r="E220" s="21"/>
       <c r="F220" s="21"/>
@@ -10459,7 +10460,7 @@
       <c r="Z220" s="21"/>
     </row>
     <row r="221" customHeight="1" spans="1:26">
-      <c r="A221" s="25" t="s">
+      <c r="A221" s="26" t="s">
         <v>258</v>
       </c>
       <c r="B221" s="21" t="s">
@@ -10491,7 +10492,7 @@
       <c r="Z221" s="21"/>
     </row>
     <row r="222" customHeight="1" spans="1:26">
-      <c r="A222" s="25" t="s">
+      <c r="A222" s="26" t="s">
         <v>260</v>
       </c>
       <c r="B222" s="21" t="s">
@@ -10523,7 +10524,7 @@
       <c r="Z222" s="21"/>
     </row>
     <row r="223" customHeight="1" spans="1:26">
-      <c r="A223" s="25" t="s">
+      <c r="A223" s="26" t="s">
         <v>262</v>
       </c>
       <c r="B223" s="21" t="s">
@@ -10555,10 +10556,10 @@
       <c r="Z223" s="21"/>
     </row>
     <row r="224" customHeight="1" spans="1:26">
-      <c r="A224" s="25" t="s">
+      <c r="A224" s="26" t="s">
         <v>263</v>
       </c>
-      <c r="B224" s="36" t="s">
+      <c r="B224" s="37" t="s">
         <v>264</v>
       </c>
       <c r="C224" s="21"/>
@@ -10587,14 +10588,14 @@
       <c r="Z224" s="21"/>
     </row>
     <row r="225" customHeight="1" spans="1:26">
-      <c r="A225" s="55" t="str">
+      <c r="A225" s="56" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/serialize-and-deserialize-binary-tree/","serialize and deserialise")</f>
         <v>serialize and deserialise</v>
       </c>
-      <c r="B225" s="34" t="s">
+      <c r="B225" s="35" t="s">
         <v>265</v>
       </c>
-      <c r="C225" s="34"/>
+      <c r="C225" s="35"/>
       <c r="D225" s="21"/>
       <c r="E225" s="21"/>
       <c r="F225" s="21"/>
@@ -10620,7 +10621,7 @@
       <c r="Z225" s="21"/>
     </row>
     <row r="226" customHeight="1" spans="1:26">
-      <c r="A226" s="55" t="s">
+      <c r="A226" s="56" t="s">
         <v>266</v>
       </c>
       <c r="B226" s="21" t="s">
@@ -10652,7 +10653,7 @@
       <c r="Z226" s="21"/>
     </row>
     <row r="227" customHeight="1" spans="1:26">
-      <c r="A227" s="25" t="s">
+      <c r="A227" s="26" t="s">
         <v>267</v>
       </c>
       <c r="B227" s="21" t="s">
@@ -10684,7 +10685,7 @@
       <c r="Z227" s="21"/>
     </row>
     <row r="228" customHeight="1" spans="1:26">
-      <c r="A228" s="32" t="s">
+      <c r="A228" s="33" t="s">
         <v>269</v>
       </c>
       <c r="B228" s="21"/>
@@ -10714,7 +10715,7 @@
       <c r="Z228" s="21"/>
     </row>
     <row r="229" customHeight="1" spans="1:26">
-      <c r="A229" s="25" t="s">
+      <c r="A229" s="26" t="s">
         <v>270</v>
       </c>
       <c r="B229" s="21" t="s">
@@ -10746,7 +10747,7 @@
       <c r="Z229" s="21"/>
     </row>
     <row r="230" customHeight="1" spans="1:26">
-      <c r="A230" s="25" t="s">
+      <c r="A230" s="26" t="s">
         <v>272</v>
       </c>
       <c r="B230" s="21" t="s">
@@ -10778,7 +10779,7 @@
       <c r="Z230" s="21"/>
     </row>
     <row r="231" customHeight="1" spans="1:26">
-      <c r="A231" s="25" t="s">
+      <c r="A231" s="26" t="s">
         <v>273</v>
       </c>
       <c r="B231" s="21" t="s">
@@ -10810,7 +10811,7 @@
       <c r="Z231" s="21"/>
     </row>
     <row r="232" customHeight="1" spans="1:26">
-      <c r="A232" s="25" t="s">
+      <c r="A232" s="26" t="s">
         <v>275</v>
       </c>
       <c r="B232" s="21" t="s">
@@ -10842,7 +10843,7 @@
       <c r="Z232" s="21"/>
     </row>
     <row r="233" customHeight="1" spans="1:26">
-      <c r="A233" s="56" t="s">
+      <c r="A233" s="57" t="s">
         <v>277</v>
       </c>
       <c r="B233" s="21"/>
@@ -10872,7 +10873,7 @@
       <c r="Z233" s="21"/>
     </row>
     <row r="234" customHeight="1" spans="1:26">
-      <c r="A234" s="25" t="s">
+      <c r="A234" s="26" t="s">
         <v>278</v>
       </c>
       <c r="B234" s="21"/>
@@ -10902,7 +10903,7 @@
       <c r="Z234" s="21"/>
     </row>
     <row r="235" customHeight="1" spans="1:26">
-      <c r="A235" s="52" t="s">
+      <c r="A235" s="53" t="s">
         <v>279</v>
       </c>
       <c r="B235" s="1"/>
@@ -10962,10 +10963,10 @@
       <c r="Z236" s="21"/>
     </row>
     <row r="237" customHeight="1" spans="1:26">
-      <c r="A237" s="23" t="s">
+      <c r="A237" s="24" t="s">
         <v>281</v>
       </c>
-      <c r="B237" s="24" t="s">
+      <c r="B237" s="25" t="s">
         <v>282</v>
       </c>
       <c r="C237" s="21"/>
@@ -11058,7 +11059,7 @@
       <c r="Z239" s="21"/>
     </row>
     <row r="240" customHeight="1" spans="1:26">
-      <c r="A240" s="57" t="str">
+      <c r="A240" s="58" t="str">
         <f>HYPERLINK("https://www.spoj.com/problems/MST/","Prim's Algo")</f>
         <v>Prim's Algo</v>
       </c>
@@ -11091,7 +11092,7 @@
       <c r="Z240" s="21"/>
     </row>
     <row r="241" customHeight="1" spans="1:26">
-      <c r="A241" s="53" t="s">
+      <c r="A241" s="54" t="s">
         <v>285</v>
       </c>
       <c r="B241" s="21" t="s">
@@ -11219,7 +11220,7 @@
       <c r="Z244" s="21"/>
     </row>
     <row r="245" customHeight="1" spans="1:26">
-      <c r="A245" s="25" t="s">
+      <c r="A245" s="26" t="s">
         <v>290</v>
       </c>
       <c r="B245" s="21" t="s">
@@ -11251,7 +11252,7 @@
       <c r="Z245" s="21"/>
     </row>
     <row r="246" customHeight="1" spans="1:26">
-      <c r="A246" s="23" t="str">
+      <c r="A246" s="24" t="str">
         <f>HYPERLINK("https://practice.geeksforgeeks.org/problems/depth-first-traversal-for-a-graph/1","DFS")</f>
         <v>DFS</v>
       </c>
@@ -11284,7 +11285,7 @@
       <c r="Z246" s="21"/>
     </row>
     <row r="247" customHeight="1" spans="1:26">
-      <c r="A247" s="56" t="str">
+      <c r="A247" s="57" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/evaluate-division/","evaluate division")</f>
         <v>evaluate division</v>
       </c>
@@ -11315,7 +11316,7 @@
       <c r="Z247" s="21"/>
     </row>
     <row r="248" customHeight="1" spans="1:26">
-      <c r="A248" s="23" t="s">
+      <c r="A248" s="24" t="s">
         <v>293</v>
       </c>
       <c r="B248" s="21"/>
@@ -11345,10 +11346,10 @@
       <c r="Z248" s="21"/>
     </row>
     <row r="249" customHeight="1" spans="1:26">
-      <c r="A249" s="23" t="s">
+      <c r="A249" s="24" t="s">
         <v>294</v>
       </c>
-      <c r="B249" s="24" t="s">
+      <c r="B249" s="25" t="s">
         <v>295</v>
       </c>
       <c r="C249" s="21"/>
@@ -11377,10 +11378,10 @@
       <c r="Z249" s="21"/>
     </row>
     <row r="250" customHeight="1" spans="1:26">
-      <c r="A250" s="23" t="s">
+      <c r="A250" s="24" t="s">
         <v>296</v>
       </c>
-      <c r="B250" s="24" t="s">
+      <c r="B250" s="25" t="s">
         <v>297</v>
       </c>
       <c r="C250" s="21"/>
@@ -11409,14 +11410,14 @@
       <c r="Z250" s="21"/>
     </row>
     <row r="251" customHeight="1" spans="1:26">
-      <c r="A251" s="23" t="str">
+      <c r="A251" s="24" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/01-matrix/","0-1 matrix")</f>
         <v>0-1 matrix</v>
       </c>
-      <c r="B251" s="24" t="s">
+      <c r="B251" s="25" t="s">
         <v>298</v>
       </c>
-      <c r="C251" s="24"/>
+      <c r="C251" s="25"/>
       <c r="D251" s="21"/>
       <c r="E251" s="21"/>
       <c r="F251" s="21"/>
@@ -11442,13 +11443,13 @@
       <c r="Z251" s="21"/>
     </row>
     <row r="252" customHeight="1" spans="1:26">
-      <c r="A252" s="23" t="s">
+      <c r="A252" s="24" t="s">
         <v>299</v>
       </c>
-      <c r="B252" s="24" t="s">
+      <c r="B252" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C252" s="24"/>
+      <c r="C252" s="25"/>
       <c r="D252" s="21"/>
       <c r="E252" s="21"/>
       <c r="F252" s="21"/>
@@ -11474,7 +11475,7 @@
       <c r="Z252" s="21"/>
     </row>
     <row r="253" customHeight="1" spans="1:26">
-      <c r="A253" s="23" t="s">
+      <c r="A253" s="24" t="s">
         <v>301</v>
       </c>
       <c r="B253" s="21" t="s">
@@ -11506,7 +11507,7 @@
       <c r="Z253" s="21"/>
     </row>
     <row r="254" customHeight="1" spans="1:26">
-      <c r="A254" s="32" t="s">
+      <c r="A254" s="33" t="s">
         <v>303</v>
       </c>
       <c r="B254" s="21"/>
@@ -11536,7 +11537,7 @@
       <c r="Z254" s="21"/>
     </row>
     <row r="255" customHeight="1" spans="1:26">
-      <c r="A255" s="23" t="s">
+      <c r="A255" s="24" t="s">
         <v>304</v>
       </c>
       <c r="B255" s="21" t="s">
@@ -11599,13 +11600,13 @@
       <c r="Z256" s="21"/>
     </row>
     <row r="257" customHeight="1" spans="1:26">
-      <c r="A257" s="27" t="s">
+      <c r="A257" s="28" t="s">
         <v>306</v>
       </c>
-      <c r="B257" s="28" t="s">
+      <c r="B257" s="29" t="s">
         <v>306</v>
       </c>
-      <c r="C257" s="29"/>
+      <c r="C257" s="30"/>
       <c r="D257" s="21"/>
       <c r="E257" s="21"/>
       <c r="F257" s="21"/>
@@ -11631,7 +11632,7 @@
       <c r="Z257" s="21"/>
     </row>
     <row r="258" customHeight="1" spans="1:26">
-      <c r="A258" s="23" t="s">
+      <c r="A258" s="24" t="s">
         <v>307</v>
       </c>
       <c r="B258" s="21"/>
@@ -11724,13 +11725,13 @@
       <c r="Z260" s="21"/>
     </row>
     <row r="261" customHeight="1" spans="1:26">
-      <c r="A261" s="23" t="s">
+      <c r="A261" s="24" t="s">
         <v>310</v>
       </c>
-      <c r="B261" s="24" t="s">
+      <c r="B261" s="25" t="s">
         <v>311</v>
       </c>
-      <c r="C261" s="24"/>
+      <c r="C261" s="25"/>
       <c r="D261" s="21"/>
       <c r="E261" s="21"/>
       <c r="F261" s="21"/>
@@ -11756,13 +11757,13 @@
       <c r="Z261" s="21"/>
     </row>
     <row r="262" customHeight="1" spans="1:26">
-      <c r="A262" s="23" t="s">
+      <c r="A262" s="24" t="s">
         <v>312</v>
       </c>
-      <c r="B262" s="24" t="s">
+      <c r="B262" s="25" t="s">
         <v>313</v>
       </c>
-      <c r="C262" s="24"/>
+      <c r="C262" s="25"/>
       <c r="D262" s="21"/>
       <c r="E262" s="21"/>
       <c r="F262" s="21"/>
@@ -11788,7 +11789,7 @@
       <c r="Z262" s="21"/>
     </row>
     <row r="263" customHeight="1" spans="1:26">
-      <c r="A263" s="57" t="str">
+      <c r="A263" s="58" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/topological-sorting/","topological sorting")</f>
         <v>topological sorting</v>
       </c>
@@ -11821,7 +11822,7 @@
       <c r="Z263" s="21"/>
     </row>
     <row r="264" customHeight="1" spans="1:26">
-      <c r="A264" s="57" t="str">
+      <c r="A264" s="58" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/topological-sorting-indegree-based-solution/","Kahn's algo")</f>
         <v>Kahn's algo</v>
       </c>
@@ -11887,11 +11888,11 @@
       <c r="Z265" s="21"/>
     </row>
     <row r="266" customHeight="1" spans="1:26">
-      <c r="A266" s="23" t="str">
+      <c r="A266" s="24" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/articulation-points-or-cut-vertices-in-a-graph/","Articulation point")</f>
         <v>Articulation point</v>
       </c>
-      <c r="B266" s="24" t="s">
+      <c r="B266" s="25" t="s">
         <v>317</v>
       </c>
       <c r="C266" s="21"/>
@@ -11920,13 +11921,13 @@
       <c r="Z266" s="21"/>
     </row>
     <row r="267" customHeight="1" spans="1:26">
-      <c r="A267" s="26" t="s">
+      <c r="A267" s="27" t="s">
         <v>318</v>
       </c>
-      <c r="B267" s="34" t="s">
+      <c r="B267" s="35" t="s">
         <v>319</v>
       </c>
-      <c r="C267" s="34"/>
+      <c r="C267" s="35"/>
       <c r="D267" s="21"/>
       <c r="E267" s="21"/>
       <c r="F267" s="21"/>
@@ -11952,10 +11953,10 @@
       <c r="Z267" s="21"/>
     </row>
     <row r="268" customHeight="1" spans="1:26">
-      <c r="A268" s="26" t="s">
+      <c r="A268" s="27" t="s">
         <v>320</v>
       </c>
-      <c r="B268" s="24" t="s">
+      <c r="B268" s="25" t="s">
         <v>321</v>
       </c>
       <c r="C268" s="21"/>
@@ -11984,10 +11985,10 @@
       <c r="Z268" s="21"/>
     </row>
     <row r="269" customHeight="1" spans="1:26">
-      <c r="A269" s="23" t="s">
+      <c r="A269" s="24" t="s">
         <v>322</v>
       </c>
-      <c r="B269" s="24" t="s">
+      <c r="B269" s="25" t="s">
         <v>323</v>
       </c>
       <c r="C269" s="21"/>
@@ -12016,11 +12017,11 @@
       <c r="Z269" s="21"/>
     </row>
     <row r="270" customHeight="1" spans="1:26">
-      <c r="A270" s="32" t="s">
+      <c r="A270" s="33" t="s">
         <v>324</v>
       </c>
-      <c r="B270" s="34"/>
-      <c r="C270" s="34"/>
+      <c r="B270" s="35"/>
+      <c r="C270" s="35"/>
       <c r="D270" s="21"/>
       <c r="E270" s="21"/>
       <c r="F270" s="21"/>
@@ -12076,7 +12077,7 @@
       <c r="Z271" s="21"/>
     </row>
     <row r="272" customHeight="1" spans="1:26">
-      <c r="A272" s="58" t="s">
+      <c r="A272" s="59" t="s">
         <v>326</v>
       </c>
       <c r="B272" s="21"/>
@@ -12106,13 +12107,13 @@
       <c r="Z272" s="21"/>
     </row>
     <row r="273" customHeight="1" spans="1:26">
-      <c r="A273" s="25" t="s">
+      <c r="A273" s="26" t="s">
         <v>327</v>
       </c>
-      <c r="B273" s="24" t="s">
+      <c r="B273" s="25" t="s">
         <v>328</v>
       </c>
-      <c r="C273" s="24"/>
+      <c r="C273" s="25"/>
       <c r="D273" s="21"/>
       <c r="E273" s="21"/>
       <c r="F273" s="21"/>
@@ -12138,10 +12139,10 @@
       <c r="Z273" s="21"/>
     </row>
     <row r="274" customHeight="1" spans="1:26">
-      <c r="A274" s="26" t="s">
+      <c r="A274" s="27" t="s">
         <v>329</v>
       </c>
-      <c r="B274" s="24" t="s">
+      <c r="B274" s="25" t="s">
         <v>330</v>
       </c>
       <c r="C274" s="21"/>
@@ -12170,10 +12171,10 @@
       <c r="Z274" s="21"/>
     </row>
     <row r="275" customHeight="1" spans="1:26">
-      <c r="A275" s="37" t="s">
+      <c r="A275" s="38" t="s">
         <v>331</v>
       </c>
-      <c r="B275" s="24" t="s">
+      <c r="B275" s="25" t="s">
         <v>332</v>
       </c>
       <c r="C275" s="21"/>
@@ -12202,10 +12203,10 @@
       <c r="Z275" s="21"/>
     </row>
     <row r="276" customHeight="1" spans="1:26">
-      <c r="A276" s="26" t="s">
+      <c r="A276" s="27" t="s">
         <v>333</v>
       </c>
-      <c r="B276" s="24" t="s">
+      <c r="B276" s="25" t="s">
         <v>334</v>
       </c>
       <c r="C276" s="21"/>
@@ -12234,10 +12235,10 @@
       <c r="Z276" s="21"/>
     </row>
     <row r="277" customHeight="1" spans="1:26">
-      <c r="A277" s="26" t="s">
+      <c r="A277" s="27" t="s">
         <v>335</v>
       </c>
-      <c r="B277" s="24" t="s">
+      <c r="B277" s="25" t="s">
         <v>336</v>
       </c>
       <c r="C277" s="21"/>
@@ -12266,11 +12267,11 @@
       <c r="Z277" s="21"/>
     </row>
     <row r="278" customHeight="1" spans="1:26">
-      <c r="A278" s="23" t="str">
+      <c r="A278" s="24" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/redundant-connection-ii/","Redundant connection 2")</f>
         <v>Redundant connection 2</v>
       </c>
-      <c r="B278" s="24" t="s">
+      <c r="B278" s="25" t="s">
         <v>337</v>
       </c>
       <c r="C278" s="21"/>
@@ -12302,7 +12303,7 @@
       <c r="A279" s="20" t="s">
         <v>338</v>
       </c>
-      <c r="B279" s="24"/>
+      <c r="B279" s="25"/>
       <c r="C279" s="21"/>
       <c r="D279" s="21"/>
       <c r="E279" s="21"/>
@@ -12329,10 +12330,10 @@
       <c r="Z279" s="21"/>
     </row>
     <row r="280" customHeight="1" spans="1:26">
-      <c r="A280" s="23" t="s">
+      <c r="A280" s="24" t="s">
         <v>339</v>
       </c>
-      <c r="B280" s="24" t="s">
+      <c r="B280" s="25" t="s">
         <v>340</v>
       </c>
       <c r="C280" s="21"/>
@@ -12361,10 +12362,10 @@
       <c r="Z280" s="21"/>
     </row>
     <row r="281" customHeight="1" spans="1:26">
-      <c r="A281" s="23" t="s">
+      <c r="A281" s="24" t="s">
         <v>341</v>
       </c>
-      <c r="B281" s="24" t="s">
+      <c r="B281" s="25" t="s">
         <v>342</v>
       </c>
       <c r="C281" s="21"/>
@@ -12393,11 +12394,11 @@
       <c r="Z281" s="21"/>
     </row>
     <row r="282" customHeight="1" spans="1:26">
-      <c r="A282" s="26" t="str">
+      <c r="A282" s="27" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/kruskals-minimum-spanning-tree-algorithm-greedy-algo-2/","Kruskal's algo")</f>
         <v>Kruskal's algo</v>
       </c>
-      <c r="B282" s="24" t="s">
+      <c r="B282" s="25" t="s">
         <v>343</v>
       </c>
       <c r="C282" s="21"/>
@@ -12426,13 +12427,13 @@
       <c r="Z282" s="21"/>
     </row>
     <row r="283" customHeight="1" spans="1:26">
-      <c r="A283" s="26" t="s">
+      <c r="A283" s="27" t="s">
         <v>344</v>
       </c>
-      <c r="B283" s="24" t="s">
+      <c r="B283" s="25" t="s">
         <v>345</v>
       </c>
-      <c r="C283" s="24"/>
+      <c r="C283" s="25"/>
       <c r="D283" s="21"/>
       <c r="E283" s="21"/>
       <c r="F283" s="21"/>
@@ -12458,10 +12459,10 @@
       <c r="Z283" s="21"/>
     </row>
     <row r="284" customHeight="1" spans="1:26">
-      <c r="A284" s="23" t="s">
+      <c r="A284" s="24" t="s">
         <v>346</v>
       </c>
-      <c r="B284" s="24" t="s">
+      <c r="B284" s="25" t="s">
         <v>347</v>
       </c>
       <c r="C284" s="21"/>
@@ -12490,7 +12491,7 @@
       <c r="Z284" s="21"/>
     </row>
     <row r="285" customHeight="1" spans="1:26">
-      <c r="A285" s="25" t="str">
+      <c r="A285" s="26" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/sort-items-by-groups-respecting-dependencies/","Sort item by group accord to dependencies")</f>
         <v>Sort item by group accord to dependencies</v>
       </c>
@@ -12553,13 +12554,13 @@
       <c r="Z286" s="21"/>
     </row>
     <row r="287" customHeight="1" spans="1:26">
-      <c r="A287" s="23" t="s">
+      <c r="A287" s="24" t="s">
         <v>350</v>
       </c>
-      <c r="B287" s="24" t="s">
+      <c r="B287" s="25" t="s">
         <v>351</v>
       </c>
-      <c r="C287" s="24"/>
+      <c r="C287" s="25"/>
       <c r="D287" s="21"/>
       <c r="E287" s="21"/>
       <c r="F287" s="21"/>
@@ -12585,10 +12586,10 @@
       <c r="Z287" s="21"/>
     </row>
     <row r="288" customHeight="1" spans="1:26">
-      <c r="A288" s="59" t="s">
+      <c r="A288" s="60" t="s">
         <v>352</v>
       </c>
-      <c r="B288" s="24" t="s">
+      <c r="B288" s="25" t="s">
         <v>353</v>
       </c>
       <c r="C288" s="21"/>
@@ -12617,10 +12618,10 @@
       <c r="Z288" s="21"/>
     </row>
     <row r="289" customHeight="1" spans="1:26">
-      <c r="A289" s="59" t="s">
+      <c r="A289" s="60" t="s">
         <v>354</v>
       </c>
-      <c r="B289" s="24" t="s">
+      <c r="B289" s="25" t="s">
         <v>355</v>
       </c>
       <c r="C289" s="21"/>
@@ -12742,7 +12743,7 @@
       <c r="Z292" s="21"/>
     </row>
     <row r="293" customHeight="1" spans="1:26">
-      <c r="A293" s="25" t="s">
+      <c r="A293" s="26" t="s">
         <v>359</v>
       </c>
       <c r="B293" s="21"/>
@@ -12772,7 +12773,7 @@
       <c r="Z293" s="21"/>
     </row>
     <row r="294" customHeight="1" spans="1:26">
-      <c r="A294" s="25" t="s">
+      <c r="A294" s="26" t="s">
         <v>360</v>
       </c>
       <c r="B294" s="21"/>
@@ -12802,10 +12803,10 @@
       <c r="Z294" s="21"/>
     </row>
     <row r="295" customHeight="1" spans="1:26">
-      <c r="A295" s="25" t="s">
+      <c r="A295" s="26" t="s">
         <v>361</v>
       </c>
-      <c r="B295" s="36" t="s">
+      <c r="B295" s="37" t="s">
         <v>362</v>
       </c>
       <c r="C295" s="21"/>
@@ -12834,7 +12835,7 @@
       <c r="Z295" s="21"/>
     </row>
     <row r="296" customHeight="1" spans="1:26">
-      <c r="A296" s="25" t="s">
+      <c r="A296" s="26" t="s">
         <v>363</v>
       </c>
       <c r="B296" s="21"/>
@@ -12864,7 +12865,7 @@
       <c r="Z296" s="21"/>
     </row>
     <row r="297" customHeight="1" spans="1:26">
-      <c r="A297" s="25" t="s">
+      <c r="A297" s="26" t="s">
         <v>364</v>
       </c>
       <c r="B297" s="21"/>
@@ -12894,7 +12895,7 @@
       <c r="Z297" s="21"/>
     </row>
     <row r="298" customHeight="1" spans="1:26">
-      <c r="A298" s="25" t="s">
+      <c r="A298" s="26" t="s">
         <v>365</v>
       </c>
       <c r="B298" s="21"/>
@@ -12924,7 +12925,7 @@
       <c r="Z298" s="21"/>
     </row>
     <row r="299" customHeight="1" spans="1:26">
-      <c r="A299" s="32" t="s">
+      <c r="A299" s="33" t="s">
         <v>366</v>
       </c>
       <c r="B299" s="21"/>
@@ -12954,7 +12955,7 @@
       <c r="Z299" s="21"/>
     </row>
     <row r="300" customHeight="1" spans="1:26">
-      <c r="A300" s="25" t="s">
+      <c r="A300" s="26" t="s">
         <v>367</v>
       </c>
       <c r="B300" s="21"/>
@@ -12984,7 +12985,7 @@
       <c r="Z300" s="21"/>
     </row>
     <row r="301" customHeight="1" spans="1:26">
-      <c r="A301" s="25" t="s">
+      <c r="A301" s="26" t="s">
         <v>368</v>
       </c>
       <c r="B301" s="21"/>
@@ -13014,7 +13015,7 @@
       <c r="Z301" s="21"/>
     </row>
     <row r="302" customHeight="1" spans="1:26">
-      <c r="A302" s="25" t="s">
+      <c r="A302" s="26" t="s">
         <v>369</v>
       </c>
       <c r="B302" s="21" t="s">
@@ -13046,7 +13047,7 @@
       <c r="Z302" s="21"/>
     </row>
     <row r="303" customHeight="1" spans="1:26">
-      <c r="A303" s="25" t="s">
+      <c r="A303" s="26" t="s">
         <v>370</v>
       </c>
       <c r="B303" s="21" t="s">
@@ -13078,7 +13079,7 @@
       <c r="Z303" s="21"/>
     </row>
     <row r="304" customHeight="1" spans="1:26">
-      <c r="A304" s="25" t="s">
+      <c r="A304" s="26" t="s">
         <v>372</v>
       </c>
       <c r="B304" s="21"/>
@@ -13108,7 +13109,7 @@
       <c r="Z304" s="21"/>
     </row>
     <row r="305" customHeight="1" spans="1:26">
-      <c r="A305" s="25" t="s">
+      <c r="A305" s="26" t="s">
         <v>373</v>
       </c>
       <c r="B305" s="21"/>
@@ -13138,13 +13139,13 @@
       <c r="Z305" s="21"/>
     </row>
     <row r="306" customHeight="1" spans="1:26">
-      <c r="A306" s="60" t="s">
+      <c r="A306" s="61" t="s">
         <v>374</v>
       </c>
-      <c r="B306" s="28" t="s">
+      <c r="B306" s="29" t="s">
         <v>375</v>
       </c>
-      <c r="C306" s="29"/>
+      <c r="C306" s="30"/>
       <c r="D306" s="21"/>
       <c r="E306" s="21"/>
       <c r="F306" s="21"/>
@@ -13170,11 +13171,11 @@
       <c r="Z306" s="21"/>
     </row>
     <row r="307" customHeight="1" spans="1:26">
-      <c r="A307" s="60" t="s">
+      <c r="A307" s="61" t="s">
         <v>376</v>
       </c>
-      <c r="B307" s="29"/>
-      <c r="C307" s="29"/>
+      <c r="B307" s="30"/>
+      <c r="C307" s="30"/>
       <c r="D307" s="21"/>
       <c r="E307" s="21"/>
       <c r="F307" s="21"/>
@@ -13260,7 +13261,7 @@
       <c r="Z309" s="21"/>
     </row>
     <row r="310" customHeight="1" spans="1:26">
-      <c r="A310" s="25" t="str">
+      <c r="A310" s="26" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/subarray-sum-equals-k/","number of subarrays sum exactly k")</f>
         <v>number of subarrays sum exactly k</v>
       </c>
@@ -13293,7 +13294,7 @@
       <c r="Z310" s="21"/>
     </row>
     <row r="311" customHeight="1" spans="1:26">
-      <c r="A311" s="25" t="str">
+      <c r="A311" s="26" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/count-sub-arrays-sum-divisible-k/","Subarray sum Divisible by k")</f>
         <v>Subarray sum Divisible by k</v>
       </c>
@@ -13326,7 +13327,7 @@
       <c r="Z311" s="21"/>
     </row>
     <row r="312" customHeight="1" spans="1:26">
-      <c r="A312" s="25" t="s">
+      <c r="A312" s="26" t="s">
         <v>381</v>
       </c>
       <c r="B312" s="21"/>
@@ -13356,7 +13357,7 @@
       <c r="Z312" s="21"/>
     </row>
     <row r="313" customHeight="1" spans="1:26">
-      <c r="A313" s="25" t="str">
+      <c r="A313" s="26" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/count-subarrays-equal-number-1s-0s/","subarray with equal number of 0 and 1")</f>
         <v>subarray with equal number of 0 and 1</v>
       </c>
@@ -13389,7 +13390,7 @@
       <c r="Z313" s="21"/>
     </row>
     <row r="314" customHeight="1" spans="1:26">
-      <c r="A314" s="25" t="str">
+      <c r="A314" s="26" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/substring-equal-number-0-1-2/","Substring with equal 0 1 and 2")</f>
         <v>Substring with equal 0 1 and 2</v>
       </c>
@@ -13422,7 +13423,7 @@
       <c r="Z314" s="21"/>
     </row>
     <row r="315" customHeight="1" spans="1:26">
-      <c r="A315" s="25" t="str">
+      <c r="A315" s="26" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/k-closest-points-to-origin/","K closest point from origin")</f>
         <v>K closest point from origin</v>
       </c>
@@ -13455,7 +13456,7 @@
       <c r="Z315" s="21"/>
     </row>
     <row r="316" customHeight="1" spans="1:26">
-      <c r="A316" s="25" t="str">
+      <c r="A316" s="26" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/maximum-consecutive-ones-or-zeros-in-a-binary-array/","Longest consecutive 1's")</f>
         <v>Longest consecutive 1's</v>
       </c>
@@ -13488,7 +13489,7 @@
       <c r="Z316" s="21"/>
     </row>
     <row r="317" customHeight="1" spans="1:26">
-      <c r="A317" s="37"/>
+      <c r="A317" s="38"/>
       <c r="B317" s="21"/>
       <c r="C317" s="21"/>
       <c r="D317" s="21"/>
@@ -13516,7 +13517,7 @@
       <c r="Z317" s="21"/>
     </row>
     <row r="318" customHeight="1" spans="1:26">
-      <c r="A318" s="61" t="s">
+      <c r="A318" s="62" t="s">
         <v>386</v>
       </c>
       <c r="B318" s="21"/>
@@ -13546,7 +13547,7 @@
       <c r="Z318" s="21"/>
     </row>
     <row r="319" customHeight="1" spans="1:26">
-      <c r="A319" s="25" t="str">
+      <c r="A319" s="26" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/minimum-number-of-refueling-stops/","Minimum number of refueling spots")</f>
         <v>Minimum number of refueling spots</v>
       </c>
@@ -13579,7 +13580,7 @@
       <c r="Z319" s="21"/>
     </row>
     <row r="320" customHeight="1" spans="1:26">
-      <c r="A320" s="25" t="s">
+      <c r="A320" s="26" t="s">
         <v>388</v>
       </c>
       <c r="B320" s="21"/>
@@ -13609,7 +13610,7 @@
       <c r="Z320" s="21"/>
     </row>
     <row r="321" customHeight="1" spans="1:26">
-      <c r="A321" s="37" t="str">
+      <c r="A321" s="38" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/x-of-a-kind-in-a-deck-of-cards/","X of akind in a deck")</f>
         <v>X of akind in a deck</v>
       </c>
@@ -13642,7 +13643,7 @@
       <c r="Z321" s="21"/>
     </row>
     <row r="322" customHeight="1" spans="1:26">
-      <c r="A322" s="37" t="str">
+      <c r="A322" s="38" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/check-whether-arithmetic-progression-can-formed-given-array/","Check AP sequence")</f>
         <v>Check AP sequence</v>
       </c>
@@ -13675,7 +13676,7 @@
       <c r="Z322" s="21"/>
     </row>
     <row r="323" customHeight="1" spans="1:26">
-      <c r="A323" s="25"/>
+      <c r="A323" s="26"/>
       <c r="B323" s="21"/>
       <c r="C323" s="21"/>
       <c r="D323" s="21"/>
@@ -13733,7 +13734,7 @@
       <c r="Z324" s="21"/>
     </row>
     <row r="325" customHeight="1" spans="1:26">
-      <c r="A325" s="25" t="str">
+      <c r="A325" s="26" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/array-of-doubled-pairs/","Array of doubled Pair")</f>
         <v>Array of doubled Pair</v>
       </c>
@@ -13766,7 +13767,7 @@
       <c r="Z325" s="21"/>
     </row>
     <row r="326" customHeight="1" spans="1:26">
-      <c r="A326" s="25" t="str">
+      <c r="A326" s="26" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/rabbits-in-forest/","Rabbits in forest")</f>
         <v>Rabbits in forest</v>
       </c>
@@ -13799,7 +13800,7 @@
       <c r="Z326" s="21"/>
     </row>
     <row r="327" customHeight="1" spans="1:26">
-      <c r="A327" s="25" t="str">
+      <c r="A327" s="26" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/longest-consecutive-sequence/","Longest consecutive sequence")</f>
         <v>Longest consecutive sequence</v>
       </c>
@@ -13832,7 +13833,7 @@
       <c r="Z327" s="21"/>
     </row>
     <row r="328" customHeight="1" spans="1:26">
-      <c r="A328" s="25" t="s">
+      <c r="A328" s="26" t="s">
         <v>395</v>
       </c>
       <c r="B328" s="21" t="s">
@@ -13864,7 +13865,7 @@
       <c r="Z328" s="21"/>
     </row>
     <row r="329" customHeight="1" spans="1:26">
-      <c r="A329" s="25" t="str">
+      <c r="A329" s="26" t="str">
         <f>HYPERLINK("https://practice.geeksforgeeks.org/problems/morning-assembly/0","Morning Assembly")</f>
         <v>Morning Assembly</v>
       </c>
@@ -13897,7 +13898,7 @@
       <c r="Z329" s="21"/>
     </row>
     <row r="330" customHeight="1" spans="1:26">
-      <c r="A330" s="25" t="str">
+      <c r="A330" s="26" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/brick-wall/","Brick wall")</f>
         <v>Brick wall</v>
       </c>
@@ -13958,7 +13959,7 @@
       <c r="Z331" s="21"/>
     </row>
     <row r="332" customHeight="1" spans="1:26">
-      <c r="A332" s="25" t="str">
+      <c r="A332" s="26" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/grid-illumination/","Grid illumination")</f>
         <v>Grid illumination</v>
       </c>
@@ -13991,7 +13992,7 @@
       <c r="Z332" s="21"/>
     </row>
     <row r="333" customHeight="1" spans="1:26">
-      <c r="A333" s="25" t="str">
+      <c r="A333" s="26" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/island-perimeter/","Island perimeter")</f>
         <v>Island perimeter</v>
       </c>
@@ -14024,7 +14025,7 @@
       <c r="Z333" s="21"/>
     </row>
     <row r="334" customHeight="1" spans="1:26">
-      <c r="A334" s="25" t="str">
+      <c r="A334" s="26" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/bulb-switcher/","bulb switcher")</f>
         <v>bulb switcher</v>
       </c>
@@ -14057,7 +14058,7 @@
       <c r="Z334" s="21"/>
     </row>
     <row r="335" customHeight="1" spans="1:26">
-      <c r="A335" s="25" t="str">
+      <c r="A335" s="26" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/isomorphic-strings/","Isomorphic string")</f>
         <v>Isomorphic string</v>
       </c>
@@ -14090,7 +14091,7 @@
       <c r="Z335" s="21"/>
     </row>
     <row r="336" customHeight="1" spans="1:26">
-      <c r="A336" s="25" t="str">
+      <c r="A336" s="26" t="str">
         <f>HYPERLINK("https://practice.geeksforgeeks.org/problems/pairs-of-non-coinciding-points/0","Pairs of coinciding points")</f>
         <v>Pairs of coinciding points</v>
       </c>
@@ -14181,7 +14182,7 @@
       <c r="Z338" s="21"/>
     </row>
     <row r="339" customHeight="1" spans="1:26">
-      <c r="A339" s="25" t="str">
+      <c r="A339" s="26" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/trapping-rain-water/","trapping rain water")</f>
         <v>trapping rain water</v>
       </c>
@@ -14214,7 +14215,7 @@
       <c r="Z339" s="21"/>
     </row>
     <row r="340" customHeight="1" spans="1:26">
-      <c r="A340" s="23" t="s">
+      <c r="A340" s="24" t="s">
         <v>405</v>
       </c>
       <c r="B340" s="21" t="s">
@@ -14246,7 +14247,7 @@
       <c r="Z340" s="21"/>
     </row>
     <row r="341" customHeight="1" spans="1:26">
-      <c r="A341" s="25" t="str">
+      <c r="A341" s="26" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/count-pairs-in-array-whose-sum-is-divisible-by-k/","Count Pair whose sum is divisible by k")</f>
         <v>Count Pair whose sum is divisible by k</v>
       </c>
@@ -14279,7 +14280,7 @@
       <c r="Z341" s="21"/>
     </row>
     <row r="342" customHeight="1" spans="1:26">
-      <c r="A342" s="25" t="str">
+      <c r="A342" s="26" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/length-largest-subarray-contiguous-elements-set-1/","length of largest subarray with continuous element")</f>
         <v>length of largest subarray with continuous element</v>
       </c>
@@ -14312,7 +14313,7 @@
       <c r="Z342" s="21"/>
     </row>
     <row r="343" customHeight="1" spans="1:26">
-      <c r="A343" s="25" t="str">
+      <c r="A343" s="26" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/length-largest-subarray-contiguous-elements-set-2/","length of largest subarray with cont element 2")</f>
         <v>length of largest subarray with cont element 2</v>
       </c>
@@ -14345,7 +14346,7 @@
       <c r="Z343" s="21"/>
     </row>
     <row r="344" customHeight="1" spans="1:26">
-      <c r="A344" s="25" t="str">
+      <c r="A344" s="26" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/find-smallest-number-whose-digits-multiply-given-number-n/","smallest number whose digit mult to given no.")</f>
         <v>smallest number whose digit mult to given no.</v>
       </c>
@@ -14378,7 +14379,7 @@
       <c r="Z344" s="21"/>
     </row>
     <row r="345" customHeight="1" spans="1:26">
-      <c r="A345" s="25" t="str">
+      <c r="A345" s="26" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/check-if-frequency-of-all-characters-can-become-same-by-one-removal/","same frequency after one removal")</f>
         <v>same frequency after one removal</v>
       </c>
@@ -14411,7 +14412,7 @@
       <c r="Z345" s="21"/>
     </row>
     <row r="346" customHeight="1" spans="1:26">
-      <c r="A346" s="25" t="str">
+      <c r="A346" s="26" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/insert-delete-getrandom-o1/","Insert Delete GetRandom O(1)")</f>
         <v>Insert Delete GetRandom O(1)</v>
       </c>
@@ -14444,7 +14445,7 @@
       <c r="Z346" s="21"/>
     </row>
     <row r="347" customHeight="1" spans="1:26">
-      <c r="A347" s="25"/>
+      <c r="A347" s="26"/>
       <c r="B347" s="21"/>
       <c r="C347" s="21"/>
       <c r="D347" s="21"/>
@@ -14502,7 +14503,7 @@
       <c r="Z348" s="21"/>
     </row>
     <row r="349" customHeight="1" spans="1:26">
-      <c r="A349" s="25" t="str">
+      <c r="A349" s="26" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/insert-delete-getrandom-o1-duplicates-allowed/","Insert delete get random duplicates allowed")</f>
         <v>Insert delete get random duplicates allowed</v>
       </c>
@@ -14535,7 +14536,7 @@
       <c r="Z349" s="21"/>
     </row>
     <row r="350" customHeight="1" spans="1:26">
-      <c r="A350" s="25" t="str">
+      <c r="A350" s="26" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/find-all-anagrams-in-a-string/","Find all anagrams in a string")</f>
         <v>Find all anagrams in a string</v>
       </c>
@@ -14568,7 +14569,7 @@
       <c r="Z350" s="21"/>
     </row>
     <row r="351" customHeight="1" spans="1:26">
-      <c r="A351" s="25" t="str">
+      <c r="A351" s="26" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/check-anagram-string-palindrome-not/","Anagram Pallindrome")</f>
         <v>Anagram Pallindrome</v>
       </c>
@@ -14601,7 +14602,7 @@
       <c r="Z351" s="21"/>
     </row>
     <row r="352" customHeight="1" spans="1:26">
-      <c r="A352" s="37" t="str">
+      <c r="A352" s="38" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/minimum-window-substring/","Find smallest size of string containing all char of other")</f>
         <v>Find smallest size of string containing all char of other</v>
       </c>
@@ -14634,7 +14635,7 @@
       <c r="Z352" s="21"/>
     </row>
     <row r="353" customHeight="1" spans="1:26">
-      <c r="A353" s="37" t="str">
+      <c r="A353" s="38" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/group-anagrams/","Group anagram")</f>
         <v>Group anagram</v>
       </c>
@@ -14667,7 +14668,7 @@
       <c r="Z353" s="21"/>
     </row>
     <row r="354" customHeight="1" spans="1:26">
-      <c r="A354" s="37" t="str">
+      <c r="A354" s="38" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/length-of-the-longest-substring-without-repeating-characters/","longest substring with unique character")</f>
         <v>longest substring with unique character</v>
       </c>
@@ -14700,7 +14701,7 @@
       <c r="Z354" s="21"/>
     </row>
     <row r="355" customHeight="1" spans="1:26">
-      <c r="A355" s="25" t="str">
+      <c r="A355" s="26" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/smallest-subarray-with-all-occurrences-of-a-most-frequent-element/","smallest subarray with all the occurence of MFE")</f>
         <v>smallest subarray with all the occurence of MFE</v>
       </c>
@@ -14733,7 +14734,7 @@
       <c r="Z355" s="21"/>
     </row>
     <row r="356" customHeight="1" spans="1:26">
-      <c r="A356" s="25" t="s">
+      <c r="A356" s="26" t="s">
         <v>421</v>
       </c>
       <c r="B356" s="21" t="s">
@@ -14765,7 +14766,7 @@
       <c r="Z356" s="21"/>
     </row>
     <row r="357" customHeight="1" spans="1:26">
-      <c r="A357" s="25" t="str">
+      <c r="A357" s="26" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/check-two-strings-k-anagrams-not/","K anagram")</f>
         <v>K anagram</v>
       </c>
@@ -14798,7 +14799,7 @@
       <c r="Z357" s="21"/>
     </row>
     <row r="358" customHeight="1" spans="1:26">
-      <c r="A358" s="25"/>
+      <c r="A358" s="26"/>
       <c r="B358" s="21"/>
       <c r="C358" s="21"/>
       <c r="D358" s="21"/>
@@ -14856,7 +14857,7 @@
       <c r="Z359" s="21"/>
     </row>
     <row r="360" customHeight="1" spans="1:26">
-      <c r="A360" s="62" t="str">
+      <c r="A360" s="63" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/rearrange-characters-string-no-two-adjacent/","rearrange character string such that no two are same")</f>
         <v>rearrange character string such that no two are same</v>
       </c>
@@ -14889,7 +14890,7 @@
       <c r="Z360" s="21"/>
     </row>
     <row r="361" customHeight="1" spans="1:26">
-      <c r="A361" s="25" t="s">
+      <c r="A361" s="26" t="s">
         <v>426</v>
       </c>
       <c r="B361" s="21" t="s">
@@ -14921,7 +14922,7 @@
       <c r="Z361" s="21"/>
     </row>
     <row r="362" customHeight="1" spans="1:26">
-      <c r="A362" s="25" t="s">
+      <c r="A362" s="26" t="s">
         <v>427</v>
       </c>
       <c r="B362" s="21" t="s">
@@ -14953,7 +14954,7 @@
       <c r="Z362" s="21"/>
     </row>
     <row r="363" customHeight="1" spans="1:26">
-      <c r="A363" s="25" t="str">
+      <c r="A363" s="26" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/kth-smallest-element-in-a-sorted-matrix/","Kth smallest element in sorted 2d matrix")</f>
         <v>Kth smallest element in sorted 2d matrix</v>
       </c>
@@ -14986,7 +14987,7 @@
       <c r="Z363" s="21"/>
     </row>
     <row r="364" customHeight="1" spans="1:26">
-      <c r="A364" s="25" t="str">
+      <c r="A364" s="26" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/k-th-smallest-prime-fraction/","Kth smallest prime fraction")</f>
         <v>Kth smallest prime fraction</v>
       </c>
@@ -15019,7 +15020,7 @@
       <c r="Z364" s="21"/>
     </row>
     <row r="365" customHeight="1" spans="1:26">
-      <c r="A365" s="25" t="str">
+      <c r="A365" s="26" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/employee-free-time/","Employee Free time")</f>
         <v>Employee Free time</v>
       </c>
@@ -15080,7 +15081,7 @@
       <c r="Z366" s="21"/>
     </row>
     <row r="367" customHeight="1" spans="1:26">
-      <c r="A367" s="63" t="s">
+      <c r="A367" s="64" t="s">
         <v>17</v>
       </c>
       <c r="B367" s="1"/>
@@ -15113,44 +15114,44 @@
       <c r="A368" s="20" t="s">
         <v>430</v>
       </c>
-      <c r="B368" s="29"/>
-      <c r="C368" s="29"/>
-      <c r="D368" s="29"/>
-      <c r="E368" s="29"/>
-      <c r="F368" s="29"/>
-      <c r="G368" s="29"/>
-      <c r="H368" s="29"/>
-      <c r="I368" s="29"/>
-      <c r="J368" s="29"/>
-      <c r="K368" s="29"/>
-      <c r="L368" s="29"/>
-      <c r="M368" s="29"/>
-      <c r="N368" s="29"/>
-      <c r="O368" s="29"/>
-      <c r="P368" s="29"/>
-      <c r="Q368" s="29"/>
-      <c r="R368" s="29"/>
-      <c r="S368" s="29"/>
-      <c r="T368" s="29"/>
-      <c r="U368" s="29"/>
-      <c r="V368" s="29"/>
-      <c r="W368" s="29"/>
-      <c r="X368" s="29"/>
-      <c r="Y368" s="29"/>
-      <c r="Z368" s="29"/>
+      <c r="B368" s="30"/>
+      <c r="C368" s="30"/>
+      <c r="D368" s="30"/>
+      <c r="E368" s="30"/>
+      <c r="F368" s="30"/>
+      <c r="G368" s="30"/>
+      <c r="H368" s="30"/>
+      <c r="I368" s="30"/>
+      <c r="J368" s="30"/>
+      <c r="K368" s="30"/>
+      <c r="L368" s="30"/>
+      <c r="M368" s="30"/>
+      <c r="N368" s="30"/>
+      <c r="O368" s="30"/>
+      <c r="P368" s="30"/>
+      <c r="Q368" s="30"/>
+      <c r="R368" s="30"/>
+      <c r="S368" s="30"/>
+      <c r="T368" s="30"/>
+      <c r="U368" s="30"/>
+      <c r="V368" s="30"/>
+      <c r="W368" s="30"/>
+      <c r="X368" s="30"/>
+      <c r="Y368" s="30"/>
+      <c r="Z368" s="30"/>
     </row>
     <row r="369" customHeight="1" spans="1:26">
-      <c r="A369" s="50" t="s">
+      <c r="A369" s="51" t="s">
         <v>431</v>
       </c>
-      <c r="B369" s="50"/>
-      <c r="C369" s="29"/>
-      <c r="D369" s="29"/>
-      <c r="E369" s="29"/>
-      <c r="F369" s="29"/>
-      <c r="G369" s="29"/>
-      <c r="H369" s="29"/>
-      <c r="I369" s="29"/>
+      <c r="B369" s="51"/>
+      <c r="C369" s="30"/>
+      <c r="D369" s="30"/>
+      <c r="E369" s="30"/>
+      <c r="F369" s="30"/>
+      <c r="G369" s="30"/>
+      <c r="H369" s="30"/>
+      <c r="I369" s="30"/>
       <c r="J369" s="21"/>
       <c r="K369" s="21"/>
       <c r="L369" s="21"/>
@@ -15170,17 +15171,17 @@
       <c r="Z369" s="21"/>
     </row>
     <row r="370" customHeight="1" spans="1:26">
-      <c r="A370" s="64" t="s">
+      <c r="A370" s="65" t="s">
         <v>432</v>
       </c>
-      <c r="B370" s="50"/>
-      <c r="C370" s="29"/>
-      <c r="D370" s="29"/>
-      <c r="E370" s="29"/>
-      <c r="F370" s="29"/>
-      <c r="G370" s="29"/>
-      <c r="H370" s="29"/>
-      <c r="I370" s="29"/>
+      <c r="B370" s="51"/>
+      <c r="C370" s="30"/>
+      <c r="D370" s="30"/>
+      <c r="E370" s="30"/>
+      <c r="F370" s="30"/>
+      <c r="G370" s="30"/>
+      <c r="H370" s="30"/>
+      <c r="I370" s="30"/>
       <c r="J370" s="21"/>
       <c r="K370" s="21"/>
       <c r="L370" s="21"/>
@@ -15200,17 +15201,17 @@
       <c r="Z370" s="21"/>
     </row>
     <row r="371" customHeight="1" spans="1:26">
-      <c r="A371" s="64" t="s">
+      <c r="A371" s="65" t="s">
         <v>433</v>
       </c>
-      <c r="B371" s="50"/>
-      <c r="C371" s="29"/>
-      <c r="D371" s="29"/>
-      <c r="E371" s="29"/>
-      <c r="F371" s="29"/>
-      <c r="G371" s="29"/>
-      <c r="H371" s="29"/>
-      <c r="I371" s="29"/>
+      <c r="B371" s="51"/>
+      <c r="C371" s="30"/>
+      <c r="D371" s="30"/>
+      <c r="E371" s="30"/>
+      <c r="F371" s="30"/>
+      <c r="G371" s="30"/>
+      <c r="H371" s="30"/>
+      <c r="I371" s="30"/>
       <c r="J371" s="21"/>
       <c r="K371" s="21"/>
       <c r="L371" s="21"/>
@@ -15230,17 +15231,17 @@
       <c r="Z371" s="21"/>
     </row>
     <row r="372" customHeight="1" spans="1:26">
-      <c r="A372" s="50" t="s">
+      <c r="A372" s="51" t="s">
         <v>434</v>
       </c>
-      <c r="B372" s="50"/>
-      <c r="C372" s="29"/>
-      <c r="D372" s="29"/>
-      <c r="E372" s="29"/>
-      <c r="F372" s="29"/>
-      <c r="G372" s="29"/>
-      <c r="H372" s="29"/>
-      <c r="I372" s="29"/>
+      <c r="B372" s="51"/>
+      <c r="C372" s="30"/>
+      <c r="D372" s="30"/>
+      <c r="E372" s="30"/>
+      <c r="F372" s="30"/>
+      <c r="G372" s="30"/>
+      <c r="H372" s="30"/>
+      <c r="I372" s="30"/>
       <c r="J372" s="21"/>
       <c r="K372" s="21"/>
       <c r="L372" s="21"/>
@@ -15260,17 +15261,17 @@
       <c r="Z372" s="21"/>
     </row>
     <row r="373" customHeight="1" spans="1:26">
-      <c r="A373" s="50" t="s">
+      <c r="A373" s="51" t="s">
         <v>435</v>
       </c>
-      <c r="B373" s="50"/>
-      <c r="C373" s="29"/>
-      <c r="D373" s="29"/>
-      <c r="E373" s="29"/>
-      <c r="F373" s="29"/>
-      <c r="G373" s="29"/>
-      <c r="H373" s="29"/>
-      <c r="I373" s="29"/>
+      <c r="B373" s="51"/>
+      <c r="C373" s="30"/>
+      <c r="D373" s="30"/>
+      <c r="E373" s="30"/>
+      <c r="F373" s="30"/>
+      <c r="G373" s="30"/>
+      <c r="H373" s="30"/>
+      <c r="I373" s="30"/>
       <c r="J373" s="21"/>
       <c r="K373" s="21"/>
       <c r="L373" s="21"/>
@@ -15290,17 +15291,17 @@
       <c r="Z373" s="21"/>
     </row>
     <row r="374" customHeight="1" spans="1:26">
-      <c r="A374" s="50" t="s">
+      <c r="A374" s="51" t="s">
         <v>436</v>
       </c>
-      <c r="B374" s="50"/>
-      <c r="C374" s="29"/>
-      <c r="D374" s="29"/>
-      <c r="E374" s="29"/>
-      <c r="F374" s="29"/>
-      <c r="G374" s="29"/>
-      <c r="H374" s="29"/>
-      <c r="I374" s="29"/>
+      <c r="B374" s="51"/>
+      <c r="C374" s="30"/>
+      <c r="D374" s="30"/>
+      <c r="E374" s="30"/>
+      <c r="F374" s="30"/>
+      <c r="G374" s="30"/>
+      <c r="H374" s="30"/>
+      <c r="I374" s="30"/>
       <c r="J374" s="21"/>
       <c r="K374" s="21"/>
       <c r="L374" s="21"/>
@@ -15320,17 +15321,17 @@
       <c r="Z374" s="21"/>
     </row>
     <row r="375" customHeight="1" spans="1:26">
-      <c r="A375" s="50" t="s">
+      <c r="A375" s="51" t="s">
         <v>437</v>
       </c>
-      <c r="B375" s="50"/>
-      <c r="C375" s="29"/>
-      <c r="D375" s="29"/>
-      <c r="E375" s="29"/>
-      <c r="F375" s="29"/>
-      <c r="G375" s="29"/>
-      <c r="H375" s="29"/>
-      <c r="I375" s="29"/>
+      <c r="B375" s="51"/>
+      <c r="C375" s="30"/>
+      <c r="D375" s="30"/>
+      <c r="E375" s="30"/>
+      <c r="F375" s="30"/>
+      <c r="G375" s="30"/>
+      <c r="H375" s="30"/>
+      <c r="I375" s="30"/>
       <c r="J375" s="21"/>
       <c r="K375" s="21"/>
       <c r="L375" s="21"/>
@@ -15350,17 +15351,17 @@
       <c r="Z375" s="21"/>
     </row>
     <row r="376" customHeight="1" spans="1:26">
-      <c r="A376" s="50" t="s">
+      <c r="A376" s="51" t="s">
         <v>438</v>
       </c>
-      <c r="B376" s="50"/>
-      <c r="C376" s="29"/>
-      <c r="D376" s="29"/>
-      <c r="E376" s="29"/>
-      <c r="F376" s="29"/>
-      <c r="G376" s="29"/>
-      <c r="H376" s="29"/>
-      <c r="I376" s="29"/>
+      <c r="B376" s="51"/>
+      <c r="C376" s="30"/>
+      <c r="D376" s="30"/>
+      <c r="E376" s="30"/>
+      <c r="F376" s="30"/>
+      <c r="G376" s="30"/>
+      <c r="H376" s="30"/>
+      <c r="I376" s="30"/>
       <c r="J376" s="21"/>
       <c r="K376" s="21"/>
       <c r="L376" s="21"/>
@@ -15380,17 +15381,17 @@
       <c r="Z376" s="21"/>
     </row>
     <row r="377" customHeight="1" spans="1:26">
-      <c r="A377" s="32" t="s">
+      <c r="A377" s="33" t="s">
         <v>439</v>
       </c>
-      <c r="B377" s="50"/>
-      <c r="C377" s="29"/>
-      <c r="D377" s="29"/>
-      <c r="E377" s="29"/>
-      <c r="F377" s="29"/>
-      <c r="G377" s="29"/>
-      <c r="H377" s="29"/>
-      <c r="I377" s="29"/>
+      <c r="B377" s="51"/>
+      <c r="C377" s="30"/>
+      <c r="D377" s="30"/>
+      <c r="E377" s="30"/>
+      <c r="F377" s="30"/>
+      <c r="G377" s="30"/>
+      <c r="H377" s="30"/>
+      <c r="I377" s="30"/>
       <c r="J377" s="21"/>
       <c r="K377" s="21"/>
       <c r="L377" s="21"/>
@@ -15410,17 +15411,17 @@
       <c r="Z377" s="21"/>
     </row>
     <row r="378" customHeight="1" spans="1:26">
-      <c r="A378" s="50" t="s">
+      <c r="A378" s="51" t="s">
         <v>440</v>
       </c>
-      <c r="B378" s="50"/>
-      <c r="C378" s="29"/>
-      <c r="D378" s="29"/>
-      <c r="E378" s="29"/>
-      <c r="F378" s="29"/>
-      <c r="G378" s="29"/>
-      <c r="H378" s="29"/>
-      <c r="I378" s="29"/>
+      <c r="B378" s="51"/>
+      <c r="C378" s="30"/>
+      <c r="D378" s="30"/>
+      <c r="E378" s="30"/>
+      <c r="F378" s="30"/>
+      <c r="G378" s="30"/>
+      <c r="H378" s="30"/>
+      <c r="I378" s="30"/>
       <c r="J378" s="21"/>
       <c r="K378" s="21"/>
       <c r="L378" s="21"/>
@@ -15440,17 +15441,17 @@
       <c r="Z378" s="21"/>
     </row>
     <row r="379" customHeight="1" spans="1:26">
-      <c r="A379" s="50" t="s">
+      <c r="A379" s="51" t="s">
         <v>441</v>
       </c>
-      <c r="B379" s="50"/>
-      <c r="C379" s="29"/>
-      <c r="D379" s="29"/>
-      <c r="E379" s="29"/>
-      <c r="F379" s="29"/>
-      <c r="G379" s="29"/>
-      <c r="H379" s="29"/>
-      <c r="I379" s="29"/>
+      <c r="B379" s="51"/>
+      <c r="C379" s="30"/>
+      <c r="D379" s="30"/>
+      <c r="E379" s="30"/>
+      <c r="F379" s="30"/>
+      <c r="G379" s="30"/>
+      <c r="H379" s="30"/>
+      <c r="I379" s="30"/>
       <c r="J379" s="21"/>
       <c r="K379" s="21"/>
       <c r="L379" s="21"/>
@@ -15470,17 +15471,17 @@
       <c r="Z379" s="21"/>
     </row>
     <row r="380" customHeight="1" spans="1:26">
-      <c r="A380" s="65" t="s">
+      <c r="A380" s="66" t="s">
         <v>442</v>
       </c>
-      <c r="B380" s="50"/>
-      <c r="C380" s="29"/>
-      <c r="D380" s="29"/>
-      <c r="E380" s="29"/>
-      <c r="F380" s="29"/>
-      <c r="G380" s="29"/>
-      <c r="H380" s="29"/>
-      <c r="I380" s="29"/>
+      <c r="B380" s="51"/>
+      <c r="C380" s="30"/>
+      <c r="D380" s="30"/>
+      <c r="E380" s="30"/>
+      <c r="F380" s="30"/>
+      <c r="G380" s="30"/>
+      <c r="H380" s="30"/>
+      <c r="I380" s="30"/>
       <c r="J380" s="21"/>
       <c r="K380" s="21"/>
       <c r="L380" s="21"/>
@@ -15500,17 +15501,17 @@
       <c r="Z380" s="21"/>
     </row>
     <row r="381" customHeight="1" spans="1:26">
-      <c r="A381" s="50" t="s">
+      <c r="A381" s="51" t="s">
         <v>443</v>
       </c>
-      <c r="B381" s="50"/>
-      <c r="C381" s="29"/>
-      <c r="D381" s="29"/>
-      <c r="E381" s="29"/>
-      <c r="F381" s="29"/>
-      <c r="G381" s="29"/>
-      <c r="H381" s="29"/>
-      <c r="I381" s="29"/>
+      <c r="B381" s="51"/>
+      <c r="C381" s="30"/>
+      <c r="D381" s="30"/>
+      <c r="E381" s="30"/>
+      <c r="F381" s="30"/>
+      <c r="G381" s="30"/>
+      <c r="H381" s="30"/>
+      <c r="I381" s="30"/>
       <c r="J381" s="21"/>
       <c r="K381" s="21"/>
       <c r="L381" s="21"/>
@@ -15530,17 +15531,17 @@
       <c r="Z381" s="21"/>
     </row>
     <row r="382" customHeight="1" spans="1:26">
-      <c r="A382" s="50" t="s">
+      <c r="A382" s="51" t="s">
         <v>444</v>
       </c>
-      <c r="B382" s="50"/>
-      <c r="C382" s="29"/>
-      <c r="D382" s="29"/>
-      <c r="E382" s="29"/>
-      <c r="F382" s="29"/>
-      <c r="G382" s="29"/>
-      <c r="H382" s="29"/>
-      <c r="I382" s="29"/>
+      <c r="B382" s="51"/>
+      <c r="C382" s="30"/>
+      <c r="D382" s="30"/>
+      <c r="E382" s="30"/>
+      <c r="F382" s="30"/>
+      <c r="G382" s="30"/>
+      <c r="H382" s="30"/>
+      <c r="I382" s="30"/>
       <c r="J382" s="21"/>
       <c r="K382" s="21"/>
       <c r="L382" s="21"/>
@@ -15560,17 +15561,17 @@
       <c r="Z382" s="21"/>
     </row>
     <row r="383" customHeight="1" spans="1:26">
-      <c r="A383" s="50" t="s">
+      <c r="A383" s="51" t="s">
         <v>445</v>
       </c>
-      <c r="B383" s="50"/>
-      <c r="C383" s="29"/>
-      <c r="D383" s="29"/>
-      <c r="E383" s="29"/>
-      <c r="F383" s="29"/>
-      <c r="G383" s="29"/>
-      <c r="H383" s="29"/>
-      <c r="I383" s="29"/>
+      <c r="B383" s="51"/>
+      <c r="C383" s="30"/>
+      <c r="D383" s="30"/>
+      <c r="E383" s="30"/>
+      <c r="F383" s="30"/>
+      <c r="G383" s="30"/>
+      <c r="H383" s="30"/>
+      <c r="I383" s="30"/>
       <c r="J383" s="21"/>
       <c r="K383" s="21"/>
       <c r="L383" s="21"/>
@@ -15590,17 +15591,17 @@
       <c r="Z383" s="21"/>
     </row>
     <row r="384" customHeight="1" spans="1:26">
-      <c r="A384" s="50" t="s">
+      <c r="A384" s="51" t="s">
         <v>446</v>
       </c>
-      <c r="B384" s="50"/>
-      <c r="C384" s="29"/>
-      <c r="D384" s="29"/>
-      <c r="E384" s="29"/>
-      <c r="F384" s="29"/>
-      <c r="G384" s="29"/>
-      <c r="H384" s="29"/>
-      <c r="I384" s="29"/>
+      <c r="B384" s="51"/>
+      <c r="C384" s="30"/>
+      <c r="D384" s="30"/>
+      <c r="E384" s="30"/>
+      <c r="F384" s="30"/>
+      <c r="G384" s="30"/>
+      <c r="H384" s="30"/>
+      <c r="I384" s="30"/>
       <c r="J384" s="21"/>
       <c r="K384" s="21"/>
       <c r="L384" s="21"/>
@@ -15620,17 +15621,17 @@
       <c r="Z384" s="21"/>
     </row>
     <row r="385" customHeight="1" spans="1:26">
-      <c r="A385" s="50" t="s">
+      <c r="A385" s="51" t="s">
         <v>447</v>
       </c>
-      <c r="B385" s="50"/>
-      <c r="C385" s="29"/>
-      <c r="D385" s="29"/>
-      <c r="E385" s="29"/>
-      <c r="F385" s="29"/>
-      <c r="G385" s="29"/>
-      <c r="H385" s="29"/>
-      <c r="I385" s="29"/>
+      <c r="B385" s="51"/>
+      <c r="C385" s="30"/>
+      <c r="D385" s="30"/>
+      <c r="E385" s="30"/>
+      <c r="F385" s="30"/>
+      <c r="G385" s="30"/>
+      <c r="H385" s="30"/>
+      <c r="I385" s="30"/>
       <c r="J385" s="21"/>
       <c r="K385" s="21"/>
       <c r="L385" s="21"/>
@@ -15650,17 +15651,17 @@
       <c r="Z385" s="21"/>
     </row>
     <row r="386" customHeight="1" spans="1:26">
-      <c r="A386" s="32" t="s">
+      <c r="A386" s="33" t="s">
         <v>448</v>
       </c>
-      <c r="B386" s="50"/>
-      <c r="C386" s="29"/>
-      <c r="D386" s="29"/>
-      <c r="E386" s="29"/>
-      <c r="F386" s="29"/>
-      <c r="G386" s="29"/>
-      <c r="H386" s="29"/>
-      <c r="I386" s="29"/>
+      <c r="B386" s="51"/>
+      <c r="C386" s="30"/>
+      <c r="D386" s="30"/>
+      <c r="E386" s="30"/>
+      <c r="F386" s="30"/>
+      <c r="G386" s="30"/>
+      <c r="H386" s="30"/>
+      <c r="I386" s="30"/>
       <c r="J386" s="21"/>
       <c r="K386" s="21"/>
       <c r="L386" s="21"/>
@@ -15680,17 +15681,17 @@
       <c r="Z386" s="21"/>
     </row>
     <row r="387" customHeight="1" spans="1:26">
-      <c r="A387" s="50" t="s">
+      <c r="A387" s="51" t="s">
         <v>449</v>
       </c>
-      <c r="B387" s="50"/>
-      <c r="C387" s="29"/>
-      <c r="D387" s="29"/>
-      <c r="E387" s="29"/>
-      <c r="F387" s="29"/>
-      <c r="G387" s="29"/>
-      <c r="H387" s="29"/>
-      <c r="I387" s="29"/>
+      <c r="B387" s="51"/>
+      <c r="C387" s="30"/>
+      <c r="D387" s="30"/>
+      <c r="E387" s="30"/>
+      <c r="F387" s="30"/>
+      <c r="G387" s="30"/>
+      <c r="H387" s="30"/>
+      <c r="I387" s="30"/>
       <c r="J387" s="21"/>
       <c r="K387" s="21"/>
       <c r="L387" s="21"/>
@@ -15710,17 +15711,17 @@
       <c r="Z387" s="21"/>
     </row>
     <row r="388" customHeight="1" spans="1:26">
-      <c r="A388" s="50" t="s">
+      <c r="A388" s="51" t="s">
         <v>450</v>
       </c>
-      <c r="B388" s="50"/>
-      <c r="C388" s="29"/>
-      <c r="D388" s="29"/>
-      <c r="E388" s="29"/>
-      <c r="F388" s="29"/>
-      <c r="G388" s="29"/>
-      <c r="H388" s="29"/>
-      <c r="I388" s="29"/>
+      <c r="B388" s="51"/>
+      <c r="C388" s="30"/>
+      <c r="D388" s="30"/>
+      <c r="E388" s="30"/>
+      <c r="F388" s="30"/>
+      <c r="G388" s="30"/>
+      <c r="H388" s="30"/>
+      <c r="I388" s="30"/>
       <c r="J388" s="21"/>
       <c r="K388" s="21"/>
       <c r="L388" s="21"/>
@@ -15740,17 +15741,17 @@
       <c r="Z388" s="21"/>
     </row>
     <row r="389" customHeight="1" spans="1:26">
-      <c r="A389" s="50" t="s">
+      <c r="A389" s="51" t="s">
         <v>451</v>
       </c>
-      <c r="B389" s="50"/>
-      <c r="C389" s="29"/>
-      <c r="D389" s="29"/>
-      <c r="E389" s="29"/>
-      <c r="F389" s="29"/>
-      <c r="G389" s="29"/>
-      <c r="H389" s="29"/>
-      <c r="I389" s="29"/>
+      <c r="B389" s="51"/>
+      <c r="C389" s="30"/>
+      <c r="D389" s="30"/>
+      <c r="E389" s="30"/>
+      <c r="F389" s="30"/>
+      <c r="G389" s="30"/>
+      <c r="H389" s="30"/>
+      <c r="I389" s="30"/>
       <c r="J389" s="21"/>
       <c r="K389" s="21"/>
       <c r="L389" s="21"/>
@@ -15770,17 +15771,17 @@
       <c r="Z389" s="21"/>
     </row>
     <row r="390" customHeight="1" spans="1:26">
-      <c r="A390" s="50" t="s">
+      <c r="A390" s="51" t="s">
         <v>452</v>
       </c>
-      <c r="B390" s="50"/>
-      <c r="C390" s="29"/>
-      <c r="D390" s="29"/>
-      <c r="E390" s="29"/>
-      <c r="F390" s="29"/>
-      <c r="G390" s="29"/>
-      <c r="H390" s="29"/>
-      <c r="I390" s="29"/>
+      <c r="B390" s="51"/>
+      <c r="C390" s="30"/>
+      <c r="D390" s="30"/>
+      <c r="E390" s="30"/>
+      <c r="F390" s="30"/>
+      <c r="G390" s="30"/>
+      <c r="H390" s="30"/>
+      <c r="I390" s="30"/>
       <c r="J390" s="21"/>
       <c r="K390" s="21"/>
       <c r="L390" s="21"/>
@@ -15800,17 +15801,17 @@
       <c r="Z390" s="21"/>
     </row>
     <row r="391" customHeight="1" spans="1:26">
-      <c r="A391" s="50" t="s">
+      <c r="A391" s="51" t="s">
         <v>453</v>
       </c>
-      <c r="B391" s="50"/>
-      <c r="C391" s="29"/>
-      <c r="D391" s="29"/>
-      <c r="E391" s="29"/>
-      <c r="F391" s="29"/>
-      <c r="G391" s="29"/>
-      <c r="H391" s="29"/>
-      <c r="I391" s="29"/>
+      <c r="B391" s="51"/>
+      <c r="C391" s="30"/>
+      <c r="D391" s="30"/>
+      <c r="E391" s="30"/>
+      <c r="F391" s="30"/>
+      <c r="G391" s="30"/>
+      <c r="H391" s="30"/>
+      <c r="I391" s="30"/>
       <c r="J391" s="21"/>
       <c r="K391" s="21"/>
       <c r="L391" s="21"/>
@@ -15830,17 +15831,17 @@
       <c r="Z391" s="21"/>
     </row>
     <row r="392" customHeight="1" spans="1:26">
-      <c r="A392" s="50" t="s">
+      <c r="A392" s="51" t="s">
         <v>454</v>
       </c>
-      <c r="B392" s="50"/>
-      <c r="C392" s="29"/>
-      <c r="D392" s="29"/>
-      <c r="E392" s="29"/>
-      <c r="F392" s="29"/>
-      <c r="G392" s="29"/>
-      <c r="H392" s="29"/>
-      <c r="I392" s="29"/>
+      <c r="B392" s="51"/>
+      <c r="C392" s="30"/>
+      <c r="D392" s="30"/>
+      <c r="E392" s="30"/>
+      <c r="F392" s="30"/>
+      <c r="G392" s="30"/>
+      <c r="H392" s="30"/>
+      <c r="I392" s="30"/>
       <c r="J392" s="21"/>
       <c r="K392" s="21"/>
       <c r="L392" s="21"/>
@@ -15860,17 +15861,17 @@
       <c r="Z392" s="21"/>
     </row>
     <row r="393" customHeight="1" spans="1:26">
-      <c r="A393" s="50" t="s">
+      <c r="A393" s="51" t="s">
         <v>455</v>
       </c>
-      <c r="B393" s="50"/>
-      <c r="C393" s="29"/>
-      <c r="D393" s="29"/>
-      <c r="E393" s="29"/>
-      <c r="F393" s="29"/>
-      <c r="G393" s="29"/>
-      <c r="H393" s="29"/>
-      <c r="I393" s="29"/>
+      <c r="B393" s="51"/>
+      <c r="C393" s="30"/>
+      <c r="D393" s="30"/>
+      <c r="E393" s="30"/>
+      <c r="F393" s="30"/>
+      <c r="G393" s="30"/>
+      <c r="H393" s="30"/>
+      <c r="I393" s="30"/>
       <c r="J393" s="21"/>
       <c r="K393" s="21"/>
       <c r="L393" s="21"/>
@@ -15890,17 +15891,17 @@
       <c r="Z393" s="21"/>
     </row>
     <row r="394" customHeight="1" spans="1:26">
-      <c r="A394" s="50" t="s">
+      <c r="A394" s="51" t="s">
         <v>456</v>
       </c>
-      <c r="B394" s="50"/>
-      <c r="C394" s="29"/>
-      <c r="D394" s="29"/>
-      <c r="E394" s="29"/>
-      <c r="F394" s="29"/>
-      <c r="G394" s="29"/>
-      <c r="H394" s="29"/>
-      <c r="I394" s="29"/>
+      <c r="B394" s="51"/>
+      <c r="C394" s="30"/>
+      <c r="D394" s="30"/>
+      <c r="E394" s="30"/>
+      <c r="F394" s="30"/>
+      <c r="G394" s="30"/>
+      <c r="H394" s="30"/>
+      <c r="I394" s="30"/>
       <c r="J394" s="21"/>
       <c r="K394" s="21"/>
       <c r="L394" s="21"/>
@@ -15920,17 +15921,17 @@
       <c r="Z394" s="21"/>
     </row>
     <row r="395" customHeight="1" spans="1:26">
-      <c r="A395" s="32" t="s">
+      <c r="A395" s="33" t="s">
         <v>457</v>
       </c>
-      <c r="B395" s="50"/>
-      <c r="C395" s="29"/>
-      <c r="D395" s="29"/>
-      <c r="E395" s="29"/>
-      <c r="F395" s="29"/>
-      <c r="G395" s="29"/>
-      <c r="H395" s="29"/>
-      <c r="I395" s="29"/>
+      <c r="B395" s="51"/>
+      <c r="C395" s="30"/>
+      <c r="D395" s="30"/>
+      <c r="E395" s="30"/>
+      <c r="F395" s="30"/>
+      <c r="G395" s="30"/>
+      <c r="H395" s="30"/>
+      <c r="I395" s="30"/>
       <c r="J395" s="21"/>
       <c r="K395" s="21"/>
       <c r="L395" s="21"/>
@@ -15950,17 +15951,17 @@
       <c r="Z395" s="21"/>
     </row>
     <row r="396" customHeight="1" spans="1:26">
-      <c r="A396" s="50" t="s">
+      <c r="A396" s="51" t="s">
         <v>458</v>
       </c>
-      <c r="B396" s="50"/>
-      <c r="C396" s="29"/>
-      <c r="D396" s="29"/>
-      <c r="E396" s="29"/>
-      <c r="F396" s="29"/>
-      <c r="G396" s="29"/>
-      <c r="H396" s="29"/>
-      <c r="I396" s="29"/>
+      <c r="B396" s="51"/>
+      <c r="C396" s="30"/>
+      <c r="D396" s="30"/>
+      <c r="E396" s="30"/>
+      <c r="F396" s="30"/>
+      <c r="G396" s="30"/>
+      <c r="H396" s="30"/>
+      <c r="I396" s="30"/>
       <c r="J396" s="21"/>
       <c r="K396" s="21"/>
       <c r="L396" s="21"/>
@@ -15980,17 +15981,17 @@
       <c r="Z396" s="21"/>
     </row>
     <row r="397" customHeight="1" spans="1:26">
-      <c r="A397" s="50" t="s">
+      <c r="A397" s="51" t="s">
         <v>459</v>
       </c>
-      <c r="B397" s="50"/>
-      <c r="C397" s="29"/>
-      <c r="D397" s="29"/>
-      <c r="E397" s="29"/>
-      <c r="F397" s="29"/>
-      <c r="G397" s="29"/>
-      <c r="H397" s="29"/>
-      <c r="I397" s="29"/>
+      <c r="B397" s="51"/>
+      <c r="C397" s="30"/>
+      <c r="D397" s="30"/>
+      <c r="E397" s="30"/>
+      <c r="F397" s="30"/>
+      <c r="G397" s="30"/>
+      <c r="H397" s="30"/>
+      <c r="I397" s="30"/>
       <c r="J397" s="21"/>
       <c r="K397" s="21"/>
       <c r="L397" s="21"/>
@@ -16010,17 +16011,17 @@
       <c r="Z397" s="21"/>
     </row>
     <row r="398" customHeight="1" spans="1:26">
-      <c r="A398" s="50" t="s">
+      <c r="A398" s="51" t="s">
         <v>460</v>
       </c>
-      <c r="B398" s="50"/>
-      <c r="C398" s="29"/>
-      <c r="D398" s="29"/>
-      <c r="E398" s="29"/>
-      <c r="F398" s="29"/>
-      <c r="G398" s="29"/>
-      <c r="H398" s="29"/>
-      <c r="I398" s="29"/>
+      <c r="B398" s="51"/>
+      <c r="C398" s="30"/>
+      <c r="D398" s="30"/>
+      <c r="E398" s="30"/>
+      <c r="F398" s="30"/>
+      <c r="G398" s="30"/>
+      <c r="H398" s="30"/>
+      <c r="I398" s="30"/>
       <c r="J398" s="21"/>
       <c r="K398" s="21"/>
       <c r="L398" s="21"/>
@@ -16040,17 +16041,17 @@
       <c r="Z398" s="21"/>
     </row>
     <row r="399" customHeight="1" spans="1:26">
-      <c r="A399" s="50" t="s">
+      <c r="A399" s="51" t="s">
         <v>461</v>
       </c>
-      <c r="B399" s="50"/>
-      <c r="C399" s="29"/>
-      <c r="D399" s="29"/>
-      <c r="E399" s="29"/>
-      <c r="F399" s="29"/>
-      <c r="G399" s="29"/>
-      <c r="H399" s="29"/>
-      <c r="I399" s="29"/>
+      <c r="B399" s="51"/>
+      <c r="C399" s="30"/>
+      <c r="D399" s="30"/>
+      <c r="E399" s="30"/>
+      <c r="F399" s="30"/>
+      <c r="G399" s="30"/>
+      <c r="H399" s="30"/>
+      <c r="I399" s="30"/>
       <c r="J399" s="21"/>
       <c r="K399" s="21"/>
       <c r="L399" s="21"/>
@@ -16070,17 +16071,17 @@
       <c r="Z399" s="21"/>
     </row>
     <row r="400" customHeight="1" spans="1:26">
-      <c r="A400" s="50" t="s">
+      <c r="A400" s="51" t="s">
         <v>462</v>
       </c>
-      <c r="B400" s="50"/>
-      <c r="C400" s="29"/>
-      <c r="D400" s="29"/>
-      <c r="E400" s="29"/>
-      <c r="F400" s="29"/>
-      <c r="G400" s="29"/>
-      <c r="H400" s="29"/>
-      <c r="I400" s="29"/>
+      <c r="B400" s="51"/>
+      <c r="C400" s="30"/>
+      <c r="D400" s="30"/>
+      <c r="E400" s="30"/>
+      <c r="F400" s="30"/>
+      <c r="G400" s="30"/>
+      <c r="H400" s="30"/>
+      <c r="I400" s="30"/>
       <c r="J400" s="21"/>
       <c r="K400" s="21"/>
       <c r="L400" s="21"/>
@@ -16100,17 +16101,17 @@
       <c r="Z400" s="21"/>
     </row>
     <row r="401" customHeight="1" spans="1:26">
-      <c r="A401" s="50" t="s">
+      <c r="A401" s="51" t="s">
         <v>463</v>
       </c>
-      <c r="B401" s="50"/>
-      <c r="C401" s="29"/>
-      <c r="D401" s="29"/>
-      <c r="E401" s="29"/>
-      <c r="F401" s="29"/>
-      <c r="G401" s="29"/>
-      <c r="H401" s="29"/>
-      <c r="I401" s="29"/>
+      <c r="B401" s="51"/>
+      <c r="C401" s="30"/>
+      <c r="D401" s="30"/>
+      <c r="E401" s="30"/>
+      <c r="F401" s="30"/>
+      <c r="G401" s="30"/>
+      <c r="H401" s="30"/>
+      <c r="I401" s="30"/>
       <c r="J401" s="21"/>
       <c r="K401" s="21"/>
       <c r="L401" s="21"/>
@@ -16130,17 +16131,17 @@
       <c r="Z401" s="21"/>
     </row>
     <row r="402" customHeight="1" spans="1:26">
-      <c r="A402" s="32" t="s">
+      <c r="A402" s="33" t="s">
         <v>464</v>
       </c>
-      <c r="B402" s="50"/>
-      <c r="C402" s="29"/>
-      <c r="D402" s="29"/>
-      <c r="E402" s="29"/>
-      <c r="F402" s="29"/>
-      <c r="G402" s="29"/>
-      <c r="H402" s="29"/>
-      <c r="I402" s="29"/>
+      <c r="B402" s="51"/>
+      <c r="C402" s="30"/>
+      <c r="D402" s="30"/>
+      <c r="E402" s="30"/>
+      <c r="F402" s="30"/>
+      <c r="G402" s="30"/>
+      <c r="H402" s="30"/>
+      <c r="I402" s="30"/>
       <c r="J402" s="21"/>
       <c r="K402" s="21"/>
       <c r="L402" s="21"/>
@@ -16160,17 +16161,17 @@
       <c r="Z402" s="21"/>
     </row>
     <row r="403" customHeight="1" spans="1:26">
-      <c r="A403" s="50" t="s">
+      <c r="A403" s="51" t="s">
         <v>465</v>
       </c>
-      <c r="B403" s="50"/>
-      <c r="C403" s="29"/>
-      <c r="D403" s="29"/>
-      <c r="E403" s="29"/>
-      <c r="F403" s="29"/>
-      <c r="G403" s="29"/>
-      <c r="H403" s="29"/>
-      <c r="I403" s="29"/>
+      <c r="B403" s="51"/>
+      <c r="C403" s="30"/>
+      <c r="D403" s="30"/>
+      <c r="E403" s="30"/>
+      <c r="F403" s="30"/>
+      <c r="G403" s="30"/>
+      <c r="H403" s="30"/>
+      <c r="I403" s="30"/>
       <c r="J403" s="21"/>
       <c r="K403" s="21"/>
       <c r="L403" s="21"/>
@@ -16190,17 +16191,17 @@
       <c r="Z403" s="21"/>
     </row>
     <row r="404" customHeight="1" spans="1:26">
-      <c r="A404" s="50" t="s">
+      <c r="A404" s="51" t="s">
         <v>466</v>
       </c>
-      <c r="B404" s="50"/>
-      <c r="C404" s="29"/>
-      <c r="D404" s="29"/>
-      <c r="E404" s="29"/>
-      <c r="F404" s="29"/>
-      <c r="G404" s="29"/>
-      <c r="H404" s="29"/>
-      <c r="I404" s="29"/>
+      <c r="B404" s="51"/>
+      <c r="C404" s="30"/>
+      <c r="D404" s="30"/>
+      <c r="E404" s="30"/>
+      <c r="F404" s="30"/>
+      <c r="G404" s="30"/>
+      <c r="H404" s="30"/>
+      <c r="I404" s="30"/>
       <c r="J404" s="21"/>
       <c r="K404" s="21"/>
       <c r="L404" s="21"/>
@@ -16220,17 +16221,17 @@
       <c r="Z404" s="21"/>
     </row>
     <row r="405" customHeight="1" spans="1:26">
-      <c r="A405" s="50" t="s">
+      <c r="A405" s="51" t="s">
         <v>467</v>
       </c>
-      <c r="B405" s="50"/>
-      <c r="C405" s="29"/>
-      <c r="D405" s="29"/>
-      <c r="E405" s="29"/>
-      <c r="F405" s="29"/>
-      <c r="G405" s="29"/>
-      <c r="H405" s="29"/>
-      <c r="I405" s="29"/>
+      <c r="B405" s="51"/>
+      <c r="C405" s="30"/>
+      <c r="D405" s="30"/>
+      <c r="E405" s="30"/>
+      <c r="F405" s="30"/>
+      <c r="G405" s="30"/>
+      <c r="H405" s="30"/>
+      <c r="I405" s="30"/>
       <c r="J405" s="21"/>
       <c r="K405" s="21"/>
       <c r="L405" s="21"/>
@@ -16250,17 +16251,17 @@
       <c r="Z405" s="21"/>
     </row>
     <row r="406" customHeight="1" spans="1:26">
-      <c r="A406" s="50" t="s">
+      <c r="A406" s="51" t="s">
         <v>468</v>
       </c>
-      <c r="B406" s="50"/>
-      <c r="C406" s="29"/>
-      <c r="D406" s="29"/>
-      <c r="E406" s="29"/>
-      <c r="F406" s="29"/>
-      <c r="G406" s="29"/>
-      <c r="H406" s="29"/>
-      <c r="I406" s="29"/>
+      <c r="B406" s="51"/>
+      <c r="C406" s="30"/>
+      <c r="D406" s="30"/>
+      <c r="E406" s="30"/>
+      <c r="F406" s="30"/>
+      <c r="G406" s="30"/>
+      <c r="H406" s="30"/>
+      <c r="I406" s="30"/>
       <c r="J406" s="21"/>
       <c r="K406" s="21"/>
       <c r="L406" s="21"/>
@@ -16280,17 +16281,17 @@
       <c r="Z406" s="21"/>
     </row>
     <row r="407" customHeight="1" spans="1:26">
-      <c r="A407" s="50" t="s">
+      <c r="A407" s="51" t="s">
         <v>469</v>
       </c>
-      <c r="B407" s="50"/>
-      <c r="C407" s="29"/>
-      <c r="D407" s="29"/>
-      <c r="E407" s="29"/>
-      <c r="F407" s="29"/>
-      <c r="G407" s="29"/>
-      <c r="H407" s="29"/>
-      <c r="I407" s="29"/>
+      <c r="B407" s="51"/>
+      <c r="C407" s="30"/>
+      <c r="D407" s="30"/>
+      <c r="E407" s="30"/>
+      <c r="F407" s="30"/>
+      <c r="G407" s="30"/>
+      <c r="H407" s="30"/>
+      <c r="I407" s="30"/>
       <c r="J407" s="21"/>
       <c r="K407" s="21"/>
       <c r="L407" s="21"/>
@@ -16310,7 +16311,7 @@
       <c r="Z407" s="21"/>
     </row>
     <row r="408" customHeight="1" spans="1:26">
-      <c r="A408" s="52" t="s">
+      <c r="A408" s="53" t="s">
         <v>23</v>
       </c>
       <c r="B408" s="1"/>
@@ -16343,14 +16344,14 @@
       <c r="A409" s="20" t="s">
         <v>470</v>
       </c>
-      <c r="B409" s="50"/>
-      <c r="C409" s="29"/>
-      <c r="D409" s="29"/>
-      <c r="E409" s="29"/>
-      <c r="F409" s="29"/>
-      <c r="G409" s="29"/>
-      <c r="H409" s="29"/>
-      <c r="I409" s="29"/>
+      <c r="B409" s="51"/>
+      <c r="C409" s="30"/>
+      <c r="D409" s="30"/>
+      <c r="E409" s="30"/>
+      <c r="F409" s="30"/>
+      <c r="G409" s="30"/>
+      <c r="H409" s="30"/>
+      <c r="I409" s="30"/>
       <c r="J409" s="21"/>
       <c r="K409" s="21"/>
       <c r="L409" s="21"/>
@@ -16370,17 +16371,17 @@
       <c r="Z409" s="21"/>
     </row>
     <row r="410" customHeight="1" spans="1:26">
-      <c r="A410" s="50" t="s">
+      <c r="A410" s="51" t="s">
         <v>471</v>
       </c>
-      <c r="B410" s="50"/>
-      <c r="C410" s="29"/>
-      <c r="D410" s="29"/>
-      <c r="E410" s="29"/>
-      <c r="F410" s="29"/>
-      <c r="G410" s="29"/>
-      <c r="H410" s="29"/>
-      <c r="I410" s="29"/>
+      <c r="B410" s="51"/>
+      <c r="C410" s="30"/>
+      <c r="D410" s="30"/>
+      <c r="E410" s="30"/>
+      <c r="F410" s="30"/>
+      <c r="G410" s="30"/>
+      <c r="H410" s="30"/>
+      <c r="I410" s="30"/>
       <c r="J410" s="21"/>
       <c r="K410" s="21"/>
       <c r="L410" s="21"/>
@@ -16400,17 +16401,17 @@
       <c r="Z410" s="21"/>
     </row>
     <row r="411" customHeight="1" spans="1:26">
-      <c r="A411" s="50" t="s">
+      <c r="A411" s="51" t="s">
         <v>472</v>
       </c>
-      <c r="B411" s="50"/>
-      <c r="C411" s="29"/>
-      <c r="D411" s="29"/>
-      <c r="E411" s="29"/>
-      <c r="F411" s="29"/>
-      <c r="G411" s="29"/>
-      <c r="H411" s="29"/>
-      <c r="I411" s="29"/>
+      <c r="B411" s="51"/>
+      <c r="C411" s="30"/>
+      <c r="D411" s="30"/>
+      <c r="E411" s="30"/>
+      <c r="F411" s="30"/>
+      <c r="G411" s="30"/>
+      <c r="H411" s="30"/>
+      <c r="I411" s="30"/>
       <c r="J411" s="21"/>
       <c r="K411" s="21"/>
       <c r="L411" s="21"/>
@@ -16430,17 +16431,17 @@
       <c r="Z411" s="21"/>
     </row>
     <row r="412" customHeight="1" spans="1:26">
-      <c r="A412" s="50" t="s">
+      <c r="A412" s="51" t="s">
         <v>473</v>
       </c>
-      <c r="B412" s="50"/>
-      <c r="C412" s="29"/>
-      <c r="D412" s="29"/>
-      <c r="E412" s="29"/>
-      <c r="F412" s="29"/>
-      <c r="G412" s="29"/>
-      <c r="H412" s="29"/>
-      <c r="I412" s="29"/>
+      <c r="B412" s="51"/>
+      <c r="C412" s="30"/>
+      <c r="D412" s="30"/>
+      <c r="E412" s="30"/>
+      <c r="F412" s="30"/>
+      <c r="G412" s="30"/>
+      <c r="H412" s="30"/>
+      <c r="I412" s="30"/>
       <c r="J412" s="21"/>
       <c r="K412" s="21"/>
       <c r="L412" s="21"/>
@@ -16460,17 +16461,17 @@
       <c r="Z412" s="21"/>
     </row>
     <row r="413" customHeight="1" spans="1:26">
-      <c r="A413" s="50" t="s">
+      <c r="A413" s="51" t="s">
         <v>474</v>
       </c>
-      <c r="B413" s="50"/>
-      <c r="C413" s="29"/>
-      <c r="D413" s="29"/>
-      <c r="E413" s="29"/>
-      <c r="F413" s="29"/>
-      <c r="G413" s="29"/>
-      <c r="H413" s="29"/>
-      <c r="I413" s="29"/>
+      <c r="B413" s="51"/>
+      <c r="C413" s="30"/>
+      <c r="D413" s="30"/>
+      <c r="E413" s="30"/>
+      <c r="F413" s="30"/>
+      <c r="G413" s="30"/>
+      <c r="H413" s="30"/>
+      <c r="I413" s="30"/>
       <c r="J413" s="21"/>
       <c r="K413" s="21"/>
       <c r="L413" s="21"/>
@@ -16490,17 +16491,17 @@
       <c r="Z413" s="21"/>
     </row>
     <row r="414" customHeight="1" spans="1:26">
-      <c r="A414" s="50" t="s">
+      <c r="A414" s="51" t="s">
         <v>475</v>
       </c>
-      <c r="B414" s="50"/>
-      <c r="C414" s="29"/>
-      <c r="D414" s="29"/>
-      <c r="E414" s="29"/>
-      <c r="F414" s="29"/>
-      <c r="G414" s="29"/>
-      <c r="H414" s="29"/>
-      <c r="I414" s="29"/>
+      <c r="B414" s="51"/>
+      <c r="C414" s="30"/>
+      <c r="D414" s="30"/>
+      <c r="E414" s="30"/>
+      <c r="F414" s="30"/>
+      <c r="G414" s="30"/>
+      <c r="H414" s="30"/>
+      <c r="I414" s="30"/>
       <c r="J414" s="21"/>
       <c r="K414" s="21"/>
       <c r="L414" s="21"/>
@@ -16520,17 +16521,17 @@
       <c r="Z414" s="21"/>
     </row>
     <row r="415" customHeight="1" spans="1:26">
-      <c r="A415" s="32" t="s">
+      <c r="A415" s="33" t="s">
         <v>476</v>
       </c>
-      <c r="B415" s="50"/>
-      <c r="C415" s="29"/>
-      <c r="D415" s="29"/>
-      <c r="E415" s="29"/>
-      <c r="F415" s="29"/>
-      <c r="G415" s="29"/>
-      <c r="H415" s="29"/>
-      <c r="I415" s="29"/>
+      <c r="B415" s="51"/>
+      <c r="C415" s="30"/>
+      <c r="D415" s="30"/>
+      <c r="E415" s="30"/>
+      <c r="F415" s="30"/>
+      <c r="G415" s="30"/>
+      <c r="H415" s="30"/>
+      <c r="I415" s="30"/>
       <c r="J415" s="21"/>
       <c r="K415" s="21"/>
       <c r="L415" s="21"/>
@@ -16550,17 +16551,17 @@
       <c r="Z415" s="21"/>
     </row>
     <row r="416" customHeight="1" spans="1:26">
-      <c r="A416" s="50" t="s">
+      <c r="A416" s="51" t="s">
         <v>477</v>
       </c>
-      <c r="B416" s="50"/>
-      <c r="C416" s="29"/>
-      <c r="D416" s="29"/>
-      <c r="E416" s="29"/>
-      <c r="F416" s="29"/>
-      <c r="G416" s="29"/>
-      <c r="H416" s="29"/>
-      <c r="I416" s="29"/>
+      <c r="B416" s="51"/>
+      <c r="C416" s="30"/>
+      <c r="D416" s="30"/>
+      <c r="E416" s="30"/>
+      <c r="F416" s="30"/>
+      <c r="G416" s="30"/>
+      <c r="H416" s="30"/>
+      <c r="I416" s="30"/>
       <c r="J416" s="21"/>
       <c r="K416" s="21"/>
       <c r="L416" s="21"/>
@@ -16580,17 +16581,17 @@
       <c r="Z416" s="21"/>
     </row>
     <row r="417" customHeight="1" spans="1:26">
-      <c r="A417" s="50" t="s">
+      <c r="A417" s="51" t="s">
         <v>478</v>
       </c>
-      <c r="B417" s="50"/>
-      <c r="C417" s="29"/>
-      <c r="D417" s="29"/>
-      <c r="E417" s="29"/>
-      <c r="F417" s="29"/>
-      <c r="G417" s="29"/>
-      <c r="H417" s="29"/>
-      <c r="I417" s="29"/>
+      <c r="B417" s="51"/>
+      <c r="C417" s="30"/>
+      <c r="D417" s="30"/>
+      <c r="E417" s="30"/>
+      <c r="F417" s="30"/>
+      <c r="G417" s="30"/>
+      <c r="H417" s="30"/>
+      <c r="I417" s="30"/>
       <c r="J417" s="21"/>
       <c r="K417" s="21"/>
       <c r="L417" s="21"/>
@@ -16610,17 +16611,17 @@
       <c r="Z417" s="21"/>
     </row>
     <row r="418" customHeight="1" spans="1:26">
-      <c r="A418" s="50" t="s">
+      <c r="A418" s="51" t="s">
         <v>479</v>
       </c>
-      <c r="B418" s="50"/>
-      <c r="C418" s="29"/>
-      <c r="D418" s="29"/>
-      <c r="E418" s="29"/>
-      <c r="F418" s="29"/>
-      <c r="G418" s="29"/>
-      <c r="H418" s="29"/>
-      <c r="I418" s="29"/>
+      <c r="B418" s="51"/>
+      <c r="C418" s="30"/>
+      <c r="D418" s="30"/>
+      <c r="E418" s="30"/>
+      <c r="F418" s="30"/>
+      <c r="G418" s="30"/>
+      <c r="H418" s="30"/>
+      <c r="I418" s="30"/>
       <c r="J418" s="21"/>
       <c r="K418" s="21"/>
       <c r="L418" s="21"/>
@@ -16640,17 +16641,17 @@
       <c r="Z418" s="21"/>
     </row>
     <row r="419" customHeight="1" spans="1:26">
-      <c r="A419" s="50" t="s">
+      <c r="A419" s="51" t="s">
         <v>480</v>
       </c>
-      <c r="B419" s="50"/>
-      <c r="C419" s="29"/>
-      <c r="D419" s="29"/>
-      <c r="E419" s="29"/>
-      <c r="F419" s="29"/>
-      <c r="G419" s="29"/>
-      <c r="H419" s="29"/>
-      <c r="I419" s="29"/>
+      <c r="B419" s="51"/>
+      <c r="C419" s="30"/>
+      <c r="D419" s="30"/>
+      <c r="E419" s="30"/>
+      <c r="F419" s="30"/>
+      <c r="G419" s="30"/>
+      <c r="H419" s="30"/>
+      <c r="I419" s="30"/>
       <c r="J419" s="21"/>
       <c r="K419" s="21"/>
       <c r="L419" s="21"/>
@@ -16670,17 +16671,17 @@
       <c r="Z419" s="21"/>
     </row>
     <row r="420" customHeight="1" spans="1:26">
-      <c r="A420" s="32" t="s">
+      <c r="A420" s="33" t="s">
         <v>481</v>
       </c>
-      <c r="B420" s="50"/>
-      <c r="C420" s="29"/>
-      <c r="D420" s="29"/>
-      <c r="E420" s="29"/>
-      <c r="F420" s="29"/>
-      <c r="G420" s="29"/>
-      <c r="H420" s="29"/>
-      <c r="I420" s="29"/>
+      <c r="B420" s="51"/>
+      <c r="C420" s="30"/>
+      <c r="D420" s="30"/>
+      <c r="E420" s="30"/>
+      <c r="F420" s="30"/>
+      <c r="G420" s="30"/>
+      <c r="H420" s="30"/>
+      <c r="I420" s="30"/>
       <c r="J420" s="21"/>
       <c r="K420" s="21"/>
       <c r="L420" s="21"/>
@@ -16700,17 +16701,17 @@
       <c r="Z420" s="21"/>
     </row>
     <row r="421" customHeight="1" spans="1:26">
-      <c r="A421" s="50" t="s">
+      <c r="A421" s="51" t="s">
         <v>482</v>
       </c>
-      <c r="B421" s="50"/>
-      <c r="C421" s="29"/>
-      <c r="D421" s="29"/>
-      <c r="E421" s="29"/>
-      <c r="F421" s="29"/>
-      <c r="G421" s="29"/>
-      <c r="H421" s="29"/>
-      <c r="I421" s="29"/>
+      <c r="B421" s="51"/>
+      <c r="C421" s="30"/>
+      <c r="D421" s="30"/>
+      <c r="E421" s="30"/>
+      <c r="F421" s="30"/>
+      <c r="G421" s="30"/>
+      <c r="H421" s="30"/>
+      <c r="I421" s="30"/>
       <c r="J421" s="21"/>
       <c r="K421" s="21"/>
       <c r="L421" s="21"/>
@@ -16730,17 +16731,17 @@
       <c r="Z421" s="21"/>
     </row>
     <row r="422" customHeight="1" spans="1:26">
-      <c r="A422" s="50" t="s">
+      <c r="A422" s="51" t="s">
         <v>483</v>
       </c>
-      <c r="B422" s="50"/>
-      <c r="C422" s="29"/>
-      <c r="D422" s="29"/>
-      <c r="E422" s="29"/>
-      <c r="F422" s="29"/>
-      <c r="G422" s="29"/>
-      <c r="H422" s="29"/>
-      <c r="I422" s="29"/>
+      <c r="B422" s="51"/>
+      <c r="C422" s="30"/>
+      <c r="D422" s="30"/>
+      <c r="E422" s="30"/>
+      <c r="F422" s="30"/>
+      <c r="G422" s="30"/>
+      <c r="H422" s="30"/>
+      <c r="I422" s="30"/>
       <c r="J422" s="21"/>
       <c r="K422" s="21"/>
       <c r="L422" s="21"/>
@@ -16760,17 +16761,17 @@
       <c r="Z422" s="21"/>
     </row>
     <row r="423" customHeight="1" spans="1:26">
-      <c r="A423" s="50" t="s">
+      <c r="A423" s="51" t="s">
         <v>484</v>
       </c>
-      <c r="B423" s="50"/>
-      <c r="C423" s="29"/>
-      <c r="D423" s="29"/>
-      <c r="E423" s="29"/>
-      <c r="F423" s="29"/>
-      <c r="G423" s="29"/>
-      <c r="H423" s="29"/>
-      <c r="I423" s="29"/>
+      <c r="B423" s="51"/>
+      <c r="C423" s="30"/>
+      <c r="D423" s="30"/>
+      <c r="E423" s="30"/>
+      <c r="F423" s="30"/>
+      <c r="G423" s="30"/>
+      <c r="H423" s="30"/>
+      <c r="I423" s="30"/>
       <c r="J423" s="21"/>
       <c r="K423" s="21"/>
       <c r="L423" s="21"/>
@@ -16790,17 +16791,17 @@
       <c r="Z423" s="21"/>
     </row>
     <row r="424" customHeight="1" spans="1:26">
-      <c r="A424" s="50" t="s">
+      <c r="A424" s="51" t="s">
         <v>485</v>
       </c>
-      <c r="B424" s="50"/>
-      <c r="C424" s="29"/>
-      <c r="D424" s="29"/>
-      <c r="E424" s="29"/>
-      <c r="F424" s="29"/>
-      <c r="G424" s="29"/>
-      <c r="H424" s="29"/>
-      <c r="I424" s="29"/>
+      <c r="B424" s="51"/>
+      <c r="C424" s="30"/>
+      <c r="D424" s="30"/>
+      <c r="E424" s="30"/>
+      <c r="F424" s="30"/>
+      <c r="G424" s="30"/>
+      <c r="H424" s="30"/>
+      <c r="I424" s="30"/>
       <c r="J424" s="21"/>
       <c r="K424" s="21"/>
       <c r="L424" s="21"/>
@@ -16820,17 +16821,17 @@
       <c r="Z424" s="21"/>
     </row>
     <row r="425" customHeight="1" spans="1:26">
-      <c r="A425" s="50" t="s">
+      <c r="A425" s="51" t="s">
         <v>486</v>
       </c>
-      <c r="B425" s="50"/>
-      <c r="C425" s="29"/>
-      <c r="D425" s="29"/>
-      <c r="E425" s="29"/>
-      <c r="F425" s="29"/>
-      <c r="G425" s="29"/>
-      <c r="H425" s="29"/>
-      <c r="I425" s="29"/>
+      <c r="B425" s="51"/>
+      <c r="C425" s="30"/>
+      <c r="D425" s="30"/>
+      <c r="E425" s="30"/>
+      <c r="F425" s="30"/>
+      <c r="G425" s="30"/>
+      <c r="H425" s="30"/>
+      <c r="I425" s="30"/>
       <c r="J425" s="21"/>
       <c r="K425" s="21"/>
       <c r="L425" s="21"/>
@@ -16850,17 +16851,17 @@
       <c r="Z425" s="21"/>
     </row>
     <row r="426" customHeight="1" spans="1:26">
-      <c r="A426" s="32" t="s">
+      <c r="A426" s="33" t="s">
         <v>487</v>
       </c>
-      <c r="B426" s="50"/>
-      <c r="C426" s="29"/>
-      <c r="D426" s="29"/>
-      <c r="E426" s="29"/>
-      <c r="F426" s="29"/>
-      <c r="G426" s="29"/>
-      <c r="H426" s="29"/>
-      <c r="I426" s="29"/>
+      <c r="B426" s="51"/>
+      <c r="C426" s="30"/>
+      <c r="D426" s="30"/>
+      <c r="E426" s="30"/>
+      <c r="F426" s="30"/>
+      <c r="G426" s="30"/>
+      <c r="H426" s="30"/>
+      <c r="I426" s="30"/>
       <c r="J426" s="21"/>
       <c r="K426" s="21"/>
       <c r="L426" s="21"/>
@@ -16880,17 +16881,17 @@
       <c r="Z426" s="21"/>
     </row>
     <row r="427" customHeight="1" spans="1:26">
-      <c r="A427" s="50" t="s">
+      <c r="A427" s="51" t="s">
         <v>488</v>
       </c>
-      <c r="B427" s="50"/>
-      <c r="C427" s="29"/>
-      <c r="D427" s="29"/>
-      <c r="E427" s="29"/>
-      <c r="F427" s="29"/>
-      <c r="G427" s="29"/>
-      <c r="H427" s="29"/>
-      <c r="I427" s="29"/>
+      <c r="B427" s="51"/>
+      <c r="C427" s="30"/>
+      <c r="D427" s="30"/>
+      <c r="E427" s="30"/>
+      <c r="F427" s="30"/>
+      <c r="G427" s="30"/>
+      <c r="H427" s="30"/>
+      <c r="I427" s="30"/>
       <c r="J427" s="21"/>
       <c r="K427" s="21"/>
       <c r="L427" s="21"/>
@@ -16910,17 +16911,17 @@
       <c r="Z427" s="21"/>
     </row>
     <row r="428" customHeight="1" spans="1:26">
-      <c r="A428" s="50" t="s">
+      <c r="A428" s="51" t="s">
         <v>489</v>
       </c>
-      <c r="B428" s="50"/>
-      <c r="C428" s="29"/>
-      <c r="D428" s="29"/>
-      <c r="E428" s="29"/>
-      <c r="F428" s="29"/>
-      <c r="G428" s="29"/>
-      <c r="H428" s="29"/>
-      <c r="I428" s="29"/>
+      <c r="B428" s="51"/>
+      <c r="C428" s="30"/>
+      <c r="D428" s="30"/>
+      <c r="E428" s="30"/>
+      <c r="F428" s="30"/>
+      <c r="G428" s="30"/>
+      <c r="H428" s="30"/>
+      <c r="I428" s="30"/>
       <c r="J428" s="21"/>
       <c r="K428" s="21"/>
       <c r="L428" s="21"/>
@@ -16940,17 +16941,17 @@
       <c r="Z428" s="21"/>
     </row>
     <row r="429" customHeight="1" spans="1:26">
-      <c r="A429" s="50" t="s">
+      <c r="A429" s="51" t="s">
         <v>490</v>
       </c>
-      <c r="B429" s="50"/>
-      <c r="C429" s="29"/>
-      <c r="D429" s="29"/>
-      <c r="E429" s="29"/>
-      <c r="F429" s="29"/>
-      <c r="G429" s="29"/>
-      <c r="H429" s="29"/>
-      <c r="I429" s="29"/>
+      <c r="B429" s="51"/>
+      <c r="C429" s="30"/>
+      <c r="D429" s="30"/>
+      <c r="E429" s="30"/>
+      <c r="F429" s="30"/>
+      <c r="G429" s="30"/>
+      <c r="H429" s="30"/>
+      <c r="I429" s="30"/>
       <c r="J429" s="21"/>
       <c r="K429" s="21"/>
       <c r="L429" s="21"/>
@@ -16970,17 +16971,17 @@
       <c r="Z429" s="21"/>
     </row>
     <row r="430" customHeight="1" spans="1:26">
-      <c r="A430" s="50" t="s">
+      <c r="A430" s="51" t="s">
         <v>491</v>
       </c>
-      <c r="B430" s="50"/>
-      <c r="C430" s="29"/>
-      <c r="D430" s="29"/>
-      <c r="E430" s="29"/>
-      <c r="F430" s="29"/>
-      <c r="G430" s="29"/>
-      <c r="H430" s="29"/>
-      <c r="I430" s="29"/>
+      <c r="B430" s="51"/>
+      <c r="C430" s="30"/>
+      <c r="D430" s="30"/>
+      <c r="E430" s="30"/>
+      <c r="F430" s="30"/>
+      <c r="G430" s="30"/>
+      <c r="H430" s="30"/>
+      <c r="I430" s="30"/>
       <c r="J430" s="21"/>
       <c r="K430" s="21"/>
       <c r="L430" s="21"/>
@@ -17000,17 +17001,17 @@
       <c r="Z430" s="21"/>
     </row>
     <row r="431" customHeight="1" spans="1:26">
-      <c r="A431" s="50" t="s">
+      <c r="A431" s="51" t="s">
         <v>492</v>
       </c>
-      <c r="B431" s="50"/>
-      <c r="C431" s="29"/>
-      <c r="D431" s="29"/>
-      <c r="E431" s="29"/>
-      <c r="F431" s="29"/>
-      <c r="G431" s="29"/>
-      <c r="H431" s="29"/>
-      <c r="I431" s="29"/>
+      <c r="B431" s="51"/>
+      <c r="C431" s="30"/>
+      <c r="D431" s="30"/>
+      <c r="E431" s="30"/>
+      <c r="F431" s="30"/>
+      <c r="G431" s="30"/>
+      <c r="H431" s="30"/>
+      <c r="I431" s="30"/>
       <c r="J431" s="21"/>
       <c r="K431" s="21"/>
       <c r="L431" s="21"/>
@@ -17118,7 +17119,7 @@
       <c r="Z434" s="21"/>
     </row>
     <row r="435" customHeight="1" spans="1:26">
-      <c r="A435" s="56" t="s">
+      <c r="A435" s="57" t="s">
         <v>494</v>
       </c>
       <c r="B435" s="21" t="s">
@@ -17150,7 +17151,7 @@
       <c r="Z435" s="21"/>
     </row>
     <row r="436" customHeight="1" spans="1:26">
-      <c r="A436" s="56" t="s">
+      <c r="A436" s="57" t="s">
         <v>494</v>
       </c>
       <c r="B436" s="21" t="s">
@@ -17182,7 +17183,7 @@
       <c r="Z436" s="21"/>
     </row>
     <row r="437" customHeight="1" spans="1:26">
-      <c r="A437" s="56" t="s">
+      <c r="A437" s="57" t="s">
         <v>497</v>
       </c>
       <c r="B437" s="21" t="s">
@@ -17214,7 +17215,7 @@
       <c r="Z437" s="21"/>
     </row>
     <row r="438" customHeight="1" spans="1:26">
-      <c r="A438" s="47" t="str">
+      <c r="A438" s="48" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/russian-doll-envelopes/","Russian doll envelopes")</f>
         <v>Russian doll envelopes</v>
       </c>
@@ -17247,7 +17248,7 @@
       <c r="Z438" s="21"/>
     </row>
     <row r="439" customHeight="1" spans="1:26">
-      <c r="A439" s="37" t="s">
+      <c r="A439" s="38" t="s">
         <v>500</v>
       </c>
       <c r="B439" s="21" t="s">
@@ -17279,7 +17280,7 @@
       <c r="Z439" s="21"/>
     </row>
     <row r="440" customHeight="1" spans="1:26">
-      <c r="A440" s="25" t="s">
+      <c r="A440" s="26" t="s">
         <v>502</v>
       </c>
       <c r="B440" s="21" t="s">
@@ -17311,7 +17312,7 @@
       <c r="Z440" s="21"/>
     </row>
     <row r="441" customHeight="1" spans="1:26">
-      <c r="A441" s="56" t="s">
+      <c r="A441" s="57" t="s">
         <v>504</v>
       </c>
       <c r="B441" s="21" t="s">
@@ -17343,7 +17344,7 @@
       <c r="Z441" s="21"/>
     </row>
     <row r="442" customHeight="1" spans="1:26">
-      <c r="A442" s="32" t="s">
+      <c r="A442" s="33" t="s">
         <v>506</v>
       </c>
       <c r="B442" s="21"/>
@@ -17373,7 +17374,7 @@
       <c r="Z442" s="21"/>
     </row>
     <row r="443" customHeight="1" spans="1:26">
-      <c r="A443" s="37" t="s">
+      <c r="A443" s="38" t="s">
         <v>507</v>
       </c>
       <c r="B443" s="21" t="s">
@@ -17405,7 +17406,7 @@
       <c r="Z443" s="21"/>
     </row>
     <row r="444" customHeight="1" spans="1:26">
-      <c r="A444" s="37" t="s">
+      <c r="A444" s="38" t="s">
         <v>508</v>
       </c>
       <c r="B444" s="21" t="s">
@@ -17437,7 +17438,7 @@
       <c r="Z444" s="21"/>
     </row>
     <row r="445" customHeight="1" spans="1:26">
-      <c r="A445" s="37" t="s">
+      <c r="A445" s="38" t="s">
         <v>509</v>
       </c>
       <c r="B445" s="21" t="s">
@@ -17469,7 +17470,7 @@
       <c r="Z445" s="21"/>
     </row>
     <row r="446" customHeight="1" spans="1:26">
-      <c r="A446" s="25" t="s">
+      <c r="A446" s="26" t="s">
         <v>510</v>
       </c>
       <c r="B446" s="21" t="s">
@@ -17501,7 +17502,7 @@
       <c r="Z446" s="21"/>
     </row>
     <row r="447" customHeight="1" spans="1:26">
-      <c r="A447" s="25" t="s">
+      <c r="A447" s="26" t="s">
         <v>512</v>
       </c>
       <c r="B447" s="21"/>
@@ -17531,7 +17532,7 @@
       <c r="Z447" s="21"/>
     </row>
     <row r="448" customHeight="1" spans="1:26">
-      <c r="A448" s="25" t="s">
+      <c r="A448" s="26" t="s">
         <v>513</v>
       </c>
       <c r="B448" s="21"/>
@@ -17561,7 +17562,7 @@
       <c r="Z448" s="21"/>
     </row>
     <row r="449" customHeight="1" spans="1:26">
-      <c r="A449" s="46" t="s">
+      <c r="A449" s="47" t="s">
         <v>514</v>
       </c>
       <c r="B449" s="21" t="s">
@@ -17593,11 +17594,11 @@
       <c r="Z449" s="21"/>
     </row>
     <row r="450" customHeight="1" spans="1:26">
-      <c r="A450" s="46" t="s">
+      <c r="A450" s="47" t="s">
         <v>516</v>
       </c>
-      <c r="B450" s="34"/>
-      <c r="C450" s="34"/>
+      <c r="B450" s="35"/>
+      <c r="C450" s="35"/>
       <c r="D450" s="21"/>
       <c r="E450" s="21"/>
       <c r="F450" s="21"/>
@@ -17623,7 +17624,7 @@
       <c r="Z450" s="21"/>
     </row>
     <row r="451" customHeight="1" spans="1:26">
-      <c r="A451" s="47" t="s">
+      <c r="A451" s="48" t="s">
         <v>517</v>
       </c>
       <c r="B451" s="21" t="s">
@@ -17655,7 +17656,7 @@
       <c r="Z451" s="21"/>
     </row>
     <row r="452" customHeight="1" spans="1:26">
-      <c r="A452" s="46" t="s">
+      <c r="A452" s="47" t="s">
         <v>519</v>
       </c>
       <c r="B452" s="21" t="s">
@@ -17687,7 +17688,7 @@
       <c r="Z452" s="21"/>
     </row>
     <row r="453" customHeight="1" spans="1:26">
-      <c r="A453" s="32" t="s">
+      <c r="A453" s="33" t="s">
         <v>520</v>
       </c>
       <c r="B453" s="21"/>
@@ -17717,7 +17718,7 @@
       <c r="Z453" s="21"/>
     </row>
     <row r="454" customHeight="1" spans="1:26">
-      <c r="A454" s="25" t="s">
+      <c r="A454" s="26" t="s">
         <v>521</v>
       </c>
       <c r="B454" s="21"/>
@@ -17747,14 +17748,14 @@
       <c r="Z454" s="21"/>
     </row>
     <row r="455" customHeight="1" spans="1:26">
-      <c r="A455" s="47" t="str">
+      <c r="A455" s="48" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/best-time-to-buy-and-sell-stock/","best time to buy and sell stock")</f>
         <v>best time to buy and sell stock</v>
       </c>
-      <c r="B455" s="34" t="s">
+      <c r="B455" s="35" t="s">
         <v>522</v>
       </c>
-      <c r="C455" s="34"/>
+      <c r="C455" s="35"/>
       <c r="D455" s="21"/>
       <c r="E455" s="21"/>
       <c r="F455" s="21"/>
@@ -17780,14 +17781,14 @@
       <c r="Z455" s="21"/>
     </row>
     <row r="456" customHeight="1" spans="1:26">
-      <c r="A456" s="47" t="str">
+      <c r="A456" s="48" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/best-time-to-buy-and-sell-stock-ii/","best time to buy and sell 2")</f>
         <v>best time to buy and sell 2</v>
       </c>
-      <c r="B456" s="34" t="s">
+      <c r="B456" s="35" t="s">
         <v>523</v>
       </c>
-      <c r="C456" s="34"/>
+      <c r="C456" s="35"/>
       <c r="D456" s="21"/>
       <c r="E456" s="21"/>
       <c r="F456" s="21"/>
@@ -17813,7 +17814,7 @@
       <c r="Z456" s="21"/>
     </row>
     <row r="457" customHeight="1" spans="1:26">
-      <c r="A457" s="37" t="s">
+      <c r="A457" s="38" t="s">
         <v>524</v>
       </c>
       <c r="B457" s="21" t="s">
@@ -17845,7 +17846,7 @@
       <c r="Z457" s="21"/>
     </row>
     <row r="458" customHeight="1" spans="1:26">
-      <c r="A458" s="47" t="str">
+      <c r="A458" s="48" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/best-time-to-buy-and-sell-stock-with-cooldown/","best time to buy and sell with cool down")</f>
         <v>best time to buy and sell with cool down</v>
       </c>
@@ -17878,14 +17879,14 @@
       <c r="Z458" s="21"/>
     </row>
     <row r="459" customHeight="1" spans="1:26">
-      <c r="A459" s="47" t="str">
+      <c r="A459" s="48" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/best-time-to-buy-and-sell-stock-iii/","best time to buy and sell 3")</f>
         <v>best time to buy and sell 3</v>
       </c>
-      <c r="B459" s="34" t="s">
+      <c r="B459" s="35" t="s">
         <v>527</v>
       </c>
-      <c r="C459" s="34"/>
+      <c r="C459" s="35"/>
       <c r="D459" s="21"/>
       <c r="E459" s="21"/>
       <c r="F459" s="21"/>
@@ -17911,7 +17912,7 @@
       <c r="Z459" s="21"/>
     </row>
     <row r="460" customHeight="1" spans="1:26">
-      <c r="A460" s="47" t="str">
+      <c r="A460" s="48" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/best-time-to-buy-and-sell-stock-iv/","best time to but and sell 4")</f>
         <v>best time to but and sell 4</v>
       </c>
@@ -17944,13 +17945,13 @@
       <c r="Z460" s="21"/>
     </row>
     <row r="461" customHeight="1" spans="1:26">
-      <c r="A461" s="46" t="s">
+      <c r="A461" s="47" t="s">
         <v>529</v>
       </c>
-      <c r="B461" s="34" t="s">
+      <c r="B461" s="35" t="s">
         <v>530</v>
       </c>
-      <c r="C461" s="34"/>
+      <c r="C461" s="35"/>
       <c r="D461" s="21"/>
       <c r="E461" s="21"/>
       <c r="F461" s="21"/>
@@ -17976,7 +17977,7 @@
       <c r="Z461" s="21"/>
     </row>
     <row r="462" customHeight="1" spans="1:26">
-      <c r="A462" s="32" t="s">
+      <c r="A462" s="33" t="s">
         <v>531</v>
       </c>
       <c r="B462" s="21"/>
@@ -18010,10 +18011,10 @@
         <f>HYPERLINK("https://leetcode.com/problems/burst-balloons/","burst balloons")</f>
         <v>burst balloons</v>
       </c>
-      <c r="B463" s="34" t="s">
+      <c r="B463" s="35" t="s">
         <v>532</v>
       </c>
-      <c r="C463" s="34"/>
+      <c r="C463" s="35"/>
       <c r="D463" s="21"/>
       <c r="E463" s="21"/>
       <c r="F463" s="21"/>
@@ -18042,10 +18043,10 @@
       <c r="A464" s="22" t="s">
         <v>533</v>
       </c>
-      <c r="B464" s="34" t="s">
+      <c r="B464" s="35" t="s">
         <v>534</v>
       </c>
-      <c r="C464" s="34"/>
+      <c r="C464" s="35"/>
       <c r="D464" s="21"/>
       <c r="E464" s="21"/>
       <c r="F464" s="21"/>
@@ -18071,13 +18072,13 @@
       <c r="Z464" s="21"/>
     </row>
     <row r="465" customHeight="1" spans="1:26">
-      <c r="A465" s="46" t="s">
+      <c r="A465" s="47" t="s">
         <v>535</v>
       </c>
-      <c r="B465" s="34" t="s">
+      <c r="B465" s="35" t="s">
         <v>535</v>
       </c>
-      <c r="C465" s="34"/>
+      <c r="C465" s="35"/>
       <c r="D465" s="21"/>
       <c r="E465" s="21"/>
       <c r="F465" s="21"/>
@@ -18103,13 +18104,13 @@
       <c r="Z465" s="21"/>
     </row>
     <row r="466" customHeight="1" spans="1:26">
-      <c r="A466" s="46" t="s">
+      <c r="A466" s="47" t="s">
         <v>536</v>
       </c>
-      <c r="B466" s="34" t="s">
+      <c r="B466" s="35" t="s">
         <v>537</v>
       </c>
-      <c r="C466" s="34"/>
+      <c r="C466" s="35"/>
       <c r="D466" s="21"/>
       <c r="E466" s="21"/>
       <c r="F466" s="21"/>
@@ -18139,10 +18140,10 @@
         <f>HYPERLINK("https://leetcode.com/problems/minimum-score-triangulation-of-polygon/","Minimum score triangulation")</f>
         <v>Minimum score triangulation</v>
       </c>
-      <c r="B467" s="34" t="s">
+      <c r="B467" s="35" t="s">
         <v>538</v>
       </c>
-      <c r="C467" s="34"/>
+      <c r="C467" s="35"/>
       <c r="D467" s="21"/>
       <c r="E467" s="21"/>
       <c r="F467" s="21"/>
@@ -18171,10 +18172,10 @@
       <c r="A468" s="22" t="s">
         <v>539</v>
       </c>
-      <c r="B468" s="34" t="s">
+      <c r="B468" s="35" t="s">
         <v>540</v>
       </c>
-      <c r="C468" s="34"/>
+      <c r="C468" s="35"/>
       <c r="D468" s="21"/>
       <c r="E468" s="21"/>
       <c r="F468" s="21"/>
@@ -18200,7 +18201,7 @@
       <c r="Z468" s="21"/>
     </row>
     <row r="469" customHeight="1" spans="1:26">
-      <c r="A469" s="32" t="s">
+      <c r="A469" s="33" t="s">
         <v>541</v>
       </c>
       <c r="B469" s="21"/>
@@ -18233,10 +18234,10 @@
       <c r="A470" s="22" t="s">
         <v>542</v>
       </c>
-      <c r="B470" s="34" t="s">
+      <c r="B470" s="35" t="s">
         <v>543</v>
       </c>
-      <c r="C470" s="34"/>
+      <c r="C470" s="35"/>
       <c r="D470" s="21"/>
       <c r="E470" s="21"/>
       <c r="F470" s="21"/>
@@ -18262,13 +18263,13 @@
       <c r="Z470" s="21"/>
     </row>
     <row r="471" customHeight="1" spans="1:26">
-      <c r="A471" s="46" t="s">
+      <c r="A471" s="47" t="s">
         <v>544</v>
       </c>
-      <c r="B471" s="34" t="s">
+      <c r="B471" s="35" t="s">
         <v>544</v>
       </c>
-      <c r="C471" s="34"/>
+      <c r="C471" s="35"/>
       <c r="D471" s="21"/>
       <c r="E471" s="21"/>
       <c r="F471" s="21"/>
@@ -18294,13 +18295,13 @@
       <c r="Z471" s="21"/>
     </row>
     <row r="472" customHeight="1" spans="1:26">
-      <c r="A472" s="46" t="s">
+      <c r="A472" s="47" t="s">
         <v>545</v>
       </c>
-      <c r="B472" s="34" t="s">
+      <c r="B472" s="35" t="s">
         <v>546</v>
       </c>
-      <c r="C472" s="34"/>
+      <c r="C472" s="35"/>
       <c r="D472" s="21"/>
       <c r="E472" s="21"/>
       <c r="F472" s="21"/>
@@ -18326,12 +18327,12 @@
       <c r="Z472" s="21"/>
     </row>
     <row r="473" customHeight="1" spans="1:26">
-      <c r="A473" s="46" t="str">
+      <c r="A473" s="47" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/count-palindromic-subsequence-given-string/","Count all pallindromic subsequence")</f>
         <v>Count all pallindromic subsequence</v>
       </c>
-      <c r="B473" s="34"/>
-      <c r="C473" s="34"/>
+      <c r="B473" s="35"/>
+      <c r="C473" s="35"/>
       <c r="D473" s="21"/>
       <c r="E473" s="21"/>
       <c r="F473" s="21"/>
@@ -18357,12 +18358,12 @@
       <c r="Z473" s="21"/>
     </row>
     <row r="474" customHeight="1" spans="1:26">
-      <c r="A474" s="46" t="str">
+      <c r="A474" s="47" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/count-different-palindromic-subsequences/","Count distinct pallindromic subsequence")</f>
         <v>Count distinct pallindromic subsequence</v>
       </c>
-      <c r="B474" s="34"/>
-      <c r="C474" s="34"/>
+      <c r="B474" s="35"/>
+      <c r="C474" s="35"/>
       <c r="D474" s="21"/>
       <c r="E474" s="21"/>
       <c r="F474" s="21"/>
@@ -18388,7 +18389,7 @@
       <c r="Z474" s="21"/>
     </row>
     <row r="475" customHeight="1" spans="1:26">
-      <c r="A475" s="37" t="s">
+      <c r="A475" s="38" t="s">
         <v>547</v>
       </c>
       <c r="B475" s="21"/>
@@ -18422,7 +18423,7 @@
         <f>HYPERLINK("https://www.geeksforgeeks.org/number-subsequences-form-ai-bj-ck/","No. of sequence of type a^i+b^j+c^k")</f>
         <v>No. of sequence of type a^i+b^j+c^k</v>
       </c>
-      <c r="B476" s="34" t="s">
+      <c r="B476" s="35" t="s">
         <v>548</v>
       </c>
       <c r="C476" s="21"/>
@@ -18451,7 +18452,7 @@
       <c r="Z476" s="21"/>
     </row>
     <row r="477" customHeight="1" spans="1:26">
-      <c r="A477" s="25" t="s">
+      <c r="A477" s="26" t="s">
         <v>549</v>
       </c>
       <c r="B477" s="21"/>
@@ -18481,7 +18482,7 @@
       <c r="Z477" s="21"/>
     </row>
     <row r="478" customHeight="1" spans="1:26">
-      <c r="A478" s="32" t="s">
+      <c r="A478" s="33" t="s">
         <v>550</v>
       </c>
       <c r="B478" s="21"/>
@@ -18514,10 +18515,10 @@
       <c r="A479" s="22" t="s">
         <v>551</v>
       </c>
-      <c r="B479" s="34" t="s">
+      <c r="B479" s="35" t="s">
         <v>551</v>
       </c>
-      <c r="C479" s="34"/>
+      <c r="C479" s="35"/>
       <c r="D479" s="21"/>
       <c r="E479" s="21"/>
       <c r="F479" s="21"/>
@@ -18543,7 +18544,7 @@
       <c r="Z479" s="21"/>
     </row>
     <row r="480" customHeight="1" spans="1:26">
-      <c r="A480" s="46" t="s">
+      <c r="A480" s="47" t="s">
         <v>552</v>
       </c>
       <c r="B480" s="21"/>
@@ -18573,7 +18574,7 @@
       <c r="Z480" s="21"/>
     </row>
     <row r="481" customHeight="1" spans="1:26">
-      <c r="A481" s="46" t="s">
+      <c r="A481" s="47" t="s">
         <v>553</v>
       </c>
       <c r="B481" s="21"/>
@@ -18603,7 +18604,7 @@
       <c r="Z481" s="21"/>
     </row>
     <row r="482" customHeight="1" spans="1:26">
-      <c r="A482" s="46" t="s">
+      <c r="A482" s="47" t="s">
         <v>554</v>
       </c>
       <c r="B482" s="21"/>
@@ -18663,7 +18664,7 @@
       <c r="Z483" s="21"/>
     </row>
     <row r="484" customHeight="1" spans="1:26">
-      <c r="A484" s="66" t="str">
+      <c r="A484" s="67" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/super-ugly-number-number-whose-prime-factors-given-set/","Super ugly number")</f>
         <v>Super ugly number</v>
       </c>
@@ -18696,7 +18697,7 @@
       <c r="Z484" s="21"/>
     </row>
     <row r="485" customHeight="1" spans="1:26">
-      <c r="A485" s="67" t="s">
+      <c r="A485" s="68" t="s">
         <v>557</v>
       </c>
       <c r="B485" s="21"/>
@@ -18729,10 +18730,10 @@
       <c r="A486" s="22" t="s">
         <v>558</v>
       </c>
-      <c r="B486" s="34" t="s">
+      <c r="B486" s="35" t="s">
         <v>559</v>
       </c>
-      <c r="C486" s="34"/>
+      <c r="C486" s="35"/>
       <c r="D486" s="21"/>
       <c r="E486" s="21"/>
       <c r="F486" s="21"/>
@@ -18758,7 +18759,7 @@
       <c r="Z486" s="21"/>
     </row>
     <row r="487" customHeight="1" spans="1:26">
-      <c r="A487" s="32" t="s">
+      <c r="A487" s="33" t="s">
         <v>560</v>
       </c>
       <c r="B487" s="21"/>
@@ -18818,7 +18819,7 @@
       <c r="Z488" s="21"/>
     </row>
     <row r="489" customHeight="1" spans="1:26">
-      <c r="A489" s="25" t="s">
+      <c r="A489" s="26" t="s">
         <v>562</v>
       </c>
       <c r="B489" s="21"/>
@@ -18878,7 +18879,7 @@
       <c r="Z490" s="21"/>
     </row>
     <row r="491" customHeight="1" spans="1:26">
-      <c r="A491" s="25" t="s">
+      <c r="A491" s="26" t="s">
         <v>564</v>
       </c>
       <c r="B491" s="21"/>
@@ -18908,7 +18909,7 @@
       <c r="Z491" s="21"/>
     </row>
     <row r="492" customHeight="1" spans="1:26">
-      <c r="A492" s="25" t="s">
+      <c r="A492" s="26" t="s">
         <v>565</v>
       </c>
       <c r="B492" s="21"/>
@@ -18938,7 +18939,7 @@
       <c r="Z492" s="21"/>
     </row>
     <row r="493" customHeight="1" spans="1:26">
-      <c r="A493" s="25" t="s">
+      <c r="A493" s="26" t="s">
         <v>566</v>
       </c>
       <c r="B493" s="21"/>
@@ -18968,7 +18969,7 @@
       <c r="Z493" s="21"/>
     </row>
     <row r="494" customHeight="1" spans="1:26">
-      <c r="A494" s="32" t="s">
+      <c r="A494" s="33" t="s">
         <v>567</v>
       </c>
       <c r="B494" s="21"/>
@@ -18998,7 +18999,7 @@
       <c r="Z494" s="21"/>
     </row>
     <row r="495" customHeight="1" spans="1:26">
-      <c r="A495" s="25" t="s">
+      <c r="A495" s="26" t="s">
         <v>568</v>
       </c>
       <c r="B495" s="21"/>
@@ -19028,7 +19029,7 @@
       <c r="Z495" s="21"/>
     </row>
     <row r="496" customHeight="1" spans="1:26">
-      <c r="A496" s="25" t="s">
+      <c r="A496" s="26" t="s">
         <v>569</v>
       </c>
       <c r="B496" s="21"/>
@@ -19058,7 +19059,7 @@
       <c r="Z496" s="21"/>
     </row>
     <row r="497" customHeight="1" spans="1:26">
-      <c r="A497" s="25" t="s">
+      <c r="A497" s="26" t="s">
         <v>570</v>
       </c>
       <c r="B497" s="21"/>
@@ -19088,7 +19089,7 @@
       <c r="Z497" s="21"/>
     </row>
     <row r="498" customHeight="1" spans="1:26">
-      <c r="A498" s="25" t="s">
+      <c r="A498" s="26" t="s">
         <v>571</v>
       </c>
       <c r="B498" s="21"/>
@@ -19151,7 +19152,7 @@
       <c r="Z499" s="21"/>
     </row>
     <row r="500" customHeight="1" spans="1:26">
-      <c r="A500" s="25" t="s">
+      <c r="A500" s="26" t="s">
         <v>573</v>
       </c>
       <c r="B500" s="21"/>
@@ -19181,7 +19182,7 @@
       <c r="Z500" s="21"/>
     </row>
     <row r="501" customHeight="1" spans="1:26">
-      <c r="A501" s="25" t="s">
+      <c r="A501" s="26" t="s">
         <v>574</v>
       </c>
       <c r="B501" s="21"/>
@@ -19211,7 +19212,7 @@
       <c r="Z501" s="21"/>
     </row>
     <row r="502" customHeight="1" spans="1:26">
-      <c r="A502" s="32" t="s">
+      <c r="A502" s="33" t="s">
         <v>575</v>
       </c>
       <c r="B502" s="21"/>
@@ -19241,7 +19242,7 @@
       <c r="Z502" s="21"/>
     </row>
     <row r="503" customHeight="1" spans="1:26">
-      <c r="A503" s="25" t="s">
+      <c r="A503" s="26" t="s">
         <v>576</v>
       </c>
       <c r="B503" s="21"/>
@@ -19271,7 +19272,7 @@
       <c r="Z503" s="21"/>
     </row>
     <row r="504" customHeight="1" spans="1:26">
-      <c r="A504" s="25" t="s">
+      <c r="A504" s="26" t="s">
         <v>577</v>
       </c>
       <c r="B504" s="21"/>
@@ -19301,7 +19302,7 @@
       <c r="Z504" s="21"/>
     </row>
     <row r="505" customHeight="1" spans="1:26">
-      <c r="A505" s="25" t="s">
+      <c r="A505" s="26" t="s">
         <v>578</v>
       </c>
       <c r="B505" s="21"/>
@@ -19331,10 +19332,10 @@
       <c r="Z505" s="21"/>
     </row>
     <row r="506" customHeight="1" spans="1:26">
-      <c r="A506" s="46" t="s">
+      <c r="A506" s="47" t="s">
         <v>579</v>
       </c>
-      <c r="B506" s="34" t="s">
+      <c r="B506" s="35" t="s">
         <v>579</v>
       </c>
       <c r="C506" s="21"/>
@@ -19363,7 +19364,7 @@
       <c r="Z506" s="21"/>
     </row>
     <row r="507" customHeight="1" spans="1:26">
-      <c r="A507" s="37" t="s">
+      <c r="A507" s="38" t="s">
         <v>580</v>
       </c>
       <c r="B507" s="21"/>
@@ -19393,7 +19394,7 @@
       <c r="Z507" s="21"/>
     </row>
     <row r="508" customHeight="1" spans="1:26">
-      <c r="A508" s="68" t="s">
+      <c r="A508" s="69" t="s">
         <v>581</v>
       </c>
       <c r="B508" s="18"/>
@@ -19426,45 +19427,45 @@
       <c r="A509" s="20" t="s">
         <v>582</v>
       </c>
-      <c r="B509" s="29"/>
-      <c r="C509" s="29"/>
-      <c r="D509" s="29"/>
-      <c r="E509" s="29"/>
-      <c r="F509" s="29"/>
-      <c r="G509" s="29"/>
-      <c r="H509" s="29"/>
-      <c r="I509" s="29"/>
-      <c r="J509" s="29"/>
-      <c r="K509" s="29"/>
-      <c r="L509" s="29"/>
-      <c r="M509" s="29"/>
-      <c r="N509" s="29"/>
-      <c r="O509" s="29"/>
-      <c r="P509" s="29"/>
-      <c r="Q509" s="29"/>
-      <c r="R509" s="29"/>
-      <c r="S509" s="29"/>
-      <c r="T509" s="29"/>
-      <c r="U509" s="29"/>
-      <c r="V509" s="29"/>
-      <c r="W509" s="29"/>
-      <c r="X509" s="29"/>
-      <c r="Y509" s="29"/>
-      <c r="Z509" s="29"/>
+      <c r="B509" s="30"/>
+      <c r="C509" s="30"/>
+      <c r="D509" s="30"/>
+      <c r="E509" s="30"/>
+      <c r="F509" s="30"/>
+      <c r="G509" s="30"/>
+      <c r="H509" s="30"/>
+      <c r="I509" s="30"/>
+      <c r="J509" s="30"/>
+      <c r="K509" s="30"/>
+      <c r="L509" s="30"/>
+      <c r="M509" s="30"/>
+      <c r="N509" s="30"/>
+      <c r="O509" s="30"/>
+      <c r="P509" s="30"/>
+      <c r="Q509" s="30"/>
+      <c r="R509" s="30"/>
+      <c r="S509" s="30"/>
+      <c r="T509" s="30"/>
+      <c r="U509" s="30"/>
+      <c r="V509" s="30"/>
+      <c r="W509" s="30"/>
+      <c r="X509" s="30"/>
+      <c r="Y509" s="30"/>
+      <c r="Z509" s="30"/>
     </row>
     <row r="510" customHeight="1" spans="1:26">
       <c r="A510" s="22" t="str">
         <f>HYPERLINK("https://www.spoj.com/problems/NAJPF/","KMP")</f>
         <v>KMP</v>
       </c>
-      <c r="B510" s="36" t="s">
+      <c r="B510" s="37" t="s">
         <v>583</v>
       </c>
-      <c r="C510" s="34"/>
-      <c r="D510" s="34"/>
-      <c r="E510" s="34"/>
-      <c r="F510" s="34"/>
-      <c r="G510" s="34"/>
+      <c r="C510" s="35"/>
+      <c r="D510" s="35"/>
+      <c r="E510" s="35"/>
+      <c r="F510" s="35"/>
+      <c r="G510" s="35"/>
       <c r="H510" s="21"/>
       <c r="I510" s="21"/>
       <c r="J510" s="21"/>
@@ -19489,14 +19490,14 @@
       <c r="A511" s="22" t="s">
         <v>584</v>
       </c>
-      <c r="B511" s="36" t="s">
+      <c r="B511" s="37" t="s">
         <v>585</v>
       </c>
-      <c r="C511" s="34"/>
-      <c r="D511" s="34"/>
-      <c r="E511" s="34"/>
-      <c r="F511" s="34"/>
-      <c r="G511" s="34"/>
+      <c r="C511" s="35"/>
+      <c r="D511" s="35"/>
+      <c r="E511" s="35"/>
+      <c r="F511" s="35"/>
+      <c r="G511" s="35"/>
       <c r="H511" s="21"/>
       <c r="I511" s="21"/>
       <c r="J511" s="21"/>
@@ -19518,17 +19519,17 @@
       <c r="Z511" s="21"/>
     </row>
     <row r="512" customHeight="1" spans="1:26">
-      <c r="A512" s="23" t="s">
+      <c r="A512" s="24" t="s">
         <v>586</v>
       </c>
-      <c r="B512" s="24" t="s">
+      <c r="B512" s="25" t="s">
         <v>587</v>
       </c>
-      <c r="C512" s="34"/>
-      <c r="D512" s="34"/>
-      <c r="E512" s="34"/>
-      <c r="F512" s="34"/>
-      <c r="G512" s="34"/>
+      <c r="C512" s="35"/>
+      <c r="D512" s="35"/>
+      <c r="E512" s="35"/>
+      <c r="F512" s="35"/>
+      <c r="G512" s="35"/>
       <c r="H512" s="21"/>
       <c r="I512" s="21"/>
       <c r="J512" s="21"/>
@@ -19679,7 +19680,7 @@
       <c r="Z516" s="21"/>
     </row>
     <row r="517" customHeight="1" spans="1:26">
-      <c r="A517" s="69" t="s">
+      <c r="A517" s="70" t="s">
         <v>592</v>
       </c>
       <c r="B517" s="21" t="s">
@@ -19711,7 +19712,7 @@
       <c r="Z517" s="21"/>
     </row>
     <row r="518" customHeight="1" spans="1:26">
-      <c r="A518" s="55" t="str">
+      <c r="A518" s="56" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/scramble-string/","Scramble string")</f>
         <v>Scramble string</v>
       </c>
@@ -19744,7 +19745,7 @@
       <c r="Z518" s="21"/>
     </row>
     <row r="519" customHeight="1" spans="1:26">
-      <c r="A519" s="70" t="s">
+      <c r="A519" s="71" t="s">
         <v>594</v>
       </c>
       <c r="B519" s="21"/>
@@ -19836,7 +19837,7 @@
       <c r="Z521" s="21"/>
     </row>
     <row r="522" customHeight="1" spans="1:26">
-      <c r="A522" s="71" t="s">
+      <c r="A522" s="72" t="s">
         <v>24</v>
       </c>
       <c r="B522" s="1"/>
@@ -19869,13 +19870,13 @@
       <c r="A523" s="20" t="s">
         <v>598</v>
       </c>
-      <c r="B523" s="29"/>
-      <c r="C523" s="29"/>
-      <c r="D523" s="29"/>
-      <c r="E523" s="29"/>
-      <c r="F523" s="29"/>
-      <c r="G523" s="29"/>
-      <c r="H523" s="29"/>
+      <c r="B523" s="30"/>
+      <c r="C523" s="30"/>
+      <c r="D523" s="30"/>
+      <c r="E523" s="30"/>
+      <c r="F523" s="30"/>
+      <c r="G523" s="30"/>
+      <c r="H523" s="30"/>
       <c r="I523" s="21"/>
       <c r="J523" s="21"/>
       <c r="K523" s="21"/>
@@ -19896,16 +19897,16 @@
       <c r="Z523" s="21"/>
     </row>
     <row r="524" customHeight="1" spans="1:26">
-      <c r="A524" s="39" t="s">
+      <c r="A524" s="40" t="s">
         <v>599</v>
       </c>
-      <c r="B524" s="29"/>
-      <c r="C524" s="29"/>
-      <c r="D524" s="29"/>
-      <c r="E524" s="29"/>
-      <c r="F524" s="29"/>
-      <c r="G524" s="29"/>
-      <c r="H524" s="29"/>
+      <c r="B524" s="30"/>
+      <c r="C524" s="30"/>
+      <c r="D524" s="30"/>
+      <c r="E524" s="30"/>
+      <c r="F524" s="30"/>
+      <c r="G524" s="30"/>
+      <c r="H524" s="30"/>
       <c r="I524" s="21"/>
       <c r="J524" s="21"/>
       <c r="K524" s="21"/>
@@ -19926,16 +19927,16 @@
       <c r="Z524" s="21"/>
     </row>
     <row r="525" customHeight="1" spans="1:26">
-      <c r="A525" s="39" t="s">
+      <c r="A525" s="40" t="s">
         <v>600</v>
       </c>
-      <c r="B525" s="29"/>
-      <c r="C525" s="29"/>
-      <c r="D525" s="29"/>
-      <c r="E525" s="29"/>
-      <c r="F525" s="29"/>
-      <c r="G525" s="29"/>
-      <c r="H525" s="29"/>
+      <c r="B525" s="30"/>
+      <c r="C525" s="30"/>
+      <c r="D525" s="30"/>
+      <c r="E525" s="30"/>
+      <c r="F525" s="30"/>
+      <c r="G525" s="30"/>
+      <c r="H525" s="30"/>
       <c r="I525" s="21"/>
       <c r="J525" s="21"/>
       <c r="K525" s="21"/>
@@ -19956,16 +19957,16 @@
       <c r="Z525" s="21"/>
     </row>
     <row r="526" customHeight="1" spans="1:26">
-      <c r="A526" s="60" t="s">
+      <c r="A526" s="61" t="s">
         <v>601</v>
       </c>
-      <c r="B526" s="29"/>
-      <c r="C526" s="29"/>
-      <c r="D526" s="29"/>
-      <c r="E526" s="29"/>
-      <c r="F526" s="29"/>
-      <c r="G526" s="29"/>
-      <c r="H526" s="29"/>
+      <c r="B526" s="30"/>
+      <c r="C526" s="30"/>
+      <c r="D526" s="30"/>
+      <c r="E526" s="30"/>
+      <c r="F526" s="30"/>
+      <c r="G526" s="30"/>
+      <c r="H526" s="30"/>
       <c r="I526" s="21"/>
       <c r="J526" s="21"/>
       <c r="K526" s="21"/>
@@ -19986,16 +19987,16 @@
       <c r="Z526" s="21"/>
     </row>
     <row r="527" customHeight="1" spans="1:26">
-      <c r="A527" s="60" t="s">
+      <c r="A527" s="61" t="s">
         <v>602</v>
       </c>
-      <c r="B527" s="29"/>
-      <c r="C527" s="29"/>
-      <c r="D527" s="29"/>
-      <c r="E527" s="29"/>
-      <c r="F527" s="29"/>
-      <c r="G527" s="29"/>
-      <c r="H527" s="29"/>
+      <c r="B527" s="30"/>
+      <c r="C527" s="30"/>
+      <c r="D527" s="30"/>
+      <c r="E527" s="30"/>
+      <c r="F527" s="30"/>
+      <c r="G527" s="30"/>
+      <c r="H527" s="30"/>
       <c r="I527" s="21"/>
       <c r="J527" s="21"/>
       <c r="K527" s="21"/>
@@ -20016,16 +20017,16 @@
       <c r="Z527" s="21"/>
     </row>
     <row r="528" customHeight="1" spans="1:26">
-      <c r="A528" s="39" t="s">
+      <c r="A528" s="40" t="s">
         <v>603</v>
       </c>
-      <c r="B528" s="29"/>
-      <c r="C528" s="29"/>
-      <c r="D528" s="29"/>
-      <c r="E528" s="29"/>
-      <c r="F528" s="29"/>
-      <c r="G528" s="29"/>
-      <c r="H528" s="29"/>
+      <c r="B528" s="30"/>
+      <c r="C528" s="30"/>
+      <c r="D528" s="30"/>
+      <c r="E528" s="30"/>
+      <c r="F528" s="30"/>
+      <c r="G528" s="30"/>
+      <c r="H528" s="30"/>
       <c r="I528" s="21"/>
       <c r="J528" s="21"/>
       <c r="K528" s="21"/>
@@ -20046,16 +20047,16 @@
       <c r="Z528" s="21"/>
     </row>
     <row r="529" customHeight="1" spans="1:26">
-      <c r="A529" s="60" t="s">
+      <c r="A529" s="61" t="s">
         <v>604</v>
       </c>
-      <c r="B529" s="29"/>
-      <c r="C529" s="29"/>
-      <c r="D529" s="29"/>
-      <c r="E529" s="29"/>
-      <c r="F529" s="29"/>
-      <c r="G529" s="29"/>
-      <c r="H529" s="29"/>
+      <c r="B529" s="30"/>
+      <c r="C529" s="30"/>
+      <c r="D529" s="30"/>
+      <c r="E529" s="30"/>
+      <c r="F529" s="30"/>
+      <c r="G529" s="30"/>
+      <c r="H529" s="30"/>
       <c r="I529" s="21"/>
       <c r="J529" s="21"/>
       <c r="K529" s="21"/>
@@ -20076,16 +20077,16 @@
       <c r="Z529" s="21"/>
     </row>
     <row r="530" customHeight="1" spans="1:26">
-      <c r="A530" s="60" t="s">
+      <c r="A530" s="61" t="s">
         <v>605</v>
       </c>
-      <c r="B530" s="29"/>
-      <c r="C530" s="29"/>
-      <c r="D530" s="29"/>
-      <c r="E530" s="29"/>
-      <c r="F530" s="29"/>
-      <c r="G530" s="29"/>
-      <c r="H530" s="29"/>
+      <c r="B530" s="30"/>
+      <c r="C530" s="30"/>
+      <c r="D530" s="30"/>
+      <c r="E530" s="30"/>
+      <c r="F530" s="30"/>
+      <c r="G530" s="30"/>
+      <c r="H530" s="30"/>
       <c r="I530" s="21"/>
       <c r="J530" s="21"/>
       <c r="K530" s="21"/>
@@ -20106,16 +20107,16 @@
       <c r="Z530" s="21"/>
     </row>
     <row r="531" customHeight="1" spans="1:26">
-      <c r="A531" s="72" t="s">
+      <c r="A531" s="73" t="s">
         <v>606</v>
       </c>
-      <c r="B531" s="29"/>
-      <c r="C531" s="29"/>
-      <c r="D531" s="29"/>
-      <c r="E531" s="29"/>
-      <c r="F531" s="29"/>
-      <c r="G531" s="29"/>
-      <c r="H531" s="29"/>
+      <c r="B531" s="30"/>
+      <c r="C531" s="30"/>
+      <c r="D531" s="30"/>
+      <c r="E531" s="30"/>
+      <c r="F531" s="30"/>
+      <c r="G531" s="30"/>
+      <c r="H531" s="30"/>
       <c r="I531" s="21"/>
       <c r="J531" s="21"/>
       <c r="K531" s="21"/>
@@ -20136,16 +20137,16 @@
       <c r="Z531" s="21"/>
     </row>
     <row r="532" customHeight="1" spans="1:26">
-      <c r="A532" s="73" t="s">
+      <c r="A532" s="74" t="s">
         <v>607</v>
       </c>
-      <c r="B532" s="29"/>
-      <c r="C532" s="29"/>
-      <c r="D532" s="29"/>
-      <c r="E532" s="29"/>
-      <c r="F532" s="29"/>
-      <c r="G532" s="29"/>
-      <c r="H532" s="29"/>
+      <c r="B532" s="30"/>
+      <c r="C532" s="30"/>
+      <c r="D532" s="30"/>
+      <c r="E532" s="30"/>
+      <c r="F532" s="30"/>
+      <c r="G532" s="30"/>
+      <c r="H532" s="30"/>
       <c r="I532" s="21"/>
       <c r="J532" s="21"/>
       <c r="K532" s="21"/>
@@ -20166,16 +20167,16 @@
       <c r="Z532" s="21"/>
     </row>
     <row r="533" customHeight="1" spans="1:26">
-      <c r="A533" s="39" t="s">
+      <c r="A533" s="40" t="s">
         <v>608</v>
       </c>
-      <c r="B533" s="29"/>
-      <c r="C533" s="29"/>
-      <c r="D533" s="29"/>
-      <c r="E533" s="29"/>
-      <c r="F533" s="29"/>
-      <c r="G533" s="29"/>
-      <c r="H533" s="29"/>
+      <c r="B533" s="30"/>
+      <c r="C533" s="30"/>
+      <c r="D533" s="30"/>
+      <c r="E533" s="30"/>
+      <c r="F533" s="30"/>
+      <c r="G533" s="30"/>
+      <c r="H533" s="30"/>
       <c r="I533" s="21"/>
       <c r="J533" s="21"/>
       <c r="K533" s="21"/>
@@ -20196,16 +20197,16 @@
       <c r="Z533" s="21"/>
     </row>
     <row r="534" customHeight="1" spans="1:26">
-      <c r="A534" s="39" t="s">
+      <c r="A534" s="40" t="s">
         <v>609</v>
       </c>
-      <c r="B534" s="29"/>
-      <c r="C534" s="29"/>
-      <c r="D534" s="29"/>
-      <c r="E534" s="29"/>
-      <c r="F534" s="29"/>
-      <c r="G534" s="29"/>
-      <c r="H534" s="29"/>
+      <c r="B534" s="30"/>
+      <c r="C534" s="30"/>
+      <c r="D534" s="30"/>
+      <c r="E534" s="30"/>
+      <c r="F534" s="30"/>
+      <c r="G534" s="30"/>
+      <c r="H534" s="30"/>
       <c r="I534" s="21"/>
       <c r="J534" s="21"/>
       <c r="K534" s="21"/>
@@ -20226,16 +20227,16 @@
       <c r="Z534" s="21"/>
     </row>
     <row r="535" customHeight="1" spans="1:26">
-      <c r="A535" s="39" t="s">
+      <c r="A535" s="40" t="s">
         <v>610</v>
       </c>
-      <c r="B535" s="29"/>
-      <c r="C535" s="29"/>
-      <c r="D535" s="29"/>
-      <c r="E535" s="29"/>
-      <c r="F535" s="29"/>
-      <c r="G535" s="29"/>
-      <c r="H535" s="29"/>
+      <c r="B535" s="30"/>
+      <c r="C535" s="30"/>
+      <c r="D535" s="30"/>
+      <c r="E535" s="30"/>
+      <c r="F535" s="30"/>
+      <c r="G535" s="30"/>
+      <c r="H535" s="30"/>
       <c r="I535" s="21"/>
       <c r="J535" s="21"/>
       <c r="K535" s="21"/>
@@ -20256,16 +20257,16 @@
       <c r="Z535" s="21"/>
     </row>
     <row r="536" customHeight="1" spans="1:26">
-      <c r="A536" s="39" t="s">
+      <c r="A536" s="40" t="s">
         <v>611</v>
       </c>
-      <c r="B536" s="29"/>
-      <c r="C536" s="29"/>
-      <c r="D536" s="29"/>
-      <c r="E536" s="29"/>
-      <c r="F536" s="29"/>
-      <c r="G536" s="29"/>
-      <c r="H536" s="29"/>
+      <c r="B536" s="30"/>
+      <c r="C536" s="30"/>
+      <c r="D536" s="30"/>
+      <c r="E536" s="30"/>
+      <c r="F536" s="30"/>
+      <c r="G536" s="30"/>
+      <c r="H536" s="30"/>
       <c r="I536" s="21"/>
       <c r="J536" s="21"/>
       <c r="K536" s="21"/>
@@ -20286,16 +20287,16 @@
       <c r="Z536" s="21"/>
     </row>
     <row r="537" customHeight="1" spans="1:26">
-      <c r="A537" s="39" t="s">
+      <c r="A537" s="40" t="s">
         <v>612</v>
       </c>
-      <c r="B537" s="29"/>
-      <c r="C537" s="29"/>
-      <c r="D537" s="29"/>
-      <c r="E537" s="29"/>
-      <c r="F537" s="29"/>
-      <c r="G537" s="29"/>
-      <c r="H537" s="29"/>
+      <c r="B537" s="30"/>
+      <c r="C537" s="30"/>
+      <c r="D537" s="30"/>
+      <c r="E537" s="30"/>
+      <c r="F537" s="30"/>
+      <c r="G537" s="30"/>
+      <c r="H537" s="30"/>
       <c r="I537" s="21"/>
       <c r="J537" s="21"/>
       <c r="K537" s="21"/>
@@ -20316,16 +20317,16 @@
       <c r="Z537" s="21"/>
     </row>
     <row r="538" customHeight="1" spans="1:26">
-      <c r="A538" s="39" t="s">
+      <c r="A538" s="40" t="s">
         <v>613</v>
       </c>
-      <c r="B538" s="29"/>
-      <c r="C538" s="29"/>
-      <c r="D538" s="29"/>
-      <c r="E538" s="29"/>
-      <c r="F538" s="29"/>
-      <c r="G538" s="29"/>
-      <c r="H538" s="29"/>
+      <c r="B538" s="30"/>
+      <c r="C538" s="30"/>
+      <c r="D538" s="30"/>
+      <c r="E538" s="30"/>
+      <c r="F538" s="30"/>
+      <c r="G538" s="30"/>
+      <c r="H538" s="30"/>
       <c r="I538" s="21"/>
       <c r="J538" s="21"/>
       <c r="K538" s="21"/>
@@ -20346,14 +20347,14 @@
       <c r="Z538" s="21"/>
     </row>
     <row r="539" customHeight="1" spans="1:26">
-      <c r="A539" s="39"/>
-      <c r="B539" s="29"/>
-      <c r="C539" s="29"/>
-      <c r="D539" s="29"/>
-      <c r="E539" s="29"/>
-      <c r="F539" s="29"/>
-      <c r="G539" s="29"/>
-      <c r="H539" s="29"/>
+      <c r="A539" s="40"/>
+      <c r="B539" s="30"/>
+      <c r="C539" s="30"/>
+      <c r="D539" s="30"/>
+      <c r="E539" s="30"/>
+      <c r="F539" s="30"/>
+      <c r="G539" s="30"/>
+      <c r="H539" s="30"/>
       <c r="I539" s="21"/>
       <c r="J539" s="21"/>
       <c r="K539" s="21"/>
@@ -20374,7 +20375,7 @@
       <c r="Z539" s="21"/>
     </row>
     <row r="540" customHeight="1" spans="1:26">
-      <c r="A540" s="74" t="s">
+      <c r="A540" s="75" t="s">
         <v>25</v>
       </c>
       <c r="B540" s="1"/>
@@ -20404,16 +20405,16 @@
       <c r="Z540" s="1"/>
     </row>
     <row r="541" customHeight="1" spans="1:26">
-      <c r="A541" s="75" t="s">
+      <c r="A541" s="76" t="s">
         <v>614</v>
       </c>
-      <c r="B541" s="29"/>
-      <c r="C541" s="29"/>
-      <c r="D541" s="29"/>
-      <c r="E541" s="29"/>
-      <c r="F541" s="29"/>
-      <c r="G541" s="29"/>
-      <c r="H541" s="29"/>
+      <c r="B541" s="30"/>
+      <c r="C541" s="30"/>
+      <c r="D541" s="30"/>
+      <c r="E541" s="30"/>
+      <c r="F541" s="30"/>
+      <c r="G541" s="30"/>
+      <c r="H541" s="30"/>
       <c r="I541" s="21"/>
       <c r="J541" s="21"/>
       <c r="K541" s="21"/>
@@ -20440,12 +20441,12 @@
       <c r="B542" s="21" t="s">
         <v>616</v>
       </c>
-      <c r="C542" s="29"/>
-      <c r="D542" s="29"/>
-      <c r="E542" s="29"/>
-      <c r="F542" s="29"/>
-      <c r="G542" s="29"/>
-      <c r="H542" s="29"/>
+      <c r="C542" s="30"/>
+      <c r="D542" s="30"/>
+      <c r="E542" s="30"/>
+      <c r="F542" s="30"/>
+      <c r="G542" s="30"/>
+      <c r="H542" s="30"/>
       <c r="I542" s="21"/>
       <c r="J542" s="21"/>
       <c r="K542" s="21"/>
@@ -20466,36 +20467,36 @@
       <c r="Z542" s="21"/>
     </row>
     <row r="543" customHeight="1" spans="1:26">
-      <c r="A543" s="39" t="s">
+      <c r="A543" s="40" t="s">
         <v>617</v>
       </c>
-      <c r="B543" s="29" t="s">
+      <c r="B543" s="30" t="s">
         <v>618</v>
       </c>
-      <c r="C543" s="29"/>
-      <c r="D543" s="29"/>
-      <c r="E543" s="29"/>
-      <c r="F543" s="29"/>
-      <c r="G543" s="29"/>
-      <c r="H543" s="29"/>
-      <c r="I543" s="29"/>
-      <c r="J543" s="29"/>
-      <c r="K543" s="29"/>
-      <c r="L543" s="29"/>
-      <c r="M543" s="29"/>
-      <c r="N543" s="29"/>
-      <c r="O543" s="29"/>
-      <c r="P543" s="29"/>
-      <c r="Q543" s="29"/>
-      <c r="R543" s="29"/>
-      <c r="S543" s="29"/>
-      <c r="T543" s="29"/>
-      <c r="U543" s="29"/>
-      <c r="V543" s="29"/>
-      <c r="W543" s="29"/>
-      <c r="X543" s="29"/>
-      <c r="Y543" s="29"/>
-      <c r="Z543" s="29"/>
+      <c r="C543" s="30"/>
+      <c r="D543" s="30"/>
+      <c r="E543" s="30"/>
+      <c r="F543" s="30"/>
+      <c r="G543" s="30"/>
+      <c r="H543" s="30"/>
+      <c r="I543" s="30"/>
+      <c r="J543" s="30"/>
+      <c r="K543" s="30"/>
+      <c r="L543" s="30"/>
+      <c r="M543" s="30"/>
+      <c r="N543" s="30"/>
+      <c r="O543" s="30"/>
+      <c r="P543" s="30"/>
+      <c r="Q543" s="30"/>
+      <c r="R543" s="30"/>
+      <c r="S543" s="30"/>
+      <c r="T543" s="30"/>
+      <c r="U543" s="30"/>
+      <c r="V543" s="30"/>
+      <c r="W543" s="30"/>
+      <c r="X543" s="30"/>
+      <c r="Y543" s="30"/>
+      <c r="Z543" s="30"/>
     </row>
     <row r="544" customHeight="1" spans="1:26">
       <c r="A544" s="22" t="s">
@@ -20504,8 +20505,8 @@
       <c r="B544" s="21" t="s">
         <v>620</v>
       </c>
-      <c r="C544" s="29"/>
-      <c r="D544" s="29"/>
+      <c r="C544" s="30"/>
+      <c r="D544" s="30"/>
       <c r="E544" s="21"/>
       <c r="F544" s="21"/>
       <c r="G544" s="21"/>
@@ -20536,8 +20537,8 @@
       <c r="B545" s="21" t="s">
         <v>622</v>
       </c>
-      <c r="C545" s="29"/>
-      <c r="D545" s="29"/>
+      <c r="C545" s="30"/>
+      <c r="D545" s="30"/>
       <c r="E545" s="21"/>
       <c r="F545" s="21"/>
       <c r="G545" s="21"/>
@@ -20568,8 +20569,8 @@
       <c r="B546" s="21" t="s">
         <v>624</v>
       </c>
-      <c r="C546" s="29"/>
-      <c r="D546" s="29"/>
+      <c r="C546" s="30"/>
+      <c r="D546" s="30"/>
       <c r="E546" s="21"/>
       <c r="F546" s="21"/>
       <c r="G546" s="21"/>
@@ -20600,8 +20601,8 @@
       <c r="B547" s="21" t="s">
         <v>626</v>
       </c>
-      <c r="C547" s="29"/>
-      <c r="D547" s="29"/>
+      <c r="C547" s="30"/>
+      <c r="D547" s="30"/>
       <c r="E547" s="21"/>
       <c r="F547" s="21"/>
       <c r="G547" s="21"/>
@@ -20627,7 +20628,7 @@
     </row>
     <row r="548" customHeight="1" spans="1:26">
       <c r="A548" s="6"/>
-      <c r="B548" s="76" t="s">
+      <c r="B548" s="77" t="s">
         <v>627</v>
       </c>
       <c r="C548" s="6"/>
@@ -20657,230 +20658,230 @@
     </row>
     <row r="591" customHeight="1" spans="1:2">
       <c r="A591" s="22"/>
-      <c r="B591" s="77"/>
+      <c r="B591" s="78"/>
     </row>
     <row r="592" customHeight="1" spans="1:26">
-      <c r="A592" s="78"/>
-      <c r="B592" s="79"/>
-      <c r="C592" s="78"/>
-      <c r="D592" s="78"/>
-      <c r="E592" s="78"/>
-      <c r="F592" s="78"/>
-      <c r="G592" s="78"/>
-      <c r="H592" s="78"/>
-      <c r="I592" s="78"/>
-      <c r="J592" s="78"/>
-      <c r="K592" s="78"/>
-      <c r="L592" s="78"/>
-      <c r="M592" s="78"/>
-      <c r="N592" s="78"/>
-      <c r="O592" s="78"/>
-      <c r="P592" s="78"/>
-      <c r="Q592" s="78"/>
-      <c r="R592" s="78"/>
-      <c r="S592" s="78"/>
-      <c r="T592" s="78"/>
-      <c r="U592" s="78"/>
-      <c r="V592" s="78"/>
-      <c r="W592" s="78"/>
-      <c r="X592" s="78"/>
-      <c r="Y592" s="78"/>
-      <c r="Z592" s="78"/>
+      <c r="A592" s="79"/>
+      <c r="B592" s="80"/>
+      <c r="C592" s="79"/>
+      <c r="D592" s="79"/>
+      <c r="E592" s="79"/>
+      <c r="F592" s="79"/>
+      <c r="G592" s="79"/>
+      <c r="H592" s="79"/>
+      <c r="I592" s="79"/>
+      <c r="J592" s="79"/>
+      <c r="K592" s="79"/>
+      <c r="L592" s="79"/>
+      <c r="M592" s="79"/>
+      <c r="N592" s="79"/>
+      <c r="O592" s="79"/>
+      <c r="P592" s="79"/>
+      <c r="Q592" s="79"/>
+      <c r="R592" s="79"/>
+      <c r="S592" s="79"/>
+      <c r="T592" s="79"/>
+      <c r="U592" s="79"/>
+      <c r="V592" s="79"/>
+      <c r="W592" s="79"/>
+      <c r="X592" s="79"/>
+      <c r="Y592" s="79"/>
+      <c r="Z592" s="79"/>
     </row>
     <row r="593" customHeight="1" spans="1:26">
-      <c r="A593" s="78"/>
-      <c r="B593" s="78"/>
-      <c r="C593" s="78"/>
-      <c r="D593" s="78"/>
-      <c r="E593" s="78"/>
-      <c r="F593" s="78"/>
-      <c r="G593" s="78"/>
-      <c r="H593" s="78"/>
-      <c r="I593" s="78"/>
-      <c r="J593" s="78"/>
-      <c r="K593" s="78"/>
-      <c r="L593" s="78"/>
-      <c r="M593" s="78"/>
-      <c r="N593" s="78"/>
-      <c r="O593" s="78"/>
-      <c r="P593" s="78"/>
-      <c r="Q593" s="78"/>
-      <c r="R593" s="78"/>
-      <c r="S593" s="78"/>
-      <c r="T593" s="78"/>
-      <c r="U593" s="78"/>
-      <c r="V593" s="78"/>
-      <c r="W593" s="78"/>
-      <c r="X593" s="78"/>
-      <c r="Y593" s="78"/>
-      <c r="Z593" s="78"/>
+      <c r="A593" s="79"/>
+      <c r="B593" s="79"/>
+      <c r="C593" s="79"/>
+      <c r="D593" s="79"/>
+      <c r="E593" s="79"/>
+      <c r="F593" s="79"/>
+      <c r="G593" s="79"/>
+      <c r="H593" s="79"/>
+      <c r="I593" s="79"/>
+      <c r="J593" s="79"/>
+      <c r="K593" s="79"/>
+      <c r="L593" s="79"/>
+      <c r="M593" s="79"/>
+      <c r="N593" s="79"/>
+      <c r="O593" s="79"/>
+      <c r="P593" s="79"/>
+      <c r="Q593" s="79"/>
+      <c r="R593" s="79"/>
+      <c r="S593" s="79"/>
+      <c r="T593" s="79"/>
+      <c r="U593" s="79"/>
+      <c r="V593" s="79"/>
+      <c r="W593" s="79"/>
+      <c r="X593" s="79"/>
+      <c r="Y593" s="79"/>
+      <c r="Z593" s="79"/>
     </row>
     <row r="594" customHeight="1" spans="1:26">
-      <c r="A594" s="80"/>
-      <c r="B594" s="38"/>
-      <c r="C594" s="78"/>
-      <c r="D594" s="78"/>
-      <c r="E594" s="78"/>
-      <c r="F594" s="78"/>
-      <c r="G594" s="78"/>
-      <c r="H594" s="78"/>
-      <c r="I594" s="78"/>
-      <c r="J594" s="78"/>
-      <c r="K594" s="78"/>
-      <c r="L594" s="78"/>
-      <c r="M594" s="78"/>
-      <c r="N594" s="78"/>
-      <c r="O594" s="78"/>
-      <c r="P594" s="78"/>
-      <c r="Q594" s="78"/>
-      <c r="R594" s="78"/>
-      <c r="S594" s="78"/>
-      <c r="T594" s="78"/>
-      <c r="U594" s="78"/>
-      <c r="V594" s="78"/>
-      <c r="W594" s="78"/>
-      <c r="X594" s="78"/>
-      <c r="Y594" s="78"/>
-      <c r="Z594" s="78"/>
+      <c r="A594" s="81"/>
+      <c r="B594" s="39"/>
+      <c r="C594" s="79"/>
+      <c r="D594" s="79"/>
+      <c r="E594" s="79"/>
+      <c r="F594" s="79"/>
+      <c r="G594" s="79"/>
+      <c r="H594" s="79"/>
+      <c r="I594" s="79"/>
+      <c r="J594" s="79"/>
+      <c r="K594" s="79"/>
+      <c r="L594" s="79"/>
+      <c r="M594" s="79"/>
+      <c r="N594" s="79"/>
+      <c r="O594" s="79"/>
+      <c r="P594" s="79"/>
+      <c r="Q594" s="79"/>
+      <c r="R594" s="79"/>
+      <c r="S594" s="79"/>
+      <c r="T594" s="79"/>
+      <c r="U594" s="79"/>
+      <c r="V594" s="79"/>
+      <c r="W594" s="79"/>
+      <c r="X594" s="79"/>
+      <c r="Y594" s="79"/>
+      <c r="Z594" s="79"/>
     </row>
     <row r="595" customHeight="1" spans="1:26">
-      <c r="A595" s="80"/>
-      <c r="B595" s="81"/>
-      <c r="C595" s="78"/>
-      <c r="D595" s="78"/>
-      <c r="E595" s="78"/>
-      <c r="F595" s="78"/>
-      <c r="G595" s="78"/>
-      <c r="H595" s="78"/>
-      <c r="I595" s="78"/>
-      <c r="J595" s="78"/>
-      <c r="K595" s="78"/>
-      <c r="L595" s="78"/>
-      <c r="M595" s="78"/>
-      <c r="N595" s="78"/>
-      <c r="O595" s="78"/>
-      <c r="P595" s="78"/>
-      <c r="Q595" s="78"/>
-      <c r="R595" s="78"/>
-      <c r="S595" s="78"/>
-      <c r="T595" s="78"/>
-      <c r="U595" s="78"/>
-      <c r="V595" s="78"/>
-      <c r="W595" s="78"/>
-      <c r="X595" s="78"/>
-      <c r="Y595" s="78"/>
-      <c r="Z595" s="78"/>
+      <c r="A595" s="81"/>
+      <c r="B595" s="82"/>
+      <c r="C595" s="79"/>
+      <c r="D595" s="79"/>
+      <c r="E595" s="79"/>
+      <c r="F595" s="79"/>
+      <c r="G595" s="79"/>
+      <c r="H595" s="79"/>
+      <c r="I595" s="79"/>
+      <c r="J595" s="79"/>
+      <c r="K595" s="79"/>
+      <c r="L595" s="79"/>
+      <c r="M595" s="79"/>
+      <c r="N595" s="79"/>
+      <c r="O595" s="79"/>
+      <c r="P595" s="79"/>
+      <c r="Q595" s="79"/>
+      <c r="R595" s="79"/>
+      <c r="S595" s="79"/>
+      <c r="T595" s="79"/>
+      <c r="U595" s="79"/>
+      <c r="V595" s="79"/>
+      <c r="W595" s="79"/>
+      <c r="X595" s="79"/>
+      <c r="Y595" s="79"/>
+      <c r="Z595" s="79"/>
     </row>
     <row r="596" customHeight="1" spans="1:26">
-      <c r="A596" s="80"/>
-      <c r="B596" s="81"/>
-      <c r="C596" s="78"/>
-      <c r="D596" s="78"/>
-      <c r="E596" s="78"/>
-      <c r="F596" s="78"/>
-      <c r="G596" s="78"/>
-      <c r="H596" s="78"/>
-      <c r="I596" s="78"/>
-      <c r="J596" s="78"/>
-      <c r="K596" s="78"/>
-      <c r="L596" s="78"/>
-      <c r="M596" s="78"/>
-      <c r="N596" s="78"/>
-      <c r="O596" s="78"/>
-      <c r="P596" s="78"/>
-      <c r="Q596" s="78"/>
-      <c r="R596" s="78"/>
-      <c r="S596" s="78"/>
-      <c r="T596" s="78"/>
-      <c r="U596" s="78"/>
-      <c r="V596" s="78"/>
-      <c r="W596" s="78"/>
-      <c r="X596" s="78"/>
-      <c r="Y596" s="78"/>
-      <c r="Z596" s="78"/>
+      <c r="A596" s="81"/>
+      <c r="B596" s="82"/>
+      <c r="C596" s="79"/>
+      <c r="D596" s="79"/>
+      <c r="E596" s="79"/>
+      <c r="F596" s="79"/>
+      <c r="G596" s="79"/>
+      <c r="H596" s="79"/>
+      <c r="I596" s="79"/>
+      <c r="J596" s="79"/>
+      <c r="K596" s="79"/>
+      <c r="L596" s="79"/>
+      <c r="M596" s="79"/>
+      <c r="N596" s="79"/>
+      <c r="O596" s="79"/>
+      <c r="P596" s="79"/>
+      <c r="Q596" s="79"/>
+      <c r="R596" s="79"/>
+      <c r="S596" s="79"/>
+      <c r="T596" s="79"/>
+      <c r="U596" s="79"/>
+      <c r="V596" s="79"/>
+      <c r="W596" s="79"/>
+      <c r="X596" s="79"/>
+      <c r="Y596" s="79"/>
+      <c r="Z596" s="79"/>
     </row>
     <row r="597" customHeight="1" spans="1:26">
-      <c r="A597" s="78"/>
-      <c r="B597" s="78"/>
-      <c r="C597" s="78"/>
-      <c r="D597" s="78"/>
-      <c r="E597" s="78"/>
-      <c r="F597" s="78"/>
-      <c r="G597" s="78"/>
-      <c r="H597" s="78"/>
-      <c r="I597" s="78"/>
-      <c r="J597" s="78"/>
-      <c r="K597" s="78"/>
-      <c r="L597" s="78"/>
-      <c r="M597" s="78"/>
-      <c r="N597" s="78"/>
-      <c r="O597" s="78"/>
-      <c r="P597" s="78"/>
-      <c r="Q597" s="78"/>
-      <c r="R597" s="78"/>
-      <c r="S597" s="78"/>
-      <c r="T597" s="78"/>
-      <c r="U597" s="78"/>
-      <c r="V597" s="78"/>
-      <c r="W597" s="78"/>
-      <c r="X597" s="78"/>
-      <c r="Y597" s="78"/>
-      <c r="Z597" s="78"/>
+      <c r="A597" s="79"/>
+      <c r="B597" s="79"/>
+      <c r="C597" s="79"/>
+      <c r="D597" s="79"/>
+      <c r="E597" s="79"/>
+      <c r="F597" s="79"/>
+      <c r="G597" s="79"/>
+      <c r="H597" s="79"/>
+      <c r="I597" s="79"/>
+      <c r="J597" s="79"/>
+      <c r="K597" s="79"/>
+      <c r="L597" s="79"/>
+      <c r="M597" s="79"/>
+      <c r="N597" s="79"/>
+      <c r="O597" s="79"/>
+      <c r="P597" s="79"/>
+      <c r="Q597" s="79"/>
+      <c r="R597" s="79"/>
+      <c r="S597" s="79"/>
+      <c r="T597" s="79"/>
+      <c r="U597" s="79"/>
+      <c r="V597" s="79"/>
+      <c r="W597" s="79"/>
+      <c r="X597" s="79"/>
+      <c r="Y597" s="79"/>
+      <c r="Z597" s="79"/>
     </row>
     <row r="598" customHeight="1" spans="1:2">
-      <c r="A598" s="82"/>
+      <c r="A598" s="83"/>
       <c r="B598" s="22"/>
     </row>
     <row r="599" customHeight="1" spans="1:2">
-      <c r="A599" s="82"/>
+      <c r="A599" s="83"/>
       <c r="B599" s="22"/>
     </row>
     <row r="600" customHeight="1" spans="1:2">
-      <c r="A600" s="82"/>
-      <c r="B600" s="23"/>
+      <c r="A600" s="83"/>
+      <c r="B600" s="24"/>
     </row>
     <row r="601" customHeight="1" spans="1:2">
-      <c r="A601" s="82"/>
-      <c r="B601" s="23"/>
+      <c r="A601" s="83"/>
+      <c r="B601" s="24"/>
     </row>
     <row r="602" customHeight="1" spans="1:2">
-      <c r="A602" s="82"/>
+      <c r="A602" s="83"/>
       <c r="B602" s="22"/>
     </row>
     <row r="603" customHeight="1" spans="1:2">
-      <c r="A603" s="82"/>
-      <c r="B603" s="23"/>
+      <c r="A603" s="83"/>
+      <c r="B603" s="24"/>
     </row>
     <row r="604" customHeight="1" spans="1:2">
-      <c r="A604" s="82"/>
-      <c r="B604" s="23"/>
+      <c r="A604" s="83"/>
+      <c r="B604" s="24"/>
     </row>
     <row r="605" customHeight="1" spans="1:2">
-      <c r="A605" s="82"/>
-      <c r="B605" s="83"/>
+      <c r="A605" s="83"/>
+      <c r="B605" s="84"/>
     </row>
     <row r="606" customHeight="1" spans="1:2">
-      <c r="A606" s="82"/>
+      <c r="A606" s="83"/>
       <c r="B606" s="22"/>
     </row>
     <row r="607" customHeight="1" spans="1:2">
-      <c r="A607" s="82"/>
+      <c r="A607" s="83"/>
       <c r="B607" s="22"/>
     </row>
     <row r="608" customHeight="1" spans="1:2">
-      <c r="A608" s="82"/>
+      <c r="A608" s="83"/>
       <c r="B608" s="22"/>
     </row>
     <row r="609" customHeight="1" spans="1:2">
-      <c r="A609" s="82"/>
+      <c r="A609" s="83"/>
       <c r="B609" s="22"/>
     </row>
     <row r="610" customHeight="1" spans="1:2">
-      <c r="A610" s="82"/>
+      <c r="A610" s="83"/>
       <c r="B610" s="22"/>
     </row>
     <row r="611" customHeight="1" spans="1:2">
-      <c r="A611" s="82"/>
+      <c r="A611" s="83"/>
       <c r="B611" s="22"/>
     </row>
     <row r="612" customHeight="1" spans="1:2">
@@ -20888,28 +20889,28 @@
       <c r="B612" s="21"/>
     </row>
     <row r="613" customHeight="1" spans="1:2">
-      <c r="A613" s="82"/>
-      <c r="B613" s="84"/>
+      <c r="A613" s="83"/>
+      <c r="B613" s="85"/>
     </row>
     <row r="614" customHeight="1" spans="1:2">
-      <c r="A614" s="82"/>
-      <c r="B614" s="84"/>
+      <c r="A614" s="83"/>
+      <c r="B614" s="85"/>
     </row>
     <row r="615" customHeight="1" spans="1:2">
-      <c r="A615" s="82"/>
-      <c r="B615" s="84"/>
+      <c r="A615" s="83"/>
+      <c r="B615" s="85"/>
     </row>
     <row r="616" customHeight="1" spans="1:2">
-      <c r="A616" s="82"/>
-      <c r="B616" s="84"/>
+      <c r="A616" s="83"/>
+      <c r="B616" s="85"/>
     </row>
     <row r="617" customHeight="1" spans="1:2">
-      <c r="A617" s="82"/>
-      <c r="B617" s="84"/>
+      <c r="A617" s="83"/>
+      <c r="B617" s="85"/>
     </row>
     <row r="618" customHeight="1" spans="1:2">
-      <c r="A618" s="82"/>
-      <c r="B618" s="84"/>
+      <c r="A618" s="83"/>
+      <c r="B618" s="85"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/DSA Day-wise.xlsx
+++ b/DSA Day-wise.xlsx
@@ -2057,11 +2057,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
+    <numFmt numFmtId="176" formatCode="d\ mmmm\ yyyy"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="d\ mmmm\ yyyy"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="d\ mmm\ yyyy"/>
     <numFmt numFmtId="180" formatCode="d\ mmm"/>
     <numFmt numFmtId="181" formatCode="d\ mmmm"/>
@@ -2383,8 +2383,24 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2397,36 +2413,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -2434,16 +2420,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2452,13 +2430,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2488,6 +2459,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -2498,7 +2484,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2512,16 +2505,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2633,13 +2633,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2651,19 +2663,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2681,7 +2693,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2699,85 +2783,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2789,25 +2795,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2851,24 +2851,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2922,6 +2909,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -2938,163 +2940,161 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="51" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="49" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="46" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="46" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="46" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="46" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="46" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="54" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="58" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="59" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="60" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="49" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="62" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="61" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="64" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="49" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="49" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="49" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="49" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="49" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="49" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="49" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="49" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -3126,8 +3126,9 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="176" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -3468,7 +3469,7 @@
   <dimension ref="A1:Z618"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4259259259259" defaultRowHeight="15.75" customHeight="1"/>
@@ -4138,7 +4139,7 @@
       <c r="A22" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="B22" s="25" t="s">
+      <c r="B22" s="27" t="s">
         <v>34</v>
       </c>
       <c r="C22" s="21"/>
@@ -4329,10 +4330,10 @@
       <c r="Z27" s="21"/>
     </row>
     <row r="28" customHeight="1" spans="1:26">
-      <c r="A28" s="27" t="s">
+      <c r="A28" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="B28" s="25" t="s">
+      <c r="B28" s="27" t="s">
         <v>41</v>
       </c>
       <c r="C28" s="21"/>
@@ -4361,11 +4362,11 @@
       <c r="Z28" s="21"/>
     </row>
     <row r="29" customHeight="1" spans="1:26">
-      <c r="A29" s="27" t="str">
+      <c r="A29" s="28" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/maximum-product-of-three-numbers/","max product of 3 numbers")</f>
         <v>max product of 3 numbers</v>
       </c>
-      <c r="B29" s="25" t="s">
+      <c r="B29" s="27" t="s">
         <v>42</v>
       </c>
       <c r="C29" s="21"/>
@@ -4430,7 +4431,7 @@
       <c r="A31" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="B31" s="25" t="s">
+      <c r="B31" s="27" t="s">
         <v>45</v>
       </c>
       <c r="C31" s="21"/>
@@ -4459,11 +4460,11 @@
       <c r="Z31" s="21"/>
     </row>
     <row r="32" customHeight="1" spans="1:26">
-      <c r="A32" s="27" t="str">
+      <c r="A32" s="28" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/number-of-subarrays-with-bounded-maximum/","number of subarrays with bounded maximum")</f>
         <v>number of subarrays with bounded maximum</v>
       </c>
-      <c r="B32" s="25" t="s">
+      <c r="B32" s="27" t="s">
         <v>46</v>
       </c>
       <c r="C32" s="21"/>
@@ -4492,11 +4493,11 @@
       <c r="Z32" s="21"/>
     </row>
     <row r="33" customHeight="1" spans="1:26">
-      <c r="A33" s="27" t="str">
+      <c r="A33" s="28" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/maximum-subarray/","maximum subarray")</f>
         <v>maximum subarray</v>
       </c>
-      <c r="B33" s="25" t="s">
+      <c r="B33" s="27" t="s">
         <v>47</v>
       </c>
       <c r="C33" s="21"/>
@@ -4528,7 +4529,7 @@
       <c r="A34" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="B34" s="25"/>
+      <c r="B34" s="27"/>
       <c r="C34" s="21"/>
       <c r="D34" s="21"/>
       <c r="E34" s="21"/>
@@ -4559,7 +4560,7 @@
         <f>HYPERLINK("https://www.codechef.com/JAN18/problems/KCON","K-CON")</f>
         <v>K-CON</v>
       </c>
-      <c r="B35" s="25" t="s">
+      <c r="B35" s="27" t="s">
         <v>49</v>
       </c>
       <c r="C35" s="21"/>
@@ -4625,7 +4626,7 @@
         <f>HYPERLINK("https://www.geeksforgeeks.org/segregate-0s-and-1s-in-an-array-by-traversing-array-once/","Segregate 0 and 1")</f>
         <v>Segregate 0 and 1</v>
       </c>
-      <c r="B37" s="25" t="s">
+      <c r="B37" s="27" t="s">
         <v>51</v>
       </c>
       <c r="C37" s="21"/>
@@ -4654,134 +4655,134 @@
       <c r="Z37" s="21"/>
     </row>
     <row r="38" customHeight="1" spans="1:26">
-      <c r="A38" s="28" t="s">
+      <c r="A38" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="B38" s="29" t="s">
+      <c r="B38" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="C38" s="30"/>
-      <c r="D38" s="30"/>
-      <c r="E38" s="30"/>
-      <c r="F38" s="30"/>
-      <c r="G38" s="30"/>
-      <c r="H38" s="30"/>
-      <c r="I38" s="30"/>
-      <c r="J38" s="30"/>
-      <c r="K38" s="30"/>
-      <c r="L38" s="30"/>
-      <c r="M38" s="30"/>
-      <c r="N38" s="30"/>
-      <c r="O38" s="30"/>
-      <c r="P38" s="30"/>
-      <c r="Q38" s="30"/>
-      <c r="R38" s="30"/>
-      <c r="S38" s="30"/>
-      <c r="T38" s="30"/>
-      <c r="U38" s="30"/>
-      <c r="V38" s="30"/>
-      <c r="W38" s="30"/>
-      <c r="X38" s="30"/>
-      <c r="Y38" s="30"/>
-      <c r="Z38" s="30"/>
+      <c r="C38" s="31"/>
+      <c r="D38" s="31"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="31"/>
+      <c r="G38" s="31"/>
+      <c r="H38" s="31"/>
+      <c r="I38" s="31"/>
+      <c r="J38" s="31"/>
+      <c r="K38" s="31"/>
+      <c r="L38" s="31"/>
+      <c r="M38" s="31"/>
+      <c r="N38" s="31"/>
+      <c r="O38" s="31"/>
+      <c r="P38" s="31"/>
+      <c r="Q38" s="31"/>
+      <c r="R38" s="31"/>
+      <c r="S38" s="31"/>
+      <c r="T38" s="31"/>
+      <c r="U38" s="31"/>
+      <c r="V38" s="31"/>
+      <c r="W38" s="31"/>
+      <c r="X38" s="31"/>
+      <c r="Y38" s="31"/>
+      <c r="Z38" s="31"/>
     </row>
     <row r="39" customHeight="1" spans="1:26">
-      <c r="A39" s="31" t="s">
+      <c r="A39" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="B39" s="29" t="s">
+      <c r="B39" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="C39" s="30"/>
-      <c r="D39" s="30"/>
-      <c r="E39" s="30"/>
-      <c r="F39" s="30"/>
-      <c r="G39" s="30"/>
-      <c r="H39" s="30"/>
-      <c r="I39" s="30"/>
-      <c r="J39" s="30"/>
-      <c r="K39" s="30"/>
-      <c r="L39" s="30"/>
-      <c r="M39" s="30"/>
-      <c r="N39" s="30"/>
-      <c r="O39" s="30"/>
-      <c r="P39" s="30"/>
-      <c r="Q39" s="30"/>
-      <c r="R39" s="30"/>
-      <c r="S39" s="30"/>
-      <c r="T39" s="30"/>
-      <c r="U39" s="30"/>
-      <c r="V39" s="30"/>
-      <c r="W39" s="30"/>
-      <c r="X39" s="30"/>
-      <c r="Y39" s="30"/>
-      <c r="Z39" s="30"/>
+      <c r="C39" s="31"/>
+      <c r="D39" s="31"/>
+      <c r="E39" s="31"/>
+      <c r="F39" s="31"/>
+      <c r="G39" s="31"/>
+      <c r="H39" s="31"/>
+      <c r="I39" s="31"/>
+      <c r="J39" s="31"/>
+      <c r="K39" s="31"/>
+      <c r="L39" s="31"/>
+      <c r="M39" s="31"/>
+      <c r="N39" s="31"/>
+      <c r="O39" s="31"/>
+      <c r="P39" s="31"/>
+      <c r="Q39" s="31"/>
+      <c r="R39" s="31"/>
+      <c r="S39" s="31"/>
+      <c r="T39" s="31"/>
+      <c r="U39" s="31"/>
+      <c r="V39" s="31"/>
+      <c r="W39" s="31"/>
+      <c r="X39" s="31"/>
+      <c r="Y39" s="31"/>
+      <c r="Z39" s="31"/>
     </row>
     <row r="40" customHeight="1" spans="1:26">
-      <c r="A40" s="31" t="str">
+      <c r="A40" s="32" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/partition-labels/","partition labels")</f>
         <v>partition labels</v>
       </c>
-      <c r="B40" s="30" t="s">
+      <c r="B40" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="C40" s="30"/>
-      <c r="D40" s="30"/>
-      <c r="E40" s="30"/>
-      <c r="F40" s="30"/>
-      <c r="G40" s="30"/>
-      <c r="H40" s="30"/>
-      <c r="I40" s="30"/>
-      <c r="J40" s="30"/>
-      <c r="K40" s="30"/>
-      <c r="L40" s="30"/>
-      <c r="M40" s="30"/>
-      <c r="N40" s="30"/>
-      <c r="O40" s="30"/>
-      <c r="P40" s="30"/>
-      <c r="Q40" s="30"/>
-      <c r="R40" s="30"/>
-      <c r="S40" s="30"/>
-      <c r="T40" s="30"/>
-      <c r="U40" s="30"/>
-      <c r="V40" s="30"/>
-      <c r="W40" s="30"/>
-      <c r="X40" s="30"/>
-      <c r="Y40" s="30"/>
-      <c r="Z40" s="30"/>
+      <c r="C40" s="31"/>
+      <c r="D40" s="31"/>
+      <c r="E40" s="31"/>
+      <c r="F40" s="31"/>
+      <c r="G40" s="31"/>
+      <c r="H40" s="31"/>
+      <c r="I40" s="31"/>
+      <c r="J40" s="31"/>
+      <c r="K40" s="31"/>
+      <c r="L40" s="31"/>
+      <c r="M40" s="31"/>
+      <c r="N40" s="31"/>
+      <c r="O40" s="31"/>
+      <c r="P40" s="31"/>
+      <c r="Q40" s="31"/>
+      <c r="R40" s="31"/>
+      <c r="S40" s="31"/>
+      <c r="T40" s="31"/>
+      <c r="U40" s="31"/>
+      <c r="V40" s="31"/>
+      <c r="W40" s="31"/>
+      <c r="X40" s="31"/>
+      <c r="Y40" s="31"/>
+      <c r="Z40" s="31"/>
     </row>
     <row r="41" customHeight="1" spans="1:26">
-      <c r="A41" s="32" t="s">
+      <c r="A41" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="B41" s="30"/>
-      <c r="C41" s="30"/>
-      <c r="D41" s="30"/>
-      <c r="E41" s="30"/>
-      <c r="F41" s="30"/>
-      <c r="G41" s="30"/>
-      <c r="H41" s="30"/>
-      <c r="I41" s="30"/>
-      <c r="J41" s="30"/>
-      <c r="K41" s="30"/>
-      <c r="L41" s="30"/>
-      <c r="M41" s="30"/>
-      <c r="N41" s="30"/>
-      <c r="O41" s="30"/>
-      <c r="P41" s="30"/>
-      <c r="Q41" s="30"/>
-      <c r="R41" s="30"/>
-      <c r="S41" s="30"/>
-      <c r="T41" s="30"/>
-      <c r="U41" s="30"/>
-      <c r="V41" s="30"/>
-      <c r="W41" s="30"/>
-      <c r="X41" s="30"/>
-      <c r="Y41" s="30"/>
-      <c r="Z41" s="30"/>
+      <c r="B41" s="31"/>
+      <c r="C41" s="31"/>
+      <c r="D41" s="31"/>
+      <c r="E41" s="31"/>
+      <c r="F41" s="31"/>
+      <c r="G41" s="31"/>
+      <c r="H41" s="31"/>
+      <c r="I41" s="31"/>
+      <c r="J41" s="31"/>
+      <c r="K41" s="31"/>
+      <c r="L41" s="31"/>
+      <c r="M41" s="31"/>
+      <c r="N41" s="31"/>
+      <c r="O41" s="31"/>
+      <c r="P41" s="31"/>
+      <c r="Q41" s="31"/>
+      <c r="R41" s="31"/>
+      <c r="S41" s="31"/>
+      <c r="T41" s="31"/>
+      <c r="U41" s="31"/>
+      <c r="V41" s="31"/>
+      <c r="W41" s="31"/>
+      <c r="X41" s="31"/>
+      <c r="Y41" s="31"/>
+      <c r="Z41" s="31"/>
     </row>
     <row r="42" customHeight="1" spans="1:26">
-      <c r="A42" s="33" t="s">
+      <c r="A42" s="34" t="s">
         <v>58</v>
       </c>
       <c r="B42" s="21"/>
@@ -4846,7 +4847,7 @@
       <c r="A44" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="B44" s="34" t="s">
+      <c r="B44" s="35" t="s">
         <v>60</v>
       </c>
       <c r="C44" s="21"/>
@@ -4911,10 +4912,10 @@
         <f>HYPERLINK("https://leetcode.com/problems/consecutive-numbers-sum/","consecutive number sum")</f>
         <v>consecutive number sum</v>
       </c>
-      <c r="B46" s="35" t="s">
+      <c r="B46" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="C46" s="35"/>
+      <c r="C46" s="36"/>
       <c r="D46" s="21"/>
       <c r="E46" s="21"/>
       <c r="F46" s="21"/>
@@ -4940,11 +4941,11 @@
       <c r="Z46" s="21"/>
     </row>
     <row r="47" customHeight="1" spans="1:26">
-      <c r="A47" s="36" t="s">
+      <c r="A47" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="B47" s="25"/>
-      <c r="C47" s="30"/>
+      <c r="B47" s="27"/>
+      <c r="C47" s="31"/>
       <c r="D47" s="21"/>
       <c r="E47" s="21"/>
       <c r="F47" s="21"/>
@@ -4973,7 +4974,7 @@
       <c r="A48" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="B48" s="25" t="s">
+      <c r="B48" s="27" t="s">
         <v>66</v>
       </c>
       <c r="C48" s="21"/>
@@ -5006,7 +5007,7 @@
         <f>HYPERLINK("https://www.geeksforgeeks.org/sieve-of-eratosthenes/","Sieve of Eratosthenes")</f>
         <v>Sieve of Eratosthenes</v>
       </c>
-      <c r="B49" s="25" t="s">
+      <c r="B49" s="27" t="s">
         <v>67</v>
       </c>
       <c r="C49" s="21"/>
@@ -5039,7 +5040,7 @@
         <f>HYPERLINK("https://www.spoj.com/problems/PRIME1/cstart=10","Segmented sieve")</f>
         <v>Segmented sieve</v>
       </c>
-      <c r="B50" s="25" t="s">
+      <c r="B50" s="27" t="s">
         <v>68</v>
       </c>
       <c r="C50" s="21"/>
@@ -5071,7 +5072,7 @@
       <c r="A51" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="B51" s="25" t="s">
+      <c r="B51" s="27" t="s">
         <v>69</v>
       </c>
       <c r="C51" s="21"/>
@@ -5104,7 +5105,7 @@
         <f>HYPERLINK("https://www.geeksforgeeks.org/find-the-number-of-jumps-to-reach-x-in-the-number-line-from-zero/","MIn Jump required with +i or -i allowed")</f>
         <v>MIn Jump required with +i or -i allowed</v>
       </c>
-      <c r="B52" s="25" t="s">
+      <c r="B52" s="27" t="s">
         <v>70</v>
       </c>
       <c r="C52" s="21"/>
@@ -5136,7 +5137,7 @@
       <c r="A53" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="B53" s="25" t="s">
+      <c r="B53" s="27" t="s">
         <v>72</v>
       </c>
       <c r="C53" s="21"/>
@@ -5166,7 +5167,7 @@
     </row>
     <row r="54" customHeight="1" spans="1:26">
       <c r="A54" s="24"/>
-      <c r="B54" s="25"/>
+      <c r="B54" s="27"/>
       <c r="C54" s="21"/>
       <c r="D54" s="21"/>
       <c r="E54" s="21"/>
@@ -5196,7 +5197,7 @@
       <c r="A55" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="B55" s="25"/>
+      <c r="B55" s="27"/>
       <c r="C55" s="21"/>
       <c r="D55" s="21"/>
       <c r="E55" s="21"/>
@@ -5293,7 +5294,7 @@
         <f>HYPERLINK("https://www.geeksforgeeks.org/given-an-array-a-and-a-number-x-check-for-pair-in-a-with-sum-as-x/","Two Sum")</f>
         <v>Two Sum</v>
       </c>
-      <c r="B58" s="25" t="s">
+      <c r="B58" s="27" t="s">
         <v>76</v>
       </c>
       <c r="C58" s="21"/>
@@ -5326,7 +5327,7 @@
         <f>HYPERLINK("https://www.geeksforgeeks.org/find-a-pair-with-the-given-difference/","Two Difference")</f>
         <v>Two Difference</v>
       </c>
-      <c r="B59" s="25" t="s">
+      <c r="B59" s="27" t="s">
         <v>77</v>
       </c>
       <c r="C59" s="21"/>
@@ -5358,7 +5359,7 @@
       <c r="A60" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="B60" s="25" t="s">
+      <c r="B60" s="27" t="s">
         <v>79</v>
       </c>
       <c r="C60" s="21"/>
@@ -5457,7 +5458,7 @@
         <f>HYPERLINK("https://www.geeksforgeeks.org/minimum-number-platforms-required-railwaybus-station/","Min No. of Platform")</f>
         <v>Min No. of Platform</v>
       </c>
-      <c r="B63" s="25" t="s">
+      <c r="B63" s="27" t="s">
         <v>82</v>
       </c>
       <c r="C63" s="21"/>
@@ -5490,7 +5491,7 @@
         <f>HYPERLINK("https://leetcode.com/problems/reverse-vowels-of-a-string/","Reverse vowels of a string")</f>
         <v>Reverse vowels of a string</v>
       </c>
-      <c r="B64" s="37" t="s">
+      <c r="B64" s="38" t="s">
         <v>83</v>
       </c>
       <c r="C64" s="21"/>
@@ -5577,7 +5578,7 @@
       <c r="Z66" s="21"/>
     </row>
     <row r="67" customHeight="1" spans="1:26">
-      <c r="A67" s="38" t="str">
+      <c r="A67" s="39" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/first-missing-positive/","First missing positive")</f>
         <v>First missing positive</v>
       </c>
@@ -5610,7 +5611,7 @@
       <c r="Z67" s="21"/>
     </row>
     <row r="68" customHeight="1" spans="1:26">
-      <c r="A68" s="38" t="str">
+      <c r="A68" s="39" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/rotate-image/","rotate image")</f>
         <v>rotate image</v>
       </c>
@@ -5643,10 +5644,10 @@
       <c r="Z68" s="21"/>
     </row>
     <row r="69" customHeight="1" spans="1:26">
-      <c r="A69" s="39" t="s">
+      <c r="A69" s="40" t="s">
         <v>87</v>
       </c>
-      <c r="B69" s="37" t="s">
+      <c r="B69" s="38" t="s">
         <v>88</v>
       </c>
       <c r="C69" s="21"/>
@@ -5675,7 +5676,7 @@
       <c r="Z69" s="21"/>
     </row>
     <row r="70" customHeight="1" spans="1:26">
-      <c r="A70" s="38" t="str">
+      <c r="A70" s="39" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/push-dominoes/","push dominoes")</f>
         <v>push dominoes</v>
       </c>
@@ -5708,11 +5709,11 @@
       <c r="Z70" s="21"/>
     </row>
     <row r="71" customHeight="1" spans="1:26">
-      <c r="A71" s="27" t="str">
+      <c r="A71" s="28" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/valid-palindrome-ii/","valid pallindrome 2")</f>
         <v>valid pallindrome 2</v>
       </c>
-      <c r="B71" s="25" t="s">
+      <c r="B71" s="27" t="s">
         <v>90</v>
       </c>
       <c r="C71" s="21"/>
@@ -5741,7 +5742,7 @@
       <c r="Z71" s="21"/>
     </row>
     <row r="72" customHeight="1" spans="1:26">
-      <c r="A72" s="38" t="s">
+      <c r="A72" s="39" t="s">
         <v>91</v>
       </c>
       <c r="B72" s="21" t="s">
@@ -5773,10 +5774,10 @@
       <c r="Z72" s="21"/>
     </row>
     <row r="73" customHeight="1" spans="1:26">
-      <c r="A73" s="40" t="s">
+      <c r="A73" s="41" t="s">
         <v>93</v>
       </c>
-      <c r="B73" s="37" t="s">
+      <c r="B73" s="38" t="s">
         <v>94</v>
       </c>
       <c r="C73" s="21"/>
@@ -5871,7 +5872,7 @@
         <f>HYPERLINK("https://www.codechef.com/SNCKPE19/problems/BUDDYNIM","Buddy nim")</f>
         <v>Buddy nim</v>
       </c>
-      <c r="B76" s="35" t="s">
+      <c r="B76" s="36" t="s">
         <v>98</v>
       </c>
       <c r="C76" s="21"/>
@@ -5935,7 +5936,7 @@
       <c r="A78" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="B78" s="37" t="s">
+      <c r="B78" s="38" t="s">
         <v>102</v>
       </c>
       <c r="C78" s="21"/>
@@ -5967,7 +5968,7 @@
       <c r="A79" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="B79" s="37" t="s">
+      <c r="B79" s="38" t="s">
         <v>104</v>
       </c>
       <c r="C79" s="21"/>
@@ -5996,7 +5997,7 @@
       <c r="Z79" s="21"/>
     </row>
     <row r="80" customHeight="1" spans="1:26">
-      <c r="A80" s="27" t="str">
+      <c r="A80" s="28" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/maximum-sum-of-two-non-overlapping-subarrays/","max sum of two non overlapping subarrays")</f>
         <v>max sum of two non overlapping subarrays</v>
       </c>
@@ -6029,10 +6030,10 @@
       <c r="Z80" s="21"/>
     </row>
     <row r="81" customHeight="1" spans="1:26">
-      <c r="A81" s="41" t="s">
+      <c r="A81" s="42" t="s">
         <v>106</v>
       </c>
-      <c r="B81" s="37" t="s">
+      <c r="B81" s="38" t="s">
         <v>107</v>
       </c>
       <c r="C81" s="21"/>
@@ -6061,7 +6062,7 @@
       <c r="Z81" s="21"/>
     </row>
     <row r="82" customHeight="1" spans="1:26">
-      <c r="A82" s="42" t="s">
+      <c r="A82" s="43" t="s">
         <v>108</v>
       </c>
       <c r="B82" s="21"/>
@@ -6124,7 +6125,7 @@
       <c r="A84" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="B84" s="25" t="s">
+      <c r="B84" s="27" t="s">
         <v>111</v>
       </c>
       <c r="C84" s="21"/>
@@ -6156,7 +6157,7 @@
       <c r="A85" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="B85" s="25" t="s">
+      <c r="B85" s="27" t="s">
         <v>113</v>
       </c>
       <c r="C85" s="21"/>
@@ -6189,7 +6190,7 @@
         <f>HYPERLINK("https://www.codechef.com/COOK103B/problems/MAXREMOV","Max range query")</f>
         <v>Max range query</v>
       </c>
-      <c r="B86" s="25"/>
+      <c r="B86" s="27"/>
       <c r="C86" s="21"/>
       <c r="D86" s="21"/>
       <c r="E86" s="21"/>
@@ -6219,7 +6220,7 @@
       <c r="A87" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="B87" s="25" t="s">
+      <c r="B87" s="27" t="s">
         <v>115</v>
       </c>
       <c r="C87" s="21"/>
@@ -6251,7 +6252,7 @@
       <c r="A88" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="B88" s="25" t="s">
+      <c r="B88" s="27" t="s">
         <v>117</v>
       </c>
       <c r="C88" s="21"/>
@@ -6341,331 +6342,331 @@
       <c r="A91" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="B91" s="30"/>
-      <c r="C91" s="30"/>
-      <c r="D91" s="30"/>
-      <c r="E91" s="30"/>
-      <c r="F91" s="30"/>
-      <c r="G91" s="30"/>
-      <c r="H91" s="30"/>
-      <c r="I91" s="30"/>
-      <c r="J91" s="30"/>
-      <c r="K91" s="30"/>
-      <c r="L91" s="30"/>
-      <c r="M91" s="30"/>
-      <c r="N91" s="30"/>
-      <c r="O91" s="30"/>
-      <c r="P91" s="30"/>
-      <c r="Q91" s="30"/>
-      <c r="R91" s="30"/>
-      <c r="S91" s="30"/>
-      <c r="T91" s="30"/>
-      <c r="U91" s="30"/>
-      <c r="V91" s="30"/>
-      <c r="W91" s="30"/>
-      <c r="X91" s="30"/>
-      <c r="Y91" s="30"/>
-      <c r="Z91" s="30"/>
+      <c r="B91" s="31"/>
+      <c r="C91" s="31"/>
+      <c r="D91" s="31"/>
+      <c r="E91" s="31"/>
+      <c r="F91" s="31"/>
+      <c r="G91" s="31"/>
+      <c r="H91" s="31"/>
+      <c r="I91" s="31"/>
+      <c r="J91" s="31"/>
+      <c r="K91" s="31"/>
+      <c r="L91" s="31"/>
+      <c r="M91" s="31"/>
+      <c r="N91" s="31"/>
+      <c r="O91" s="31"/>
+      <c r="P91" s="31"/>
+      <c r="Q91" s="31"/>
+      <c r="R91" s="31"/>
+      <c r="S91" s="31"/>
+      <c r="T91" s="31"/>
+      <c r="U91" s="31"/>
+      <c r="V91" s="31"/>
+      <c r="W91" s="31"/>
+      <c r="X91" s="31"/>
+      <c r="Y91" s="31"/>
+      <c r="Z91" s="31"/>
     </row>
     <row r="92" customHeight="1" spans="1:26">
-      <c r="A92" s="43" t="s">
+      <c r="A92" s="44" t="s">
         <v>119</v>
       </c>
-      <c r="B92" s="30"/>
-      <c r="C92" s="30"/>
-      <c r="D92" s="30"/>
-      <c r="E92" s="30"/>
-      <c r="F92" s="30"/>
-      <c r="G92" s="30"/>
-      <c r="H92" s="30"/>
-      <c r="I92" s="30"/>
-      <c r="J92" s="30"/>
-      <c r="K92" s="30"/>
-      <c r="L92" s="30"/>
-      <c r="M92" s="30"/>
-      <c r="N92" s="30"/>
-      <c r="O92" s="30"/>
-      <c r="P92" s="30"/>
-      <c r="Q92" s="30"/>
-      <c r="R92" s="30"/>
-      <c r="S92" s="30"/>
-      <c r="T92" s="30"/>
-      <c r="U92" s="30"/>
-      <c r="V92" s="30"/>
-      <c r="W92" s="30"/>
-      <c r="X92" s="30"/>
-      <c r="Y92" s="30"/>
-      <c r="Z92" s="30"/>
+      <c r="B92" s="31"/>
+      <c r="C92" s="31"/>
+      <c r="D92" s="31"/>
+      <c r="E92" s="31"/>
+      <c r="F92" s="31"/>
+      <c r="G92" s="31"/>
+      <c r="H92" s="31"/>
+      <c r="I92" s="31"/>
+      <c r="J92" s="31"/>
+      <c r="K92" s="31"/>
+      <c r="L92" s="31"/>
+      <c r="M92" s="31"/>
+      <c r="N92" s="31"/>
+      <c r="O92" s="31"/>
+      <c r="P92" s="31"/>
+      <c r="Q92" s="31"/>
+      <c r="R92" s="31"/>
+      <c r="S92" s="31"/>
+      <c r="T92" s="31"/>
+      <c r="U92" s="31"/>
+      <c r="V92" s="31"/>
+      <c r="W92" s="31"/>
+      <c r="X92" s="31"/>
+      <c r="Y92" s="31"/>
+      <c r="Z92" s="31"/>
     </row>
     <row r="93" customHeight="1" spans="1:26">
-      <c r="A93" s="44" t="s">
+      <c r="A93" s="45" t="s">
         <v>120</v>
       </c>
-      <c r="B93" s="30"/>
-      <c r="C93" s="30"/>
-      <c r="D93" s="30"/>
-      <c r="E93" s="30"/>
-      <c r="F93" s="30"/>
-      <c r="G93" s="30"/>
-      <c r="H93" s="30"/>
-      <c r="I93" s="30"/>
-      <c r="J93" s="30"/>
-      <c r="K93" s="30"/>
-      <c r="L93" s="30"/>
-      <c r="M93" s="30"/>
-      <c r="N93" s="30"/>
-      <c r="O93" s="30"/>
-      <c r="P93" s="30"/>
-      <c r="Q93" s="30"/>
-      <c r="R93" s="30"/>
-      <c r="S93" s="30"/>
-      <c r="T93" s="30"/>
-      <c r="U93" s="30"/>
-      <c r="V93" s="30"/>
-      <c r="W93" s="30"/>
-      <c r="X93" s="30"/>
-      <c r="Y93" s="30"/>
-      <c r="Z93" s="30"/>
+      <c r="B93" s="31"/>
+      <c r="C93" s="31"/>
+      <c r="D93" s="31"/>
+      <c r="E93" s="31"/>
+      <c r="F93" s="31"/>
+      <c r="G93" s="31"/>
+      <c r="H93" s="31"/>
+      <c r="I93" s="31"/>
+      <c r="J93" s="31"/>
+      <c r="K93" s="31"/>
+      <c r="L93" s="31"/>
+      <c r="M93" s="31"/>
+      <c r="N93" s="31"/>
+      <c r="O93" s="31"/>
+      <c r="P93" s="31"/>
+      <c r="Q93" s="31"/>
+      <c r="R93" s="31"/>
+      <c r="S93" s="31"/>
+      <c r="T93" s="31"/>
+      <c r="U93" s="31"/>
+      <c r="V93" s="31"/>
+      <c r="W93" s="31"/>
+      <c r="X93" s="31"/>
+      <c r="Y93" s="31"/>
+      <c r="Z93" s="31"/>
     </row>
     <row r="94" customHeight="1" spans="1:26">
-      <c r="A94" s="45" t="s">
+      <c r="A94" s="46" t="s">
         <v>121</v>
       </c>
-      <c r="B94" s="30"/>
-      <c r="C94" s="30"/>
-      <c r="D94" s="30"/>
-      <c r="E94" s="30"/>
-      <c r="F94" s="30"/>
-      <c r="G94" s="30"/>
-      <c r="H94" s="30"/>
-      <c r="I94" s="30"/>
-      <c r="J94" s="30"/>
-      <c r="K94" s="30"/>
-      <c r="L94" s="30"/>
-      <c r="M94" s="30"/>
-      <c r="N94" s="30"/>
-      <c r="O94" s="30"/>
-      <c r="P94" s="30"/>
-      <c r="Q94" s="30"/>
-      <c r="R94" s="30"/>
-      <c r="S94" s="30"/>
-      <c r="T94" s="30"/>
-      <c r="U94" s="30"/>
-      <c r="V94" s="30"/>
-      <c r="W94" s="30"/>
-      <c r="X94" s="30"/>
-      <c r="Y94" s="30"/>
-      <c r="Z94" s="30"/>
+      <c r="B94" s="31"/>
+      <c r="C94" s="31"/>
+      <c r="D94" s="31"/>
+      <c r="E94" s="31"/>
+      <c r="F94" s="31"/>
+      <c r="G94" s="31"/>
+      <c r="H94" s="31"/>
+      <c r="I94" s="31"/>
+      <c r="J94" s="31"/>
+      <c r="K94" s="31"/>
+      <c r="L94" s="31"/>
+      <c r="M94" s="31"/>
+      <c r="N94" s="31"/>
+      <c r="O94" s="31"/>
+      <c r="P94" s="31"/>
+      <c r="Q94" s="31"/>
+      <c r="R94" s="31"/>
+      <c r="S94" s="31"/>
+      <c r="T94" s="31"/>
+      <c r="U94" s="31"/>
+      <c r="V94" s="31"/>
+      <c r="W94" s="31"/>
+      <c r="X94" s="31"/>
+      <c r="Y94" s="31"/>
+      <c r="Z94" s="31"/>
     </row>
     <row r="95" customHeight="1" spans="1:26">
-      <c r="A95" s="46" t="s">
+      <c r="A95" s="47" t="s">
         <v>122</v>
       </c>
-      <c r="B95" s="30"/>
-      <c r="C95" s="30"/>
-      <c r="D95" s="30"/>
-      <c r="E95" s="30"/>
-      <c r="F95" s="30"/>
-      <c r="G95" s="30"/>
-      <c r="H95" s="30"/>
-      <c r="I95" s="30"/>
-      <c r="J95" s="30"/>
-      <c r="K95" s="30"/>
-      <c r="L95" s="30"/>
-      <c r="M95" s="30"/>
-      <c r="N95" s="30"/>
-      <c r="O95" s="30"/>
-      <c r="P95" s="30"/>
-      <c r="Q95" s="30"/>
-      <c r="R95" s="30"/>
-      <c r="S95" s="30"/>
-      <c r="T95" s="30"/>
-      <c r="U95" s="30"/>
-      <c r="V95" s="30"/>
-      <c r="W95" s="30"/>
-      <c r="X95" s="30"/>
-      <c r="Y95" s="30"/>
-      <c r="Z95" s="30"/>
+      <c r="B95" s="31"/>
+      <c r="C95" s="31"/>
+      <c r="D95" s="31"/>
+      <c r="E95" s="31"/>
+      <c r="F95" s="31"/>
+      <c r="G95" s="31"/>
+      <c r="H95" s="31"/>
+      <c r="I95" s="31"/>
+      <c r="J95" s="31"/>
+      <c r="K95" s="31"/>
+      <c r="L95" s="31"/>
+      <c r="M95" s="31"/>
+      <c r="N95" s="31"/>
+      <c r="O95" s="31"/>
+      <c r="P95" s="31"/>
+      <c r="Q95" s="31"/>
+      <c r="R95" s="31"/>
+      <c r="S95" s="31"/>
+      <c r="T95" s="31"/>
+      <c r="U95" s="31"/>
+      <c r="V95" s="31"/>
+      <c r="W95" s="31"/>
+      <c r="X95" s="31"/>
+      <c r="Y95" s="31"/>
+      <c r="Z95" s="31"/>
     </row>
     <row r="96" customHeight="1" spans="1:26">
-      <c r="A96" s="46" t="s">
+      <c r="A96" s="47" t="s">
         <v>123</v>
       </c>
-      <c r="B96" s="30"/>
-      <c r="C96" s="30"/>
-      <c r="D96" s="30"/>
-      <c r="E96" s="30"/>
-      <c r="F96" s="30"/>
-      <c r="G96" s="30"/>
-      <c r="H96" s="30"/>
-      <c r="I96" s="30"/>
-      <c r="J96" s="30"/>
-      <c r="K96" s="30"/>
-      <c r="L96" s="30"/>
-      <c r="M96" s="30"/>
-      <c r="N96" s="30"/>
-      <c r="O96" s="30"/>
-      <c r="P96" s="30"/>
-      <c r="Q96" s="30"/>
-      <c r="R96" s="30"/>
-      <c r="S96" s="30"/>
-      <c r="T96" s="30"/>
-      <c r="U96" s="30"/>
-      <c r="V96" s="30"/>
-      <c r="W96" s="30"/>
-      <c r="X96" s="30"/>
-      <c r="Y96" s="30"/>
-      <c r="Z96" s="30"/>
+      <c r="B96" s="31"/>
+      <c r="C96" s="31"/>
+      <c r="D96" s="31"/>
+      <c r="E96" s="31"/>
+      <c r="F96" s="31"/>
+      <c r="G96" s="31"/>
+      <c r="H96" s="31"/>
+      <c r="I96" s="31"/>
+      <c r="J96" s="31"/>
+      <c r="K96" s="31"/>
+      <c r="L96" s="31"/>
+      <c r="M96" s="31"/>
+      <c r="N96" s="31"/>
+      <c r="O96" s="31"/>
+      <c r="P96" s="31"/>
+      <c r="Q96" s="31"/>
+      <c r="R96" s="31"/>
+      <c r="S96" s="31"/>
+      <c r="T96" s="31"/>
+      <c r="U96" s="31"/>
+      <c r="V96" s="31"/>
+      <c r="W96" s="31"/>
+      <c r="X96" s="31"/>
+      <c r="Y96" s="31"/>
+      <c r="Z96" s="31"/>
     </row>
     <row r="97" customHeight="1" spans="1:26">
-      <c r="A97" s="33" t="s">
+      <c r="A97" s="34" t="s">
         <v>124</v>
       </c>
-      <c r="B97" s="30"/>
-      <c r="C97" s="30"/>
-      <c r="D97" s="30"/>
-      <c r="E97" s="30"/>
-      <c r="F97" s="30"/>
-      <c r="G97" s="30"/>
-      <c r="H97" s="30"/>
-      <c r="I97" s="30"/>
-      <c r="J97" s="30"/>
-      <c r="K97" s="30"/>
-      <c r="L97" s="30"/>
-      <c r="M97" s="30"/>
-      <c r="N97" s="30"/>
-      <c r="O97" s="30"/>
-      <c r="P97" s="30"/>
-      <c r="Q97" s="30"/>
-      <c r="R97" s="30"/>
-      <c r="S97" s="30"/>
-      <c r="T97" s="30"/>
-      <c r="U97" s="30"/>
-      <c r="V97" s="30"/>
-      <c r="W97" s="30"/>
-      <c r="X97" s="30"/>
-      <c r="Y97" s="30"/>
-      <c r="Z97" s="30"/>
+      <c r="B97" s="31"/>
+      <c r="C97" s="31"/>
+      <c r="D97" s="31"/>
+      <c r="E97" s="31"/>
+      <c r="F97" s="31"/>
+      <c r="G97" s="31"/>
+      <c r="H97" s="31"/>
+      <c r="I97" s="31"/>
+      <c r="J97" s="31"/>
+      <c r="K97" s="31"/>
+      <c r="L97" s="31"/>
+      <c r="M97" s="31"/>
+      <c r="N97" s="31"/>
+      <c r="O97" s="31"/>
+      <c r="P97" s="31"/>
+      <c r="Q97" s="31"/>
+      <c r="R97" s="31"/>
+      <c r="S97" s="31"/>
+      <c r="T97" s="31"/>
+      <c r="U97" s="31"/>
+      <c r="V97" s="31"/>
+      <c r="W97" s="31"/>
+      <c r="X97" s="31"/>
+      <c r="Y97" s="31"/>
+      <c r="Z97" s="31"/>
     </row>
     <row r="98" customHeight="1" spans="1:26">
-      <c r="A98" s="44" t="s">
+      <c r="A98" s="45" t="s">
         <v>125</v>
       </c>
-      <c r="B98" s="30"/>
-      <c r="C98" s="30"/>
-      <c r="D98" s="30"/>
-      <c r="E98" s="30"/>
-      <c r="F98" s="30"/>
-      <c r="G98" s="30"/>
-      <c r="H98" s="30"/>
-      <c r="I98" s="30"/>
-      <c r="J98" s="30"/>
-      <c r="K98" s="30"/>
-      <c r="L98" s="30"/>
-      <c r="M98" s="30"/>
-      <c r="N98" s="30"/>
-      <c r="O98" s="30"/>
-      <c r="P98" s="30"/>
-      <c r="Q98" s="30"/>
-      <c r="R98" s="30"/>
-      <c r="S98" s="30"/>
-      <c r="T98" s="30"/>
-      <c r="U98" s="30"/>
-      <c r="V98" s="30"/>
-      <c r="W98" s="30"/>
-      <c r="X98" s="30"/>
-      <c r="Y98" s="30"/>
-      <c r="Z98" s="30"/>
+      <c r="B98" s="31"/>
+      <c r="C98" s="31"/>
+      <c r="D98" s="31"/>
+      <c r="E98" s="31"/>
+      <c r="F98" s="31"/>
+      <c r="G98" s="31"/>
+      <c r="H98" s="31"/>
+      <c r="I98" s="31"/>
+      <c r="J98" s="31"/>
+      <c r="K98" s="31"/>
+      <c r="L98" s="31"/>
+      <c r="M98" s="31"/>
+      <c r="N98" s="31"/>
+      <c r="O98" s="31"/>
+      <c r="P98" s="31"/>
+      <c r="Q98" s="31"/>
+      <c r="R98" s="31"/>
+      <c r="S98" s="31"/>
+      <c r="T98" s="31"/>
+      <c r="U98" s="31"/>
+      <c r="V98" s="31"/>
+      <c r="W98" s="31"/>
+      <c r="X98" s="31"/>
+      <c r="Y98" s="31"/>
+      <c r="Z98" s="31"/>
     </row>
     <row r="99" customHeight="1" spans="1:26">
-      <c r="A99" s="45" t="s">
+      <c r="A99" s="46" t="s">
         <v>126</v>
       </c>
-      <c r="B99" s="30"/>
-      <c r="C99" s="30"/>
-      <c r="D99" s="30"/>
-      <c r="E99" s="30"/>
-      <c r="F99" s="30"/>
-      <c r="G99" s="30"/>
-      <c r="H99" s="30"/>
-      <c r="I99" s="30"/>
-      <c r="J99" s="30"/>
-      <c r="K99" s="30"/>
-      <c r="L99" s="30"/>
-      <c r="M99" s="30"/>
-      <c r="N99" s="30"/>
-      <c r="O99" s="30"/>
-      <c r="P99" s="30"/>
-      <c r="Q99" s="30"/>
-      <c r="R99" s="30"/>
-      <c r="S99" s="30"/>
-      <c r="T99" s="30"/>
-      <c r="U99" s="30"/>
-      <c r="V99" s="30"/>
-      <c r="W99" s="30"/>
-      <c r="X99" s="30"/>
-      <c r="Y99" s="30"/>
-      <c r="Z99" s="30"/>
+      <c r="B99" s="31"/>
+      <c r="C99" s="31"/>
+      <c r="D99" s="31"/>
+      <c r="E99" s="31"/>
+      <c r="F99" s="31"/>
+      <c r="G99" s="31"/>
+      <c r="H99" s="31"/>
+      <c r="I99" s="31"/>
+      <c r="J99" s="31"/>
+      <c r="K99" s="31"/>
+      <c r="L99" s="31"/>
+      <c r="M99" s="31"/>
+      <c r="N99" s="31"/>
+      <c r="O99" s="31"/>
+      <c r="P99" s="31"/>
+      <c r="Q99" s="31"/>
+      <c r="R99" s="31"/>
+      <c r="S99" s="31"/>
+      <c r="T99" s="31"/>
+      <c r="U99" s="31"/>
+      <c r="V99" s="31"/>
+      <c r="W99" s="31"/>
+      <c r="X99" s="31"/>
+      <c r="Y99" s="31"/>
+      <c r="Z99" s="31"/>
     </row>
     <row r="100" customHeight="1" spans="1:26">
-      <c r="A100" s="46" t="s">
+      <c r="A100" s="47" t="s">
         <v>127</v>
       </c>
-      <c r="B100" s="30"/>
-      <c r="C100" s="30"/>
-      <c r="D100" s="30"/>
-      <c r="E100" s="30"/>
-      <c r="F100" s="30"/>
-      <c r="G100" s="30"/>
-      <c r="H100" s="30"/>
-      <c r="I100" s="30"/>
-      <c r="J100" s="30"/>
-      <c r="K100" s="30"/>
-      <c r="L100" s="30"/>
-      <c r="M100" s="30"/>
-      <c r="N100" s="30"/>
-      <c r="O100" s="30"/>
-      <c r="P100" s="30"/>
-      <c r="Q100" s="30"/>
-      <c r="R100" s="30"/>
-      <c r="S100" s="30"/>
-      <c r="T100" s="30"/>
-      <c r="U100" s="30"/>
-      <c r="V100" s="30"/>
-      <c r="W100" s="30"/>
-      <c r="X100" s="30"/>
-      <c r="Y100" s="30"/>
-      <c r="Z100" s="30"/>
+      <c r="B100" s="31"/>
+      <c r="C100" s="31"/>
+      <c r="D100" s="31"/>
+      <c r="E100" s="31"/>
+      <c r="F100" s="31"/>
+      <c r="G100" s="31"/>
+      <c r="H100" s="31"/>
+      <c r="I100" s="31"/>
+      <c r="J100" s="31"/>
+      <c r="K100" s="31"/>
+      <c r="L100" s="31"/>
+      <c r="M100" s="31"/>
+      <c r="N100" s="31"/>
+      <c r="O100" s="31"/>
+      <c r="P100" s="31"/>
+      <c r="Q100" s="31"/>
+      <c r="R100" s="31"/>
+      <c r="S100" s="31"/>
+      <c r="T100" s="31"/>
+      <c r="U100" s="31"/>
+      <c r="V100" s="31"/>
+      <c r="W100" s="31"/>
+      <c r="X100" s="31"/>
+      <c r="Y100" s="31"/>
+      <c r="Z100" s="31"/>
     </row>
     <row r="101" customHeight="1" spans="1:26">
-      <c r="A101" s="46" t="s">
+      <c r="A101" s="47" t="s">
         <v>128</v>
       </c>
-      <c r="B101" s="30"/>
-      <c r="C101" s="30"/>
-      <c r="D101" s="30"/>
-      <c r="E101" s="30"/>
-      <c r="F101" s="30"/>
-      <c r="G101" s="30"/>
-      <c r="H101" s="30"/>
-      <c r="I101" s="30"/>
-      <c r="J101" s="30"/>
-      <c r="K101" s="30"/>
-      <c r="L101" s="30"/>
-      <c r="M101" s="30"/>
-      <c r="N101" s="30"/>
-      <c r="O101" s="30"/>
-      <c r="P101" s="30"/>
-      <c r="Q101" s="30"/>
-      <c r="R101" s="30"/>
-      <c r="S101" s="30"/>
-      <c r="T101" s="30"/>
-      <c r="U101" s="30"/>
-      <c r="V101" s="30"/>
-      <c r="W101" s="30"/>
-      <c r="X101" s="30"/>
-      <c r="Y101" s="30"/>
-      <c r="Z101" s="30"/>
+      <c r="B101" s="31"/>
+      <c r="C101" s="31"/>
+      <c r="D101" s="31"/>
+      <c r="E101" s="31"/>
+      <c r="F101" s="31"/>
+      <c r="G101" s="31"/>
+      <c r="H101" s="31"/>
+      <c r="I101" s="31"/>
+      <c r="J101" s="31"/>
+      <c r="K101" s="31"/>
+      <c r="L101" s="31"/>
+      <c r="M101" s="31"/>
+      <c r="N101" s="31"/>
+      <c r="O101" s="31"/>
+      <c r="P101" s="31"/>
+      <c r="Q101" s="31"/>
+      <c r="R101" s="31"/>
+      <c r="S101" s="31"/>
+      <c r="T101" s="31"/>
+      <c r="U101" s="31"/>
+      <c r="V101" s="31"/>
+      <c r="W101" s="31"/>
+      <c r="X101" s="31"/>
+      <c r="Y101" s="31"/>
+      <c r="Z101" s="31"/>
     </row>
     <row r="102" customHeight="1" spans="1:26">
       <c r="A102" s="21"/>
@@ -6819,7 +6820,7 @@
       <c r="Z106" s="21"/>
     </row>
     <row r="107" customHeight="1" spans="1:26">
-      <c r="A107" s="38" t="str">
+      <c r="A107" s="39" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/capacity-to-ship-packages-within-d-days/","capacity to ship within D days")</f>
         <v>capacity to ship within D days</v>
       </c>
@@ -6852,7 +6853,7 @@
       <c r="Z107" s="21"/>
     </row>
     <row r="108" customHeight="1" spans="1:26">
-      <c r="A108" s="27" t="str">
+      <c r="A108" s="28" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/koko-eating-bananas/","koko eating bananas")</f>
         <v>koko eating bananas</v>
       </c>
@@ -7114,7 +7115,7 @@
       <c r="A116" s="26" t="s">
         <v>143</v>
       </c>
-      <c r="B116" s="37" t="s">
+      <c r="B116" s="38" t="s">
         <v>144</v>
       </c>
       <c r="C116" s="21"/>
@@ -7146,7 +7147,7 @@
       <c r="A117" s="26" t="s">
         <v>145</v>
       </c>
-      <c r="B117" s="37" t="s">
+      <c r="B117" s="38" t="s">
         <v>146</v>
       </c>
       <c r="C117" s="21"/>
@@ -7178,7 +7179,7 @@
       <c r="A118" s="26" t="s">
         <v>147</v>
       </c>
-      <c r="B118" s="37" t="s">
+      <c r="B118" s="38" t="s">
         <v>148</v>
       </c>
       <c r="C118" s="21"/>
@@ -7207,14 +7208,14 @@
       <c r="Z118" s="21"/>
     </row>
     <row r="119" customHeight="1" spans="1:26">
-      <c r="A119" s="47" t="str">
+      <c r="A119" s="48" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/counting-sort/","counting sort")</f>
         <v>counting sort</v>
       </c>
-      <c r="B119" s="35" t="s">
+      <c r="B119" s="36" t="s">
         <v>149</v>
       </c>
-      <c r="C119" s="35"/>
+      <c r="C119" s="36"/>
       <c r="D119" s="21"/>
       <c r="E119" s="21"/>
       <c r="F119" s="21"/>
@@ -7240,14 +7241,14 @@
       <c r="Z119" s="21"/>
     </row>
     <row r="120" customHeight="1" spans="1:26">
-      <c r="A120" s="47" t="str">
+      <c r="A120" s="48" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/merge-sort/","merge sort")</f>
         <v>merge sort</v>
       </c>
-      <c r="B120" s="35" t="s">
+      <c r="B120" s="36" t="s">
         <v>150</v>
       </c>
-      <c r="C120" s="35"/>
+      <c r="C120" s="36"/>
       <c r="D120" s="21"/>
       <c r="E120" s="21"/>
       <c r="F120" s="21"/>
@@ -7273,7 +7274,7 @@
       <c r="Z120" s="21"/>
     </row>
     <row r="121" customHeight="1" spans="1:26">
-      <c r="A121" s="48" t="str">
+      <c r="A121" s="49" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/counting-inversions/","count inversions")</f>
         <v>count inversions</v>
       </c>
@@ -7306,7 +7307,7 @@
       <c r="Z121" s="21"/>
     </row>
     <row r="122" customHeight="1" spans="1:26">
-      <c r="A122" s="49" t="s">
+      <c r="A122" s="50" t="s">
         <v>152</v>
       </c>
       <c r="B122" s="1"/>
@@ -7399,7 +7400,7 @@
       <c r="Z124" s="21"/>
     </row>
     <row r="125" customHeight="1" spans="1:26">
-      <c r="A125" s="50" t="s">
+      <c r="A125" s="51" t="s">
         <v>155</v>
       </c>
       <c r="B125" s="21"/>
@@ -7531,7 +7532,7 @@
       <c r="A129" s="26" t="s">
         <v>159</v>
       </c>
-      <c r="B129" s="37" t="s">
+      <c r="B129" s="38" t="s">
         <v>160</v>
       </c>
       <c r="C129" s="21"/>
@@ -7560,7 +7561,7 @@
       <c r="Z129" s="21"/>
     </row>
     <row r="130" customHeight="1" spans="1:26">
-      <c r="A130" s="33" t="s">
+      <c r="A130" s="34" t="s">
         <v>161</v>
       </c>
       <c r="B130" s="21"/>
@@ -7593,10 +7594,10 @@
       <c r="A131" s="22" t="s">
         <v>162</v>
       </c>
-      <c r="B131" s="35" t="s">
+      <c r="B131" s="36" t="s">
         <v>163</v>
       </c>
-      <c r="C131" s="35"/>
+      <c r="C131" s="36"/>
       <c r="D131" s="21"/>
       <c r="E131" s="21"/>
       <c r="F131" s="21"/>
@@ -7655,286 +7656,286 @@
       <c r="Z132" s="21"/>
     </row>
     <row r="133" customHeight="1" spans="1:26">
-      <c r="A133" s="51" t="s">
+      <c r="A133" s="52" t="s">
         <v>165</v>
       </c>
-      <c r="B133" s="51"/>
-      <c r="C133" s="30"/>
-      <c r="D133" s="30"/>
-      <c r="E133" s="30"/>
-      <c r="F133" s="30"/>
-      <c r="G133" s="30"/>
-      <c r="H133" s="30"/>
-      <c r="I133" s="30"/>
-      <c r="J133" s="30"/>
-      <c r="K133" s="30"/>
-      <c r="L133" s="30"/>
-      <c r="M133" s="30"/>
-      <c r="N133" s="30"/>
-      <c r="O133" s="30"/>
-      <c r="P133" s="30"/>
-      <c r="Q133" s="30"/>
-      <c r="R133" s="30"/>
-      <c r="S133" s="30"/>
-      <c r="T133" s="30"/>
-      <c r="U133" s="30"/>
-      <c r="V133" s="30"/>
-      <c r="W133" s="30"/>
-      <c r="X133" s="30"/>
-      <c r="Y133" s="30"/>
-      <c r="Z133" s="30"/>
+      <c r="B133" s="52"/>
+      <c r="C133" s="31"/>
+      <c r="D133" s="31"/>
+      <c r="E133" s="31"/>
+      <c r="F133" s="31"/>
+      <c r="G133" s="31"/>
+      <c r="H133" s="31"/>
+      <c r="I133" s="31"/>
+      <c r="J133" s="31"/>
+      <c r="K133" s="31"/>
+      <c r="L133" s="31"/>
+      <c r="M133" s="31"/>
+      <c r="N133" s="31"/>
+      <c r="O133" s="31"/>
+      <c r="P133" s="31"/>
+      <c r="Q133" s="31"/>
+      <c r="R133" s="31"/>
+      <c r="S133" s="31"/>
+      <c r="T133" s="31"/>
+      <c r="U133" s="31"/>
+      <c r="V133" s="31"/>
+      <c r="W133" s="31"/>
+      <c r="X133" s="31"/>
+      <c r="Y133" s="31"/>
+      <c r="Z133" s="31"/>
     </row>
     <row r="134" customHeight="1" spans="1:26">
-      <c r="A134" s="51" t="s">
+      <c r="A134" s="52" t="s">
         <v>166</v>
       </c>
-      <c r="B134" s="51"/>
-      <c r="C134" s="30"/>
-      <c r="D134" s="30"/>
-      <c r="E134" s="30"/>
-      <c r="F134" s="30"/>
-      <c r="G134" s="30"/>
-      <c r="H134" s="30"/>
-      <c r="I134" s="30"/>
-      <c r="J134" s="30"/>
-      <c r="K134" s="30"/>
-      <c r="L134" s="30"/>
-      <c r="M134" s="30"/>
-      <c r="N134" s="30"/>
-      <c r="O134" s="30"/>
-      <c r="P134" s="30"/>
-      <c r="Q134" s="30"/>
-      <c r="R134" s="30"/>
-      <c r="S134" s="30"/>
-      <c r="T134" s="30"/>
-      <c r="U134" s="30"/>
-      <c r="V134" s="30"/>
-      <c r="W134" s="30"/>
-      <c r="X134" s="30"/>
-      <c r="Y134" s="30"/>
-      <c r="Z134" s="30"/>
+      <c r="B134" s="52"/>
+      <c r="C134" s="31"/>
+      <c r="D134" s="31"/>
+      <c r="E134" s="31"/>
+      <c r="F134" s="31"/>
+      <c r="G134" s="31"/>
+      <c r="H134" s="31"/>
+      <c r="I134" s="31"/>
+      <c r="J134" s="31"/>
+      <c r="K134" s="31"/>
+      <c r="L134" s="31"/>
+      <c r="M134" s="31"/>
+      <c r="N134" s="31"/>
+      <c r="O134" s="31"/>
+      <c r="P134" s="31"/>
+      <c r="Q134" s="31"/>
+      <c r="R134" s="31"/>
+      <c r="S134" s="31"/>
+      <c r="T134" s="31"/>
+      <c r="U134" s="31"/>
+      <c r="V134" s="31"/>
+      <c r="W134" s="31"/>
+      <c r="X134" s="31"/>
+      <c r="Y134" s="31"/>
+      <c r="Z134" s="31"/>
     </row>
     <row r="135" customHeight="1" spans="1:26">
-      <c r="A135" s="51" t="s">
+      <c r="A135" s="52" t="s">
         <v>167</v>
       </c>
-      <c r="B135" s="51"/>
-      <c r="C135" s="30"/>
-      <c r="D135" s="30"/>
-      <c r="E135" s="30"/>
-      <c r="F135" s="30"/>
-      <c r="G135" s="30"/>
-      <c r="H135" s="30"/>
-      <c r="I135" s="30"/>
-      <c r="J135" s="30"/>
-      <c r="K135" s="30"/>
-      <c r="L135" s="30"/>
-      <c r="M135" s="30"/>
-      <c r="N135" s="30"/>
-      <c r="O135" s="30"/>
-      <c r="P135" s="30"/>
-      <c r="Q135" s="30"/>
-      <c r="R135" s="30"/>
-      <c r="S135" s="30"/>
-      <c r="T135" s="30"/>
-      <c r="U135" s="30"/>
-      <c r="V135" s="30"/>
-      <c r="W135" s="30"/>
-      <c r="X135" s="30"/>
-      <c r="Y135" s="30"/>
-      <c r="Z135" s="30"/>
+      <c r="B135" s="52"/>
+      <c r="C135" s="31"/>
+      <c r="D135" s="31"/>
+      <c r="E135" s="31"/>
+      <c r="F135" s="31"/>
+      <c r="G135" s="31"/>
+      <c r="H135" s="31"/>
+      <c r="I135" s="31"/>
+      <c r="J135" s="31"/>
+      <c r="K135" s="31"/>
+      <c r="L135" s="31"/>
+      <c r="M135" s="31"/>
+      <c r="N135" s="31"/>
+      <c r="O135" s="31"/>
+      <c r="P135" s="31"/>
+      <c r="Q135" s="31"/>
+      <c r="R135" s="31"/>
+      <c r="S135" s="31"/>
+      <c r="T135" s="31"/>
+      <c r="U135" s="31"/>
+      <c r="V135" s="31"/>
+      <c r="W135" s="31"/>
+      <c r="X135" s="31"/>
+      <c r="Y135" s="31"/>
+      <c r="Z135" s="31"/>
     </row>
     <row r="136" customHeight="1" spans="1:26">
-      <c r="A136" s="51" t="s">
+      <c r="A136" s="52" t="s">
         <v>168</v>
       </c>
-      <c r="B136" s="51"/>
-      <c r="C136" s="30"/>
-      <c r="D136" s="30"/>
-      <c r="E136" s="30"/>
-      <c r="F136" s="30"/>
-      <c r="G136" s="30"/>
-      <c r="H136" s="30"/>
-      <c r="I136" s="30"/>
-      <c r="J136" s="30"/>
-      <c r="K136" s="30"/>
-      <c r="L136" s="30"/>
-      <c r="M136" s="30"/>
-      <c r="N136" s="30"/>
-      <c r="O136" s="30"/>
-      <c r="P136" s="30"/>
-      <c r="Q136" s="30"/>
-      <c r="R136" s="30"/>
-      <c r="S136" s="30"/>
-      <c r="T136" s="30"/>
-      <c r="U136" s="30"/>
-      <c r="V136" s="30"/>
-      <c r="W136" s="30"/>
-      <c r="X136" s="30"/>
-      <c r="Y136" s="30"/>
-      <c r="Z136" s="30"/>
+      <c r="B136" s="52"/>
+      <c r="C136" s="31"/>
+      <c r="D136" s="31"/>
+      <c r="E136" s="31"/>
+      <c r="F136" s="31"/>
+      <c r="G136" s="31"/>
+      <c r="H136" s="31"/>
+      <c r="I136" s="31"/>
+      <c r="J136" s="31"/>
+      <c r="K136" s="31"/>
+      <c r="L136" s="31"/>
+      <c r="M136" s="31"/>
+      <c r="N136" s="31"/>
+      <c r="O136" s="31"/>
+      <c r="P136" s="31"/>
+      <c r="Q136" s="31"/>
+      <c r="R136" s="31"/>
+      <c r="S136" s="31"/>
+      <c r="T136" s="31"/>
+      <c r="U136" s="31"/>
+      <c r="V136" s="31"/>
+      <c r="W136" s="31"/>
+      <c r="X136" s="31"/>
+      <c r="Y136" s="31"/>
+      <c r="Z136" s="31"/>
     </row>
     <row r="137" customHeight="1" spans="1:26">
-      <c r="A137" s="33" t="s">
+      <c r="A137" s="34" t="s">
         <v>169</v>
       </c>
-      <c r="B137" s="51"/>
-      <c r="C137" s="30"/>
-      <c r="D137" s="30"/>
-      <c r="E137" s="30"/>
-      <c r="F137" s="30"/>
-      <c r="G137" s="30"/>
-      <c r="H137" s="30"/>
-      <c r="I137" s="30"/>
-      <c r="J137" s="30"/>
-      <c r="K137" s="30"/>
-      <c r="L137" s="30"/>
-      <c r="M137" s="30"/>
-      <c r="N137" s="30"/>
-      <c r="O137" s="30"/>
-      <c r="P137" s="30"/>
-      <c r="Q137" s="30"/>
-      <c r="R137" s="30"/>
-      <c r="S137" s="30"/>
-      <c r="T137" s="30"/>
-      <c r="U137" s="30"/>
-      <c r="V137" s="30"/>
-      <c r="W137" s="30"/>
-      <c r="X137" s="30"/>
-      <c r="Y137" s="30"/>
-      <c r="Z137" s="30"/>
+      <c r="B137" s="52"/>
+      <c r="C137" s="31"/>
+      <c r="D137" s="31"/>
+      <c r="E137" s="31"/>
+      <c r="F137" s="31"/>
+      <c r="G137" s="31"/>
+      <c r="H137" s="31"/>
+      <c r="I137" s="31"/>
+      <c r="J137" s="31"/>
+      <c r="K137" s="31"/>
+      <c r="L137" s="31"/>
+      <c r="M137" s="31"/>
+      <c r="N137" s="31"/>
+      <c r="O137" s="31"/>
+      <c r="P137" s="31"/>
+      <c r="Q137" s="31"/>
+      <c r="R137" s="31"/>
+      <c r="S137" s="31"/>
+      <c r="T137" s="31"/>
+      <c r="U137" s="31"/>
+      <c r="V137" s="31"/>
+      <c r="W137" s="31"/>
+      <c r="X137" s="31"/>
+      <c r="Y137" s="31"/>
+      <c r="Z137" s="31"/>
     </row>
     <row r="138" customHeight="1" spans="1:26">
-      <c r="A138" s="51" t="s">
+      <c r="A138" s="52" t="s">
         <v>170</v>
       </c>
-      <c r="B138" s="51"/>
-      <c r="C138" s="30"/>
-      <c r="D138" s="30"/>
-      <c r="E138" s="30"/>
-      <c r="F138" s="30"/>
-      <c r="G138" s="30"/>
-      <c r="H138" s="30"/>
-      <c r="I138" s="30"/>
-      <c r="J138" s="30"/>
-      <c r="K138" s="30"/>
-      <c r="L138" s="30"/>
-      <c r="M138" s="30"/>
-      <c r="N138" s="30"/>
-      <c r="O138" s="30"/>
-      <c r="P138" s="30"/>
-      <c r="Q138" s="30"/>
-      <c r="R138" s="30"/>
-      <c r="S138" s="30"/>
-      <c r="T138" s="30"/>
-      <c r="U138" s="30"/>
-      <c r="V138" s="30"/>
-      <c r="W138" s="30"/>
-      <c r="X138" s="30"/>
-      <c r="Y138" s="30"/>
-      <c r="Z138" s="30"/>
+      <c r="B138" s="52"/>
+      <c r="C138" s="31"/>
+      <c r="D138" s="31"/>
+      <c r="E138" s="31"/>
+      <c r="F138" s="31"/>
+      <c r="G138" s="31"/>
+      <c r="H138" s="31"/>
+      <c r="I138" s="31"/>
+      <c r="J138" s="31"/>
+      <c r="K138" s="31"/>
+      <c r="L138" s="31"/>
+      <c r="M138" s="31"/>
+      <c r="N138" s="31"/>
+      <c r="O138" s="31"/>
+      <c r="P138" s="31"/>
+      <c r="Q138" s="31"/>
+      <c r="R138" s="31"/>
+      <c r="S138" s="31"/>
+      <c r="T138" s="31"/>
+      <c r="U138" s="31"/>
+      <c r="V138" s="31"/>
+      <c r="W138" s="31"/>
+      <c r="X138" s="31"/>
+      <c r="Y138" s="31"/>
+      <c r="Z138" s="31"/>
     </row>
     <row r="139" customHeight="1" spans="1:26">
-      <c r="A139" s="51" t="s">
+      <c r="A139" s="52" t="s">
         <v>171</v>
       </c>
-      <c r="B139" s="51"/>
-      <c r="C139" s="30"/>
-      <c r="D139" s="30"/>
-      <c r="E139" s="30"/>
-      <c r="F139" s="30"/>
-      <c r="G139" s="30"/>
-      <c r="H139" s="30"/>
-      <c r="I139" s="30"/>
-      <c r="J139" s="30"/>
-      <c r="K139" s="30"/>
-      <c r="L139" s="30"/>
-      <c r="M139" s="30"/>
-      <c r="N139" s="30"/>
-      <c r="O139" s="30"/>
-      <c r="P139" s="30"/>
-      <c r="Q139" s="30"/>
-      <c r="R139" s="30"/>
-      <c r="S139" s="30"/>
-      <c r="T139" s="30"/>
-      <c r="U139" s="30"/>
-      <c r="V139" s="30"/>
-      <c r="W139" s="30"/>
-      <c r="X139" s="30"/>
-      <c r="Y139" s="30"/>
-      <c r="Z139" s="30"/>
+      <c r="B139" s="52"/>
+      <c r="C139" s="31"/>
+      <c r="D139" s="31"/>
+      <c r="E139" s="31"/>
+      <c r="F139" s="31"/>
+      <c r="G139" s="31"/>
+      <c r="H139" s="31"/>
+      <c r="I139" s="31"/>
+      <c r="J139" s="31"/>
+      <c r="K139" s="31"/>
+      <c r="L139" s="31"/>
+      <c r="M139" s="31"/>
+      <c r="N139" s="31"/>
+      <c r="O139" s="31"/>
+      <c r="P139" s="31"/>
+      <c r="Q139" s="31"/>
+      <c r="R139" s="31"/>
+      <c r="S139" s="31"/>
+      <c r="T139" s="31"/>
+      <c r="U139" s="31"/>
+      <c r="V139" s="31"/>
+      <c r="W139" s="31"/>
+      <c r="X139" s="31"/>
+      <c r="Y139" s="31"/>
+      <c r="Z139" s="31"/>
     </row>
     <row r="140" customHeight="1" spans="1:26">
-      <c r="A140" s="51" t="s">
+      <c r="A140" s="52" t="s">
         <v>172</v>
       </c>
-      <c r="B140" s="51"/>
-      <c r="C140" s="30"/>
-      <c r="D140" s="30"/>
-      <c r="E140" s="30"/>
-      <c r="F140" s="30"/>
-      <c r="G140" s="30"/>
-      <c r="H140" s="30"/>
-      <c r="I140" s="30"/>
-      <c r="J140" s="30"/>
-      <c r="K140" s="30"/>
-      <c r="L140" s="30"/>
-      <c r="M140" s="30"/>
-      <c r="N140" s="30"/>
-      <c r="O140" s="30"/>
-      <c r="P140" s="30"/>
-      <c r="Q140" s="30"/>
-      <c r="R140" s="30"/>
-      <c r="S140" s="30"/>
-      <c r="T140" s="30"/>
-      <c r="U140" s="30"/>
-      <c r="V140" s="30"/>
-      <c r="W140" s="30"/>
-      <c r="X140" s="30"/>
-      <c r="Y140" s="30"/>
-      <c r="Z140" s="30"/>
+      <c r="B140" s="52"/>
+      <c r="C140" s="31"/>
+      <c r="D140" s="31"/>
+      <c r="E140" s="31"/>
+      <c r="F140" s="31"/>
+      <c r="G140" s="31"/>
+      <c r="H140" s="31"/>
+      <c r="I140" s="31"/>
+      <c r="J140" s="31"/>
+      <c r="K140" s="31"/>
+      <c r="L140" s="31"/>
+      <c r="M140" s="31"/>
+      <c r="N140" s="31"/>
+      <c r="O140" s="31"/>
+      <c r="P140" s="31"/>
+      <c r="Q140" s="31"/>
+      <c r="R140" s="31"/>
+      <c r="S140" s="31"/>
+      <c r="T140" s="31"/>
+      <c r="U140" s="31"/>
+      <c r="V140" s="31"/>
+      <c r="W140" s="31"/>
+      <c r="X140" s="31"/>
+      <c r="Y140" s="31"/>
+      <c r="Z140" s="31"/>
     </row>
     <row r="141" customHeight="1" spans="1:26">
-      <c r="A141" s="51" t="s">
+      <c r="A141" s="52" t="s">
         <v>173</v>
       </c>
-      <c r="B141" s="51"/>
-      <c r="C141" s="30"/>
-      <c r="D141" s="30"/>
-      <c r="E141" s="30"/>
-      <c r="F141" s="30"/>
-      <c r="G141" s="30"/>
-      <c r="H141" s="30"/>
-      <c r="I141" s="30"/>
-      <c r="J141" s="30"/>
-      <c r="K141" s="30"/>
-      <c r="L141" s="30"/>
-      <c r="M141" s="30"/>
-      <c r="N141" s="30"/>
-      <c r="O141" s="30"/>
-      <c r="P141" s="30"/>
-      <c r="Q141" s="30"/>
-      <c r="R141" s="30"/>
-      <c r="S141" s="30"/>
-      <c r="T141" s="30"/>
-      <c r="U141" s="30"/>
-      <c r="V141" s="30"/>
-      <c r="W141" s="30"/>
-      <c r="X141" s="30"/>
-      <c r="Y141" s="30"/>
-      <c r="Z141" s="30"/>
+      <c r="B141" s="52"/>
+      <c r="C141" s="31"/>
+      <c r="D141" s="31"/>
+      <c r="E141" s="31"/>
+      <c r="F141" s="31"/>
+      <c r="G141" s="31"/>
+      <c r="H141" s="31"/>
+      <c r="I141" s="31"/>
+      <c r="J141" s="31"/>
+      <c r="K141" s="31"/>
+      <c r="L141" s="31"/>
+      <c r="M141" s="31"/>
+      <c r="N141" s="31"/>
+      <c r="O141" s="31"/>
+      <c r="P141" s="31"/>
+      <c r="Q141" s="31"/>
+      <c r="R141" s="31"/>
+      <c r="S141" s="31"/>
+      <c r="T141" s="31"/>
+      <c r="U141" s="31"/>
+      <c r="V141" s="31"/>
+      <c r="W141" s="31"/>
+      <c r="X141" s="31"/>
+      <c r="Y141" s="31"/>
+      <c r="Z141" s="31"/>
     </row>
     <row r="142" customHeight="1" spans="1:26">
-      <c r="A142" s="51" t="s">
+      <c r="A142" s="52" t="s">
         <v>174</v>
       </c>
-      <c r="B142" s="52"/>
-      <c r="C142" s="30"/>
-      <c r="D142" s="30"/>
-      <c r="E142" s="30"/>
-      <c r="F142" s="30"/>
-      <c r="G142" s="30"/>
-      <c r="H142" s="30"/>
+      <c r="B142" s="53"/>
+      <c r="C142" s="31"/>
+      <c r="D142" s="31"/>
+      <c r="E142" s="31"/>
+      <c r="F142" s="31"/>
+      <c r="G142" s="31"/>
+      <c r="H142" s="31"/>
       <c r="I142" s="21"/>
       <c r="J142" s="21"/>
       <c r="K142" s="21"/>
@@ -7955,34 +7956,34 @@
       <c r="Z142" s="21"/>
     </row>
     <row r="143" customHeight="1" spans="1:26">
-      <c r="A143" s="51" t="s">
+      <c r="A143" s="52" t="s">
         <v>175</v>
       </c>
-      <c r="B143" s="30"/>
-      <c r="C143" s="30"/>
-      <c r="D143" s="30"/>
-      <c r="E143" s="30"/>
-      <c r="F143" s="30"/>
-      <c r="G143" s="30"/>
-      <c r="H143" s="30"/>
-      <c r="I143" s="30"/>
-      <c r="J143" s="30"/>
-      <c r="K143" s="30"/>
-      <c r="L143" s="30"/>
-      <c r="M143" s="30"/>
-      <c r="N143" s="30"/>
-      <c r="O143" s="30"/>
-      <c r="P143" s="30"/>
-      <c r="Q143" s="30"/>
-      <c r="R143" s="30"/>
-      <c r="S143" s="30"/>
-      <c r="T143" s="30"/>
-      <c r="U143" s="30"/>
-      <c r="V143" s="30"/>
-      <c r="W143" s="30"/>
-      <c r="X143" s="30"/>
-      <c r="Y143" s="30"/>
-      <c r="Z143" s="30"/>
+      <c r="B143" s="31"/>
+      <c r="C143" s="31"/>
+      <c r="D143" s="31"/>
+      <c r="E143" s="31"/>
+      <c r="F143" s="31"/>
+      <c r="G143" s="31"/>
+      <c r="H143" s="31"/>
+      <c r="I143" s="31"/>
+      <c r="J143" s="31"/>
+      <c r="K143" s="31"/>
+      <c r="L143" s="31"/>
+      <c r="M143" s="31"/>
+      <c r="N143" s="31"/>
+      <c r="O143" s="31"/>
+      <c r="P143" s="31"/>
+      <c r="Q143" s="31"/>
+      <c r="R143" s="31"/>
+      <c r="S143" s="31"/>
+      <c r="T143" s="31"/>
+      <c r="U143" s="31"/>
+      <c r="V143" s="31"/>
+      <c r="W143" s="31"/>
+      <c r="X143" s="31"/>
+      <c r="Y143" s="31"/>
+      <c r="Z143" s="31"/>
     </row>
     <row r="144" customHeight="1" spans="1:26">
       <c r="A144" s="19" t="s">
@@ -8049,10 +8050,10 @@
         <f>HYPERLINK("https://www.geeksforgeeks.org/next-greater-element/","Next Greater Element on right")</f>
         <v>Next Greater Element on right</v>
       </c>
-      <c r="B146" s="35" t="s">
+      <c r="B146" s="36" t="s">
         <v>178</v>
       </c>
-      <c r="C146" s="35"/>
+      <c r="C146" s="36"/>
       <c r="D146" s="21"/>
       <c r="E146" s="21"/>
       <c r="F146" s="21"/>
@@ -8082,10 +8083,10 @@
         <f>HYPERLINK("https://leetcode.com/problems/next-greater-element-ii/","Next Greater Element 2")</f>
         <v>Next Greater Element 2</v>
       </c>
-      <c r="B147" s="35" t="s">
+      <c r="B147" s="36" t="s">
         <v>179</v>
       </c>
-      <c r="C147" s="35"/>
+      <c r="C147" s="36"/>
       <c r="D147" s="21"/>
       <c r="E147" s="21"/>
       <c r="F147" s="21"/>
@@ -8115,10 +8116,10 @@
         <f>HYPERLINK("https://leetcode.com/problems/daily-temperatures/","Daily Temperatures")</f>
         <v>Daily Temperatures</v>
       </c>
-      <c r="B148" s="35" t="s">
+      <c r="B148" s="36" t="s">
         <v>180</v>
       </c>
-      <c r="C148" s="35"/>
+      <c r="C148" s="36"/>
       <c r="D148" s="21"/>
       <c r="E148" s="21"/>
       <c r="F148" s="21"/>
@@ -8148,10 +8149,10 @@
         <f>HYPERLINK("https://www.geeksforgeeks.org/the-stock-span-problem/","Stock Span Problem")</f>
         <v>Stock Span Problem</v>
       </c>
-      <c r="B149" s="35" t="s">
+      <c r="B149" s="36" t="s">
         <v>181</v>
       </c>
-      <c r="C149" s="35"/>
+      <c r="C149" s="36"/>
       <c r="D149" s="21"/>
       <c r="E149" s="21"/>
       <c r="F149" s="21"/>
@@ -8181,10 +8182,10 @@
         <f>HYPERLINK("https://www.geeksforgeeks.org/find-maximum-difference-between-nearest-left-and-right-smaller-elements/","maximum difference between left and right smaller")</f>
         <v>maximum difference between left and right smaller</v>
       </c>
-      <c r="B150" s="35" t="s">
+      <c r="B150" s="36" t="s">
         <v>182</v>
       </c>
-      <c r="C150" s="35"/>
+      <c r="C150" s="36"/>
       <c r="D150" s="21"/>
       <c r="E150" s="21"/>
       <c r="F150" s="21"/>
@@ -8214,10 +8215,10 @@
         <f>HYPERLINK("https://leetcode.com/problems/largest-rectangle-in-histogram/","Largest Rectangular Area Histogram")</f>
         <v>Largest Rectangular Area Histogram</v>
       </c>
-      <c r="B151" s="35" t="s">
+      <c r="B151" s="36" t="s">
         <v>183</v>
       </c>
-      <c r="C151" s="35"/>
+      <c r="C151" s="36"/>
       <c r="D151" s="21"/>
       <c r="E151" s="21"/>
       <c r="F151" s="21"/>
@@ -8247,10 +8248,10 @@
         <f>HYPERLINK("https://leetcode.com/problems/maximal-rectangle/","maximu size binary matrix containing 1")</f>
         <v>maximu size binary matrix containing 1</v>
       </c>
-      <c r="B152" s="35" t="s">
+      <c r="B152" s="36" t="s">
         <v>184</v>
       </c>
-      <c r="C152" s="35"/>
+      <c r="C152" s="36"/>
       <c r="D152" s="21"/>
       <c r="E152" s="21"/>
       <c r="F152" s="21"/>
@@ -8280,10 +8281,10 @@
         <f>HYPERLINK("https://leetcode.com/problems/asteroid-collision/","Asteroid Collision")</f>
         <v>Asteroid Collision</v>
       </c>
-      <c r="B153" s="35" t="s">
+      <c r="B153" s="36" t="s">
         <v>185</v>
       </c>
-      <c r="C153" s="35"/>
+      <c r="C153" s="36"/>
       <c r="D153" s="21"/>
       <c r="E153" s="21"/>
       <c r="F153" s="21"/>
@@ -8343,10 +8344,10 @@
         <f>HYPERLINK("https://leetcode.com/problems/valid-parentheses/","Valid Parentheses")</f>
         <v>Valid Parentheses</v>
       </c>
-      <c r="B155" s="35" t="s">
+      <c r="B155" s="36" t="s">
         <v>187</v>
       </c>
-      <c r="C155" s="35"/>
+      <c r="C155" s="36"/>
       <c r="D155" s="21"/>
       <c r="E155" s="21"/>
       <c r="F155" s="21"/>
@@ -8376,10 +8377,10 @@
         <f>HYPERLINK("https://www.geeksforgeeks.org/length-of-the-longest-valid-substring/","Length of longest valid substring")</f>
         <v>Length of longest valid substring</v>
       </c>
-      <c r="B156" s="35" t="s">
+      <c r="B156" s="36" t="s">
         <v>188</v>
       </c>
-      <c r="C156" s="35"/>
+      <c r="C156" s="36"/>
       <c r="D156" s="21"/>
       <c r="E156" s="21"/>
       <c r="F156" s="21"/>
@@ -8409,7 +8410,7 @@
         <f>HYPERLINK("https://www.geeksforgeeks.org/find-expression-duplicate-parenthesis-not/","Count of duplicate Parentheses")</f>
         <v>Count of duplicate Parentheses</v>
       </c>
-      <c r="B157" s="35" t="s">
+      <c r="B157" s="36" t="s">
         <v>189</v>
       </c>
       <c r="C157" s="21"/>
@@ -8442,10 +8443,10 @@
         <f>HYPERLINK("https://www.geeksforgeeks.org/minimum-number-of-bracket-reversals-needed-to-make-an-expression-balanced/","Minimum Number of bracket reversal")</f>
         <v>Minimum Number of bracket reversal</v>
       </c>
-      <c r="B158" s="35" t="s">
+      <c r="B158" s="36" t="s">
         <v>190</v>
       </c>
-      <c r="C158" s="35"/>
+      <c r="C158" s="36"/>
       <c r="D158" s="21"/>
       <c r="E158" s="21"/>
       <c r="F158" s="21"/>
@@ -8475,7 +8476,7 @@
         <f>HYPERLINK("https://leetcode.com/problems/minimum-add-to-make-parentheses-valid/","Minimum Add To make Parentheses Valid")</f>
         <v>Minimum Add To make Parentheses Valid</v>
       </c>
-      <c r="B159" s="35" t="s">
+      <c r="B159" s="36" t="s">
         <v>191</v>
       </c>
       <c r="C159" s="21"/>
@@ -8508,10 +8509,10 @@
         <f>HYPERLINK("https://leetcode.com/problems/remove-k-digits/","Remove K digits From number")</f>
         <v>Remove K digits From number</v>
       </c>
-      <c r="B160" s="35" t="s">
+      <c r="B160" s="36" t="s">
         <v>192</v>
       </c>
-      <c r="C160" s="35"/>
+      <c r="C160" s="36"/>
       <c r="D160" s="21"/>
       <c r="E160" s="21"/>
       <c r="F160" s="21"/>
@@ -8537,11 +8538,11 @@
       <c r="Z160" s="21"/>
     </row>
     <row r="161" customHeight="1" spans="1:26">
-      <c r="A161" s="35" t="s">
+      <c r="A161" s="36" t="s">
         <v>193</v>
       </c>
-      <c r="B161" s="35"/>
-      <c r="C161" s="35"/>
+      <c r="B161" s="36"/>
+      <c r="C161" s="36"/>
       <c r="D161" s="21"/>
       <c r="E161" s="21"/>
       <c r="F161" s="21"/>
@@ -8571,10 +8572,10 @@
         <f>HYPERLINK("https://www.geeksforgeeks.org/first-negative-integer-every-window-size-k/","First negative Integer in k sized window")</f>
         <v>First negative Integer in k sized window</v>
       </c>
-      <c r="B162" s="35" t="s">
+      <c r="B162" s="36" t="s">
         <v>194</v>
       </c>
-      <c r="C162" s="35"/>
+      <c r="C162" s="36"/>
       <c r="D162" s="21"/>
       <c r="E162" s="21"/>
       <c r="F162" s="21"/>
@@ -8637,7 +8638,7 @@
         <f>HYPERLINK("https://www.geeksforgeeks.org/reversing-first-k-elements-queue/","K reverse in a queue")</f>
         <v>K reverse in a queue</v>
       </c>
-      <c r="B164" s="37" t="s">
+      <c r="B164" s="38" t="s">
         <v>196</v>
       </c>
       <c r="C164" s="21"/>
@@ -8826,10 +8827,10 @@
         <f>HYPERLINK("https://www.geeksforgeeks.org/interesting-method-generate-binary-numbers-1-n/","Print Binary Number")</f>
         <v>Print Binary Number</v>
       </c>
-      <c r="B170" s="35" t="s">
+      <c r="B170" s="36" t="s">
         <v>202</v>
       </c>
-      <c r="C170" s="35"/>
+      <c r="C170" s="36"/>
       <c r="D170" s="21"/>
       <c r="E170" s="21"/>
       <c r="F170" s="21"/>
@@ -8861,7 +8862,7 @@
       <c r="B171" s="21" t="s">
         <v>204</v>
       </c>
-      <c r="C171" s="35"/>
+      <c r="C171" s="36"/>
       <c r="D171" s="21"/>
       <c r="E171" s="21"/>
       <c r="F171" s="21"/>
@@ -8891,10 +8892,10 @@
         <f>HYPERLINK("https://leetcode.com/problems/backspace-string-compare/","Backspace String Compare")</f>
         <v>Backspace String Compare</v>
       </c>
-      <c r="B172" s="35" t="s">
+      <c r="B172" s="36" t="s">
         <v>205</v>
       </c>
-      <c r="C172" s="35"/>
+      <c r="C172" s="36"/>
       <c r="D172" s="21"/>
       <c r="E172" s="21"/>
       <c r="F172" s="21"/>
@@ -8924,10 +8925,10 @@
         <f>HYPERLINK("https://leetcode.com/problems/car-fleet/","Car fleet")</f>
         <v>Car fleet</v>
       </c>
-      <c r="B173" s="35" t="s">
+      <c r="B173" s="36" t="s">
         <v>206</v>
       </c>
-      <c r="C173" s="35"/>
+      <c r="C173" s="36"/>
       <c r="D173" s="21"/>
       <c r="E173" s="21"/>
       <c r="F173" s="21"/>
@@ -9016,7 +9017,7 @@
       <c r="Z175" s="21"/>
     </row>
     <row r="176" customHeight="1" spans="1:26">
-      <c r="A176" s="38" t="str">
+      <c r="A176" s="39" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/maximum-frequency-stack/","max frequency stack")</f>
         <v>max frequency stack</v>
       </c>
@@ -9049,7 +9050,7 @@
       <c r="Z176" s="21"/>
     </row>
     <row r="177" customHeight="1" spans="1:26">
-      <c r="A177" s="38" t="str">
+      <c r="A177" s="39" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/min-stack/","Min Stack")</f>
         <v>Min Stack</v>
       </c>
@@ -9142,7 +9143,7 @@
       <c r="Z179" s="21"/>
     </row>
     <row r="180" customHeight="1" spans="1:26">
-      <c r="A180" s="53" t="s">
+      <c r="A180" s="54" t="s">
         <v>10</v>
       </c>
       <c r="B180" s="1"/>
@@ -9334,7 +9335,7 @@
       <c r="Z185" s="21"/>
     </row>
     <row r="186" customHeight="1" spans="1:26">
-      <c r="A186" s="54" t="str">
+      <c r="A186" s="55" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/binary-search-tree-to-greater-sum-tree/","Binary search tree to greater sum")</f>
         <v>Binary search tree to greater sum</v>
       </c>
@@ -9367,7 +9368,7 @@
       <c r="Z186" s="21"/>
     </row>
     <row r="187" customHeight="1" spans="1:26">
-      <c r="A187" s="54" t="s">
+      <c r="A187" s="55" t="s">
         <v>219</v>
       </c>
       <c r="B187" s="21" t="s">
@@ -9399,7 +9400,7 @@
       <c r="Z187" s="21"/>
     </row>
     <row r="188" customHeight="1" spans="1:26">
-      <c r="A188" s="54" t="s">
+      <c r="A188" s="55" t="s">
         <v>220</v>
       </c>
       <c r="B188" s="21" t="s">
@@ -9431,7 +9432,7 @@
       <c r="Z188" s="21"/>
     </row>
     <row r="189" customHeight="1" spans="1:26">
-      <c r="A189" s="33" t="s">
+      <c r="A189" s="34" t="s">
         <v>222</v>
       </c>
       <c r="B189" s="21"/>
@@ -9755,7 +9756,7 @@
       <c r="Z198" s="21"/>
     </row>
     <row r="199" customHeight="1" spans="1:26">
-      <c r="A199" s="33" t="s">
+      <c r="A199" s="34" t="s">
         <v>234</v>
       </c>
       <c r="B199" s="21"/>
@@ -9789,10 +9790,10 @@
         <f>HYPERLINK("https://practice.geeksforgeeks.org/problems/image-multiplication/0","image multiplication")</f>
         <v>image multiplication</v>
       </c>
-      <c r="B200" s="35" t="s">
+      <c r="B200" s="36" t="s">
         <v>235</v>
       </c>
-      <c r="C200" s="35"/>
+      <c r="C200" s="36"/>
       <c r="D200" s="21"/>
       <c r="E200" s="21"/>
       <c r="F200" s="21"/>
@@ -9978,14 +9979,14 @@
       <c r="Z205" s="21"/>
     </row>
     <row r="206" customHeight="1" spans="1:26">
-      <c r="A206" s="54" t="str">
+      <c r="A206" s="55" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/distribute-coins-in-binary-tree/","Distribute coins in a binary tree")</f>
         <v>Distribute coins in a binary tree</v>
       </c>
-      <c r="B206" s="35" t="s">
+      <c r="B206" s="36" t="s">
         <v>242</v>
       </c>
-      <c r="C206" s="35"/>
+      <c r="C206" s="36"/>
       <c r="D206" s="21"/>
       <c r="E206" s="21"/>
       <c r="F206" s="21"/>
@@ -10011,7 +10012,7 @@
       <c r="Z206" s="21"/>
     </row>
     <row r="207" customHeight="1" spans="1:26">
-      <c r="A207" s="54" t="str">
+      <c r="A207" s="55" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/binary-tree-cameras/","Binary Tree Cameras")</f>
         <v>Binary Tree Cameras</v>
       </c>
@@ -10139,7 +10140,7 @@
       <c r="Z210" s="21"/>
     </row>
     <row r="211" customHeight="1" spans="1:26">
-      <c r="A211" s="54" t="str">
+      <c r="A211" s="55" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/convert-a-binary-tree-to-a-circular-doubly-link-list/","Convert a binary tree to circular doubly linked list")</f>
         <v>Convert a binary tree to circular doubly linked list</v>
       </c>
@@ -10172,7 +10173,7 @@
       <c r="Z211" s="21"/>
     </row>
     <row r="212" customHeight="1" spans="1:26">
-      <c r="A212" s="55" t="s">
+      <c r="A212" s="56" t="s">
         <v>249</v>
       </c>
       <c r="B212" s="21"/>
@@ -10272,10 +10273,10 @@
         <f>HYPERLINK("https://www.geeksforgeeks.org/clone-binary-tree-random-pointers/","clone a binary tree with random pointer")</f>
         <v>clone a binary tree with random pointer</v>
       </c>
-      <c r="B215" s="35" t="s">
+      <c r="B215" s="36" t="s">
         <v>252</v>
       </c>
-      <c r="C215" s="35"/>
+      <c r="C215" s="36"/>
       <c r="D215" s="21"/>
       <c r="E215" s="21"/>
       <c r="F215" s="21"/>
@@ -10304,8 +10305,8 @@
       <c r="A216" s="26" t="s">
         <v>253</v>
       </c>
-      <c r="B216" s="35"/>
-      <c r="C216" s="35"/>
+      <c r="B216" s="36"/>
+      <c r="C216" s="36"/>
       <c r="D216" s="21"/>
       <c r="E216" s="21"/>
       <c r="F216" s="21"/>
@@ -10335,7 +10336,7 @@
         <f>HYPERLINK("https://leetcode.com/problems/construct-binary-tree-from-preorder-and-inorder-traversal/","Construct from inorder and preorder")</f>
         <v>Construct from inorder and preorder</v>
       </c>
-      <c r="B217" s="35" t="s">
+      <c r="B217" s="36" t="s">
         <v>254</v>
       </c>
       <c r="C217" s="21"/>
@@ -10368,10 +10369,10 @@
         <f>HYPERLINK("https://leetcode.com/problems/construct-binary-tree-from-inorder-and-postorder-traversal/","Construct from inorder and postorder")</f>
         <v>Construct from inorder and postorder</v>
       </c>
-      <c r="B218" s="35" t="s">
+      <c r="B218" s="36" t="s">
         <v>255</v>
       </c>
-      <c r="C218" s="35"/>
+      <c r="C218" s="36"/>
       <c r="D218" s="21"/>
       <c r="E218" s="21"/>
       <c r="F218" s="21"/>
@@ -10400,8 +10401,8 @@
       <c r="A219" s="20" t="s">
         <v>256</v>
       </c>
-      <c r="B219" s="35"/>
-      <c r="C219" s="35"/>
+      <c r="B219" s="36"/>
+      <c r="C219" s="36"/>
       <c r="D219" s="21"/>
       <c r="E219" s="21"/>
       <c r="F219" s="21"/>
@@ -10431,10 +10432,10 @@
         <f>HYPERLINK("https://www.geeksforgeeks.org/construct-tree-inorder-level-order-traversals/","Inorder and level order")</f>
         <v>Inorder and level order</v>
       </c>
-      <c r="B220" s="35" t="s">
+      <c r="B220" s="36" t="s">
         <v>257</v>
       </c>
-      <c r="C220" s="35"/>
+      <c r="C220" s="36"/>
       <c r="D220" s="21"/>
       <c r="E220" s="21"/>
       <c r="F220" s="21"/>
@@ -10559,7 +10560,7 @@
       <c r="A224" s="26" t="s">
         <v>263</v>
       </c>
-      <c r="B224" s="37" t="s">
+      <c r="B224" s="38" t="s">
         <v>264</v>
       </c>
       <c r="C224" s="21"/>
@@ -10588,14 +10589,14 @@
       <c r="Z224" s="21"/>
     </row>
     <row r="225" customHeight="1" spans="1:26">
-      <c r="A225" s="56" t="str">
+      <c r="A225" s="57" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/serialize-and-deserialize-binary-tree/","serialize and deserialise")</f>
         <v>serialize and deserialise</v>
       </c>
-      <c r="B225" s="35" t="s">
+      <c r="B225" s="36" t="s">
         <v>265</v>
       </c>
-      <c r="C225" s="35"/>
+      <c r="C225" s="36"/>
       <c r="D225" s="21"/>
       <c r="E225" s="21"/>
       <c r="F225" s="21"/>
@@ -10621,7 +10622,7 @@
       <c r="Z225" s="21"/>
     </row>
     <row r="226" customHeight="1" spans="1:26">
-      <c r="A226" s="56" t="s">
+      <c r="A226" s="57" t="s">
         <v>266</v>
       </c>
       <c r="B226" s="21" t="s">
@@ -10685,7 +10686,7 @@
       <c r="Z227" s="21"/>
     </row>
     <row r="228" customHeight="1" spans="1:26">
-      <c r="A228" s="33" t="s">
+      <c r="A228" s="34" t="s">
         <v>269</v>
       </c>
       <c r="B228" s="21"/>
@@ -10843,7 +10844,7 @@
       <c r="Z232" s="21"/>
     </row>
     <row r="233" customHeight="1" spans="1:26">
-      <c r="A233" s="57" t="s">
+      <c r="A233" s="58" t="s">
         <v>277</v>
       </c>
       <c r="B233" s="21"/>
@@ -10903,7 +10904,7 @@
       <c r="Z234" s="21"/>
     </row>
     <row r="235" customHeight="1" spans="1:26">
-      <c r="A235" s="53" t="s">
+      <c r="A235" s="54" t="s">
         <v>279</v>
       </c>
       <c r="B235" s="1"/>
@@ -10966,7 +10967,7 @@
       <c r="A237" s="24" t="s">
         <v>281</v>
       </c>
-      <c r="B237" s="25" t="s">
+      <c r="B237" s="27" t="s">
         <v>282</v>
       </c>
       <c r="C237" s="21"/>
@@ -11059,7 +11060,7 @@
       <c r="Z239" s="21"/>
     </row>
     <row r="240" customHeight="1" spans="1:26">
-      <c r="A240" s="58" t="str">
+      <c r="A240" s="59" t="str">
         <f>HYPERLINK("https://www.spoj.com/problems/MST/","Prim's Algo")</f>
         <v>Prim's Algo</v>
       </c>
@@ -11092,7 +11093,7 @@
       <c r="Z240" s="21"/>
     </row>
     <row r="241" customHeight="1" spans="1:26">
-      <c r="A241" s="54" t="s">
+      <c r="A241" s="55" t="s">
         <v>285</v>
       </c>
       <c r="B241" s="21" t="s">
@@ -11285,7 +11286,7 @@
       <c r="Z246" s="21"/>
     </row>
     <row r="247" customHeight="1" spans="1:26">
-      <c r="A247" s="57" t="str">
+      <c r="A247" s="58" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/evaluate-division/","evaluate division")</f>
         <v>evaluate division</v>
       </c>
@@ -11349,7 +11350,7 @@
       <c r="A249" s="24" t="s">
         <v>294</v>
       </c>
-      <c r="B249" s="25" t="s">
+      <c r="B249" s="27" t="s">
         <v>295</v>
       </c>
       <c r="C249" s="21"/>
@@ -11381,7 +11382,7 @@
       <c r="A250" s="24" t="s">
         <v>296</v>
       </c>
-      <c r="B250" s="25" t="s">
+      <c r="B250" s="27" t="s">
         <v>297</v>
       </c>
       <c r="C250" s="21"/>
@@ -11414,10 +11415,10 @@
         <f>HYPERLINK("https://leetcode.com/problems/01-matrix/","0-1 matrix")</f>
         <v>0-1 matrix</v>
       </c>
-      <c r="B251" s="25" t="s">
+      <c r="B251" s="27" t="s">
         <v>298</v>
       </c>
-      <c r="C251" s="25"/>
+      <c r="C251" s="27"/>
       <c r="D251" s="21"/>
       <c r="E251" s="21"/>
       <c r="F251" s="21"/>
@@ -11446,10 +11447,10 @@
       <c r="A252" s="24" t="s">
         <v>299</v>
       </c>
-      <c r="B252" s="25" t="s">
+      <c r="B252" s="27" t="s">
         <v>300</v>
       </c>
-      <c r="C252" s="25"/>
+      <c r="C252" s="27"/>
       <c r="D252" s="21"/>
       <c r="E252" s="21"/>
       <c r="F252" s="21"/>
@@ -11507,7 +11508,7 @@
       <c r="Z253" s="21"/>
     </row>
     <row r="254" customHeight="1" spans="1:26">
-      <c r="A254" s="33" t="s">
+      <c r="A254" s="34" t="s">
         <v>303</v>
       </c>
       <c r="B254" s="21"/>
@@ -11600,13 +11601,13 @@
       <c r="Z256" s="21"/>
     </row>
     <row r="257" customHeight="1" spans="1:26">
-      <c r="A257" s="28" t="s">
+      <c r="A257" s="29" t="s">
         <v>306</v>
       </c>
-      <c r="B257" s="29" t="s">
+      <c r="B257" s="30" t="s">
         <v>306</v>
       </c>
-      <c r="C257" s="30"/>
+      <c r="C257" s="31"/>
       <c r="D257" s="21"/>
       <c r="E257" s="21"/>
       <c r="F257" s="21"/>
@@ -11728,10 +11729,10 @@
       <c r="A261" s="24" t="s">
         <v>310</v>
       </c>
-      <c r="B261" s="25" t="s">
+      <c r="B261" s="27" t="s">
         <v>311</v>
       </c>
-      <c r="C261" s="25"/>
+      <c r="C261" s="27"/>
       <c r="D261" s="21"/>
       <c r="E261" s="21"/>
       <c r="F261" s="21"/>
@@ -11760,10 +11761,10 @@
       <c r="A262" s="24" t="s">
         <v>312</v>
       </c>
-      <c r="B262" s="25" t="s">
+      <c r="B262" s="27" t="s">
         <v>313</v>
       </c>
-      <c r="C262" s="25"/>
+      <c r="C262" s="27"/>
       <c r="D262" s="21"/>
       <c r="E262" s="21"/>
       <c r="F262" s="21"/>
@@ -11789,7 +11790,7 @@
       <c r="Z262" s="21"/>
     </row>
     <row r="263" customHeight="1" spans="1:26">
-      <c r="A263" s="58" t="str">
+      <c r="A263" s="59" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/topological-sorting/","topological sorting")</f>
         <v>topological sorting</v>
       </c>
@@ -11822,7 +11823,7 @@
       <c r="Z263" s="21"/>
     </row>
     <row r="264" customHeight="1" spans="1:26">
-      <c r="A264" s="58" t="str">
+      <c r="A264" s="59" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/topological-sorting-indegree-based-solution/","Kahn's algo")</f>
         <v>Kahn's algo</v>
       </c>
@@ -11892,7 +11893,7 @@
         <f>HYPERLINK("https://www.geeksforgeeks.org/articulation-points-or-cut-vertices-in-a-graph/","Articulation point")</f>
         <v>Articulation point</v>
       </c>
-      <c r="B266" s="25" t="s">
+      <c r="B266" s="27" t="s">
         <v>317</v>
       </c>
       <c r="C266" s="21"/>
@@ -11921,13 +11922,13 @@
       <c r="Z266" s="21"/>
     </row>
     <row r="267" customHeight="1" spans="1:26">
-      <c r="A267" s="27" t="s">
+      <c r="A267" s="28" t="s">
         <v>318</v>
       </c>
-      <c r="B267" s="35" t="s">
+      <c r="B267" s="36" t="s">
         <v>319</v>
       </c>
-      <c r="C267" s="35"/>
+      <c r="C267" s="36"/>
       <c r="D267" s="21"/>
       <c r="E267" s="21"/>
       <c r="F267" s="21"/>
@@ -11953,10 +11954,10 @@
       <c r="Z267" s="21"/>
     </row>
     <row r="268" customHeight="1" spans="1:26">
-      <c r="A268" s="27" t="s">
+      <c r="A268" s="28" t="s">
         <v>320</v>
       </c>
-      <c r="B268" s="25" t="s">
+      <c r="B268" s="27" t="s">
         <v>321</v>
       </c>
       <c r="C268" s="21"/>
@@ -11988,7 +11989,7 @@
       <c r="A269" s="24" t="s">
         <v>322</v>
       </c>
-      <c r="B269" s="25" t="s">
+      <c r="B269" s="27" t="s">
         <v>323</v>
       </c>
       <c r="C269" s="21"/>
@@ -12017,11 +12018,11 @@
       <c r="Z269" s="21"/>
     </row>
     <row r="270" customHeight="1" spans="1:26">
-      <c r="A270" s="33" t="s">
+      <c r="A270" s="34" t="s">
         <v>324</v>
       </c>
-      <c r="B270" s="35"/>
-      <c r="C270" s="35"/>
+      <c r="B270" s="36"/>
+      <c r="C270" s="36"/>
       <c r="D270" s="21"/>
       <c r="E270" s="21"/>
       <c r="F270" s="21"/>
@@ -12077,7 +12078,7 @@
       <c r="Z271" s="21"/>
     </row>
     <row r="272" customHeight="1" spans="1:26">
-      <c r="A272" s="59" t="s">
+      <c r="A272" s="60" t="s">
         <v>326</v>
       </c>
       <c r="B272" s="21"/>
@@ -12110,10 +12111,10 @@
       <c r="A273" s="26" t="s">
         <v>327</v>
       </c>
-      <c r="B273" s="25" t="s">
+      <c r="B273" s="27" t="s">
         <v>328</v>
       </c>
-      <c r="C273" s="25"/>
+      <c r="C273" s="27"/>
       <c r="D273" s="21"/>
       <c r="E273" s="21"/>
       <c r="F273" s="21"/>
@@ -12139,10 +12140,10 @@
       <c r="Z273" s="21"/>
     </row>
     <row r="274" customHeight="1" spans="1:26">
-      <c r="A274" s="27" t="s">
+      <c r="A274" s="28" t="s">
         <v>329</v>
       </c>
-      <c r="B274" s="25" t="s">
+      <c r="B274" s="27" t="s">
         <v>330</v>
       </c>
       <c r="C274" s="21"/>
@@ -12171,10 +12172,10 @@
       <c r="Z274" s="21"/>
     </row>
     <row r="275" customHeight="1" spans="1:26">
-      <c r="A275" s="38" t="s">
+      <c r="A275" s="39" t="s">
         <v>331</v>
       </c>
-      <c r="B275" s="25" t="s">
+      <c r="B275" s="27" t="s">
         <v>332</v>
       </c>
       <c r="C275" s="21"/>
@@ -12203,10 +12204,10 @@
       <c r="Z275" s="21"/>
     </row>
     <row r="276" customHeight="1" spans="1:26">
-      <c r="A276" s="27" t="s">
+      <c r="A276" s="28" t="s">
         <v>333</v>
       </c>
-      <c r="B276" s="25" t="s">
+      <c r="B276" s="27" t="s">
         <v>334</v>
       </c>
       <c r="C276" s="21"/>
@@ -12235,10 +12236,10 @@
       <c r="Z276" s="21"/>
     </row>
     <row r="277" customHeight="1" spans="1:26">
-      <c r="A277" s="27" t="s">
+      <c r="A277" s="28" t="s">
         <v>335</v>
       </c>
-      <c r="B277" s="25" t="s">
+      <c r="B277" s="27" t="s">
         <v>336</v>
       </c>
       <c r="C277" s="21"/>
@@ -12271,7 +12272,7 @@
         <f>HYPERLINK("https://leetcode.com/problems/redundant-connection-ii/","Redundant connection 2")</f>
         <v>Redundant connection 2</v>
       </c>
-      <c r="B278" s="25" t="s">
+      <c r="B278" s="27" t="s">
         <v>337</v>
       </c>
       <c r="C278" s="21"/>
@@ -12303,7 +12304,7 @@
       <c r="A279" s="20" t="s">
         <v>338</v>
       </c>
-      <c r="B279" s="25"/>
+      <c r="B279" s="27"/>
       <c r="C279" s="21"/>
       <c r="D279" s="21"/>
       <c r="E279" s="21"/>
@@ -12333,7 +12334,7 @@
       <c r="A280" s="24" t="s">
         <v>339</v>
       </c>
-      <c r="B280" s="25" t="s">
+      <c r="B280" s="27" t="s">
         <v>340</v>
       </c>
       <c r="C280" s="21"/>
@@ -12365,7 +12366,7 @@
       <c r="A281" s="24" t="s">
         <v>341</v>
       </c>
-      <c r="B281" s="25" t="s">
+      <c r="B281" s="27" t="s">
         <v>342</v>
       </c>
       <c r="C281" s="21"/>
@@ -12394,11 +12395,11 @@
       <c r="Z281" s="21"/>
     </row>
     <row r="282" customHeight="1" spans="1:26">
-      <c r="A282" s="27" t="str">
+      <c r="A282" s="28" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/kruskals-minimum-spanning-tree-algorithm-greedy-algo-2/","Kruskal's algo")</f>
         <v>Kruskal's algo</v>
       </c>
-      <c r="B282" s="25" t="s">
+      <c r="B282" s="27" t="s">
         <v>343</v>
       </c>
       <c r="C282" s="21"/>
@@ -12427,13 +12428,13 @@
       <c r="Z282" s="21"/>
     </row>
     <row r="283" customHeight="1" spans="1:26">
-      <c r="A283" s="27" t="s">
+      <c r="A283" s="28" t="s">
         <v>344</v>
       </c>
-      <c r="B283" s="25" t="s">
+      <c r="B283" s="27" t="s">
         <v>345</v>
       </c>
-      <c r="C283" s="25"/>
+      <c r="C283" s="27"/>
       <c r="D283" s="21"/>
       <c r="E283" s="21"/>
       <c r="F283" s="21"/>
@@ -12462,7 +12463,7 @@
       <c r="A284" s="24" t="s">
         <v>346</v>
       </c>
-      <c r="B284" s="25" t="s">
+      <c r="B284" s="27" t="s">
         <v>347</v>
       </c>
       <c r="C284" s="21"/>
@@ -12557,10 +12558,10 @@
       <c r="A287" s="24" t="s">
         <v>350</v>
       </c>
-      <c r="B287" s="25" t="s">
+      <c r="B287" s="27" t="s">
         <v>351</v>
       </c>
-      <c r="C287" s="25"/>
+      <c r="C287" s="27"/>
       <c r="D287" s="21"/>
       <c r="E287" s="21"/>
       <c r="F287" s="21"/>
@@ -12586,10 +12587,10 @@
       <c r="Z287" s="21"/>
     </row>
     <row r="288" customHeight="1" spans="1:26">
-      <c r="A288" s="60" t="s">
+      <c r="A288" s="61" t="s">
         <v>352</v>
       </c>
-      <c r="B288" s="25" t="s">
+      <c r="B288" s="27" t="s">
         <v>353</v>
       </c>
       <c r="C288" s="21"/>
@@ -12618,10 +12619,10 @@
       <c r="Z288" s="21"/>
     </row>
     <row r="289" customHeight="1" spans="1:26">
-      <c r="A289" s="60" t="s">
+      <c r="A289" s="61" t="s">
         <v>354</v>
       </c>
-      <c r="B289" s="25" t="s">
+      <c r="B289" s="27" t="s">
         <v>355</v>
       </c>
       <c r="C289" s="21"/>
@@ -12806,7 +12807,7 @@
       <c r="A295" s="26" t="s">
         <v>361</v>
       </c>
-      <c r="B295" s="37" t="s">
+      <c r="B295" s="38" t="s">
         <v>362</v>
       </c>
       <c r="C295" s="21"/>
@@ -12925,7 +12926,7 @@
       <c r="Z298" s="21"/>
     </row>
     <row r="299" customHeight="1" spans="1:26">
-      <c r="A299" s="33" t="s">
+      <c r="A299" s="34" t="s">
         <v>366</v>
       </c>
       <c r="B299" s="21"/>
@@ -13139,13 +13140,13 @@
       <c r="Z305" s="21"/>
     </row>
     <row r="306" customHeight="1" spans="1:26">
-      <c r="A306" s="61" t="s">
+      <c r="A306" s="62" t="s">
         <v>374</v>
       </c>
-      <c r="B306" s="29" t="s">
+      <c r="B306" s="30" t="s">
         <v>375</v>
       </c>
-      <c r="C306" s="30"/>
+      <c r="C306" s="31"/>
       <c r="D306" s="21"/>
       <c r="E306" s="21"/>
       <c r="F306" s="21"/>
@@ -13171,11 +13172,11 @@
       <c r="Z306" s="21"/>
     </row>
     <row r="307" customHeight="1" spans="1:26">
-      <c r="A307" s="61" t="s">
+      <c r="A307" s="62" t="s">
         <v>376</v>
       </c>
-      <c r="B307" s="30"/>
-      <c r="C307" s="30"/>
+      <c r="B307" s="31"/>
+      <c r="C307" s="31"/>
       <c r="D307" s="21"/>
       <c r="E307" s="21"/>
       <c r="F307" s="21"/>
@@ -13489,7 +13490,7 @@
       <c r="Z316" s="21"/>
     </row>
     <row r="317" customHeight="1" spans="1:26">
-      <c r="A317" s="38"/>
+      <c r="A317" s="39"/>
       <c r="B317" s="21"/>
       <c r="C317" s="21"/>
       <c r="D317" s="21"/>
@@ -13517,7 +13518,7 @@
       <c r="Z317" s="21"/>
     </row>
     <row r="318" customHeight="1" spans="1:26">
-      <c r="A318" s="62" t="s">
+      <c r="A318" s="63" t="s">
         <v>386</v>
       </c>
       <c r="B318" s="21"/>
@@ -13610,7 +13611,7 @@
       <c r="Z320" s="21"/>
     </row>
     <row r="321" customHeight="1" spans="1:26">
-      <c r="A321" s="38" t="str">
+      <c r="A321" s="39" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/x-of-a-kind-in-a-deck-of-cards/","X of akind in a deck")</f>
         <v>X of akind in a deck</v>
       </c>
@@ -13643,7 +13644,7 @@
       <c r="Z321" s="21"/>
     </row>
     <row r="322" customHeight="1" spans="1:26">
-      <c r="A322" s="38" t="str">
+      <c r="A322" s="39" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/check-whether-arithmetic-progression-can-formed-given-array/","Check AP sequence")</f>
         <v>Check AP sequence</v>
       </c>
@@ -14602,7 +14603,7 @@
       <c r="Z351" s="21"/>
     </row>
     <row r="352" customHeight="1" spans="1:26">
-      <c r="A352" s="38" t="str">
+      <c r="A352" s="39" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/minimum-window-substring/","Find smallest size of string containing all char of other")</f>
         <v>Find smallest size of string containing all char of other</v>
       </c>
@@ -14635,7 +14636,7 @@
       <c r="Z352" s="21"/>
     </row>
     <row r="353" customHeight="1" spans="1:26">
-      <c r="A353" s="38" t="str">
+      <c r="A353" s="39" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/group-anagrams/","Group anagram")</f>
         <v>Group anagram</v>
       </c>
@@ -14668,7 +14669,7 @@
       <c r="Z353" s="21"/>
     </row>
     <row r="354" customHeight="1" spans="1:26">
-      <c r="A354" s="38" t="str">
+      <c r="A354" s="39" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/length-of-the-longest-substring-without-repeating-characters/","longest substring with unique character")</f>
         <v>longest substring with unique character</v>
       </c>
@@ -14857,7 +14858,7 @@
       <c r="Z359" s="21"/>
     </row>
     <row r="360" customHeight="1" spans="1:26">
-      <c r="A360" s="63" t="str">
+      <c r="A360" s="64" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/rearrange-characters-string-no-two-adjacent/","rearrange character string such that no two are same")</f>
         <v>rearrange character string such that no two are same</v>
       </c>
@@ -15081,7 +15082,7 @@
       <c r="Z366" s="21"/>
     </row>
     <row r="367" customHeight="1" spans="1:26">
-      <c r="A367" s="64" t="s">
+      <c r="A367" s="65" t="s">
         <v>17</v>
       </c>
       <c r="B367" s="1"/>
@@ -15114,44 +15115,44 @@
       <c r="A368" s="20" t="s">
         <v>430</v>
       </c>
-      <c r="B368" s="30"/>
-      <c r="C368" s="30"/>
-      <c r="D368" s="30"/>
-      <c r="E368" s="30"/>
-      <c r="F368" s="30"/>
-      <c r="G368" s="30"/>
-      <c r="H368" s="30"/>
-      <c r="I368" s="30"/>
-      <c r="J368" s="30"/>
-      <c r="K368" s="30"/>
-      <c r="L368" s="30"/>
-      <c r="M368" s="30"/>
-      <c r="N368" s="30"/>
-      <c r="O368" s="30"/>
-      <c r="P368" s="30"/>
-      <c r="Q368" s="30"/>
-      <c r="R368" s="30"/>
-      <c r="S368" s="30"/>
-      <c r="T368" s="30"/>
-      <c r="U368" s="30"/>
-      <c r="V368" s="30"/>
-      <c r="W368" s="30"/>
-      <c r="X368" s="30"/>
-      <c r="Y368" s="30"/>
-      <c r="Z368" s="30"/>
+      <c r="B368" s="31"/>
+      <c r="C368" s="31"/>
+      <c r="D368" s="31"/>
+      <c r="E368" s="31"/>
+      <c r="F368" s="31"/>
+      <c r="G368" s="31"/>
+      <c r="H368" s="31"/>
+      <c r="I368" s="31"/>
+      <c r="J368" s="31"/>
+      <c r="K368" s="31"/>
+      <c r="L368" s="31"/>
+      <c r="M368" s="31"/>
+      <c r="N368" s="31"/>
+      <c r="O368" s="31"/>
+      <c r="P368" s="31"/>
+      <c r="Q368" s="31"/>
+      <c r="R368" s="31"/>
+      <c r="S368" s="31"/>
+      <c r="T368" s="31"/>
+      <c r="U368" s="31"/>
+      <c r="V368" s="31"/>
+      <c r="W368" s="31"/>
+      <c r="X368" s="31"/>
+      <c r="Y368" s="31"/>
+      <c r="Z368" s="31"/>
     </row>
     <row r="369" customHeight="1" spans="1:26">
-      <c r="A369" s="51" t="s">
+      <c r="A369" s="52" t="s">
         <v>431</v>
       </c>
-      <c r="B369" s="51"/>
-      <c r="C369" s="30"/>
-      <c r="D369" s="30"/>
-      <c r="E369" s="30"/>
-      <c r="F369" s="30"/>
-      <c r="G369" s="30"/>
-      <c r="H369" s="30"/>
-      <c r="I369" s="30"/>
+      <c r="B369" s="52"/>
+      <c r="C369" s="31"/>
+      <c r="D369" s="31"/>
+      <c r="E369" s="31"/>
+      <c r="F369" s="31"/>
+      <c r="G369" s="31"/>
+      <c r="H369" s="31"/>
+      <c r="I369" s="31"/>
       <c r="J369" s="21"/>
       <c r="K369" s="21"/>
       <c r="L369" s="21"/>
@@ -15171,17 +15172,17 @@
       <c r="Z369" s="21"/>
     </row>
     <row r="370" customHeight="1" spans="1:26">
-      <c r="A370" s="65" t="s">
+      <c r="A370" s="66" t="s">
         <v>432</v>
       </c>
-      <c r="B370" s="51"/>
-      <c r="C370" s="30"/>
-      <c r="D370" s="30"/>
-      <c r="E370" s="30"/>
-      <c r="F370" s="30"/>
-      <c r="G370" s="30"/>
-      <c r="H370" s="30"/>
-      <c r="I370" s="30"/>
+      <c r="B370" s="52"/>
+      <c r="C370" s="31"/>
+      <c r="D370" s="31"/>
+      <c r="E370" s="31"/>
+      <c r="F370" s="31"/>
+      <c r="G370" s="31"/>
+      <c r="H370" s="31"/>
+      <c r="I370" s="31"/>
       <c r="J370" s="21"/>
       <c r="K370" s="21"/>
       <c r="L370" s="21"/>
@@ -15201,17 +15202,17 @@
       <c r="Z370" s="21"/>
     </row>
     <row r="371" customHeight="1" spans="1:26">
-      <c r="A371" s="65" t="s">
+      <c r="A371" s="66" t="s">
         <v>433</v>
       </c>
-      <c r="B371" s="51"/>
-      <c r="C371" s="30"/>
-      <c r="D371" s="30"/>
-      <c r="E371" s="30"/>
-      <c r="F371" s="30"/>
-      <c r="G371" s="30"/>
-      <c r="H371" s="30"/>
-      <c r="I371" s="30"/>
+      <c r="B371" s="52"/>
+      <c r="C371" s="31"/>
+      <c r="D371" s="31"/>
+      <c r="E371" s="31"/>
+      <c r="F371" s="31"/>
+      <c r="G371" s="31"/>
+      <c r="H371" s="31"/>
+      <c r="I371" s="31"/>
       <c r="J371" s="21"/>
       <c r="K371" s="21"/>
       <c r="L371" s="21"/>
@@ -15231,17 +15232,17 @@
       <c r="Z371" s="21"/>
     </row>
     <row r="372" customHeight="1" spans="1:26">
-      <c r="A372" s="51" t="s">
+      <c r="A372" s="52" t="s">
         <v>434</v>
       </c>
-      <c r="B372" s="51"/>
-      <c r="C372" s="30"/>
-      <c r="D372" s="30"/>
-      <c r="E372" s="30"/>
-      <c r="F372" s="30"/>
-      <c r="G372" s="30"/>
-      <c r="H372" s="30"/>
-      <c r="I372" s="30"/>
+      <c r="B372" s="52"/>
+      <c r="C372" s="31"/>
+      <c r="D372" s="31"/>
+      <c r="E372" s="31"/>
+      <c r="F372" s="31"/>
+      <c r="G372" s="31"/>
+      <c r="H372" s="31"/>
+      <c r="I372" s="31"/>
       <c r="J372" s="21"/>
       <c r="K372" s="21"/>
       <c r="L372" s="21"/>
@@ -15261,17 +15262,17 @@
       <c r="Z372" s="21"/>
     </row>
     <row r="373" customHeight="1" spans="1:26">
-      <c r="A373" s="51" t="s">
+      <c r="A373" s="52" t="s">
         <v>435</v>
       </c>
-      <c r="B373" s="51"/>
-      <c r="C373" s="30"/>
-      <c r="D373" s="30"/>
-      <c r="E373" s="30"/>
-      <c r="F373" s="30"/>
-      <c r="G373" s="30"/>
-      <c r="H373" s="30"/>
-      <c r="I373" s="30"/>
+      <c r="B373" s="52"/>
+      <c r="C373" s="31"/>
+      <c r="D373" s="31"/>
+      <c r="E373" s="31"/>
+      <c r="F373" s="31"/>
+      <c r="G373" s="31"/>
+      <c r="H373" s="31"/>
+      <c r="I373" s="31"/>
       <c r="J373" s="21"/>
       <c r="K373" s="21"/>
       <c r="L373" s="21"/>
@@ -15291,17 +15292,17 @@
       <c r="Z373" s="21"/>
     </row>
     <row r="374" customHeight="1" spans="1:26">
-      <c r="A374" s="51" t="s">
+      <c r="A374" s="52" t="s">
         <v>436</v>
       </c>
-      <c r="B374" s="51"/>
-      <c r="C374" s="30"/>
-      <c r="D374" s="30"/>
-      <c r="E374" s="30"/>
-      <c r="F374" s="30"/>
-      <c r="G374" s="30"/>
-      <c r="H374" s="30"/>
-      <c r="I374" s="30"/>
+      <c r="B374" s="52"/>
+      <c r="C374" s="31"/>
+      <c r="D374" s="31"/>
+      <c r="E374" s="31"/>
+      <c r="F374" s="31"/>
+      <c r="G374" s="31"/>
+      <c r="H374" s="31"/>
+      <c r="I374" s="31"/>
       <c r="J374" s="21"/>
       <c r="K374" s="21"/>
       <c r="L374" s="21"/>
@@ -15321,17 +15322,17 @@
       <c r="Z374" s="21"/>
     </row>
     <row r="375" customHeight="1" spans="1:26">
-      <c r="A375" s="51" t="s">
+      <c r="A375" s="52" t="s">
         <v>437</v>
       </c>
-      <c r="B375" s="51"/>
-      <c r="C375" s="30"/>
-      <c r="D375" s="30"/>
-      <c r="E375" s="30"/>
-      <c r="F375" s="30"/>
-      <c r="G375" s="30"/>
-      <c r="H375" s="30"/>
-      <c r="I375" s="30"/>
+      <c r="B375" s="52"/>
+      <c r="C375" s="31"/>
+      <c r="D375" s="31"/>
+      <c r="E375" s="31"/>
+      <c r="F375" s="31"/>
+      <c r="G375" s="31"/>
+      <c r="H375" s="31"/>
+      <c r="I375" s="31"/>
       <c r="J375" s="21"/>
       <c r="K375" s="21"/>
       <c r="L375" s="21"/>
@@ -15351,17 +15352,17 @@
       <c r="Z375" s="21"/>
     </row>
     <row r="376" customHeight="1" spans="1:26">
-      <c r="A376" s="51" t="s">
+      <c r="A376" s="52" t="s">
         <v>438</v>
       </c>
-      <c r="B376" s="51"/>
-      <c r="C376" s="30"/>
-      <c r="D376" s="30"/>
-      <c r="E376" s="30"/>
-      <c r="F376" s="30"/>
-      <c r="G376" s="30"/>
-      <c r="H376" s="30"/>
-      <c r="I376" s="30"/>
+      <c r="B376" s="52"/>
+      <c r="C376" s="31"/>
+      <c r="D376" s="31"/>
+      <c r="E376" s="31"/>
+      <c r="F376" s="31"/>
+      <c r="G376" s="31"/>
+      <c r="H376" s="31"/>
+      <c r="I376" s="31"/>
       <c r="J376" s="21"/>
       <c r="K376" s="21"/>
       <c r="L376" s="21"/>
@@ -15381,17 +15382,17 @@
       <c r="Z376" s="21"/>
     </row>
     <row r="377" customHeight="1" spans="1:26">
-      <c r="A377" s="33" t="s">
+      <c r="A377" s="34" t="s">
         <v>439</v>
       </c>
-      <c r="B377" s="51"/>
-      <c r="C377" s="30"/>
-      <c r="D377" s="30"/>
-      <c r="E377" s="30"/>
-      <c r="F377" s="30"/>
-      <c r="G377" s="30"/>
-      <c r="H377" s="30"/>
-      <c r="I377" s="30"/>
+      <c r="B377" s="52"/>
+      <c r="C377" s="31"/>
+      <c r="D377" s="31"/>
+      <c r="E377" s="31"/>
+      <c r="F377" s="31"/>
+      <c r="G377" s="31"/>
+      <c r="H377" s="31"/>
+      <c r="I377" s="31"/>
       <c r="J377" s="21"/>
       <c r="K377" s="21"/>
       <c r="L377" s="21"/>
@@ -15411,17 +15412,17 @@
       <c r="Z377" s="21"/>
     </row>
     <row r="378" customHeight="1" spans="1:26">
-      <c r="A378" s="51" t="s">
+      <c r="A378" s="52" t="s">
         <v>440</v>
       </c>
-      <c r="B378" s="51"/>
-      <c r="C378" s="30"/>
-      <c r="D378" s="30"/>
-      <c r="E378" s="30"/>
-      <c r="F378" s="30"/>
-      <c r="G378" s="30"/>
-      <c r="H378" s="30"/>
-      <c r="I378" s="30"/>
+      <c r="B378" s="52"/>
+      <c r="C378" s="31"/>
+      <c r="D378" s="31"/>
+      <c r="E378" s="31"/>
+      <c r="F378" s="31"/>
+      <c r="G378" s="31"/>
+      <c r="H378" s="31"/>
+      <c r="I378" s="31"/>
       <c r="J378" s="21"/>
       <c r="K378" s="21"/>
       <c r="L378" s="21"/>
@@ -15441,17 +15442,17 @@
       <c r="Z378" s="21"/>
     </row>
     <row r="379" customHeight="1" spans="1:26">
-      <c r="A379" s="51" t="s">
+      <c r="A379" s="52" t="s">
         <v>441</v>
       </c>
-      <c r="B379" s="51"/>
-      <c r="C379" s="30"/>
-      <c r="D379" s="30"/>
-      <c r="E379" s="30"/>
-      <c r="F379" s="30"/>
-      <c r="G379" s="30"/>
-      <c r="H379" s="30"/>
-      <c r="I379" s="30"/>
+      <c r="B379" s="52"/>
+      <c r="C379" s="31"/>
+      <c r="D379" s="31"/>
+      <c r="E379" s="31"/>
+      <c r="F379" s="31"/>
+      <c r="G379" s="31"/>
+      <c r="H379" s="31"/>
+      <c r="I379" s="31"/>
       <c r="J379" s="21"/>
       <c r="K379" s="21"/>
       <c r="L379" s="21"/>
@@ -15471,17 +15472,17 @@
       <c r="Z379" s="21"/>
     </row>
     <row r="380" customHeight="1" spans="1:26">
-      <c r="A380" s="66" t="s">
+      <c r="A380" s="67" t="s">
         <v>442</v>
       </c>
-      <c r="B380" s="51"/>
-      <c r="C380" s="30"/>
-      <c r="D380" s="30"/>
-      <c r="E380" s="30"/>
-      <c r="F380" s="30"/>
-      <c r="G380" s="30"/>
-      <c r="H380" s="30"/>
-      <c r="I380" s="30"/>
+      <c r="B380" s="52"/>
+      <c r="C380" s="31"/>
+      <c r="D380" s="31"/>
+      <c r="E380" s="31"/>
+      <c r="F380" s="31"/>
+      <c r="G380" s="31"/>
+      <c r="H380" s="31"/>
+      <c r="I380" s="31"/>
       <c r="J380" s="21"/>
       <c r="K380" s="21"/>
       <c r="L380" s="21"/>
@@ -15501,17 +15502,17 @@
       <c r="Z380" s="21"/>
     </row>
     <row r="381" customHeight="1" spans="1:26">
-      <c r="A381" s="51" t="s">
+      <c r="A381" s="52" t="s">
         <v>443</v>
       </c>
-      <c r="B381" s="51"/>
-      <c r="C381" s="30"/>
-      <c r="D381" s="30"/>
-      <c r="E381" s="30"/>
-      <c r="F381" s="30"/>
-      <c r="G381" s="30"/>
-      <c r="H381" s="30"/>
-      <c r="I381" s="30"/>
+      <c r="B381" s="52"/>
+      <c r="C381" s="31"/>
+      <c r="D381" s="31"/>
+      <c r="E381" s="31"/>
+      <c r="F381" s="31"/>
+      <c r="G381" s="31"/>
+      <c r="H381" s="31"/>
+      <c r="I381" s="31"/>
       <c r="J381" s="21"/>
       <c r="K381" s="21"/>
       <c r="L381" s="21"/>
@@ -15531,17 +15532,17 @@
       <c r="Z381" s="21"/>
     </row>
     <row r="382" customHeight="1" spans="1:26">
-      <c r="A382" s="51" t="s">
+      <c r="A382" s="52" t="s">
         <v>444</v>
       </c>
-      <c r="B382" s="51"/>
-      <c r="C382" s="30"/>
-      <c r="D382" s="30"/>
-      <c r="E382" s="30"/>
-      <c r="F382" s="30"/>
-      <c r="G382" s="30"/>
-      <c r="H382" s="30"/>
-      <c r="I382" s="30"/>
+      <c r="B382" s="52"/>
+      <c r="C382" s="31"/>
+      <c r="D382" s="31"/>
+      <c r="E382" s="31"/>
+      <c r="F382" s="31"/>
+      <c r="G382" s="31"/>
+      <c r="H382" s="31"/>
+      <c r="I382" s="31"/>
       <c r="J382" s="21"/>
       <c r="K382" s="21"/>
       <c r="L382" s="21"/>
@@ -15561,17 +15562,17 @@
       <c r="Z382" s="21"/>
     </row>
     <row r="383" customHeight="1" spans="1:26">
-      <c r="A383" s="51" t="s">
+      <c r="A383" s="52" t="s">
         <v>445</v>
       </c>
-      <c r="B383" s="51"/>
-      <c r="C383" s="30"/>
-      <c r="D383" s="30"/>
-      <c r="E383" s="30"/>
-      <c r="F383" s="30"/>
-      <c r="G383" s="30"/>
-      <c r="H383" s="30"/>
-      <c r="I383" s="30"/>
+      <c r="B383" s="52"/>
+      <c r="C383" s="31"/>
+      <c r="D383" s="31"/>
+      <c r="E383" s="31"/>
+      <c r="F383" s="31"/>
+      <c r="G383" s="31"/>
+      <c r="H383" s="31"/>
+      <c r="I383" s="31"/>
       <c r="J383" s="21"/>
       <c r="K383" s="21"/>
       <c r="L383" s="21"/>
@@ -15591,17 +15592,17 @@
       <c r="Z383" s="21"/>
     </row>
     <row r="384" customHeight="1" spans="1:26">
-      <c r="A384" s="51" t="s">
+      <c r="A384" s="52" t="s">
         <v>446</v>
       </c>
-      <c r="B384" s="51"/>
-      <c r="C384" s="30"/>
-      <c r="D384" s="30"/>
-      <c r="E384" s="30"/>
-      <c r="F384" s="30"/>
-      <c r="G384" s="30"/>
-      <c r="H384" s="30"/>
-      <c r="I384" s="30"/>
+      <c r="B384" s="52"/>
+      <c r="C384" s="31"/>
+      <c r="D384" s="31"/>
+      <c r="E384" s="31"/>
+      <c r="F384" s="31"/>
+      <c r="G384" s="31"/>
+      <c r="H384" s="31"/>
+      <c r="I384" s="31"/>
       <c r="J384" s="21"/>
       <c r="K384" s="21"/>
       <c r="L384" s="21"/>
@@ -15621,17 +15622,17 @@
       <c r="Z384" s="21"/>
     </row>
     <row r="385" customHeight="1" spans="1:26">
-      <c r="A385" s="51" t="s">
+      <c r="A385" s="52" t="s">
         <v>447</v>
       </c>
-      <c r="B385" s="51"/>
-      <c r="C385" s="30"/>
-      <c r="D385" s="30"/>
-      <c r="E385" s="30"/>
-      <c r="F385" s="30"/>
-      <c r="G385" s="30"/>
-      <c r="H385" s="30"/>
-      <c r="I385" s="30"/>
+      <c r="B385" s="52"/>
+      <c r="C385" s="31"/>
+      <c r="D385" s="31"/>
+      <c r="E385" s="31"/>
+      <c r="F385" s="31"/>
+      <c r="G385" s="31"/>
+      <c r="H385" s="31"/>
+      <c r="I385" s="31"/>
       <c r="J385" s="21"/>
       <c r="K385" s="21"/>
       <c r="L385" s="21"/>
@@ -15651,17 +15652,17 @@
       <c r="Z385" s="21"/>
     </row>
     <row r="386" customHeight="1" spans="1:26">
-      <c r="A386" s="33" t="s">
+      <c r="A386" s="34" t="s">
         <v>448</v>
       </c>
-      <c r="B386" s="51"/>
-      <c r="C386" s="30"/>
-      <c r="D386" s="30"/>
-      <c r="E386" s="30"/>
-      <c r="F386" s="30"/>
-      <c r="G386" s="30"/>
-      <c r="H386" s="30"/>
-      <c r="I386" s="30"/>
+      <c r="B386" s="52"/>
+      <c r="C386" s="31"/>
+      <c r="D386" s="31"/>
+      <c r="E386" s="31"/>
+      <c r="F386" s="31"/>
+      <c r="G386" s="31"/>
+      <c r="H386" s="31"/>
+      <c r="I386" s="31"/>
       <c r="J386" s="21"/>
       <c r="K386" s="21"/>
       <c r="L386" s="21"/>
@@ -15681,17 +15682,17 @@
       <c r="Z386" s="21"/>
     </row>
     <row r="387" customHeight="1" spans="1:26">
-      <c r="A387" s="51" t="s">
+      <c r="A387" s="52" t="s">
         <v>449</v>
       </c>
-      <c r="B387" s="51"/>
-      <c r="C387" s="30"/>
-      <c r="D387" s="30"/>
-      <c r="E387" s="30"/>
-      <c r="F387" s="30"/>
-      <c r="G387" s="30"/>
-      <c r="H387" s="30"/>
-      <c r="I387" s="30"/>
+      <c r="B387" s="52"/>
+      <c r="C387" s="31"/>
+      <c r="D387" s="31"/>
+      <c r="E387" s="31"/>
+      <c r="F387" s="31"/>
+      <c r="G387" s="31"/>
+      <c r="H387" s="31"/>
+      <c r="I387" s="31"/>
       <c r="J387" s="21"/>
       <c r="K387" s="21"/>
       <c r="L387" s="21"/>
@@ -15711,17 +15712,17 @@
       <c r="Z387" s="21"/>
     </row>
     <row r="388" customHeight="1" spans="1:26">
-      <c r="A388" s="51" t="s">
+      <c r="A388" s="52" t="s">
         <v>450</v>
       </c>
-      <c r="B388" s="51"/>
-      <c r="C388" s="30"/>
-      <c r="D388" s="30"/>
-      <c r="E388" s="30"/>
-      <c r="F388" s="30"/>
-      <c r="G388" s="30"/>
-      <c r="H388" s="30"/>
-      <c r="I388" s="30"/>
+      <c r="B388" s="52"/>
+      <c r="C388" s="31"/>
+      <c r="D388" s="31"/>
+      <c r="E388" s="31"/>
+      <c r="F388" s="31"/>
+      <c r="G388" s="31"/>
+      <c r="H388" s="31"/>
+      <c r="I388" s="31"/>
       <c r="J388" s="21"/>
       <c r="K388" s="21"/>
       <c r="L388" s="21"/>
@@ -15741,17 +15742,17 @@
       <c r="Z388" s="21"/>
     </row>
     <row r="389" customHeight="1" spans="1:26">
-      <c r="A389" s="51" t="s">
+      <c r="A389" s="52" t="s">
         <v>451</v>
       </c>
-      <c r="B389" s="51"/>
-      <c r="C389" s="30"/>
-      <c r="D389" s="30"/>
-      <c r="E389" s="30"/>
-      <c r="F389" s="30"/>
-      <c r="G389" s="30"/>
-      <c r="H389" s="30"/>
-      <c r="I389" s="30"/>
+      <c r="B389" s="52"/>
+      <c r="C389" s="31"/>
+      <c r="D389" s="31"/>
+      <c r="E389" s="31"/>
+      <c r="F389" s="31"/>
+      <c r="G389" s="31"/>
+      <c r="H389" s="31"/>
+      <c r="I389" s="31"/>
       <c r="J389" s="21"/>
       <c r="K389" s="21"/>
       <c r="L389" s="21"/>
@@ -15771,17 +15772,17 @@
       <c r="Z389" s="21"/>
     </row>
     <row r="390" customHeight="1" spans="1:26">
-      <c r="A390" s="51" t="s">
+      <c r="A390" s="52" t="s">
         <v>452</v>
       </c>
-      <c r="B390" s="51"/>
-      <c r="C390" s="30"/>
-      <c r="D390" s="30"/>
-      <c r="E390" s="30"/>
-      <c r="F390" s="30"/>
-      <c r="G390" s="30"/>
-      <c r="H390" s="30"/>
-      <c r="I390" s="30"/>
+      <c r="B390" s="52"/>
+      <c r="C390" s="31"/>
+      <c r="D390" s="31"/>
+      <c r="E390" s="31"/>
+      <c r="F390" s="31"/>
+      <c r="G390" s="31"/>
+      <c r="H390" s="31"/>
+      <c r="I390" s="31"/>
       <c r="J390" s="21"/>
       <c r="K390" s="21"/>
       <c r="L390" s="21"/>
@@ -15801,17 +15802,17 @@
       <c r="Z390" s="21"/>
     </row>
     <row r="391" customHeight="1" spans="1:26">
-      <c r="A391" s="51" t="s">
+      <c r="A391" s="52" t="s">
         <v>453</v>
       </c>
-      <c r="B391" s="51"/>
-      <c r="C391" s="30"/>
-      <c r="D391" s="30"/>
-      <c r="E391" s="30"/>
-      <c r="F391" s="30"/>
-      <c r="G391" s="30"/>
-      <c r="H391" s="30"/>
-      <c r="I391" s="30"/>
+      <c r="B391" s="52"/>
+      <c r="C391" s="31"/>
+      <c r="D391" s="31"/>
+      <c r="E391" s="31"/>
+      <c r="F391" s="31"/>
+      <c r="G391" s="31"/>
+      <c r="H391" s="31"/>
+      <c r="I391" s="31"/>
       <c r="J391" s="21"/>
       <c r="K391" s="21"/>
       <c r="L391" s="21"/>
@@ -15831,17 +15832,17 @@
       <c r="Z391" s="21"/>
     </row>
     <row r="392" customHeight="1" spans="1:26">
-      <c r="A392" s="51" t="s">
+      <c r="A392" s="52" t="s">
         <v>454</v>
       </c>
-      <c r="B392" s="51"/>
-      <c r="C392" s="30"/>
-      <c r="D392" s="30"/>
-      <c r="E392" s="30"/>
-      <c r="F392" s="30"/>
-      <c r="G392" s="30"/>
-      <c r="H392" s="30"/>
-      <c r="I392" s="30"/>
+      <c r="B392" s="52"/>
+      <c r="C392" s="31"/>
+      <c r="D392" s="31"/>
+      <c r="E392" s="31"/>
+      <c r="F392" s="31"/>
+      <c r="G392" s="31"/>
+      <c r="H392" s="31"/>
+      <c r="I392" s="31"/>
       <c r="J392" s="21"/>
       <c r="K392" s="21"/>
       <c r="L392" s="21"/>
@@ -15861,17 +15862,17 @@
       <c r="Z392" s="21"/>
     </row>
     <row r="393" customHeight="1" spans="1:26">
-      <c r="A393" s="51" t="s">
+      <c r="A393" s="52" t="s">
         <v>455</v>
       </c>
-      <c r="B393" s="51"/>
-      <c r="C393" s="30"/>
-      <c r="D393" s="30"/>
-      <c r="E393" s="30"/>
-      <c r="F393" s="30"/>
-      <c r="G393" s="30"/>
-      <c r="H393" s="30"/>
-      <c r="I393" s="30"/>
+      <c r="B393" s="52"/>
+      <c r="C393" s="31"/>
+      <c r="D393" s="31"/>
+      <c r="E393" s="31"/>
+      <c r="F393" s="31"/>
+      <c r="G393" s="31"/>
+      <c r="H393" s="31"/>
+      <c r="I393" s="31"/>
       <c r="J393" s="21"/>
       <c r="K393" s="21"/>
       <c r="L393" s="21"/>
@@ -15891,17 +15892,17 @@
       <c r="Z393" s="21"/>
     </row>
     <row r="394" customHeight="1" spans="1:26">
-      <c r="A394" s="51" t="s">
+      <c r="A394" s="52" t="s">
         <v>456</v>
       </c>
-      <c r="B394" s="51"/>
-      <c r="C394" s="30"/>
-      <c r="D394" s="30"/>
-      <c r="E394" s="30"/>
-      <c r="F394" s="30"/>
-      <c r="G394" s="30"/>
-      <c r="H394" s="30"/>
-      <c r="I394" s="30"/>
+      <c r="B394" s="52"/>
+      <c r="C394" s="31"/>
+      <c r="D394" s="31"/>
+      <c r="E394" s="31"/>
+      <c r="F394" s="31"/>
+      <c r="G394" s="31"/>
+      <c r="H394" s="31"/>
+      <c r="I394" s="31"/>
       <c r="J394" s="21"/>
       <c r="K394" s="21"/>
       <c r="L394" s="21"/>
@@ -15921,17 +15922,17 @@
       <c r="Z394" s="21"/>
     </row>
     <row r="395" customHeight="1" spans="1:26">
-      <c r="A395" s="33" t="s">
+      <c r="A395" s="34" t="s">
         <v>457</v>
       </c>
-      <c r="B395" s="51"/>
-      <c r="C395" s="30"/>
-      <c r="D395" s="30"/>
-      <c r="E395" s="30"/>
-      <c r="F395" s="30"/>
-      <c r="G395" s="30"/>
-      <c r="H395" s="30"/>
-      <c r="I395" s="30"/>
+      <c r="B395" s="52"/>
+      <c r="C395" s="31"/>
+      <c r="D395" s="31"/>
+      <c r="E395" s="31"/>
+      <c r="F395" s="31"/>
+      <c r="G395" s="31"/>
+      <c r="H395" s="31"/>
+      <c r="I395" s="31"/>
       <c r="J395" s="21"/>
       <c r="K395" s="21"/>
       <c r="L395" s="21"/>
@@ -15951,17 +15952,17 @@
       <c r="Z395" s="21"/>
     </row>
     <row r="396" customHeight="1" spans="1:26">
-      <c r="A396" s="51" t="s">
+      <c r="A396" s="52" t="s">
         <v>458</v>
       </c>
-      <c r="B396" s="51"/>
-      <c r="C396" s="30"/>
-      <c r="D396" s="30"/>
-      <c r="E396" s="30"/>
-      <c r="F396" s="30"/>
-      <c r="G396" s="30"/>
-      <c r="H396" s="30"/>
-      <c r="I396" s="30"/>
+      <c r="B396" s="52"/>
+      <c r="C396" s="31"/>
+      <c r="D396" s="31"/>
+      <c r="E396" s="31"/>
+      <c r="F396" s="31"/>
+      <c r="G396" s="31"/>
+      <c r="H396" s="31"/>
+      <c r="I396" s="31"/>
       <c r="J396" s="21"/>
       <c r="K396" s="21"/>
       <c r="L396" s="21"/>
@@ -15981,17 +15982,17 @@
       <c r="Z396" s="21"/>
     </row>
     <row r="397" customHeight="1" spans="1:26">
-      <c r="A397" s="51" t="s">
+      <c r="A397" s="52" t="s">
         <v>459</v>
       </c>
-      <c r="B397" s="51"/>
-      <c r="C397" s="30"/>
-      <c r="D397" s="30"/>
-      <c r="E397" s="30"/>
-      <c r="F397" s="30"/>
-      <c r="G397" s="30"/>
-      <c r="H397" s="30"/>
-      <c r="I397" s="30"/>
+      <c r="B397" s="52"/>
+      <c r="C397" s="31"/>
+      <c r="D397" s="31"/>
+      <c r="E397" s="31"/>
+      <c r="F397" s="31"/>
+      <c r="G397" s="31"/>
+      <c r="H397" s="31"/>
+      <c r="I397" s="31"/>
       <c r="J397" s="21"/>
       <c r="K397" s="21"/>
       <c r="L397" s="21"/>
@@ -16011,17 +16012,17 @@
       <c r="Z397" s="21"/>
     </row>
     <row r="398" customHeight="1" spans="1:26">
-      <c r="A398" s="51" t="s">
+      <c r="A398" s="52" t="s">
         <v>460</v>
       </c>
-      <c r="B398" s="51"/>
-      <c r="C398" s="30"/>
-      <c r="D398" s="30"/>
-      <c r="E398" s="30"/>
-      <c r="F398" s="30"/>
-      <c r="G398" s="30"/>
-      <c r="H398" s="30"/>
-      <c r="I398" s="30"/>
+      <c r="B398" s="52"/>
+      <c r="C398" s="31"/>
+      <c r="D398" s="31"/>
+      <c r="E398" s="31"/>
+      <c r="F398" s="31"/>
+      <c r="G398" s="31"/>
+      <c r="H398" s="31"/>
+      <c r="I398" s="31"/>
       <c r="J398" s="21"/>
       <c r="K398" s="21"/>
       <c r="L398" s="21"/>
@@ -16041,17 +16042,17 @@
       <c r="Z398" s="21"/>
     </row>
     <row r="399" customHeight="1" spans="1:26">
-      <c r="A399" s="51" t="s">
+      <c r="A399" s="52" t="s">
         <v>461</v>
       </c>
-      <c r="B399" s="51"/>
-      <c r="C399" s="30"/>
-      <c r="D399" s="30"/>
-      <c r="E399" s="30"/>
-      <c r="F399" s="30"/>
-      <c r="G399" s="30"/>
-      <c r="H399" s="30"/>
-      <c r="I399" s="30"/>
+      <c r="B399" s="52"/>
+      <c r="C399" s="31"/>
+      <c r="D399" s="31"/>
+      <c r="E399" s="31"/>
+      <c r="F399" s="31"/>
+      <c r="G399" s="31"/>
+      <c r="H399" s="31"/>
+      <c r="I399" s="31"/>
       <c r="J399" s="21"/>
       <c r="K399" s="21"/>
       <c r="L399" s="21"/>
@@ -16071,17 +16072,17 @@
       <c r="Z399" s="21"/>
     </row>
     <row r="400" customHeight="1" spans="1:26">
-      <c r="A400" s="51" t="s">
+      <c r="A400" s="52" t="s">
         <v>462</v>
       </c>
-      <c r="B400" s="51"/>
-      <c r="C400" s="30"/>
-      <c r="D400" s="30"/>
-      <c r="E400" s="30"/>
-      <c r="F400" s="30"/>
-      <c r="G400" s="30"/>
-      <c r="H400" s="30"/>
-      <c r="I400" s="30"/>
+      <c r="B400" s="52"/>
+      <c r="C400" s="31"/>
+      <c r="D400" s="31"/>
+      <c r="E400" s="31"/>
+      <c r="F400" s="31"/>
+      <c r="G400" s="31"/>
+      <c r="H400" s="31"/>
+      <c r="I400" s="31"/>
       <c r="J400" s="21"/>
       <c r="K400" s="21"/>
       <c r="L400" s="21"/>
@@ -16101,17 +16102,17 @@
       <c r="Z400" s="21"/>
     </row>
     <row r="401" customHeight="1" spans="1:26">
-      <c r="A401" s="51" t="s">
+      <c r="A401" s="52" t="s">
         <v>463</v>
       </c>
-      <c r="B401" s="51"/>
-      <c r="C401" s="30"/>
-      <c r="D401" s="30"/>
-      <c r="E401" s="30"/>
-      <c r="F401" s="30"/>
-      <c r="G401" s="30"/>
-      <c r="H401" s="30"/>
-      <c r="I401" s="30"/>
+      <c r="B401" s="52"/>
+      <c r="C401" s="31"/>
+      <c r="D401" s="31"/>
+      <c r="E401" s="31"/>
+      <c r="F401" s="31"/>
+      <c r="G401" s="31"/>
+      <c r="H401" s="31"/>
+      <c r="I401" s="31"/>
       <c r="J401" s="21"/>
       <c r="K401" s="21"/>
       <c r="L401" s="21"/>
@@ -16131,17 +16132,17 @@
       <c r="Z401" s="21"/>
     </row>
     <row r="402" customHeight="1" spans="1:26">
-      <c r="A402" s="33" t="s">
+      <c r="A402" s="34" t="s">
         <v>464</v>
       </c>
-      <c r="B402" s="51"/>
-      <c r="C402" s="30"/>
-      <c r="D402" s="30"/>
-      <c r="E402" s="30"/>
-      <c r="F402" s="30"/>
-      <c r="G402" s="30"/>
-      <c r="H402" s="30"/>
-      <c r="I402" s="30"/>
+      <c r="B402" s="52"/>
+      <c r="C402" s="31"/>
+      <c r="D402" s="31"/>
+      <c r="E402" s="31"/>
+      <c r="F402" s="31"/>
+      <c r="G402" s="31"/>
+      <c r="H402" s="31"/>
+      <c r="I402" s="31"/>
       <c r="J402" s="21"/>
       <c r="K402" s="21"/>
       <c r="L402" s="21"/>
@@ -16161,17 +16162,17 @@
       <c r="Z402" s="21"/>
     </row>
     <row r="403" customHeight="1" spans="1:26">
-      <c r="A403" s="51" t="s">
+      <c r="A403" s="52" t="s">
         <v>465</v>
       </c>
-      <c r="B403" s="51"/>
-      <c r="C403" s="30"/>
-      <c r="D403" s="30"/>
-      <c r="E403" s="30"/>
-      <c r="F403" s="30"/>
-      <c r="G403" s="30"/>
-      <c r="H403" s="30"/>
-      <c r="I403" s="30"/>
+      <c r="B403" s="52"/>
+      <c r="C403" s="31"/>
+      <c r="D403" s="31"/>
+      <c r="E403" s="31"/>
+      <c r="F403" s="31"/>
+      <c r="G403" s="31"/>
+      <c r="H403" s="31"/>
+      <c r="I403" s="31"/>
       <c r="J403" s="21"/>
       <c r="K403" s="21"/>
       <c r="L403" s="21"/>
@@ -16191,17 +16192,17 @@
       <c r="Z403" s="21"/>
     </row>
     <row r="404" customHeight="1" spans="1:26">
-      <c r="A404" s="51" t="s">
+      <c r="A404" s="52" t="s">
         <v>466</v>
       </c>
-      <c r="B404" s="51"/>
-      <c r="C404" s="30"/>
-      <c r="D404" s="30"/>
-      <c r="E404" s="30"/>
-      <c r="F404" s="30"/>
-      <c r="G404" s="30"/>
-      <c r="H404" s="30"/>
-      <c r="I404" s="30"/>
+      <c r="B404" s="52"/>
+      <c r="C404" s="31"/>
+      <c r="D404" s="31"/>
+      <c r="E404" s="31"/>
+      <c r="F404" s="31"/>
+      <c r="G404" s="31"/>
+      <c r="H404" s="31"/>
+      <c r="I404" s="31"/>
       <c r="J404" s="21"/>
       <c r="K404" s="21"/>
       <c r="L404" s="21"/>
@@ -16221,17 +16222,17 @@
       <c r="Z404" s="21"/>
     </row>
     <row r="405" customHeight="1" spans="1:26">
-      <c r="A405" s="51" t="s">
+      <c r="A405" s="52" t="s">
         <v>467</v>
       </c>
-      <c r="B405" s="51"/>
-      <c r="C405" s="30"/>
-      <c r="D405" s="30"/>
-      <c r="E405" s="30"/>
-      <c r="F405" s="30"/>
-      <c r="G405" s="30"/>
-      <c r="H405" s="30"/>
-      <c r="I405" s="30"/>
+      <c r="B405" s="52"/>
+      <c r="C405" s="31"/>
+      <c r="D405" s="31"/>
+      <c r="E405" s="31"/>
+      <c r="F405" s="31"/>
+      <c r="G405" s="31"/>
+      <c r="H405" s="31"/>
+      <c r="I405" s="31"/>
       <c r="J405" s="21"/>
       <c r="K405" s="21"/>
       <c r="L405" s="21"/>
@@ -16251,17 +16252,17 @@
       <c r="Z405" s="21"/>
     </row>
     <row r="406" customHeight="1" spans="1:26">
-      <c r="A406" s="51" t="s">
+      <c r="A406" s="52" t="s">
         <v>468</v>
       </c>
-      <c r="B406" s="51"/>
-      <c r="C406" s="30"/>
-      <c r="D406" s="30"/>
-      <c r="E406" s="30"/>
-      <c r="F406" s="30"/>
-      <c r="G406" s="30"/>
-      <c r="H406" s="30"/>
-      <c r="I406" s="30"/>
+      <c r="B406" s="52"/>
+      <c r="C406" s="31"/>
+      <c r="D406" s="31"/>
+      <c r="E406" s="31"/>
+      <c r="F406" s="31"/>
+      <c r="G406" s="31"/>
+      <c r="H406" s="31"/>
+      <c r="I406" s="31"/>
       <c r="J406" s="21"/>
       <c r="K406" s="21"/>
       <c r="L406" s="21"/>
@@ -16281,17 +16282,17 @@
       <c r="Z406" s="21"/>
     </row>
     <row r="407" customHeight="1" spans="1:26">
-      <c r="A407" s="51" t="s">
+      <c r="A407" s="52" t="s">
         <v>469</v>
       </c>
-      <c r="B407" s="51"/>
-      <c r="C407" s="30"/>
-      <c r="D407" s="30"/>
-      <c r="E407" s="30"/>
-      <c r="F407" s="30"/>
-      <c r="G407" s="30"/>
-      <c r="H407" s="30"/>
-      <c r="I407" s="30"/>
+      <c r="B407" s="52"/>
+      <c r="C407" s="31"/>
+      <c r="D407" s="31"/>
+      <c r="E407" s="31"/>
+      <c r="F407" s="31"/>
+      <c r="G407" s="31"/>
+      <c r="H407" s="31"/>
+      <c r="I407" s="31"/>
       <c r="J407" s="21"/>
       <c r="K407" s="21"/>
       <c r="L407" s="21"/>
@@ -16311,7 +16312,7 @@
       <c r="Z407" s="21"/>
     </row>
     <row r="408" customHeight="1" spans="1:26">
-      <c r="A408" s="53" t="s">
+      <c r="A408" s="54" t="s">
         <v>23</v>
       </c>
       <c r="B408" s="1"/>
@@ -16344,14 +16345,14 @@
       <c r="A409" s="20" t="s">
         <v>470</v>
       </c>
-      <c r="B409" s="51"/>
-      <c r="C409" s="30"/>
-      <c r="D409" s="30"/>
-      <c r="E409" s="30"/>
-      <c r="F409" s="30"/>
-      <c r="G409" s="30"/>
-      <c r="H409" s="30"/>
-      <c r="I409" s="30"/>
+      <c r="B409" s="52"/>
+      <c r="C409" s="31"/>
+      <c r="D409" s="31"/>
+      <c r="E409" s="31"/>
+      <c r="F409" s="31"/>
+      <c r="G409" s="31"/>
+      <c r="H409" s="31"/>
+      <c r="I409" s="31"/>
       <c r="J409" s="21"/>
       <c r="K409" s="21"/>
       <c r="L409" s="21"/>
@@ -16371,17 +16372,17 @@
       <c r="Z409" s="21"/>
     </row>
     <row r="410" customHeight="1" spans="1:26">
-      <c r="A410" s="51" t="s">
+      <c r="A410" s="52" t="s">
         <v>471</v>
       </c>
-      <c r="B410" s="51"/>
-      <c r="C410" s="30"/>
-      <c r="D410" s="30"/>
-      <c r="E410" s="30"/>
-      <c r="F410" s="30"/>
-      <c r="G410" s="30"/>
-      <c r="H410" s="30"/>
-      <c r="I410" s="30"/>
+      <c r="B410" s="52"/>
+      <c r="C410" s="31"/>
+      <c r="D410" s="31"/>
+      <c r="E410" s="31"/>
+      <c r="F410" s="31"/>
+      <c r="G410" s="31"/>
+      <c r="H410" s="31"/>
+      <c r="I410" s="31"/>
       <c r="J410" s="21"/>
       <c r="K410" s="21"/>
       <c r="L410" s="21"/>
@@ -16401,17 +16402,17 @@
       <c r="Z410" s="21"/>
     </row>
     <row r="411" customHeight="1" spans="1:26">
-      <c r="A411" s="51" t="s">
+      <c r="A411" s="52" t="s">
         <v>472</v>
       </c>
-      <c r="B411" s="51"/>
-      <c r="C411" s="30"/>
-      <c r="D411" s="30"/>
-      <c r="E411" s="30"/>
-      <c r="F411" s="30"/>
-      <c r="G411" s="30"/>
-      <c r="H411" s="30"/>
-      <c r="I411" s="30"/>
+      <c r="B411" s="52"/>
+      <c r="C411" s="31"/>
+      <c r="D411" s="31"/>
+      <c r="E411" s="31"/>
+      <c r="F411" s="31"/>
+      <c r="G411" s="31"/>
+      <c r="H411" s="31"/>
+      <c r="I411" s="31"/>
       <c r="J411" s="21"/>
       <c r="K411" s="21"/>
       <c r="L411" s="21"/>
@@ -16431,17 +16432,17 @@
       <c r="Z411" s="21"/>
     </row>
     <row r="412" customHeight="1" spans="1:26">
-      <c r="A412" s="51" t="s">
+      <c r="A412" s="52" t="s">
         <v>473</v>
       </c>
-      <c r="B412" s="51"/>
-      <c r="C412" s="30"/>
-      <c r="D412" s="30"/>
-      <c r="E412" s="30"/>
-      <c r="F412" s="30"/>
-      <c r="G412" s="30"/>
-      <c r="H412" s="30"/>
-      <c r="I412" s="30"/>
+      <c r="B412" s="52"/>
+      <c r="C412" s="31"/>
+      <c r="D412" s="31"/>
+      <c r="E412" s="31"/>
+      <c r="F412" s="31"/>
+      <c r="G412" s="31"/>
+      <c r="H412" s="31"/>
+      <c r="I412" s="31"/>
       <c r="J412" s="21"/>
       <c r="K412" s="21"/>
       <c r="L412" s="21"/>
@@ -16461,17 +16462,17 @@
       <c r="Z412" s="21"/>
     </row>
     <row r="413" customHeight="1" spans="1:26">
-      <c r="A413" s="51" t="s">
+      <c r="A413" s="52" t="s">
         <v>474</v>
       </c>
-      <c r="B413" s="51"/>
-      <c r="C413" s="30"/>
-      <c r="D413" s="30"/>
-      <c r="E413" s="30"/>
-      <c r="F413" s="30"/>
-      <c r="G413" s="30"/>
-      <c r="H413" s="30"/>
-      <c r="I413" s="30"/>
+      <c r="B413" s="52"/>
+      <c r="C413" s="31"/>
+      <c r="D413" s="31"/>
+      <c r="E413" s="31"/>
+      <c r="F413" s="31"/>
+      <c r="G413" s="31"/>
+      <c r="H413" s="31"/>
+      <c r="I413" s="31"/>
       <c r="J413" s="21"/>
       <c r="K413" s="21"/>
       <c r="L413" s="21"/>
@@ -16491,17 +16492,17 @@
       <c r="Z413" s="21"/>
     </row>
     <row r="414" customHeight="1" spans="1:26">
-      <c r="A414" s="51" t="s">
+      <c r="A414" s="52" t="s">
         <v>475</v>
       </c>
-      <c r="B414" s="51"/>
-      <c r="C414" s="30"/>
-      <c r="D414" s="30"/>
-      <c r="E414" s="30"/>
-      <c r="F414" s="30"/>
-      <c r="G414" s="30"/>
-      <c r="H414" s="30"/>
-      <c r="I414" s="30"/>
+      <c r="B414" s="52"/>
+      <c r="C414" s="31"/>
+      <c r="D414" s="31"/>
+      <c r="E414" s="31"/>
+      <c r="F414" s="31"/>
+      <c r="G414" s="31"/>
+      <c r="H414" s="31"/>
+      <c r="I414" s="31"/>
       <c r="J414" s="21"/>
       <c r="K414" s="21"/>
       <c r="L414" s="21"/>
@@ -16521,17 +16522,17 @@
       <c r="Z414" s="21"/>
     </row>
     <row r="415" customHeight="1" spans="1:26">
-      <c r="A415" s="33" t="s">
+      <c r="A415" s="34" t="s">
         <v>476</v>
       </c>
-      <c r="B415" s="51"/>
-      <c r="C415" s="30"/>
-      <c r="D415" s="30"/>
-      <c r="E415" s="30"/>
-      <c r="F415" s="30"/>
-      <c r="G415" s="30"/>
-      <c r="H415" s="30"/>
-      <c r="I415" s="30"/>
+      <c r="B415" s="52"/>
+      <c r="C415" s="31"/>
+      <c r="D415" s="31"/>
+      <c r="E415" s="31"/>
+      <c r="F415" s="31"/>
+      <c r="G415" s="31"/>
+      <c r="H415" s="31"/>
+      <c r="I415" s="31"/>
       <c r="J415" s="21"/>
       <c r="K415" s="21"/>
       <c r="L415" s="21"/>
@@ -16551,17 +16552,17 @@
       <c r="Z415" s="21"/>
     </row>
     <row r="416" customHeight="1" spans="1:26">
-      <c r="A416" s="51" t="s">
+      <c r="A416" s="52" t="s">
         <v>477</v>
       </c>
-      <c r="B416" s="51"/>
-      <c r="C416" s="30"/>
-      <c r="D416" s="30"/>
-      <c r="E416" s="30"/>
-      <c r="F416" s="30"/>
-      <c r="G416" s="30"/>
-      <c r="H416" s="30"/>
-      <c r="I416" s="30"/>
+      <c r="B416" s="52"/>
+      <c r="C416" s="31"/>
+      <c r="D416" s="31"/>
+      <c r="E416" s="31"/>
+      <c r="F416" s="31"/>
+      <c r="G416" s="31"/>
+      <c r="H416" s="31"/>
+      <c r="I416" s="31"/>
       <c r="J416" s="21"/>
       <c r="K416" s="21"/>
       <c r="L416" s="21"/>
@@ -16581,17 +16582,17 @@
       <c r="Z416" s="21"/>
     </row>
     <row r="417" customHeight="1" spans="1:26">
-      <c r="A417" s="51" t="s">
+      <c r="A417" s="52" t="s">
         <v>478</v>
       </c>
-      <c r="B417" s="51"/>
-      <c r="C417" s="30"/>
-      <c r="D417" s="30"/>
-      <c r="E417" s="30"/>
-      <c r="F417" s="30"/>
-      <c r="G417" s="30"/>
-      <c r="H417" s="30"/>
-      <c r="I417" s="30"/>
+      <c r="B417" s="52"/>
+      <c r="C417" s="31"/>
+      <c r="D417" s="31"/>
+      <c r="E417" s="31"/>
+      <c r="F417" s="31"/>
+      <c r="G417" s="31"/>
+      <c r="H417" s="31"/>
+      <c r="I417" s="31"/>
       <c r="J417" s="21"/>
       <c r="K417" s="21"/>
       <c r="L417" s="21"/>
@@ -16611,17 +16612,17 @@
       <c r="Z417" s="21"/>
     </row>
     <row r="418" customHeight="1" spans="1:26">
-      <c r="A418" s="51" t="s">
+      <c r="A418" s="52" t="s">
         <v>479</v>
       </c>
-      <c r="B418" s="51"/>
-      <c r="C418" s="30"/>
-      <c r="D418" s="30"/>
-      <c r="E418" s="30"/>
-      <c r="F418" s="30"/>
-      <c r="G418" s="30"/>
-      <c r="H418" s="30"/>
-      <c r="I418" s="30"/>
+      <c r="B418" s="52"/>
+      <c r="C418" s="31"/>
+      <c r="D418" s="31"/>
+      <c r="E418" s="31"/>
+      <c r="F418" s="31"/>
+      <c r="G418" s="31"/>
+      <c r="H418" s="31"/>
+      <c r="I418" s="31"/>
       <c r="J418" s="21"/>
       <c r="K418" s="21"/>
       <c r="L418" s="21"/>
@@ -16641,17 +16642,17 @@
       <c r="Z418" s="21"/>
     </row>
     <row r="419" customHeight="1" spans="1:26">
-      <c r="A419" s="51" t="s">
+      <c r="A419" s="52" t="s">
         <v>480</v>
       </c>
-      <c r="B419" s="51"/>
-      <c r="C419" s="30"/>
-      <c r="D419" s="30"/>
-      <c r="E419" s="30"/>
-      <c r="F419" s="30"/>
-      <c r="G419" s="30"/>
-      <c r="H419" s="30"/>
-      <c r="I419" s="30"/>
+      <c r="B419" s="52"/>
+      <c r="C419" s="31"/>
+      <c r="D419" s="31"/>
+      <c r="E419" s="31"/>
+      <c r="F419" s="31"/>
+      <c r="G419" s="31"/>
+      <c r="H419" s="31"/>
+      <c r="I419" s="31"/>
       <c r="J419" s="21"/>
       <c r="K419" s="21"/>
       <c r="L419" s="21"/>
@@ -16671,17 +16672,17 @@
       <c r="Z419" s="21"/>
     </row>
     <row r="420" customHeight="1" spans="1:26">
-      <c r="A420" s="33" t="s">
+      <c r="A420" s="34" t="s">
         <v>481</v>
       </c>
-      <c r="B420" s="51"/>
-      <c r="C420" s="30"/>
-      <c r="D420" s="30"/>
-      <c r="E420" s="30"/>
-      <c r="F420" s="30"/>
-      <c r="G420" s="30"/>
-      <c r="H420" s="30"/>
-      <c r="I420" s="30"/>
+      <c r="B420" s="52"/>
+      <c r="C420" s="31"/>
+      <c r="D420" s="31"/>
+      <c r="E420" s="31"/>
+      <c r="F420" s="31"/>
+      <c r="G420" s="31"/>
+      <c r="H420" s="31"/>
+      <c r="I420" s="31"/>
       <c r="J420" s="21"/>
       <c r="K420" s="21"/>
       <c r="L420" s="21"/>
@@ -16701,17 +16702,17 @@
       <c r="Z420" s="21"/>
     </row>
     <row r="421" customHeight="1" spans="1:26">
-      <c r="A421" s="51" t="s">
+      <c r="A421" s="52" t="s">
         <v>482</v>
       </c>
-      <c r="B421" s="51"/>
-      <c r="C421" s="30"/>
-      <c r="D421" s="30"/>
-      <c r="E421" s="30"/>
-      <c r="F421" s="30"/>
-      <c r="G421" s="30"/>
-      <c r="H421" s="30"/>
-      <c r="I421" s="30"/>
+      <c r="B421" s="52"/>
+      <c r="C421" s="31"/>
+      <c r="D421" s="31"/>
+      <c r="E421" s="31"/>
+      <c r="F421" s="31"/>
+      <c r="G421" s="31"/>
+      <c r="H421" s="31"/>
+      <c r="I421" s="31"/>
       <c r="J421" s="21"/>
       <c r="K421" s="21"/>
       <c r="L421" s="21"/>
@@ -16731,17 +16732,17 @@
       <c r="Z421" s="21"/>
     </row>
     <row r="422" customHeight="1" spans="1:26">
-      <c r="A422" s="51" t="s">
+      <c r="A422" s="52" t="s">
         <v>483</v>
       </c>
-      <c r="B422" s="51"/>
-      <c r="C422" s="30"/>
-      <c r="D422" s="30"/>
-      <c r="E422" s="30"/>
-      <c r="F422" s="30"/>
-      <c r="G422" s="30"/>
-      <c r="H422" s="30"/>
-      <c r="I422" s="30"/>
+      <c r="B422" s="52"/>
+      <c r="C422" s="31"/>
+      <c r="D422" s="31"/>
+      <c r="E422" s="31"/>
+      <c r="F422" s="31"/>
+      <c r="G422" s="31"/>
+      <c r="H422" s="31"/>
+      <c r="I422" s="31"/>
       <c r="J422" s="21"/>
       <c r="K422" s="21"/>
       <c r="L422" s="21"/>
@@ -16761,17 +16762,17 @@
       <c r="Z422" s="21"/>
     </row>
     <row r="423" customHeight="1" spans="1:26">
-      <c r="A423" s="51" t="s">
+      <c r="A423" s="52" t="s">
         <v>484</v>
       </c>
-      <c r="B423" s="51"/>
-      <c r="C423" s="30"/>
-      <c r="D423" s="30"/>
-      <c r="E423" s="30"/>
-      <c r="F423" s="30"/>
-      <c r="G423" s="30"/>
-      <c r="H423" s="30"/>
-      <c r="I423" s="30"/>
+      <c r="B423" s="52"/>
+      <c r="C423" s="31"/>
+      <c r="D423" s="31"/>
+      <c r="E423" s="31"/>
+      <c r="F423" s="31"/>
+      <c r="G423" s="31"/>
+      <c r="H423" s="31"/>
+      <c r="I423" s="31"/>
       <c r="J423" s="21"/>
       <c r="K423" s="21"/>
       <c r="L423" s="21"/>
@@ -16791,17 +16792,17 @@
       <c r="Z423" s="21"/>
     </row>
     <row r="424" customHeight="1" spans="1:26">
-      <c r="A424" s="51" t="s">
+      <c r="A424" s="52" t="s">
         <v>485</v>
       </c>
-      <c r="B424" s="51"/>
-      <c r="C424" s="30"/>
-      <c r="D424" s="30"/>
-      <c r="E424" s="30"/>
-      <c r="F424" s="30"/>
-      <c r="G424" s="30"/>
-      <c r="H424" s="30"/>
-      <c r="I424" s="30"/>
+      <c r="B424" s="52"/>
+      <c r="C424" s="31"/>
+      <c r="D424" s="31"/>
+      <c r="E424" s="31"/>
+      <c r="F424" s="31"/>
+      <c r="G424" s="31"/>
+      <c r="H424" s="31"/>
+      <c r="I424" s="31"/>
       <c r="J424" s="21"/>
       <c r="K424" s="21"/>
       <c r="L424" s="21"/>
@@ -16821,17 +16822,17 @@
       <c r="Z424" s="21"/>
     </row>
     <row r="425" customHeight="1" spans="1:26">
-      <c r="A425" s="51" t="s">
+      <c r="A425" s="52" t="s">
         <v>486</v>
       </c>
-      <c r="B425" s="51"/>
-      <c r="C425" s="30"/>
-      <c r="D425" s="30"/>
-      <c r="E425" s="30"/>
-      <c r="F425" s="30"/>
-      <c r="G425" s="30"/>
-      <c r="H425" s="30"/>
-      <c r="I425" s="30"/>
+      <c r="B425" s="52"/>
+      <c r="C425" s="31"/>
+      <c r="D425" s="31"/>
+      <c r="E425" s="31"/>
+      <c r="F425" s="31"/>
+      <c r="G425" s="31"/>
+      <c r="H425" s="31"/>
+      <c r="I425" s="31"/>
       <c r="J425" s="21"/>
       <c r="K425" s="21"/>
       <c r="L425" s="21"/>
@@ -16851,17 +16852,17 @@
       <c r="Z425" s="21"/>
     </row>
     <row r="426" customHeight="1" spans="1:26">
-      <c r="A426" s="33" t="s">
+      <c r="A426" s="34" t="s">
         <v>487</v>
       </c>
-      <c r="B426" s="51"/>
-      <c r="C426" s="30"/>
-      <c r="D426" s="30"/>
-      <c r="E426" s="30"/>
-      <c r="F426" s="30"/>
-      <c r="G426" s="30"/>
-      <c r="H426" s="30"/>
-      <c r="I426" s="30"/>
+      <c r="B426" s="52"/>
+      <c r="C426" s="31"/>
+      <c r="D426" s="31"/>
+      <c r="E426" s="31"/>
+      <c r="F426" s="31"/>
+      <c r="G426" s="31"/>
+      <c r="H426" s="31"/>
+      <c r="I426" s="31"/>
       <c r="J426" s="21"/>
       <c r="K426" s="21"/>
       <c r="L426" s="21"/>
@@ -16881,17 +16882,17 @@
       <c r="Z426" s="21"/>
     </row>
     <row r="427" customHeight="1" spans="1:26">
-      <c r="A427" s="51" t="s">
+      <c r="A427" s="52" t="s">
         <v>488</v>
       </c>
-      <c r="B427" s="51"/>
-      <c r="C427" s="30"/>
-      <c r="D427" s="30"/>
-      <c r="E427" s="30"/>
-      <c r="F427" s="30"/>
-      <c r="G427" s="30"/>
-      <c r="H427" s="30"/>
-      <c r="I427" s="30"/>
+      <c r="B427" s="52"/>
+      <c r="C427" s="31"/>
+      <c r="D427" s="31"/>
+      <c r="E427" s="31"/>
+      <c r="F427" s="31"/>
+      <c r="G427" s="31"/>
+      <c r="H427" s="31"/>
+      <c r="I427" s="31"/>
       <c r="J427" s="21"/>
       <c r="K427" s="21"/>
       <c r="L427" s="21"/>
@@ -16911,17 +16912,17 @@
       <c r="Z427" s="21"/>
     </row>
     <row r="428" customHeight="1" spans="1:26">
-      <c r="A428" s="51" t="s">
+      <c r="A428" s="52" t="s">
         <v>489</v>
       </c>
-      <c r="B428" s="51"/>
-      <c r="C428" s="30"/>
-      <c r="D428" s="30"/>
-      <c r="E428" s="30"/>
-      <c r="F428" s="30"/>
-      <c r="G428" s="30"/>
-      <c r="H428" s="30"/>
-      <c r="I428" s="30"/>
+      <c r="B428" s="52"/>
+      <c r="C428" s="31"/>
+      <c r="D428" s="31"/>
+      <c r="E428" s="31"/>
+      <c r="F428" s="31"/>
+      <c r="G428" s="31"/>
+      <c r="H428" s="31"/>
+      <c r="I428" s="31"/>
       <c r="J428" s="21"/>
       <c r="K428" s="21"/>
       <c r="L428" s="21"/>
@@ -16941,17 +16942,17 @@
       <c r="Z428" s="21"/>
     </row>
     <row r="429" customHeight="1" spans="1:26">
-      <c r="A429" s="51" t="s">
+      <c r="A429" s="52" t="s">
         <v>490</v>
       </c>
-      <c r="B429" s="51"/>
-      <c r="C429" s="30"/>
-      <c r="D429" s="30"/>
-      <c r="E429" s="30"/>
-      <c r="F429" s="30"/>
-      <c r="G429" s="30"/>
-      <c r="H429" s="30"/>
-      <c r="I429" s="30"/>
+      <c r="B429" s="52"/>
+      <c r="C429" s="31"/>
+      <c r="D429" s="31"/>
+      <c r="E429" s="31"/>
+      <c r="F429" s="31"/>
+      <c r="G429" s="31"/>
+      <c r="H429" s="31"/>
+      <c r="I429" s="31"/>
       <c r="J429" s="21"/>
       <c r="K429" s="21"/>
       <c r="L429" s="21"/>
@@ -16971,17 +16972,17 @@
       <c r="Z429" s="21"/>
     </row>
     <row r="430" customHeight="1" spans="1:26">
-      <c r="A430" s="51" t="s">
+      <c r="A430" s="52" t="s">
         <v>491</v>
       </c>
-      <c r="B430" s="51"/>
-      <c r="C430" s="30"/>
-      <c r="D430" s="30"/>
-      <c r="E430" s="30"/>
-      <c r="F430" s="30"/>
-      <c r="G430" s="30"/>
-      <c r="H430" s="30"/>
-      <c r="I430" s="30"/>
+      <c r="B430" s="52"/>
+      <c r="C430" s="31"/>
+      <c r="D430" s="31"/>
+      <c r="E430" s="31"/>
+      <c r="F430" s="31"/>
+      <c r="G430" s="31"/>
+      <c r="H430" s="31"/>
+      <c r="I430" s="31"/>
       <c r="J430" s="21"/>
       <c r="K430" s="21"/>
       <c r="L430" s="21"/>
@@ -17001,17 +17002,17 @@
       <c r="Z430" s="21"/>
     </row>
     <row r="431" customHeight="1" spans="1:26">
-      <c r="A431" s="51" t="s">
+      <c r="A431" s="52" t="s">
         <v>492</v>
       </c>
-      <c r="B431" s="51"/>
-      <c r="C431" s="30"/>
-      <c r="D431" s="30"/>
-      <c r="E431" s="30"/>
-      <c r="F431" s="30"/>
-      <c r="G431" s="30"/>
-      <c r="H431" s="30"/>
-      <c r="I431" s="30"/>
+      <c r="B431" s="52"/>
+      <c r="C431" s="31"/>
+      <c r="D431" s="31"/>
+      <c r="E431" s="31"/>
+      <c r="F431" s="31"/>
+      <c r="G431" s="31"/>
+      <c r="H431" s="31"/>
+      <c r="I431" s="31"/>
       <c r="J431" s="21"/>
       <c r="K431" s="21"/>
       <c r="L431" s="21"/>
@@ -17119,7 +17120,7 @@
       <c r="Z434" s="21"/>
     </row>
     <row r="435" customHeight="1" spans="1:26">
-      <c r="A435" s="57" t="s">
+      <c r="A435" s="58" t="s">
         <v>494</v>
       </c>
       <c r="B435" s="21" t="s">
@@ -17151,7 +17152,7 @@
       <c r="Z435" s="21"/>
     </row>
     <row r="436" customHeight="1" spans="1:26">
-      <c r="A436" s="57" t="s">
+      <c r="A436" s="58" t="s">
         <v>494</v>
       </c>
       <c r="B436" s="21" t="s">
@@ -17183,7 +17184,7 @@
       <c r="Z436" s="21"/>
     </row>
     <row r="437" customHeight="1" spans="1:26">
-      <c r="A437" s="57" t="s">
+      <c r="A437" s="58" t="s">
         <v>497</v>
       </c>
       <c r="B437" s="21" t="s">
@@ -17215,7 +17216,7 @@
       <c r="Z437" s="21"/>
     </row>
     <row r="438" customHeight="1" spans="1:26">
-      <c r="A438" s="48" t="str">
+      <c r="A438" s="49" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/russian-doll-envelopes/","Russian doll envelopes")</f>
         <v>Russian doll envelopes</v>
       </c>
@@ -17248,7 +17249,7 @@
       <c r="Z438" s="21"/>
     </row>
     <row r="439" customHeight="1" spans="1:26">
-      <c r="A439" s="38" t="s">
+      <c r="A439" s="39" t="s">
         <v>500</v>
       </c>
       <c r="B439" s="21" t="s">
@@ -17312,7 +17313,7 @@
       <c r="Z440" s="21"/>
     </row>
     <row r="441" customHeight="1" spans="1:26">
-      <c r="A441" s="57" t="s">
+      <c r="A441" s="58" t="s">
         <v>504</v>
       </c>
       <c r="B441" s="21" t="s">
@@ -17344,7 +17345,7 @@
       <c r="Z441" s="21"/>
     </row>
     <row r="442" customHeight="1" spans="1:26">
-      <c r="A442" s="33" t="s">
+      <c r="A442" s="34" t="s">
         <v>506</v>
       </c>
       <c r="B442" s="21"/>
@@ -17374,7 +17375,7 @@
       <c r="Z442" s="21"/>
     </row>
     <row r="443" customHeight="1" spans="1:26">
-      <c r="A443" s="38" t="s">
+      <c r="A443" s="39" t="s">
         <v>507</v>
       </c>
       <c r="B443" s="21" t="s">
@@ -17406,7 +17407,7 @@
       <c r="Z443" s="21"/>
     </row>
     <row r="444" customHeight="1" spans="1:26">
-      <c r="A444" s="38" t="s">
+      <c r="A444" s="39" t="s">
         <v>508</v>
       </c>
       <c r="B444" s="21" t="s">
@@ -17438,7 +17439,7 @@
       <c r="Z444" s="21"/>
     </row>
     <row r="445" customHeight="1" spans="1:26">
-      <c r="A445" s="38" t="s">
+      <c r="A445" s="39" t="s">
         <v>509</v>
       </c>
       <c r="B445" s="21" t="s">
@@ -17562,7 +17563,7 @@
       <c r="Z448" s="21"/>
     </row>
     <row r="449" customHeight="1" spans="1:26">
-      <c r="A449" s="47" t="s">
+      <c r="A449" s="48" t="s">
         <v>514</v>
       </c>
       <c r="B449" s="21" t="s">
@@ -17594,11 +17595,11 @@
       <c r="Z449" s="21"/>
     </row>
     <row r="450" customHeight="1" spans="1:26">
-      <c r="A450" s="47" t="s">
+      <c r="A450" s="48" t="s">
         <v>516</v>
       </c>
-      <c r="B450" s="35"/>
-      <c r="C450" s="35"/>
+      <c r="B450" s="36"/>
+      <c r="C450" s="36"/>
       <c r="D450" s="21"/>
       <c r="E450" s="21"/>
       <c r="F450" s="21"/>
@@ -17624,7 +17625,7 @@
       <c r="Z450" s="21"/>
     </row>
     <row r="451" customHeight="1" spans="1:26">
-      <c r="A451" s="48" t="s">
+      <c r="A451" s="49" t="s">
         <v>517</v>
       </c>
       <c r="B451" s="21" t="s">
@@ -17656,7 +17657,7 @@
       <c r="Z451" s="21"/>
     </row>
     <row r="452" customHeight="1" spans="1:26">
-      <c r="A452" s="47" t="s">
+      <c r="A452" s="48" t="s">
         <v>519</v>
       </c>
       <c r="B452" s="21" t="s">
@@ -17688,7 +17689,7 @@
       <c r="Z452" s="21"/>
     </row>
     <row r="453" customHeight="1" spans="1:26">
-      <c r="A453" s="33" t="s">
+      <c r="A453" s="34" t="s">
         <v>520</v>
       </c>
       <c r="B453" s="21"/>
@@ -17748,14 +17749,14 @@
       <c r="Z454" s="21"/>
     </row>
     <row r="455" customHeight="1" spans="1:26">
-      <c r="A455" s="48" t="str">
+      <c r="A455" s="49" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/best-time-to-buy-and-sell-stock/","best time to buy and sell stock")</f>
         <v>best time to buy and sell stock</v>
       </c>
-      <c r="B455" s="35" t="s">
+      <c r="B455" s="36" t="s">
         <v>522</v>
       </c>
-      <c r="C455" s="35"/>
+      <c r="C455" s="36"/>
       <c r="D455" s="21"/>
       <c r="E455" s="21"/>
       <c r="F455" s="21"/>
@@ -17781,14 +17782,14 @@
       <c r="Z455" s="21"/>
     </row>
     <row r="456" customHeight="1" spans="1:26">
-      <c r="A456" s="48" t="str">
+      <c r="A456" s="49" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/best-time-to-buy-and-sell-stock-ii/","best time to buy and sell 2")</f>
         <v>best time to buy and sell 2</v>
       </c>
-      <c r="B456" s="35" t="s">
+      <c r="B456" s="36" t="s">
         <v>523</v>
       </c>
-      <c r="C456" s="35"/>
+      <c r="C456" s="36"/>
       <c r="D456" s="21"/>
       <c r="E456" s="21"/>
       <c r="F456" s="21"/>
@@ -17814,7 +17815,7 @@
       <c r="Z456" s="21"/>
     </row>
     <row r="457" customHeight="1" spans="1:26">
-      <c r="A457" s="38" t="s">
+      <c r="A457" s="39" t="s">
         <v>524</v>
       </c>
       <c r="B457" s="21" t="s">
@@ -17846,7 +17847,7 @@
       <c r="Z457" s="21"/>
     </row>
     <row r="458" customHeight="1" spans="1:26">
-      <c r="A458" s="48" t="str">
+      <c r="A458" s="49" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/best-time-to-buy-and-sell-stock-with-cooldown/","best time to buy and sell with cool down")</f>
         <v>best time to buy and sell with cool down</v>
       </c>
@@ -17879,14 +17880,14 @@
       <c r="Z458" s="21"/>
     </row>
     <row r="459" customHeight="1" spans="1:26">
-      <c r="A459" s="48" t="str">
+      <c r="A459" s="49" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/best-time-to-buy-and-sell-stock-iii/","best time to buy and sell 3")</f>
         <v>best time to buy and sell 3</v>
       </c>
-      <c r="B459" s="35" t="s">
+      <c r="B459" s="36" t="s">
         <v>527</v>
       </c>
-      <c r="C459" s="35"/>
+      <c r="C459" s="36"/>
       <c r="D459" s="21"/>
       <c r="E459" s="21"/>
       <c r="F459" s="21"/>
@@ -17912,7 +17913,7 @@
       <c r="Z459" s="21"/>
     </row>
     <row r="460" customHeight="1" spans="1:26">
-      <c r="A460" s="48" t="str">
+      <c r="A460" s="49" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/best-time-to-buy-and-sell-stock-iv/","best time to but and sell 4")</f>
         <v>best time to but and sell 4</v>
       </c>
@@ -17945,13 +17946,13 @@
       <c r="Z460" s="21"/>
     </row>
     <row r="461" customHeight="1" spans="1:26">
-      <c r="A461" s="47" t="s">
+      <c r="A461" s="48" t="s">
         <v>529</v>
       </c>
-      <c r="B461" s="35" t="s">
+      <c r="B461" s="36" t="s">
         <v>530</v>
       </c>
-      <c r="C461" s="35"/>
+      <c r="C461" s="36"/>
       <c r="D461" s="21"/>
       <c r="E461" s="21"/>
       <c r="F461" s="21"/>
@@ -17977,7 +17978,7 @@
       <c r="Z461" s="21"/>
     </row>
     <row r="462" customHeight="1" spans="1:26">
-      <c r="A462" s="33" t="s">
+      <c r="A462" s="34" t="s">
         <v>531</v>
       </c>
       <c r="B462" s="21"/>
@@ -18011,10 +18012,10 @@
         <f>HYPERLINK("https://leetcode.com/problems/burst-balloons/","burst balloons")</f>
         <v>burst balloons</v>
       </c>
-      <c r="B463" s="35" t="s">
+      <c r="B463" s="36" t="s">
         <v>532</v>
       </c>
-      <c r="C463" s="35"/>
+      <c r="C463" s="36"/>
       <c r="D463" s="21"/>
       <c r="E463" s="21"/>
       <c r="F463" s="21"/>
@@ -18043,10 +18044,10 @@
       <c r="A464" s="22" t="s">
         <v>533</v>
       </c>
-      <c r="B464" s="35" t="s">
+      <c r="B464" s="36" t="s">
         <v>534</v>
       </c>
-      <c r="C464" s="35"/>
+      <c r="C464" s="36"/>
       <c r="D464" s="21"/>
       <c r="E464" s="21"/>
       <c r="F464" s="21"/>
@@ -18072,13 +18073,13 @@
       <c r="Z464" s="21"/>
     </row>
     <row r="465" customHeight="1" spans="1:26">
-      <c r="A465" s="47" t="s">
+      <c r="A465" s="48" t="s">
         <v>535</v>
       </c>
-      <c r="B465" s="35" t="s">
+      <c r="B465" s="36" t="s">
         <v>535</v>
       </c>
-      <c r="C465" s="35"/>
+      <c r="C465" s="36"/>
       <c r="D465" s="21"/>
       <c r="E465" s="21"/>
       <c r="F465" s="21"/>
@@ -18104,13 +18105,13 @@
       <c r="Z465" s="21"/>
     </row>
     <row r="466" customHeight="1" spans="1:26">
-      <c r="A466" s="47" t="s">
+      <c r="A466" s="48" t="s">
         <v>536</v>
       </c>
-      <c r="B466" s="35" t="s">
+      <c r="B466" s="36" t="s">
         <v>537</v>
       </c>
-      <c r="C466" s="35"/>
+      <c r="C466" s="36"/>
       <c r="D466" s="21"/>
       <c r="E466" s="21"/>
       <c r="F466" s="21"/>
@@ -18140,10 +18141,10 @@
         <f>HYPERLINK("https://leetcode.com/problems/minimum-score-triangulation-of-polygon/","Minimum score triangulation")</f>
         <v>Minimum score triangulation</v>
       </c>
-      <c r="B467" s="35" t="s">
+      <c r="B467" s="36" t="s">
         <v>538</v>
       </c>
-      <c r="C467" s="35"/>
+      <c r="C467" s="36"/>
       <c r="D467" s="21"/>
       <c r="E467" s="21"/>
       <c r="F467" s="21"/>
@@ -18172,10 +18173,10 @@
       <c r="A468" s="22" t="s">
         <v>539</v>
       </c>
-      <c r="B468" s="35" t="s">
+      <c r="B468" s="36" t="s">
         <v>540</v>
       </c>
-      <c r="C468" s="35"/>
+      <c r="C468" s="36"/>
       <c r="D468" s="21"/>
       <c r="E468" s="21"/>
       <c r="F468" s="21"/>
@@ -18201,7 +18202,7 @@
       <c r="Z468" s="21"/>
     </row>
     <row r="469" customHeight="1" spans="1:26">
-      <c r="A469" s="33" t="s">
+      <c r="A469" s="34" t="s">
         <v>541</v>
       </c>
       <c r="B469" s="21"/>
@@ -18234,10 +18235,10 @@
       <c r="A470" s="22" t="s">
         <v>542</v>
       </c>
-      <c r="B470" s="35" t="s">
+      <c r="B470" s="36" t="s">
         <v>543</v>
       </c>
-      <c r="C470" s="35"/>
+      <c r="C470" s="36"/>
       <c r="D470" s="21"/>
       <c r="E470" s="21"/>
       <c r="F470" s="21"/>
@@ -18263,13 +18264,13 @@
       <c r="Z470" s="21"/>
     </row>
     <row r="471" customHeight="1" spans="1:26">
-      <c r="A471" s="47" t="s">
+      <c r="A471" s="48" t="s">
         <v>544</v>
       </c>
-      <c r="B471" s="35" t="s">
+      <c r="B471" s="36" t="s">
         <v>544</v>
       </c>
-      <c r="C471" s="35"/>
+      <c r="C471" s="36"/>
       <c r="D471" s="21"/>
       <c r="E471" s="21"/>
       <c r="F471" s="21"/>
@@ -18295,13 +18296,13 @@
       <c r="Z471" s="21"/>
     </row>
     <row r="472" customHeight="1" spans="1:26">
-      <c r="A472" s="47" t="s">
+      <c r="A472" s="48" t="s">
         <v>545</v>
       </c>
-      <c r="B472" s="35" t="s">
+      <c r="B472" s="36" t="s">
         <v>546</v>
       </c>
-      <c r="C472" s="35"/>
+      <c r="C472" s="36"/>
       <c r="D472" s="21"/>
       <c r="E472" s="21"/>
       <c r="F472" s="21"/>
@@ -18327,12 +18328,12 @@
       <c r="Z472" s="21"/>
     </row>
     <row r="473" customHeight="1" spans="1:26">
-      <c r="A473" s="47" t="str">
+      <c r="A473" s="48" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/count-palindromic-subsequence-given-string/","Count all pallindromic subsequence")</f>
         <v>Count all pallindromic subsequence</v>
       </c>
-      <c r="B473" s="35"/>
-      <c r="C473" s="35"/>
+      <c r="B473" s="36"/>
+      <c r="C473" s="36"/>
       <c r="D473" s="21"/>
       <c r="E473" s="21"/>
       <c r="F473" s="21"/>
@@ -18358,12 +18359,12 @@
       <c r="Z473" s="21"/>
     </row>
     <row r="474" customHeight="1" spans="1:26">
-      <c r="A474" s="47" t="str">
+      <c r="A474" s="48" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/count-different-palindromic-subsequences/","Count distinct pallindromic subsequence")</f>
         <v>Count distinct pallindromic subsequence</v>
       </c>
-      <c r="B474" s="35"/>
-      <c r="C474" s="35"/>
+      <c r="B474" s="36"/>
+      <c r="C474" s="36"/>
       <c r="D474" s="21"/>
       <c r="E474" s="21"/>
       <c r="F474" s="21"/>
@@ -18389,7 +18390,7 @@
       <c r="Z474" s="21"/>
     </row>
     <row r="475" customHeight="1" spans="1:26">
-      <c r="A475" s="38" t="s">
+      <c r="A475" s="39" t="s">
         <v>547</v>
       </c>
       <c r="B475" s="21"/>
@@ -18423,7 +18424,7 @@
         <f>HYPERLINK("https://www.geeksforgeeks.org/number-subsequences-form-ai-bj-ck/","No. of sequence of type a^i+b^j+c^k")</f>
         <v>No. of sequence of type a^i+b^j+c^k</v>
       </c>
-      <c r="B476" s="35" t="s">
+      <c r="B476" s="36" t="s">
         <v>548</v>
       </c>
       <c r="C476" s="21"/>
@@ -18482,7 +18483,7 @@
       <c r="Z477" s="21"/>
     </row>
     <row r="478" customHeight="1" spans="1:26">
-      <c r="A478" s="33" t="s">
+      <c r="A478" s="34" t="s">
         <v>550</v>
       </c>
       <c r="B478" s="21"/>
@@ -18515,10 +18516,10 @@
       <c r="A479" s="22" t="s">
         <v>551</v>
       </c>
-      <c r="B479" s="35" t="s">
+      <c r="B479" s="36" t="s">
         <v>551</v>
       </c>
-      <c r="C479" s="35"/>
+      <c r="C479" s="36"/>
       <c r="D479" s="21"/>
       <c r="E479" s="21"/>
       <c r="F479" s="21"/>
@@ -18544,7 +18545,7 @@
       <c r="Z479" s="21"/>
     </row>
     <row r="480" customHeight="1" spans="1:26">
-      <c r="A480" s="47" t="s">
+      <c r="A480" s="48" t="s">
         <v>552</v>
       </c>
       <c r="B480" s="21"/>
@@ -18574,7 +18575,7 @@
       <c r="Z480" s="21"/>
     </row>
     <row r="481" customHeight="1" spans="1:26">
-      <c r="A481" s="47" t="s">
+      <c r="A481" s="48" t="s">
         <v>553</v>
       </c>
       <c r="B481" s="21"/>
@@ -18604,7 +18605,7 @@
       <c r="Z481" s="21"/>
     </row>
     <row r="482" customHeight="1" spans="1:26">
-      <c r="A482" s="47" t="s">
+      <c r="A482" s="48" t="s">
         <v>554</v>
       </c>
       <c r="B482" s="21"/>
@@ -18664,7 +18665,7 @@
       <c r="Z483" s="21"/>
     </row>
     <row r="484" customHeight="1" spans="1:26">
-      <c r="A484" s="67" t="str">
+      <c r="A484" s="68" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/super-ugly-number-number-whose-prime-factors-given-set/","Super ugly number")</f>
         <v>Super ugly number</v>
       </c>
@@ -18697,7 +18698,7 @@
       <c r="Z484" s="21"/>
     </row>
     <row r="485" customHeight="1" spans="1:26">
-      <c r="A485" s="68" t="s">
+      <c r="A485" s="69" t="s">
         <v>557</v>
       </c>
       <c r="B485" s="21"/>
@@ -18730,10 +18731,10 @@
       <c r="A486" s="22" t="s">
         <v>558</v>
       </c>
-      <c r="B486" s="35" t="s">
+      <c r="B486" s="36" t="s">
         <v>559</v>
       </c>
-      <c r="C486" s="35"/>
+      <c r="C486" s="36"/>
       <c r="D486" s="21"/>
       <c r="E486" s="21"/>
       <c r="F486" s="21"/>
@@ -18759,7 +18760,7 @@
       <c r="Z486" s="21"/>
     </row>
     <row r="487" customHeight="1" spans="1:26">
-      <c r="A487" s="33" t="s">
+      <c r="A487" s="34" t="s">
         <v>560</v>
       </c>
       <c r="B487" s="21"/>
@@ -18969,7 +18970,7 @@
       <c r="Z493" s="21"/>
     </row>
     <row r="494" customHeight="1" spans="1:26">
-      <c r="A494" s="33" t="s">
+      <c r="A494" s="34" t="s">
         <v>567</v>
       </c>
       <c r="B494" s="21"/>
@@ -19212,7 +19213,7 @@
       <c r="Z501" s="21"/>
     </row>
     <row r="502" customHeight="1" spans="1:26">
-      <c r="A502" s="33" t="s">
+      <c r="A502" s="34" t="s">
         <v>575</v>
       </c>
       <c r="B502" s="21"/>
@@ -19332,10 +19333,10 @@
       <c r="Z505" s="21"/>
     </row>
     <row r="506" customHeight="1" spans="1:26">
-      <c r="A506" s="47" t="s">
+      <c r="A506" s="48" t="s">
         <v>579</v>
       </c>
-      <c r="B506" s="35" t="s">
+      <c r="B506" s="36" t="s">
         <v>579</v>
       </c>
       <c r="C506" s="21"/>
@@ -19364,7 +19365,7 @@
       <c r="Z506" s="21"/>
     </row>
     <row r="507" customHeight="1" spans="1:26">
-      <c r="A507" s="38" t="s">
+      <c r="A507" s="39" t="s">
         <v>580</v>
       </c>
       <c r="B507" s="21"/>
@@ -19394,7 +19395,7 @@
       <c r="Z507" s="21"/>
     </row>
     <row r="508" customHeight="1" spans="1:26">
-      <c r="A508" s="69" t="s">
+      <c r="A508" s="70" t="s">
         <v>581</v>
       </c>
       <c r="B508" s="18"/>
@@ -19427,45 +19428,45 @@
       <c r="A509" s="20" t="s">
         <v>582</v>
       </c>
-      <c r="B509" s="30"/>
-      <c r="C509" s="30"/>
-      <c r="D509" s="30"/>
-      <c r="E509" s="30"/>
-      <c r="F509" s="30"/>
-      <c r="G509" s="30"/>
-      <c r="H509" s="30"/>
-      <c r="I509" s="30"/>
-      <c r="J509" s="30"/>
-      <c r="K509" s="30"/>
-      <c r="L509" s="30"/>
-      <c r="M509" s="30"/>
-      <c r="N509" s="30"/>
-      <c r="O509" s="30"/>
-      <c r="P509" s="30"/>
-      <c r="Q509" s="30"/>
-      <c r="R509" s="30"/>
-      <c r="S509" s="30"/>
-      <c r="T509" s="30"/>
-      <c r="U509" s="30"/>
-      <c r="V509" s="30"/>
-      <c r="W509" s="30"/>
-      <c r="X509" s="30"/>
-      <c r="Y509" s="30"/>
-      <c r="Z509" s="30"/>
+      <c r="B509" s="31"/>
+      <c r="C509" s="31"/>
+      <c r="D509" s="31"/>
+      <c r="E509" s="31"/>
+      <c r="F509" s="31"/>
+      <c r="G509" s="31"/>
+      <c r="H509" s="31"/>
+      <c r="I509" s="31"/>
+      <c r="J509" s="31"/>
+      <c r="K509" s="31"/>
+      <c r="L509" s="31"/>
+      <c r="M509" s="31"/>
+      <c r="N509" s="31"/>
+      <c r="O509" s="31"/>
+      <c r="P509" s="31"/>
+      <c r="Q509" s="31"/>
+      <c r="R509" s="31"/>
+      <c r="S509" s="31"/>
+      <c r="T509" s="31"/>
+      <c r="U509" s="31"/>
+      <c r="V509" s="31"/>
+      <c r="W509" s="31"/>
+      <c r="X509" s="31"/>
+      <c r="Y509" s="31"/>
+      <c r="Z509" s="31"/>
     </row>
     <row r="510" customHeight="1" spans="1:26">
       <c r="A510" s="22" t="str">
         <f>HYPERLINK("https://www.spoj.com/problems/NAJPF/","KMP")</f>
         <v>KMP</v>
       </c>
-      <c r="B510" s="37" t="s">
+      <c r="B510" s="38" t="s">
         <v>583</v>
       </c>
-      <c r="C510" s="35"/>
-      <c r="D510" s="35"/>
-      <c r="E510" s="35"/>
-      <c r="F510" s="35"/>
-      <c r="G510" s="35"/>
+      <c r="C510" s="36"/>
+      <c r="D510" s="36"/>
+      <c r="E510" s="36"/>
+      <c r="F510" s="36"/>
+      <c r="G510" s="36"/>
       <c r="H510" s="21"/>
       <c r="I510" s="21"/>
       <c r="J510" s="21"/>
@@ -19490,14 +19491,14 @@
       <c r="A511" s="22" t="s">
         <v>584</v>
       </c>
-      <c r="B511" s="37" t="s">
+      <c r="B511" s="38" t="s">
         <v>585</v>
       </c>
-      <c r="C511" s="35"/>
-      <c r="D511" s="35"/>
-      <c r="E511" s="35"/>
-      <c r="F511" s="35"/>
-      <c r="G511" s="35"/>
+      <c r="C511" s="36"/>
+      <c r="D511" s="36"/>
+      <c r="E511" s="36"/>
+      <c r="F511" s="36"/>
+      <c r="G511" s="36"/>
       <c r="H511" s="21"/>
       <c r="I511" s="21"/>
       <c r="J511" s="21"/>
@@ -19522,14 +19523,14 @@
       <c r="A512" s="24" t="s">
         <v>586</v>
       </c>
-      <c r="B512" s="25" t="s">
+      <c r="B512" s="27" t="s">
         <v>587</v>
       </c>
-      <c r="C512" s="35"/>
-      <c r="D512" s="35"/>
-      <c r="E512" s="35"/>
-      <c r="F512" s="35"/>
-      <c r="G512" s="35"/>
+      <c r="C512" s="36"/>
+      <c r="D512" s="36"/>
+      <c r="E512" s="36"/>
+      <c r="F512" s="36"/>
+      <c r="G512" s="36"/>
       <c r="H512" s="21"/>
       <c r="I512" s="21"/>
       <c r="J512" s="21"/>
@@ -19680,7 +19681,7 @@
       <c r="Z516" s="21"/>
     </row>
     <row r="517" customHeight="1" spans="1:26">
-      <c r="A517" s="70" t="s">
+      <c r="A517" s="71" t="s">
         <v>592</v>
       </c>
       <c r="B517" s="21" t="s">
@@ -19712,7 +19713,7 @@
       <c r="Z517" s="21"/>
     </row>
     <row r="518" customHeight="1" spans="1:26">
-      <c r="A518" s="56" t="str">
+      <c r="A518" s="57" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/scramble-string/","Scramble string")</f>
         <v>Scramble string</v>
       </c>
@@ -19745,7 +19746,7 @@
       <c r="Z518" s="21"/>
     </row>
     <row r="519" customHeight="1" spans="1:26">
-      <c r="A519" s="71" t="s">
+      <c r="A519" s="72" t="s">
         <v>594</v>
       </c>
       <c r="B519" s="21"/>
@@ -19837,7 +19838,7 @@
       <c r="Z521" s="21"/>
     </row>
     <row r="522" customHeight="1" spans="1:26">
-      <c r="A522" s="72" t="s">
+      <c r="A522" s="73" t="s">
         <v>24</v>
       </c>
       <c r="B522" s="1"/>
@@ -19870,13 +19871,13 @@
       <c r="A523" s="20" t="s">
         <v>598</v>
       </c>
-      <c r="B523" s="30"/>
-      <c r="C523" s="30"/>
-      <c r="D523" s="30"/>
-      <c r="E523" s="30"/>
-      <c r="F523" s="30"/>
-      <c r="G523" s="30"/>
-      <c r="H523" s="30"/>
+      <c r="B523" s="31"/>
+      <c r="C523" s="31"/>
+      <c r="D523" s="31"/>
+      <c r="E523" s="31"/>
+      <c r="F523" s="31"/>
+      <c r="G523" s="31"/>
+      <c r="H523" s="31"/>
       <c r="I523" s="21"/>
       <c r="J523" s="21"/>
       <c r="K523" s="21"/>
@@ -19897,16 +19898,16 @@
       <c r="Z523" s="21"/>
     </row>
     <row r="524" customHeight="1" spans="1:26">
-      <c r="A524" s="40" t="s">
+      <c r="A524" s="41" t="s">
         <v>599</v>
       </c>
-      <c r="B524" s="30"/>
-      <c r="C524" s="30"/>
-      <c r="D524" s="30"/>
-      <c r="E524" s="30"/>
-      <c r="F524" s="30"/>
-      <c r="G524" s="30"/>
-      <c r="H524" s="30"/>
+      <c r="B524" s="31"/>
+      <c r="C524" s="31"/>
+      <c r="D524" s="31"/>
+      <c r="E524" s="31"/>
+      <c r="F524" s="31"/>
+      <c r="G524" s="31"/>
+      <c r="H524" s="31"/>
       <c r="I524" s="21"/>
       <c r="J524" s="21"/>
       <c r="K524" s="21"/>
@@ -19927,16 +19928,16 @@
       <c r="Z524" s="21"/>
     </row>
     <row r="525" customHeight="1" spans="1:26">
-      <c r="A525" s="40" t="s">
+      <c r="A525" s="41" t="s">
         <v>600</v>
       </c>
-      <c r="B525" s="30"/>
-      <c r="C525" s="30"/>
-      <c r="D525" s="30"/>
-      <c r="E525" s="30"/>
-      <c r="F525" s="30"/>
-      <c r="G525" s="30"/>
-      <c r="H525" s="30"/>
+      <c r="B525" s="31"/>
+      <c r="C525" s="31"/>
+      <c r="D525" s="31"/>
+      <c r="E525" s="31"/>
+      <c r="F525" s="31"/>
+      <c r="G525" s="31"/>
+      <c r="H525" s="31"/>
       <c r="I525" s="21"/>
       <c r="J525" s="21"/>
       <c r="K525" s="21"/>
@@ -19957,16 +19958,16 @@
       <c r="Z525" s="21"/>
     </row>
     <row r="526" customHeight="1" spans="1:26">
-      <c r="A526" s="61" t="s">
+      <c r="A526" s="62" t="s">
         <v>601</v>
       </c>
-      <c r="B526" s="30"/>
-      <c r="C526" s="30"/>
-      <c r="D526" s="30"/>
-      <c r="E526" s="30"/>
-      <c r="F526" s="30"/>
-      <c r="G526" s="30"/>
-      <c r="H526" s="30"/>
+      <c r="B526" s="31"/>
+      <c r="C526" s="31"/>
+      <c r="D526" s="31"/>
+      <c r="E526" s="31"/>
+      <c r="F526" s="31"/>
+      <c r="G526" s="31"/>
+      <c r="H526" s="31"/>
       <c r="I526" s="21"/>
       <c r="J526" s="21"/>
       <c r="K526" s="21"/>
@@ -19987,16 +19988,16 @@
       <c r="Z526" s="21"/>
     </row>
     <row r="527" customHeight="1" spans="1:26">
-      <c r="A527" s="61" t="s">
+      <c r="A527" s="62" t="s">
         <v>602</v>
       </c>
-      <c r="B527" s="30"/>
-      <c r="C527" s="30"/>
-      <c r="D527" s="30"/>
-      <c r="E527" s="30"/>
-      <c r="F527" s="30"/>
-      <c r="G527" s="30"/>
-      <c r="H527" s="30"/>
+      <c r="B527" s="31"/>
+      <c r="C527" s="31"/>
+      <c r="D527" s="31"/>
+      <c r="E527" s="31"/>
+      <c r="F527" s="31"/>
+      <c r="G527" s="31"/>
+      <c r="H527" s="31"/>
       <c r="I527" s="21"/>
       <c r="J527" s="21"/>
       <c r="K527" s="21"/>
@@ -20017,16 +20018,16 @@
       <c r="Z527" s="21"/>
     </row>
     <row r="528" customHeight="1" spans="1:26">
-      <c r="A528" s="40" t="s">
+      <c r="A528" s="41" t="s">
         <v>603</v>
       </c>
-      <c r="B528" s="30"/>
-      <c r="C528" s="30"/>
-      <c r="D528" s="30"/>
-      <c r="E528" s="30"/>
-      <c r="F528" s="30"/>
-      <c r="G528" s="30"/>
-      <c r="H528" s="30"/>
+      <c r="B528" s="31"/>
+      <c r="C528" s="31"/>
+      <c r="D528" s="31"/>
+      <c r="E528" s="31"/>
+      <c r="F528" s="31"/>
+      <c r="G528" s="31"/>
+      <c r="H528" s="31"/>
       <c r="I528" s="21"/>
       <c r="J528" s="21"/>
       <c r="K528" s="21"/>
@@ -20047,16 +20048,16 @@
       <c r="Z528" s="21"/>
     </row>
     <row r="529" customHeight="1" spans="1:26">
-      <c r="A529" s="61" t="s">
+      <c r="A529" s="62" t="s">
         <v>604</v>
       </c>
-      <c r="B529" s="30"/>
-      <c r="C529" s="30"/>
-      <c r="D529" s="30"/>
-      <c r="E529" s="30"/>
-      <c r="F529" s="30"/>
-      <c r="G529" s="30"/>
-      <c r="H529" s="30"/>
+      <c r="B529" s="31"/>
+      <c r="C529" s="31"/>
+      <c r="D529" s="31"/>
+      <c r="E529" s="31"/>
+      <c r="F529" s="31"/>
+      <c r="G529" s="31"/>
+      <c r="H529" s="31"/>
       <c r="I529" s="21"/>
       <c r="J529" s="21"/>
       <c r="K529" s="21"/>
@@ -20077,16 +20078,16 @@
       <c r="Z529" s="21"/>
     </row>
     <row r="530" customHeight="1" spans="1:26">
-      <c r="A530" s="61" t="s">
+      <c r="A530" s="62" t="s">
         <v>605</v>
       </c>
-      <c r="B530" s="30"/>
-      <c r="C530" s="30"/>
-      <c r="D530" s="30"/>
-      <c r="E530" s="30"/>
-      <c r="F530" s="30"/>
-      <c r="G530" s="30"/>
-      <c r="H530" s="30"/>
+      <c r="B530" s="31"/>
+      <c r="C530" s="31"/>
+      <c r="D530" s="31"/>
+      <c r="E530" s="31"/>
+      <c r="F530" s="31"/>
+      <c r="G530" s="31"/>
+      <c r="H530" s="31"/>
       <c r="I530" s="21"/>
       <c r="J530" s="21"/>
       <c r="K530" s="21"/>
@@ -20107,16 +20108,16 @@
       <c r="Z530" s="21"/>
     </row>
     <row r="531" customHeight="1" spans="1:26">
-      <c r="A531" s="73" t="s">
+      <c r="A531" s="74" t="s">
         <v>606</v>
       </c>
-      <c r="B531" s="30"/>
-      <c r="C531" s="30"/>
-      <c r="D531" s="30"/>
-      <c r="E531" s="30"/>
-      <c r="F531" s="30"/>
-      <c r="G531" s="30"/>
-      <c r="H531" s="30"/>
+      <c r="B531" s="31"/>
+      <c r="C531" s="31"/>
+      <c r="D531" s="31"/>
+      <c r="E531" s="31"/>
+      <c r="F531" s="31"/>
+      <c r="G531" s="31"/>
+      <c r="H531" s="31"/>
       <c r="I531" s="21"/>
       <c r="J531" s="21"/>
       <c r="K531" s="21"/>
@@ -20137,16 +20138,16 @@
       <c r="Z531" s="21"/>
     </row>
     <row r="532" customHeight="1" spans="1:26">
-      <c r="A532" s="74" t="s">
+      <c r="A532" s="75" t="s">
         <v>607</v>
       </c>
-      <c r="B532" s="30"/>
-      <c r="C532" s="30"/>
-      <c r="D532" s="30"/>
-      <c r="E532" s="30"/>
-      <c r="F532" s="30"/>
-      <c r="G532" s="30"/>
-      <c r="H532" s="30"/>
+      <c r="B532" s="31"/>
+      <c r="C532" s="31"/>
+      <c r="D532" s="31"/>
+      <c r="E532" s="31"/>
+      <c r="F532" s="31"/>
+      <c r="G532" s="31"/>
+      <c r="H532" s="31"/>
       <c r="I532" s="21"/>
       <c r="J532" s="21"/>
       <c r="K532" s="21"/>
@@ -20167,16 +20168,16 @@
       <c r="Z532" s="21"/>
     </row>
     <row r="533" customHeight="1" spans="1:26">
-      <c r="A533" s="40" t="s">
+      <c r="A533" s="41" t="s">
         <v>608</v>
       </c>
-      <c r="B533" s="30"/>
-      <c r="C533" s="30"/>
-      <c r="D533" s="30"/>
-      <c r="E533" s="30"/>
-      <c r="F533" s="30"/>
-      <c r="G533" s="30"/>
-      <c r="H533" s="30"/>
+      <c r="B533" s="31"/>
+      <c r="C533" s="31"/>
+      <c r="D533" s="31"/>
+      <c r="E533" s="31"/>
+      <c r="F533" s="31"/>
+      <c r="G533" s="31"/>
+      <c r="H533" s="31"/>
       <c r="I533" s="21"/>
       <c r="J533" s="21"/>
       <c r="K533" s="21"/>
@@ -20197,16 +20198,16 @@
       <c r="Z533" s="21"/>
     </row>
     <row r="534" customHeight="1" spans="1:26">
-      <c r="A534" s="40" t="s">
+      <c r="A534" s="41" t="s">
         <v>609</v>
       </c>
-      <c r="B534" s="30"/>
-      <c r="C534" s="30"/>
-      <c r="D534" s="30"/>
-      <c r="E534" s="30"/>
-      <c r="F534" s="30"/>
-      <c r="G534" s="30"/>
-      <c r="H534" s="30"/>
+      <c r="B534" s="31"/>
+      <c r="C534" s="31"/>
+      <c r="D534" s="31"/>
+      <c r="E534" s="31"/>
+      <c r="F534" s="31"/>
+      <c r="G534" s="31"/>
+      <c r="H534" s="31"/>
       <c r="I534" s="21"/>
       <c r="J534" s="21"/>
       <c r="K534" s="21"/>
@@ -20227,16 +20228,16 @@
       <c r="Z534" s="21"/>
     </row>
     <row r="535" customHeight="1" spans="1:26">
-      <c r="A535" s="40" t="s">
+      <c r="A535" s="41" t="s">
         <v>610</v>
       </c>
-      <c r="B535" s="30"/>
-      <c r="C535" s="30"/>
-      <c r="D535" s="30"/>
-      <c r="E535" s="30"/>
-      <c r="F535" s="30"/>
-      <c r="G535" s="30"/>
-      <c r="H535" s="30"/>
+      <c r="B535" s="31"/>
+      <c r="C535" s="31"/>
+      <c r="D535" s="31"/>
+      <c r="E535" s="31"/>
+      <c r="F535" s="31"/>
+      <c r="G535" s="31"/>
+      <c r="H535" s="31"/>
       <c r="I535" s="21"/>
       <c r="J535" s="21"/>
       <c r="K535" s="21"/>
@@ -20257,16 +20258,16 @@
       <c r="Z535" s="21"/>
     </row>
     <row r="536" customHeight="1" spans="1:26">
-      <c r="A536" s="40" t="s">
+      <c r="A536" s="41" t="s">
         <v>611</v>
       </c>
-      <c r="B536" s="30"/>
-      <c r="C536" s="30"/>
-      <c r="D536" s="30"/>
-      <c r="E536" s="30"/>
-      <c r="F536" s="30"/>
-      <c r="G536" s="30"/>
-      <c r="H536" s="30"/>
+      <c r="B536" s="31"/>
+      <c r="C536" s="31"/>
+      <c r="D536" s="31"/>
+      <c r="E536" s="31"/>
+      <c r="F536" s="31"/>
+      <c r="G536" s="31"/>
+      <c r="H536" s="31"/>
       <c r="I536" s="21"/>
       <c r="J536" s="21"/>
       <c r="K536" s="21"/>
@@ -20287,16 +20288,16 @@
       <c r="Z536" s="21"/>
     </row>
     <row r="537" customHeight="1" spans="1:26">
-      <c r="A537" s="40" t="s">
+      <c r="A537" s="41" t="s">
         <v>612</v>
       </c>
-      <c r="B537" s="30"/>
-      <c r="C537" s="30"/>
-      <c r="D537" s="30"/>
-      <c r="E537" s="30"/>
-      <c r="F537" s="30"/>
-      <c r="G537" s="30"/>
-      <c r="H537" s="30"/>
+      <c r="B537" s="31"/>
+      <c r="C537" s="31"/>
+      <c r="D537" s="31"/>
+      <c r="E537" s="31"/>
+      <c r="F537" s="31"/>
+      <c r="G537" s="31"/>
+      <c r="H537" s="31"/>
       <c r="I537" s="21"/>
       <c r="J537" s="21"/>
       <c r="K537" s="21"/>
@@ -20317,16 +20318,16 @@
       <c r="Z537" s="21"/>
     </row>
     <row r="538" customHeight="1" spans="1:26">
-      <c r="A538" s="40" t="s">
+      <c r="A538" s="41" t="s">
         <v>613</v>
       </c>
-      <c r="B538" s="30"/>
-      <c r="C538" s="30"/>
-      <c r="D538" s="30"/>
-      <c r="E538" s="30"/>
-      <c r="F538" s="30"/>
-      <c r="G538" s="30"/>
-      <c r="H538" s="30"/>
+      <c r="B538" s="31"/>
+      <c r="C538" s="31"/>
+      <c r="D538" s="31"/>
+      <c r="E538" s="31"/>
+      <c r="F538" s="31"/>
+      <c r="G538" s="31"/>
+      <c r="H538" s="31"/>
       <c r="I538" s="21"/>
       <c r="J538" s="21"/>
       <c r="K538" s="21"/>
@@ -20347,14 +20348,14 @@
       <c r="Z538" s="21"/>
     </row>
     <row r="539" customHeight="1" spans="1:26">
-      <c r="A539" s="40"/>
-      <c r="B539" s="30"/>
-      <c r="C539" s="30"/>
-      <c r="D539" s="30"/>
-      <c r="E539" s="30"/>
-      <c r="F539" s="30"/>
-      <c r="G539" s="30"/>
-      <c r="H539" s="30"/>
+      <c r="A539" s="41"/>
+      <c r="B539" s="31"/>
+      <c r="C539" s="31"/>
+      <c r="D539" s="31"/>
+      <c r="E539" s="31"/>
+      <c r="F539" s="31"/>
+      <c r="G539" s="31"/>
+      <c r="H539" s="31"/>
       <c r="I539" s="21"/>
       <c r="J539" s="21"/>
       <c r="K539" s="21"/>
@@ -20375,7 +20376,7 @@
       <c r="Z539" s="21"/>
     </row>
     <row r="540" customHeight="1" spans="1:26">
-      <c r="A540" s="75" t="s">
+      <c r="A540" s="76" t="s">
         <v>25</v>
       </c>
       <c r="B540" s="1"/>
@@ -20405,16 +20406,16 @@
       <c r="Z540" s="1"/>
     </row>
     <row r="541" customHeight="1" spans="1:26">
-      <c r="A541" s="76" t="s">
+      <c r="A541" s="77" t="s">
         <v>614</v>
       </c>
-      <c r="B541" s="30"/>
-      <c r="C541" s="30"/>
-      <c r="D541" s="30"/>
-      <c r="E541" s="30"/>
-      <c r="F541" s="30"/>
-      <c r="G541" s="30"/>
-      <c r="H541" s="30"/>
+      <c r="B541" s="31"/>
+      <c r="C541" s="31"/>
+      <c r="D541" s="31"/>
+      <c r="E541" s="31"/>
+      <c r="F541" s="31"/>
+      <c r="G541" s="31"/>
+      <c r="H541" s="31"/>
       <c r="I541" s="21"/>
       <c r="J541" s="21"/>
       <c r="K541" s="21"/>
@@ -20441,12 +20442,12 @@
       <c r="B542" s="21" t="s">
         <v>616</v>
       </c>
-      <c r="C542" s="30"/>
-      <c r="D542" s="30"/>
-      <c r="E542" s="30"/>
-      <c r="F542" s="30"/>
-      <c r="G542" s="30"/>
-      <c r="H542" s="30"/>
+      <c r="C542" s="31"/>
+      <c r="D542" s="31"/>
+      <c r="E542" s="31"/>
+      <c r="F542" s="31"/>
+      <c r="G542" s="31"/>
+      <c r="H542" s="31"/>
       <c r="I542" s="21"/>
       <c r="J542" s="21"/>
       <c r="K542" s="21"/>
@@ -20467,36 +20468,36 @@
       <c r="Z542" s="21"/>
     </row>
     <row r="543" customHeight="1" spans="1:26">
-      <c r="A543" s="40" t="s">
+      <c r="A543" s="41" t="s">
         <v>617</v>
       </c>
-      <c r="B543" s="30" t="s">
+      <c r="B543" s="31" t="s">
         <v>618</v>
       </c>
-      <c r="C543" s="30"/>
-      <c r="D543" s="30"/>
-      <c r="E543" s="30"/>
-      <c r="F543" s="30"/>
-      <c r="G543" s="30"/>
-      <c r="H543" s="30"/>
-      <c r="I543" s="30"/>
-      <c r="J543" s="30"/>
-      <c r="K543" s="30"/>
-      <c r="L543" s="30"/>
-      <c r="M543" s="30"/>
-      <c r="N543" s="30"/>
-      <c r="O543" s="30"/>
-      <c r="P543" s="30"/>
-      <c r="Q543" s="30"/>
-      <c r="R543" s="30"/>
-      <c r="S543" s="30"/>
-      <c r="T543" s="30"/>
-      <c r="U543" s="30"/>
-      <c r="V543" s="30"/>
-      <c r="W543" s="30"/>
-      <c r="X543" s="30"/>
-      <c r="Y543" s="30"/>
-      <c r="Z543" s="30"/>
+      <c r="C543" s="31"/>
+      <c r="D543" s="31"/>
+      <c r="E543" s="31"/>
+      <c r="F543" s="31"/>
+      <c r="G543" s="31"/>
+      <c r="H543" s="31"/>
+      <c r="I543" s="31"/>
+      <c r="J543" s="31"/>
+      <c r="K543" s="31"/>
+      <c r="L543" s="31"/>
+      <c r="M543" s="31"/>
+      <c r="N543" s="31"/>
+      <c r="O543" s="31"/>
+      <c r="P543" s="31"/>
+      <c r="Q543" s="31"/>
+      <c r="R543" s="31"/>
+      <c r="S543" s="31"/>
+      <c r="T543" s="31"/>
+      <c r="U543" s="31"/>
+      <c r="V543" s="31"/>
+      <c r="W543" s="31"/>
+      <c r="X543" s="31"/>
+      <c r="Y543" s="31"/>
+      <c r="Z543" s="31"/>
     </row>
     <row r="544" customHeight="1" spans="1:26">
       <c r="A544" s="22" t="s">
@@ -20505,8 +20506,8 @@
       <c r="B544" s="21" t="s">
         <v>620</v>
       </c>
-      <c r="C544" s="30"/>
-      <c r="D544" s="30"/>
+      <c r="C544" s="31"/>
+      <c r="D544" s="31"/>
       <c r="E544" s="21"/>
       <c r="F544" s="21"/>
       <c r="G544" s="21"/>
@@ -20537,8 +20538,8 @@
       <c r="B545" s="21" t="s">
         <v>622</v>
       </c>
-      <c r="C545" s="30"/>
-      <c r="D545" s="30"/>
+      <c r="C545" s="31"/>
+      <c r="D545" s="31"/>
       <c r="E545" s="21"/>
       <c r="F545" s="21"/>
       <c r="G545" s="21"/>
@@ -20569,8 +20570,8 @@
       <c r="B546" s="21" t="s">
         <v>624</v>
       </c>
-      <c r="C546" s="30"/>
-      <c r="D546" s="30"/>
+      <c r="C546" s="31"/>
+      <c r="D546" s="31"/>
       <c r="E546" s="21"/>
       <c r="F546" s="21"/>
       <c r="G546" s="21"/>
@@ -20601,8 +20602,8 @@
       <c r="B547" s="21" t="s">
         <v>626</v>
       </c>
-      <c r="C547" s="30"/>
-      <c r="D547" s="30"/>
+      <c r="C547" s="31"/>
+      <c r="D547" s="31"/>
       <c r="E547" s="21"/>
       <c r="F547" s="21"/>
       <c r="G547" s="21"/>
@@ -20628,7 +20629,7 @@
     </row>
     <row r="548" customHeight="1" spans="1:26">
       <c r="A548" s="6"/>
-      <c r="B548" s="77" t="s">
+      <c r="B548" s="78" t="s">
         <v>627</v>
       </c>
       <c r="C548" s="6"/>
@@ -20658,230 +20659,230 @@
     </row>
     <row r="591" customHeight="1" spans="1:2">
       <c r="A591" s="22"/>
-      <c r="B591" s="78"/>
+      <c r="B591" s="79"/>
     </row>
     <row r="592" customHeight="1" spans="1:26">
-      <c r="A592" s="79"/>
-      <c r="B592" s="80"/>
-      <c r="C592" s="79"/>
-      <c r="D592" s="79"/>
-      <c r="E592" s="79"/>
-      <c r="F592" s="79"/>
-      <c r="G592" s="79"/>
-      <c r="H592" s="79"/>
-      <c r="I592" s="79"/>
-      <c r="J592" s="79"/>
-      <c r="K592" s="79"/>
-      <c r="L592" s="79"/>
-      <c r="M592" s="79"/>
-      <c r="N592" s="79"/>
-      <c r="O592" s="79"/>
-      <c r="P592" s="79"/>
-      <c r="Q592" s="79"/>
-      <c r="R592" s="79"/>
-      <c r="S592" s="79"/>
-      <c r="T592" s="79"/>
-      <c r="U592" s="79"/>
-      <c r="V592" s="79"/>
-      <c r="W592" s="79"/>
-      <c r="X592" s="79"/>
-      <c r="Y592" s="79"/>
-      <c r="Z592" s="79"/>
+      <c r="A592" s="80"/>
+      <c r="B592" s="81"/>
+      <c r="C592" s="80"/>
+      <c r="D592" s="80"/>
+      <c r="E592" s="80"/>
+      <c r="F592" s="80"/>
+      <c r="G592" s="80"/>
+      <c r="H592" s="80"/>
+      <c r="I592" s="80"/>
+      <c r="J592" s="80"/>
+      <c r="K592" s="80"/>
+      <c r="L592" s="80"/>
+      <c r="M592" s="80"/>
+      <c r="N592" s="80"/>
+      <c r="O592" s="80"/>
+      <c r="P592" s="80"/>
+      <c r="Q592" s="80"/>
+      <c r="R592" s="80"/>
+      <c r="S592" s="80"/>
+      <c r="T592" s="80"/>
+      <c r="U592" s="80"/>
+      <c r="V592" s="80"/>
+      <c r="W592" s="80"/>
+      <c r="X592" s="80"/>
+      <c r="Y592" s="80"/>
+      <c r="Z592" s="80"/>
     </row>
     <row r="593" customHeight="1" spans="1:26">
-      <c r="A593" s="79"/>
-      <c r="B593" s="79"/>
-      <c r="C593" s="79"/>
-      <c r="D593" s="79"/>
-      <c r="E593" s="79"/>
-      <c r="F593" s="79"/>
-      <c r="G593" s="79"/>
-      <c r="H593" s="79"/>
-      <c r="I593" s="79"/>
-      <c r="J593" s="79"/>
-      <c r="K593" s="79"/>
-      <c r="L593" s="79"/>
-      <c r="M593" s="79"/>
-      <c r="N593" s="79"/>
-      <c r="O593" s="79"/>
-      <c r="P593" s="79"/>
-      <c r="Q593" s="79"/>
-      <c r="R593" s="79"/>
-      <c r="S593" s="79"/>
-      <c r="T593" s="79"/>
-      <c r="U593" s="79"/>
-      <c r="V593" s="79"/>
-      <c r="W593" s="79"/>
-      <c r="X593" s="79"/>
-      <c r="Y593" s="79"/>
-      <c r="Z593" s="79"/>
+      <c r="A593" s="80"/>
+      <c r="B593" s="80"/>
+      <c r="C593" s="80"/>
+      <c r="D593" s="80"/>
+      <c r="E593" s="80"/>
+      <c r="F593" s="80"/>
+      <c r="G593" s="80"/>
+      <c r="H593" s="80"/>
+      <c r="I593" s="80"/>
+      <c r="J593" s="80"/>
+      <c r="K593" s="80"/>
+      <c r="L593" s="80"/>
+      <c r="M593" s="80"/>
+      <c r="N593" s="80"/>
+      <c r="O593" s="80"/>
+      <c r="P593" s="80"/>
+      <c r="Q593" s="80"/>
+      <c r="R593" s="80"/>
+      <c r="S593" s="80"/>
+      <c r="T593" s="80"/>
+      <c r="U593" s="80"/>
+      <c r="V593" s="80"/>
+      <c r="W593" s="80"/>
+      <c r="X593" s="80"/>
+      <c r="Y593" s="80"/>
+      <c r="Z593" s="80"/>
     </row>
     <row r="594" customHeight="1" spans="1:26">
-      <c r="A594" s="81"/>
-      <c r="B594" s="39"/>
-      <c r="C594" s="79"/>
-      <c r="D594" s="79"/>
-      <c r="E594" s="79"/>
-      <c r="F594" s="79"/>
-      <c r="G594" s="79"/>
-      <c r="H594" s="79"/>
-      <c r="I594" s="79"/>
-      <c r="J594" s="79"/>
-      <c r="K594" s="79"/>
-      <c r="L594" s="79"/>
-      <c r="M594" s="79"/>
-      <c r="N594" s="79"/>
-      <c r="O594" s="79"/>
-      <c r="P594" s="79"/>
-      <c r="Q594" s="79"/>
-      <c r="R594" s="79"/>
-      <c r="S594" s="79"/>
-      <c r="T594" s="79"/>
-      <c r="U594" s="79"/>
-      <c r="V594" s="79"/>
-      <c r="W594" s="79"/>
-      <c r="X594" s="79"/>
-      <c r="Y594" s="79"/>
-      <c r="Z594" s="79"/>
+      <c r="A594" s="82"/>
+      <c r="B594" s="40"/>
+      <c r="C594" s="80"/>
+      <c r="D594" s="80"/>
+      <c r="E594" s="80"/>
+      <c r="F594" s="80"/>
+      <c r="G594" s="80"/>
+      <c r="H594" s="80"/>
+      <c r="I594" s="80"/>
+      <c r="J594" s="80"/>
+      <c r="K594" s="80"/>
+      <c r="L594" s="80"/>
+      <c r="M594" s="80"/>
+      <c r="N594" s="80"/>
+      <c r="O594" s="80"/>
+      <c r="P594" s="80"/>
+      <c r="Q594" s="80"/>
+      <c r="R594" s="80"/>
+      <c r="S594" s="80"/>
+      <c r="T594" s="80"/>
+      <c r="U594" s="80"/>
+      <c r="V594" s="80"/>
+      <c r="W594" s="80"/>
+      <c r="X594" s="80"/>
+      <c r="Y594" s="80"/>
+      <c r="Z594" s="80"/>
     </row>
     <row r="595" customHeight="1" spans="1:26">
-      <c r="A595" s="81"/>
-      <c r="B595" s="82"/>
-      <c r="C595" s="79"/>
-      <c r="D595" s="79"/>
-      <c r="E595" s="79"/>
-      <c r="F595" s="79"/>
-      <c r="G595" s="79"/>
-      <c r="H595" s="79"/>
-      <c r="I595" s="79"/>
-      <c r="J595" s="79"/>
-      <c r="K595" s="79"/>
-      <c r="L595" s="79"/>
-      <c r="M595" s="79"/>
-      <c r="N595" s="79"/>
-      <c r="O595" s="79"/>
-      <c r="P595" s="79"/>
-      <c r="Q595" s="79"/>
-      <c r="R595" s="79"/>
-      <c r="S595" s="79"/>
-      <c r="T595" s="79"/>
-      <c r="U595" s="79"/>
-      <c r="V595" s="79"/>
-      <c r="W595" s="79"/>
-      <c r="X595" s="79"/>
-      <c r="Y595" s="79"/>
-      <c r="Z595" s="79"/>
+      <c r="A595" s="82"/>
+      <c r="B595" s="83"/>
+      <c r="C595" s="80"/>
+      <c r="D595" s="80"/>
+      <c r="E595" s="80"/>
+      <c r="F595" s="80"/>
+      <c r="G595" s="80"/>
+      <c r="H595" s="80"/>
+      <c r="I595" s="80"/>
+      <c r="J595" s="80"/>
+      <c r="K595" s="80"/>
+      <c r="L595" s="80"/>
+      <c r="M595" s="80"/>
+      <c r="N595" s="80"/>
+      <c r="O595" s="80"/>
+      <c r="P595" s="80"/>
+      <c r="Q595" s="80"/>
+      <c r="R595" s="80"/>
+      <c r="S595" s="80"/>
+      <c r="T595" s="80"/>
+      <c r="U595" s="80"/>
+      <c r="V595" s="80"/>
+      <c r="W595" s="80"/>
+      <c r="X595" s="80"/>
+      <c r="Y595" s="80"/>
+      <c r="Z595" s="80"/>
     </row>
     <row r="596" customHeight="1" spans="1:26">
-      <c r="A596" s="81"/>
-      <c r="B596" s="82"/>
-      <c r="C596" s="79"/>
-      <c r="D596" s="79"/>
-      <c r="E596" s="79"/>
-      <c r="F596" s="79"/>
-      <c r="G596" s="79"/>
-      <c r="H596" s="79"/>
-      <c r="I596" s="79"/>
-      <c r="J596" s="79"/>
-      <c r="K596" s="79"/>
-      <c r="L596" s="79"/>
-      <c r="M596" s="79"/>
-      <c r="N596" s="79"/>
-      <c r="O596" s="79"/>
-      <c r="P596" s="79"/>
-      <c r="Q596" s="79"/>
-      <c r="R596" s="79"/>
-      <c r="S596" s="79"/>
-      <c r="T596" s="79"/>
-      <c r="U596" s="79"/>
-      <c r="V596" s="79"/>
-      <c r="W596" s="79"/>
-      <c r="X596" s="79"/>
-      <c r="Y596" s="79"/>
-      <c r="Z596" s="79"/>
+      <c r="A596" s="82"/>
+      <c r="B596" s="83"/>
+      <c r="C596" s="80"/>
+      <c r="D596" s="80"/>
+      <c r="E596" s="80"/>
+      <c r="F596" s="80"/>
+      <c r="G596" s="80"/>
+      <c r="H596" s="80"/>
+      <c r="I596" s="80"/>
+      <c r="J596" s="80"/>
+      <c r="K596" s="80"/>
+      <c r="L596" s="80"/>
+      <c r="M596" s="80"/>
+      <c r="N596" s="80"/>
+      <c r="O596" s="80"/>
+      <c r="P596" s="80"/>
+      <c r="Q596" s="80"/>
+      <c r="R596" s="80"/>
+      <c r="S596" s="80"/>
+      <c r="T596" s="80"/>
+      <c r="U596" s="80"/>
+      <c r="V596" s="80"/>
+      <c r="W596" s="80"/>
+      <c r="X596" s="80"/>
+      <c r="Y596" s="80"/>
+      <c r="Z596" s="80"/>
     </row>
     <row r="597" customHeight="1" spans="1:26">
-      <c r="A597" s="79"/>
-      <c r="B597" s="79"/>
-      <c r="C597" s="79"/>
-      <c r="D597" s="79"/>
-      <c r="E597" s="79"/>
-      <c r="F597" s="79"/>
-      <c r="G597" s="79"/>
-      <c r="H597" s="79"/>
-      <c r="I597" s="79"/>
-      <c r="J597" s="79"/>
-      <c r="K597" s="79"/>
-      <c r="L597" s="79"/>
-      <c r="M597" s="79"/>
-      <c r="N597" s="79"/>
-      <c r="O597" s="79"/>
-      <c r="P597" s="79"/>
-      <c r="Q597" s="79"/>
-      <c r="R597" s="79"/>
-      <c r="S597" s="79"/>
-      <c r="T597" s="79"/>
-      <c r="U597" s="79"/>
-      <c r="V597" s="79"/>
-      <c r="W597" s="79"/>
-      <c r="X597" s="79"/>
-      <c r="Y597" s="79"/>
-      <c r="Z597" s="79"/>
+      <c r="A597" s="80"/>
+      <c r="B597" s="80"/>
+      <c r="C597" s="80"/>
+      <c r="D597" s="80"/>
+      <c r="E597" s="80"/>
+      <c r="F597" s="80"/>
+      <c r="G597" s="80"/>
+      <c r="H597" s="80"/>
+      <c r="I597" s="80"/>
+      <c r="J597" s="80"/>
+      <c r="K597" s="80"/>
+      <c r="L597" s="80"/>
+      <c r="M597" s="80"/>
+      <c r="N597" s="80"/>
+      <c r="O597" s="80"/>
+      <c r="P597" s="80"/>
+      <c r="Q597" s="80"/>
+      <c r="R597" s="80"/>
+      <c r="S597" s="80"/>
+      <c r="T597" s="80"/>
+      <c r="U597" s="80"/>
+      <c r="V597" s="80"/>
+      <c r="W597" s="80"/>
+      <c r="X597" s="80"/>
+      <c r="Y597" s="80"/>
+      <c r="Z597" s="80"/>
     </row>
     <row r="598" customHeight="1" spans="1:2">
-      <c r="A598" s="83"/>
+      <c r="A598" s="84"/>
       <c r="B598" s="22"/>
     </row>
     <row r="599" customHeight="1" spans="1:2">
-      <c r="A599" s="83"/>
+      <c r="A599" s="84"/>
       <c r="B599" s="22"/>
     </row>
     <row r="600" customHeight="1" spans="1:2">
-      <c r="A600" s="83"/>
+      <c r="A600" s="84"/>
       <c r="B600" s="24"/>
     </row>
     <row r="601" customHeight="1" spans="1:2">
-      <c r="A601" s="83"/>
+      <c r="A601" s="84"/>
       <c r="B601" s="24"/>
     </row>
     <row r="602" customHeight="1" spans="1:2">
-      <c r="A602" s="83"/>
+      <c r="A602" s="84"/>
       <c r="B602" s="22"/>
     </row>
     <row r="603" customHeight="1" spans="1:2">
-      <c r="A603" s="83"/>
+      <c r="A603" s="84"/>
       <c r="B603" s="24"/>
     </row>
     <row r="604" customHeight="1" spans="1:2">
-      <c r="A604" s="83"/>
+      <c r="A604" s="84"/>
       <c r="B604" s="24"/>
     </row>
     <row r="605" customHeight="1" spans="1:2">
-      <c r="A605" s="83"/>
-      <c r="B605" s="84"/>
+      <c r="A605" s="84"/>
+      <c r="B605" s="85"/>
     </row>
     <row r="606" customHeight="1" spans="1:2">
-      <c r="A606" s="83"/>
+      <c r="A606" s="84"/>
       <c r="B606" s="22"/>
     </row>
     <row r="607" customHeight="1" spans="1:2">
-      <c r="A607" s="83"/>
+      <c r="A607" s="84"/>
       <c r="B607" s="22"/>
     </row>
     <row r="608" customHeight="1" spans="1:2">
-      <c r="A608" s="83"/>
+      <c r="A608" s="84"/>
       <c r="B608" s="22"/>
     </row>
     <row r="609" customHeight="1" spans="1:2">
-      <c r="A609" s="83"/>
+      <c r="A609" s="84"/>
       <c r="B609" s="22"/>
     </row>
     <row r="610" customHeight="1" spans="1:2">
-      <c r="A610" s="83"/>
+      <c r="A610" s="84"/>
       <c r="B610" s="22"/>
     </row>
     <row r="611" customHeight="1" spans="1:2">
-      <c r="A611" s="83"/>
+      <c r="A611" s="84"/>
       <c r="B611" s="22"/>
     </row>
     <row r="612" customHeight="1" spans="1:2">
@@ -20889,28 +20890,28 @@
       <c r="B612" s="21"/>
     </row>
     <row r="613" customHeight="1" spans="1:2">
-      <c r="A613" s="83"/>
-      <c r="B613" s="85"/>
+      <c r="A613" s="84"/>
+      <c r="B613" s="86"/>
     </row>
     <row r="614" customHeight="1" spans="1:2">
-      <c r="A614" s="83"/>
-      <c r="B614" s="85"/>
+      <c r="A614" s="84"/>
+      <c r="B614" s="86"/>
     </row>
     <row r="615" customHeight="1" spans="1:2">
-      <c r="A615" s="83"/>
-      <c r="B615" s="85"/>
+      <c r="A615" s="84"/>
+      <c r="B615" s="86"/>
     </row>
     <row r="616" customHeight="1" spans="1:2">
-      <c r="A616" s="83"/>
-      <c r="B616" s="85"/>
+      <c r="A616" s="84"/>
+      <c r="B616" s="86"/>
     </row>
     <row r="617" customHeight="1" spans="1:2">
-      <c r="A617" s="83"/>
-      <c r="B617" s="85"/>
+      <c r="A617" s="84"/>
+      <c r="B617" s="86"/>
     </row>
     <row r="618" customHeight="1" spans="1:2">
-      <c r="A618" s="83"/>
-      <c r="B618" s="85"/>
+      <c r="A618" s="84"/>
+      <c r="B618" s="86"/>
     </row>
   </sheetData>
   <hyperlinks>
